--- a/wico/数据表结构.xlsx
+++ b/wico/数据表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13200" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13200" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="6" r:id="rId1"/>
@@ -13,9 +13,10 @@
     <sheet name="不良类型（上传，下载）" sheetId="3" r:id="rId4"/>
     <sheet name="生产记录（上传）" sheetId="5" r:id="rId5"/>
     <sheet name="不良记录（上传）" sheetId="4" r:id="rId6"/>
+    <sheet name="客户正式投诉" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$94</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'零件清单（下载）'!$B$3:$K$152</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'座椅配置（下载）'!$B$3:$E$677</definedName>
   </definedNames>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="1003">
   <si>
     <t>SLIDE ADJR OUT L,FR SEAT</t>
   </si>
@@ -3344,6 +3345,90 @@
     <t>升降打啃</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>端盖破损</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换端盖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2HY</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-4739242-2</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-02-16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2LQ</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComplainDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarModel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WicoPartNumber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NgInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLIDE ADJR INN L,FR SEAT（8WAY）</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>内侧滑轨铆钉漏铆接</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-06-20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SLIDE ADJR INN L,FR SEAT（8WAY） </t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动座椅在最前端滑不动</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动支架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降打啃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换电机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3356,7 +3441,7 @@
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3532,6 +3617,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4213,7 +4305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4281,6 +4373,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="375">
@@ -4693,7 +4800,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4754,7 +4861,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4815,7 +4922,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4871,7 +4978,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4929,7 +5036,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4987,7 +5094,7 @@
         <xdr:cNvPr id="13" name="TextBox 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5050,7 +5157,7 @@
         <xdr:cNvPr id="16" name="直接箭头连接符 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5103,7 +5210,7 @@
         <xdr:cNvPr id="21" name="图片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5164,7 +5271,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5225,7 +5332,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5278,7 +5385,7 @@
         <xdr:cNvPr id="27" name="直接箭头连接符 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5331,7 +5438,7 @@
         <xdr:cNvPr id="29" name="直接箭头连接符 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5384,7 +5491,7 @@
         <xdr:cNvPr id="31" name="直接箭头连接符 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5437,7 +5544,7 @@
         <xdr:cNvPr id="33" name="直接箭头连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5490,7 +5597,7 @@
         <xdr:cNvPr id="36" name="直接箭头连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5538,7 +5645,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20547,10 +20654,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:D29"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20807,14 +20914,14 @@
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="4" t="s">
-        <v>1</v>
+      <c r="B18" s="5" t="s">
+        <v>984</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>649</v>
+        <v>982</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -20827,8 +20934,8 @@
       <c r="C19" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>973</v>
+      <c r="D19" s="7" t="s">
+        <v>971</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -20839,10 +20946,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>652</v>
+        <v>973</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
@@ -20853,10 +20960,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>685</v>
+        <v>667</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>652</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -20864,13 +20971,13 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>679</v>
+        <v>1</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>685</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -20878,13 +20985,13 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>704</v>
+        <v>29</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>679</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -20898,7 +21005,7 @@
         <v>703</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
@@ -20909,10 +21016,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>671</v>
+        <v>703</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>652</v>
+        <v>705</v>
       </c>
       <c r="E25" s="5">
         <v>0</v>
@@ -20923,24 +21030,24 @@
         <v>1</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>959</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>662</v>
       </c>
       <c r="E27" s="5">
         <v>0</v>
@@ -20953,8 +21060,8 @@
       <c r="C28" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>42</v>
+      <c r="D28" s="9" t="s">
+        <v>662</v>
       </c>
       <c r="E28" s="5">
         <v>0</v>
@@ -20967,8 +21074,8 @@
       <c r="C29" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>652</v>
+      <c r="D29" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
@@ -20978,11 +21085,11 @@
       <c r="B30" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>662</v>
+      <c r="C30" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>652</v>
       </c>
       <c r="E30" s="5">
         <v>0</v>
@@ -20995,8 +21102,8 @@
       <c r="C31" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>652</v>
+      <c r="D31" s="9" t="s">
+        <v>662</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
@@ -21007,10 +21114,10 @@
         <v>659</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>668</v>
+        <v>640</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="E32" s="5">
         <v>0</v>
@@ -21021,10 +21128,10 @@
         <v>659</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>645</v>
+        <v>668</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
@@ -21035,10 +21142,10 @@
         <v>659</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>731</v>
+        <v>645</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>730</v>
+        <v>685</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
@@ -21049,7 +21156,7 @@
         <v>659</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>730</v>
@@ -21062,11 +21169,11 @@
       <c r="B36" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>679</v>
+      <c r="C36" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>730</v>
       </c>
       <c r="E36" s="5">
         <v>0</v>
@@ -21077,10 +21184,10 @@
         <v>659</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>703</v>
+        <v>982</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>704</v>
+        <v>983</v>
       </c>
       <c r="E37" s="5">
         <v>0</v>
@@ -21090,11 +21197,11 @@
       <c r="B38" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>705</v>
+      <c r="C38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>679</v>
       </c>
       <c r="E38" s="5">
         <v>0</v>
@@ -21105,10 +21212,10 @@
         <v>659</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>671</v>
+        <v>703</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>652</v>
+        <v>704</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
@@ -21119,38 +21226,38 @@
         <v>659</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>959</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D42" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E40" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>978</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="E41" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>979</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>648</v>
       </c>
       <c r="E42" s="5">
         <v>0</v>
@@ -21161,7 +21268,7 @@
         <v>647</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>648</v>
@@ -21175,10 +21282,10 @@
         <v>647</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
       <c r="E44" s="5">
         <v>0</v>
@@ -21189,10 +21296,10 @@
         <v>647</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>981</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>670</v>
+        <v>980</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>648</v>
       </c>
       <c r="E45" s="5">
         <v>0</v>
@@ -21205,8 +21312,8 @@
       <c r="C46" s="7" t="s">
         <v>981</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>699</v>
+      <c r="D46" s="7" t="s">
+        <v>666</v>
       </c>
       <c r="E46" s="5">
         <v>0</v>
@@ -21217,10 +21324,10 @@
         <v>647</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>666</v>
+        <v>981</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>670</v>
       </c>
       <c r="E47" s="5">
         <v>0</v>
@@ -21231,10 +21338,10 @@
         <v>647</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>677</v>
+        <v>981</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>699</v>
       </c>
       <c r="E48" s="5">
         <v>0</v>
@@ -21242,43 +21349,43 @@
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="E49" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="22" t="s">
-        <v>647</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>975</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>976</v>
-      </c>
-      <c r="E50" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="B51" s="22" t="s">
-        <v>647</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>975</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>977</v>
-      </c>
-      <c r="E51" s="23">
+      <c r="D51" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="E51" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21287,52 +21394,52 @@
         <v>647</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>645</v>
+        <v>676</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="E52" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="E53" s="5">
+      <c r="B53" s="22" t="s">
+        <v>647</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>975</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>976</v>
+      </c>
+      <c r="E53" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="E54" s="5">
+      <c r="B54" s="22" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>975</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>977</v>
+      </c>
+      <c r="E54" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="7" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>650</v>
+        <v>685</v>
       </c>
       <c r="E55" s="5">
         <v>0</v>
@@ -21342,8 +21449,8 @@
       <c r="B56" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>720</v>
+      <c r="C56" s="5" t="s">
+        <v>660</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>650</v>
@@ -21356,8 +21463,8 @@
       <c r="B57" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>738</v>
+      <c r="C57" s="5" t="s">
+        <v>725</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>650</v>
@@ -21371,7 +21478,7 @@
         <v>651</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>722</v>
+        <v>663</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>650</v>
@@ -21382,13 +21489,13 @@
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="7" t="s">
-        <v>723</v>
+        <v>651</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>681</v>
+        <v>720</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>724</v>
+        <v>650</v>
       </c>
       <c r="E59" s="5">
         <v>0</v>
@@ -21396,13 +21503,13 @@
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="7" t="s">
-        <v>680</v>
+        <v>651</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>682</v>
+        <v>738</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>724</v>
+        <v>650</v>
       </c>
       <c r="E60" s="5">
         <v>0</v>
@@ -21410,13 +21517,13 @@
     </row>
     <row r="61" spans="2:5">
       <c r="B61" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>725</v>
+        <v>651</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>722</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>724</v>
+        <v>650</v>
       </c>
       <c r="E61" s="5">
         <v>0</v>
@@ -21424,10 +21531,10 @@
     </row>
     <row r="62" spans="2:5">
       <c r="B62" s="7" t="s">
-        <v>680</v>
+        <v>723</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>724</v>
@@ -21441,7 +21548,7 @@
         <v>680</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>724</v>
@@ -21452,10 +21559,10 @@
     </row>
     <row r="64" spans="2:5">
       <c r="B64" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>720</v>
+        <v>723</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>725</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>724</v>
@@ -21469,7 +21576,7 @@
         <v>680</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>721</v>
+        <v>683</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>724</v>
@@ -21483,7 +21590,7 @@
         <v>680</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>722</v>
+        <v>684</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>724</v>
@@ -21494,13 +21601,13 @@
     </row>
     <row r="67" spans="2:5">
       <c r="B67" s="7" t="s">
-        <v>644</v>
+        <v>680</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>645</v>
+        <v>720</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>646</v>
+        <v>724</v>
       </c>
       <c r="E67" s="5">
         <v>0</v>
@@ -21508,13 +21615,13 @@
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="7" t="s">
-        <v>644</v>
+        <v>680</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>672</v>
+        <v>721</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>673</v>
+        <v>724</v>
       </c>
       <c r="E68" s="5">
         <v>0</v>
@@ -21522,13 +21629,13 @@
     </row>
     <row r="69" spans="2:5">
       <c r="B69" s="7" t="s">
-        <v>644</v>
+        <v>680</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>672</v>
+        <v>722</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>674</v>
+        <v>724</v>
       </c>
       <c r="E69" s="5">
         <v>0</v>
@@ -21539,10 +21646,10 @@
         <v>644</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>726</v>
+        <v>645</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>673</v>
+        <v>646</v>
       </c>
       <c r="E70" s="5">
         <v>0</v>
@@ -21553,7 +21660,7 @@
         <v>644</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>727</v>
+        <v>672</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>673</v>
@@ -21564,13 +21671,13 @@
     </row>
     <row r="72" spans="2:5">
       <c r="B72" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>660</v>
+        <v>644</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>672</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>655</v>
+        <v>674</v>
       </c>
       <c r="E72" s="5">
         <v>0</v>
@@ -21578,13 +21685,13 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>660</v>
+        <v>644</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>726</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>700</v>
+        <v>673</v>
       </c>
       <c r="E73" s="5">
         <v>0</v>
@@ -21592,13 +21699,13 @@
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>656</v>
+        <v>644</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>727</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="E74" s="5">
         <v>0</v>
@@ -21609,10 +21716,10 @@
         <v>654</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E75" s="5">
         <v>0</v>
@@ -21622,11 +21729,11 @@
       <c r="B76" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>665</v>
+      <c r="C76" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>700</v>
       </c>
       <c r="E76" s="5">
         <v>0</v>
@@ -21634,13 +21741,13 @@
     </row>
     <row r="77" spans="2:5">
       <c r="B77" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>697</v>
+        <v>654</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>657</v>
       </c>
       <c r="E77" s="5">
         <v>0</v>
@@ -21648,13 +21755,13 @@
     </row>
     <row r="78" spans="2:5">
       <c r="B78" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>697</v>
+        <v>654</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>658</v>
       </c>
       <c r="E78" s="5">
         <v>0</v>
@@ -21662,13 +21769,13 @@
     </row>
     <row r="79" spans="2:5">
       <c r="B79" s="7" t="s">
-        <v>712</v>
+        <v>654</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>701</v>
+        <v>649</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>713</v>
+        <v>665</v>
       </c>
       <c r="E79" s="5">
         <v>0</v>
@@ -21676,13 +21783,13 @@
     </row>
     <row r="80" spans="2:5">
       <c r="B80" s="7" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="E80" s="5">
         <v>0</v>
@@ -21690,13 +21797,13 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="7" t="s">
-        <v>958</v>
+        <v>693</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="E81" s="5">
         <v>0</v>
@@ -21704,13 +21811,13 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>707</v>
+        <v>712</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>701</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="E82" s="5">
         <v>0</v>
@@ -21718,13 +21825,13 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>707</v>
+        <v>702</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>703</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E83" s="5">
         <v>0</v>
@@ -21732,13 +21839,13 @@
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="7" t="s">
-        <v>709</v>
+        <v>958</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="E84" s="5">
         <v>0</v>
@@ -21746,13 +21853,13 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>716</v>
+        <v>710</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>707</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="E85" s="5">
         <v>0</v>
@@ -21760,13 +21867,13 @@
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>719</v>
+        <v>708</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>707</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="E86" s="5">
         <v>0</v>
@@ -21774,13 +21881,13 @@
     </row>
     <row r="87" spans="2:5">
       <c r="B87" s="7" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="E87" s="5">
         <v>0</v>
@@ -21788,13 +21895,13 @@
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="7" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="E88" s="5">
         <v>0</v>
@@ -21802,13 +21909,13 @@
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="7" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="E89" s="5">
         <v>0</v>
@@ -21816,26 +21923,68 @@
     </row>
     <row r="90" spans="2:5">
       <c r="B90" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="E90" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C91" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="E92" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D93" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="E90" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5">
-      <c r="B91" s="7"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="5"/>
+      <c r="E93" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="7"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:E91"/>
+  <autoFilter ref="B3:E94"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21976,8 +22125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22147,7 +22296,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" ht="27">
       <c r="B4" s="20" t="s">
         <v>964</v>
       </c>
@@ -22332,4 +22481,95 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="37.875" customWidth="1"/>
+    <col min="5" max="5" width="28.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="24" t="s">
+        <v>985</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="25" t="s">
+        <v>990</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="26" t="s">
+        <v>988</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>989</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>987</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>995</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="26" t="s">
+        <v>997</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>986</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>987</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>998</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wico/数据表结构.xlsx
+++ b/wico/数据表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13200" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13200" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="客户正式投诉" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$95</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'零件清单（下载）'!$B$3:$K$152</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'座椅配置（下载）'!$B$3:$E$677</definedName>
   </definedNames>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3768" uniqueCount="1013">
   <si>
     <t>SLIDE ADJR OUT L,FR SEAT</t>
   </si>
@@ -3427,6 +3427,46 @@
   </si>
   <si>
     <t>更换电机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调角器电机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码破损/脏污</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动异音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作动异音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换调角器电机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机声音过大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法作动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁手柄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹簧松动/脱落</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换弹簧</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6051,7 +6091,7 @@
   <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20654,10 +20694,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21450,7 +21490,7 @@
         <v>651</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>660</v>
+        <v>1005</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>650</v>
@@ -21811,13 +21851,13 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="7" t="s">
-        <v>712</v>
+        <v>1010</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>701</v>
+        <v>1011</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>713</v>
+        <v>1012</v>
       </c>
       <c r="E82" s="5">
         <v>0</v>
@@ -21825,13 +21865,13 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="7" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="E83" s="5">
         <v>0</v>
@@ -21839,13 +21879,13 @@
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="7" t="s">
-        <v>958</v>
+        <v>702</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>703</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E84" s="5">
         <v>0</v>
@@ -21853,13 +21893,13 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>707</v>
+        <v>958</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>703</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="E85" s="5">
         <v>0</v>
@@ -21867,13 +21907,13 @@
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>707</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="E86" s="5">
         <v>0</v>
@@ -21881,13 +21921,13 @@
     </row>
     <row r="87" spans="2:5">
       <c r="B87" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>714</v>
+        <v>708</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>707</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E87" s="5">
         <v>0</v>
@@ -21895,13 +21935,13 @@
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="7" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E88" s="5">
         <v>0</v>
@@ -21912,7 +21952,7 @@
         <v>717</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>718</v>
@@ -21926,10 +21966,10 @@
         <v>717</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="E90" s="5">
         <v>0</v>
@@ -21937,13 +21977,13 @@
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="7" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E91" s="5">
         <v>0</v>
@@ -21954,7 +21994,7 @@
         <v>732</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>733</v>
@@ -21968,7 +22008,7 @@
         <v>732</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>733</v>
@@ -21978,13 +22018,77 @@
       </c>
     </row>
     <row r="94" spans="2:5">
-      <c r="B94" s="7"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="5"/>
+      <c r="B94" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="E94" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E95" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E96" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E97" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E98" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:E94"/>
+  <autoFilter ref="B3:E95"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wico/数据表结构.xlsx
+++ b/wico/数据表结构.xlsx
@@ -16,7 +16,7 @@
     <sheet name="客户正式投诉" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'零件清单（下载）'!$B$3:$K$152</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'座椅配置（下载）'!$B$3:$E$677</definedName>
   </definedNames>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3768" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="1022">
   <si>
     <t>SLIDE ADJR OUT L,FR SEAT</t>
   </si>
@@ -2184,18 +2184,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>电动-前排-右席座椅（英国8WAY带记忆）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动-前排-右席座椅（英国8WAY无记忆）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动-前排-左席座椅（英国4WAY无记忆）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PartPicUrl</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3467,6 +3455,51 @@
   </si>
   <si>
     <t>更换弹簧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法作动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节滑动电机支架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撬护架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动异音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动滑轨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英国电动-前排-右席座椅（8WAY带记忆）</t>
+  </si>
+  <si>
+    <t>英国电动-前排-右席座椅（8WAY无记忆）</t>
+  </si>
+  <si>
+    <t>英国电动-前排-左席座椅（4WAY无记忆）</t>
+  </si>
+  <si>
+    <t>条码脏污/破损，无法识别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后升降无法作动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除焊渣</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3666,7 +3699,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3698,6 +3731,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4345,7 +4384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4428,6 +4467,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="375">
@@ -4840,7 +4885,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4901,7 +4946,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4962,7 +5007,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5018,7 +5063,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5076,7 +5121,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5134,7 +5179,7 @@
         <xdr:cNvPr id="13" name="TextBox 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5197,7 +5242,7 @@
         <xdr:cNvPr id="16" name="直接箭头连接符 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5250,7 +5295,7 @@
         <xdr:cNvPr id="21" name="图片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5311,7 +5356,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5372,7 +5417,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5425,7 +5470,7 @@
         <xdr:cNvPr id="27" name="直接箭头连接符 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5478,7 +5523,7 @@
         <xdr:cNvPr id="29" name="直接箭头连接符 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5531,7 +5576,7 @@
         <xdr:cNvPr id="31" name="直接箭头连接符 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5584,7 +5629,7 @@
         <xdr:cNvPr id="33" name="直接箭头连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5637,7 +5682,7 @@
         <xdr:cNvPr id="36" name="直接箭头连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5685,7 +5730,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6194,7 +6239,7 @@
         <v>32</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>33</v>
@@ -6226,10 +6271,10 @@
         <v>351</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>65</v>
@@ -6257,10 +6302,10 @@
         <v>64</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>65</v>
@@ -6288,10 +6333,10 @@
         <v>68</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>65</v>
@@ -6319,10 +6364,10 @@
         <v>71</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>2</v>
@@ -6350,10 +6395,10 @@
         <v>319</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>65</v>
@@ -6381,7 +6426,7 @@
         <v>338</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>339</v>
@@ -6412,7 +6457,7 @@
         <v>338</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>339</v>
@@ -6443,7 +6488,7 @@
         <v>338</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>339</v>
@@ -6474,7 +6519,7 @@
         <v>338</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>339</v>
@@ -6505,10 +6550,10 @@
         <v>364</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>2</v>
@@ -6536,10 +6581,10 @@
         <v>103</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>65</v>
@@ -6567,10 +6612,10 @@
         <v>367</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>65</v>
@@ -6598,7 +6643,7 @@
         <v>430</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>431</v>
@@ -6629,10 +6674,10 @@
         <v>322</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>2</v>
@@ -6660,10 +6705,10 @@
         <v>325</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>2</v>
@@ -6691,7 +6736,7 @@
         <v>329</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>330</v>
@@ -6722,7 +6767,7 @@
         <v>329</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>330</v>
@@ -6753,7 +6798,7 @@
         <v>329</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>330</v>
@@ -6784,7 +6829,7 @@
         <v>329</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>330</v>
@@ -6815,7 +6860,7 @@
         <v>106</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>80</v>
@@ -6846,10 +6891,10 @@
         <v>109</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>65</v>
@@ -6877,10 +6922,10 @@
         <v>112</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>65</v>
@@ -6908,7 +6953,7 @@
         <v>174</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>116</v>
@@ -6920,7 +6965,7 @@
         <v>58109</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K26" s="7">
         <v>0</v>
@@ -6943,7 +6988,7 @@
         <v>174</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>116</v>
@@ -6955,7 +7000,7 @@
         <v>58109</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K27" s="7">
         <v>0</v>
@@ -6978,7 +7023,7 @@
         <v>115</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>116</v>
@@ -6988,7 +7033,7 @@
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K28" s="7">
         <v>0</v>
@@ -7011,7 +7056,7 @@
         <v>179</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>116</v>
@@ -7023,7 +7068,7 @@
         <v>58109</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K29" s="7">
         <v>0</v>
@@ -7046,7 +7091,7 @@
         <v>119</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>116</v>
@@ -7056,7 +7101,7 @@
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K30" s="7">
         <v>0</v>
@@ -7079,7 +7124,7 @@
         <v>269</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>270</v>
@@ -7110,7 +7155,7 @@
         <v>273</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>270</v>
@@ -7141,7 +7186,7 @@
         <v>276</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>277</v>
@@ -7172,7 +7217,7 @@
         <v>269</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>270</v>
@@ -7203,7 +7248,7 @@
         <v>276</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>277</v>
@@ -7234,7 +7279,7 @@
         <v>269</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>270</v>
@@ -7244,7 +7289,7 @@
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="19" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="K36" s="7">
         <v>0</v>
@@ -7267,7 +7312,7 @@
         <v>273</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>270</v>
@@ -7277,7 +7322,7 @@
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="19" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="K37" s="7">
         <v>0</v>
@@ -7300,7 +7345,7 @@
         <v>288</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>270</v>
@@ -7310,7 +7355,7 @@
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="19" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="K38" s="7">
         <v>0</v>
@@ -7333,7 +7378,7 @@
         <v>291</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>270</v>
@@ -7343,7 +7388,7 @@
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="19" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="K39" s="7">
         <v>0</v>
@@ -7366,7 +7411,7 @@
         <v>305</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>306</v>
@@ -7397,7 +7442,7 @@
         <v>309</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>306</v>
@@ -7428,7 +7473,7 @@
         <v>415</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>306</v>
@@ -7459,7 +7504,7 @@
         <v>415</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>306</v>
@@ -7490,7 +7535,7 @@
         <v>420</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>306</v>
@@ -7521,7 +7566,7 @@
         <v>420</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>306</v>
@@ -7552,7 +7597,7 @@
         <v>144</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>80</v>
@@ -7564,7 +7609,7 @@
         <v>58104</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K46" s="7">
         <v>0</v>
@@ -7587,7 +7632,7 @@
         <v>147</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>80</v>
@@ -7599,7 +7644,7 @@
         <v>58104</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K47" s="7">
         <v>0</v>
@@ -7622,7 +7667,7 @@
         <v>150</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>80</v>
@@ -7634,7 +7679,7 @@
         <v>58104</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K48" s="7">
         <v>0</v>
@@ -7657,7 +7702,7 @@
         <v>153</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>80</v>
@@ -7669,7 +7714,7 @@
         <v>58104</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K49" s="7">
         <v>0</v>
@@ -7692,7 +7737,7 @@
         <v>144</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>80</v>
@@ -7704,7 +7749,7 @@
         <v>58112</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K50" s="7">
         <v>0</v>
@@ -7727,7 +7772,7 @@
         <v>144</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>80</v>
@@ -7736,10 +7781,10 @@
         <v>2</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K51" s="7">
         <v>0</v>
@@ -7762,7 +7807,7 @@
         <v>147</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>80</v>
@@ -7774,7 +7819,7 @@
         <v>58112</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K52" s="7">
         <v>0</v>
@@ -7797,7 +7842,7 @@
         <v>147</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>80</v>
@@ -7806,10 +7851,10 @@
         <v>2</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K53" s="7">
         <v>0</v>
@@ -7832,7 +7877,7 @@
         <v>150</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>80</v>
@@ -7844,7 +7889,7 @@
         <v>58112</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K54" s="7">
         <v>0</v>
@@ -7867,7 +7912,7 @@
         <v>150</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>80</v>
@@ -7876,10 +7921,10 @@
         <v>2</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K55" s="7">
         <v>0</v>
@@ -7902,7 +7947,7 @@
         <v>153</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>80</v>
@@ -7914,7 +7959,7 @@
         <v>58112</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K56" s="7">
         <v>0</v>
@@ -7937,7 +7982,7 @@
         <v>153</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>80</v>
@@ -7946,10 +7991,10 @@
         <v>2</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K57" s="7">
         <v>0</v>
@@ -7969,10 +8014,10 @@
         <v>162</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>80</v>
@@ -7984,7 +8029,7 @@
         <v>52111</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K58" s="7">
         <v>0</v>
@@ -8007,7 +8052,7 @@
         <v>165</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>80</v>
@@ -8019,7 +8064,7 @@
         <v>52111</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K59" s="7">
         <v>0</v>
@@ -8042,7 +8087,7 @@
         <v>79</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>80</v>
@@ -8052,7 +8097,7 @@
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K60" s="7">
         <v>0</v>
@@ -8075,7 +8120,7 @@
         <v>83</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>80</v>
@@ -8085,7 +8130,7 @@
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K61" s="7">
         <v>0</v>
@@ -8108,7 +8153,7 @@
         <v>86</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>80</v>
@@ -8118,7 +8163,7 @@
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K62" s="7">
         <v>0</v>
@@ -8141,7 +8186,7 @@
         <v>89</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>80</v>
@@ -8151,7 +8196,7 @@
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K63" s="7">
         <v>0</v>
@@ -8174,7 +8219,7 @@
         <v>168</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>80</v>
@@ -8186,7 +8231,7 @@
         <v>58111</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K64" s="7">
         <v>0</v>
@@ -8209,7 +8254,7 @@
         <v>171</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>80</v>
@@ -8221,7 +8266,7 @@
         <v>58111</v>
       </c>
       <c r="J65" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K65" s="7">
         <v>0</v>
@@ -8244,7 +8289,7 @@
         <v>92</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>80</v>
@@ -8254,7 +8299,7 @@
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K66" s="7">
         <v>0</v>
@@ -8277,7 +8322,7 @@
         <v>95</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>80</v>
@@ -8287,7 +8332,7 @@
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K67" s="7">
         <v>0</v>
@@ -8310,7 +8355,7 @@
         <v>98</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>80</v>
@@ -8320,7 +8365,7 @@
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K68" s="7">
         <v>0</v>
@@ -8337,13 +8382,13 @@
         <v>99</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>100</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>80</v>
@@ -8353,7 +8398,7 @@
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K69" s="7">
         <v>0</v>
@@ -8376,7 +8421,7 @@
         <v>434</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>431</v>
@@ -8407,7 +8452,7 @@
         <v>434</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>431</v>
@@ -8438,7 +8483,7 @@
         <v>386</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>387</v>
@@ -8469,7 +8514,7 @@
         <v>263</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>264</v>
@@ -8481,7 +8526,7 @@
         <v>58105</v>
       </c>
       <c r="J73" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K73" s="7">
         <v>0</v>
@@ -8504,10 +8549,10 @@
         <v>382</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>65</v>
@@ -8535,7 +8580,7 @@
         <v>294</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>270</v>
@@ -8566,7 +8611,7 @@
         <v>294</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>270</v>
@@ -8597,7 +8642,7 @@
         <v>439</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>431</v>
@@ -8628,7 +8673,7 @@
         <v>390</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>391</v>
@@ -8659,7 +8704,7 @@
         <v>390</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>391</v>
@@ -8690,7 +8735,7 @@
         <v>430</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>431</v>
@@ -8721,7 +8766,7 @@
         <v>343</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>264</v>
@@ -8752,7 +8797,7 @@
         <v>343</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>264</v>
@@ -8783,7 +8828,7 @@
         <v>136</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>137</v>
@@ -8793,7 +8838,7 @@
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="19" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="K83" s="7">
         <v>0</v>
@@ -8816,7 +8861,7 @@
         <v>136</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>137</v>
@@ -8826,7 +8871,7 @@
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="19" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="K84" s="7">
         <v>0</v>
@@ -8849,7 +8894,7 @@
         <v>300</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>301</v>
@@ -8880,7 +8925,7 @@
         <v>426</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>301</v>
@@ -8911,10 +8956,10 @@
         <v>126</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>2</v>
@@ -8942,7 +8987,7 @@
         <v>129</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>130</v>
@@ -8973,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>1</v>
@@ -8985,7 +9030,7 @@
         <v>58108</v>
       </c>
       <c r="J89" s="19" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="K89" s="7">
         <v>0</v>
@@ -9008,7 +9053,7 @@
         <v>7</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>1</v>
@@ -9020,7 +9065,7 @@
         <v>58108</v>
       </c>
       <c r="J90" s="19" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="K90" s="7">
         <v>0</v>
@@ -9043,7 +9088,7 @@
         <v>10</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>1</v>
@@ -9055,7 +9100,7 @@
         <v>58108</v>
       </c>
       <c r="J91" s="19" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="K91" s="7">
         <v>0</v>
@@ -9078,7 +9123,7 @@
         <v>13</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>1</v>
@@ -9090,7 +9135,7 @@
         <v>58108</v>
       </c>
       <c r="J92" s="19" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="K92" s="7">
         <v>0</v>
@@ -9113,7 +9158,7 @@
         <v>3</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>1</v>
@@ -9125,7 +9170,7 @@
         <v>58108</v>
       </c>
       <c r="J93" s="19" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="K93" s="7">
         <v>0</v>
@@ -9148,7 +9193,7 @@
         <v>18</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>1</v>
@@ -9160,7 +9205,7 @@
         <v>58108</v>
       </c>
       <c r="J94" s="19" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="K94" s="7">
         <v>0</v>
@@ -9183,7 +9228,7 @@
         <v>21</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>1</v>
@@ -9195,7 +9240,7 @@
         <v>58108</v>
       </c>
       <c r="J95" s="19" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="K95" s="7">
         <v>0</v>
@@ -9218,7 +9263,7 @@
         <v>24</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>1</v>
@@ -9230,7 +9275,7 @@
         <v>58108</v>
       </c>
       <c r="J96" s="19" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="K96" s="7">
         <v>0</v>
@@ -9253,7 +9298,7 @@
         <v>372</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>373</v>
@@ -9284,7 +9329,7 @@
         <v>343</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>264</v>
@@ -9315,7 +9360,7 @@
         <v>343</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>264</v>
@@ -9346,7 +9391,7 @@
         <v>129</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>130</v>
@@ -9377,7 +9422,7 @@
         <v>136</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>137</v>
@@ -9387,7 +9432,7 @@
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="19" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="K101" s="7">
         <v>0</v>
@@ -9410,7 +9455,7 @@
         <v>140</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>137</v>
@@ -9420,7 +9465,7 @@
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="19" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="K102" s="7">
         <v>0</v>
@@ -9443,7 +9488,7 @@
         <v>129</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>130</v>
@@ -9474,7 +9519,7 @@
         <v>74</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>75</v>
@@ -9505,7 +9550,7 @@
         <v>122</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>123</v>
@@ -9515,7 +9560,7 @@
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K105" s="7">
         <v>0</v>
@@ -9538,7 +9583,7 @@
         <v>122</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>123</v>
@@ -9548,7 +9593,7 @@
       </c>
       <c r="I106" s="7"/>
       <c r="J106" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K106" s="7">
         <v>0</v>
@@ -9571,7 +9616,7 @@
         <v>182</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>183</v>
@@ -9583,7 +9628,7 @@
         <v>58103</v>
       </c>
       <c r="J107" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K107" s="7">
         <v>0</v>
@@ -9606,7 +9651,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="19" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>183</v>
@@ -9618,7 +9663,7 @@
         <v>58103</v>
       </c>
       <c r="J108" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K108" s="7">
         <v>0</v>
@@ -9641,7 +9686,7 @@
         <v>188</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>183</v>
@@ -9653,7 +9698,7 @@
         <v>58103</v>
       </c>
       <c r="J109" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K109" s="7">
         <v>0</v>
@@ -9676,7 +9721,7 @@
         <v>3</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>183</v>
@@ -9688,7 +9733,7 @@
         <v>58103</v>
       </c>
       <c r="J110" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K110" s="7">
         <v>0</v>
@@ -9711,7 +9756,7 @@
         <v>182</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>183</v>
@@ -9720,10 +9765,10 @@
         <v>2</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="J111" s="19" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="K111" s="7">
         <v>0</v>
@@ -9746,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>183</v>
@@ -9755,10 +9800,10 @@
         <v>2</v>
       </c>
       <c r="I112" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="J112" s="19" t="s">
         <v>868</v>
-      </c>
-      <c r="J112" s="19" t="s">
-        <v>871</v>
       </c>
       <c r="K112" s="7">
         <v>0</v>
@@ -9781,7 +9826,7 @@
         <v>197</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>183</v>
@@ -9790,10 +9835,10 @@
         <v>2</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="J113" s="19" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="K113" s="7">
         <v>0</v>
@@ -9816,7 +9861,7 @@
         <v>3</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>183</v>
@@ -9825,10 +9870,10 @@
         <v>2</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="J114" s="19" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="K114" s="7">
         <v>0</v>
@@ -9851,7 +9896,7 @@
         <v>188</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>183</v>
@@ -9860,10 +9905,10 @@
         <v>2</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="J115" s="19" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="K115" s="7">
         <v>0</v>
@@ -9886,7 +9931,7 @@
         <v>204</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>183</v>
@@ -9895,10 +9940,10 @@
         <v>2</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="J116" s="19" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="K116" s="7">
         <v>0</v>
@@ -9921,7 +9966,7 @@
         <v>207</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>183</v>
@@ -9933,7 +9978,7 @@
         <v>58103</v>
       </c>
       <c r="J117" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K117" s="7">
         <v>0</v>
@@ -9956,7 +10001,7 @@
         <v>210</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>183</v>
@@ -9968,7 +10013,7 @@
         <v>58103</v>
       </c>
       <c r="J118" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K118" s="7">
         <v>0</v>
@@ -9991,7 +10036,7 @@
         <v>213</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>183</v>
@@ -10003,7 +10048,7 @@
         <v>58103</v>
       </c>
       <c r="J119" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K119" s="7">
         <v>0</v>
@@ -10026,7 +10071,7 @@
         <v>216</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>183</v>
@@ -10038,7 +10083,7 @@
         <v>58103</v>
       </c>
       <c r="J120" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K120" s="7">
         <v>0</v>
@@ -10061,7 +10106,7 @@
         <v>219</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>183</v>
@@ -10073,7 +10118,7 @@
         <v>58103</v>
       </c>
       <c r="J121" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K121" s="7">
         <v>0</v>
@@ -10096,7 +10141,7 @@
         <v>222</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>183</v>
@@ -10108,7 +10153,7 @@
         <v>58103</v>
       </c>
       <c r="J122" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K122" s="7">
         <v>0</v>
@@ -10125,13 +10170,13 @@
         <v>395</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>396</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>116</v>
@@ -10141,7 +10186,7 @@
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="19" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="K123" s="7">
         <v>0</v>
@@ -10158,13 +10203,13 @@
         <v>223</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>224</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="G124" s="7" t="s">
         <v>116</v>
@@ -10176,7 +10221,7 @@
         <v>58109</v>
       </c>
       <c r="J124" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K124" s="7">
         <v>0</v>
@@ -10193,13 +10238,13 @@
         <v>397</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>396</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>116</v>
@@ -10209,7 +10254,7 @@
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="19" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="K125" s="7">
         <v>0</v>
@@ -10226,13 +10271,13 @@
         <v>225</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>224</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>116</v>
@@ -10244,7 +10289,7 @@
         <v>58109</v>
       </c>
       <c r="J126" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K126" s="7">
         <v>0</v>
@@ -10261,13 +10306,13 @@
         <v>398</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>399</v>
       </c>
       <c r="F127" s="19" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G127" s="7" t="s">
         <v>116</v>
@@ -10277,7 +10322,7 @@
       </c>
       <c r="I127" s="7"/>
       <c r="J127" s="19" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="K127" s="7">
         <v>0</v>
@@ -10294,13 +10339,13 @@
         <v>226</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E128" s="7" t="s">
         <v>227</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G128" s="7" t="s">
         <v>116</v>
@@ -10312,7 +10357,7 @@
         <v>58109</v>
       </c>
       <c r="J128" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K128" s="7">
         <v>0</v>
@@ -10329,13 +10374,13 @@
         <v>400</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>399</v>
       </c>
       <c r="F129" s="19" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>116</v>
@@ -10345,7 +10390,7 @@
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="19" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="K129" s="7">
         <v>0</v>
@@ -10362,13 +10407,13 @@
         <v>228</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>227</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="G130" s="7" t="s">
         <v>116</v>
@@ -10380,7 +10425,7 @@
         <v>58109</v>
       </c>
       <c r="J130" s="19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K130" s="7">
         <v>0</v>
@@ -10403,7 +10448,7 @@
         <v>231</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="G131" s="7" t="s">
         <v>183</v>
@@ -10415,7 +10460,7 @@
         <v>58116</v>
       </c>
       <c r="J131" s="19" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="K131" s="7">
         <v>0</v>
@@ -10438,7 +10483,7 @@
         <v>234</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="G132" s="7" t="s">
         <v>183</v>
@@ -10450,7 +10495,7 @@
         <v>58116</v>
       </c>
       <c r="J132" s="19" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="K132" s="7">
         <v>0</v>
@@ -10473,7 +10518,7 @@
         <v>237</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="G133" s="7" t="s">
         <v>183</v>
@@ -10485,7 +10530,7 @@
         <v>58117</v>
       </c>
       <c r="J133" s="19" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="K133" s="7">
         <v>0</v>
@@ -10508,7 +10553,7 @@
         <v>240</v>
       </c>
       <c r="F134" s="19" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G134" s="7" t="s">
         <v>183</v>
@@ -10520,7 +10565,7 @@
         <v>58117</v>
       </c>
       <c r="J134" s="19" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="K134" s="7">
         <v>0</v>
@@ -10537,13 +10582,13 @@
         <v>241</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>207</v>
       </c>
       <c r="F135" s="19" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="G135" s="7" t="s">
         <v>183</v>
@@ -10555,7 +10600,7 @@
         <v>58119</v>
       </c>
       <c r="J135" s="19" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="K135" s="7">
         <v>0</v>
@@ -10572,13 +10617,13 @@
         <v>242</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>210</v>
       </c>
       <c r="F136" s="19" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="G136" s="7" t="s">
         <v>183</v>
@@ -10590,7 +10635,7 @@
         <v>58119</v>
       </c>
       <c r="J136" s="19" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="K136" s="7">
         <v>0</v>
@@ -10613,7 +10658,7 @@
         <v>210</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>183</v>
@@ -10625,7 +10670,7 @@
         <v>58119</v>
       </c>
       <c r="J137" s="19" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="K137" s="7">
         <v>0</v>
@@ -10642,13 +10687,13 @@
         <v>245</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="E138" s="7" t="s">
         <v>216</v>
       </c>
       <c r="F138" s="19" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>183</v>
@@ -10660,7 +10705,7 @@
         <v>58120</v>
       </c>
       <c r="J138" s="19" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="K138" s="7">
         <v>0</v>
@@ -10677,13 +10722,13 @@
         <v>246</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E139" s="7" t="s">
         <v>222</v>
       </c>
       <c r="F139" s="19" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G139" s="7" t="s">
         <v>183</v>
@@ -10695,7 +10740,7 @@
         <v>58120</v>
       </c>
       <c r="J139" s="19" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="K139" s="7">
         <v>0</v>
@@ -10718,7 +10763,7 @@
         <v>222</v>
       </c>
       <c r="F140" s="19" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G140" s="7" t="s">
         <v>183</v>
@@ -10730,7 +10775,7 @@
         <v>58120</v>
       </c>
       <c r="J140" s="19" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="K140" s="7">
         <v>0</v>
@@ -10747,13 +10792,13 @@
         <v>249</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="E141" s="7" t="s">
         <v>231</v>
       </c>
       <c r="F141" s="19" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="G141" s="7" t="s">
         <v>183</v>
@@ -10765,7 +10810,7 @@
         <v>58116</v>
       </c>
       <c r="J141" s="19" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="K141" s="7">
         <v>0</v>
@@ -10782,13 +10827,13 @@
         <v>250</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="E142" s="7" t="s">
         <v>234</v>
       </c>
       <c r="F142" s="19" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="G142" s="7" t="s">
         <v>183</v>
@@ -10800,7 +10845,7 @@
         <v>58116</v>
       </c>
       <c r="J142" s="19" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="K142" s="7">
         <v>0</v>
@@ -10817,13 +10862,13 @@
         <v>251</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="E143" s="7" t="s">
         <v>237</v>
       </c>
       <c r="F143" s="19" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>183</v>
@@ -10835,7 +10880,7 @@
         <v>58117</v>
       </c>
       <c r="J143" s="19" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="K143" s="7">
         <v>0</v>
@@ -10852,13 +10897,13 @@
         <v>252</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E144" s="7" t="s">
         <v>240</v>
       </c>
       <c r="F144" s="19" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>183</v>
@@ -10870,7 +10915,7 @@
         <v>58117</v>
       </c>
       <c r="J144" s="19" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="K144" s="7">
         <v>0</v>
@@ -10893,7 +10938,7 @@
         <v>182</v>
       </c>
       <c r="F145" s="19" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="G145" s="7" t="s">
         <v>1</v>
@@ -10903,7 +10948,7 @@
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="19" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K145" s="7">
         <v>0</v>
@@ -10926,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="F146" s="19" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>1</v>
@@ -10938,7 +10983,7 @@
         <v>58118</v>
       </c>
       <c r="J146" s="19" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="K146" s="7">
         <v>0</v>
@@ -10961,7 +11006,7 @@
         <v>182</v>
       </c>
       <c r="F147" s="19" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="G147" s="7" t="s">
         <v>1</v>
@@ -10973,7 +11018,7 @@
         <v>58118</v>
       </c>
       <c r="J147" s="19" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="K147" s="7">
         <v>0</v>
@@ -10996,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="F148" s="19" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G148" s="7" t="s">
         <v>1</v>
@@ -11006,7 +11051,7 @@
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="19" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="K148" s="7">
         <v>0</v>
@@ -11029,7 +11074,7 @@
         <v>188</v>
       </c>
       <c r="F149" s="19" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="G149" s="7" t="s">
         <v>1</v>
@@ -11039,7 +11084,7 @@
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="19" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="K149" s="7">
         <v>0</v>
@@ -11062,7 +11107,7 @@
         <v>3</v>
       </c>
       <c r="F150" s="19" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G150" s="7" t="s">
         <v>1</v>
@@ -11074,7 +11119,7 @@
         <v>58118</v>
       </c>
       <c r="J150" s="19" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="K150" s="7">
         <v>0</v>
@@ -11097,7 +11142,7 @@
         <v>188</v>
       </c>
       <c r="F151" s="19" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G151" s="7" t="s">
         <v>1</v>
@@ -11109,7 +11154,7 @@
         <v>58118</v>
       </c>
       <c r="J151" s="19" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="K151" s="7">
         <v>0</v>
@@ -11132,7 +11177,7 @@
         <v>3</v>
       </c>
       <c r="F152" s="19" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="G152" s="7" t="s">
         <v>1</v>
@@ -11142,7 +11187,7 @@
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="19" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="K152" s="7">
         <v>0</v>
@@ -11166,7 +11211,7 @@
   <dimension ref="A1:E677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="C665" sqref="C665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11220,7 +11265,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>51</v>
@@ -11900,7 +11945,7 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="14" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>468</v>
@@ -11914,7 +11959,7 @@
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="14" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>470</v>
@@ -11928,7 +11973,7 @@
     </row>
     <row r="54" spans="2:5">
       <c r="B54" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>470</v>
@@ -11942,7 +11987,7 @@
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>470</v>
@@ -11956,7 +12001,7 @@
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>470</v>
@@ -11970,7 +12015,7 @@
     </row>
     <row r="57" spans="2:5">
       <c r="B57" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C57" s="17" t="s">
         <v>470</v>
@@ -11984,7 +12029,7 @@
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>470</v>
@@ -11998,7 +12043,7 @@
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>470</v>
@@ -12012,7 +12057,7 @@
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C60" s="17" t="s">
         <v>471</v>
@@ -12026,7 +12071,7 @@
     </row>
     <row r="61" spans="2:5">
       <c r="B61" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>471</v>
@@ -12040,7 +12085,7 @@
     </row>
     <row r="62" spans="2:5">
       <c r="B62" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C62" s="17" t="s">
         <v>471</v>
@@ -12054,7 +12099,7 @@
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>471</v>
@@ -12068,7 +12113,7 @@
     </row>
     <row r="64" spans="2:5">
       <c r="B64" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>471</v>
@@ -12082,7 +12127,7 @@
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C65" s="17" t="s">
         <v>471</v>
@@ -12096,7 +12141,7 @@
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>471</v>
@@ -12110,7 +12155,7 @@
     </row>
     <row r="67" spans="2:5">
       <c r="B67" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C67" s="17" t="s">
         <v>471</v>
@@ -12124,7 +12169,7 @@
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C68" s="17" t="s">
         <v>624</v>
@@ -12138,7 +12183,7 @@
     </row>
     <row r="69" spans="2:5">
       <c r="B69" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>624</v>
@@ -12152,7 +12197,7 @@
     </row>
     <row r="70" spans="2:5">
       <c r="B70" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>624</v>
@@ -12166,7 +12211,7 @@
     </row>
     <row r="71" spans="2:5">
       <c r="B71" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>624</v>
@@ -12180,7 +12225,7 @@
     </row>
     <row r="72" spans="2:5">
       <c r="B72" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C72" s="17" t="s">
         <v>624</v>
@@ -12194,7 +12239,7 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C73" s="17" t="s">
         <v>624</v>
@@ -12208,7 +12253,7 @@
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>624</v>
@@ -12222,7 +12267,7 @@
     </row>
     <row r="75" spans="2:5">
       <c r="B75" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>624</v>
@@ -12236,7 +12281,7 @@
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C76" s="17" t="s">
         <v>624</v>
@@ -12250,7 +12295,7 @@
     </row>
     <row r="77" spans="2:5">
       <c r="B77" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C77" s="17" t="s">
         <v>624</v>
@@ -12264,7 +12309,7 @@
     </row>
     <row r="78" spans="2:5">
       <c r="B78" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C78" s="17" t="s">
         <v>625</v>
@@ -12278,7 +12323,7 @@
     </row>
     <row r="79" spans="2:5">
       <c r="B79" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C79" s="17" t="s">
         <v>625</v>
@@ -12292,7 +12337,7 @@
     </row>
     <row r="80" spans="2:5">
       <c r="B80" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>625</v>
@@ -12306,7 +12351,7 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C81" s="17" t="s">
         <v>625</v>
@@ -12320,7 +12365,7 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C82" s="17" t="s">
         <v>625</v>
@@ -12334,7 +12379,7 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C83" s="17" t="s">
         <v>625</v>
@@ -12348,7 +12393,7 @@
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C84" s="17" t="s">
         <v>625</v>
@@ -12362,7 +12407,7 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C85" s="17" t="s">
         <v>625</v>
@@ -12376,7 +12421,7 @@
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C86" s="17" t="s">
         <v>625</v>
@@ -12390,7 +12435,7 @@
     </row>
     <row r="87" spans="2:5">
       <c r="B87" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C87" s="17" t="s">
         <v>625</v>
@@ -12404,7 +12449,7 @@
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>626</v>
@@ -12418,7 +12463,7 @@
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C89" s="17" t="s">
         <v>626</v>
@@ -12432,7 +12477,7 @@
     </row>
     <row r="90" spans="2:5">
       <c r="B90" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C90" s="17" t="s">
         <v>626</v>
@@ -12446,7 +12491,7 @@
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C91" s="17" t="s">
         <v>626</v>
@@ -12460,7 +12505,7 @@
     </row>
     <row r="92" spans="2:5">
       <c r="B92" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C92" s="17" t="s">
         <v>626</v>
@@ -12474,7 +12519,7 @@
     </row>
     <row r="93" spans="2:5">
       <c r="B93" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C93" s="17" t="s">
         <v>626</v>
@@ -12488,7 +12533,7 @@
     </row>
     <row r="94" spans="2:5">
       <c r="B94" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C94" s="17" t="s">
         <v>472</v>
@@ -12502,7 +12547,7 @@
     </row>
     <row r="95" spans="2:5">
       <c r="B95" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C95" s="17" t="s">
         <v>472</v>
@@ -12516,7 +12561,7 @@
     </row>
     <row r="96" spans="2:5">
       <c r="B96" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C96" s="17" t="s">
         <v>472</v>
@@ -12530,7 +12575,7 @@
     </row>
     <row r="97" spans="2:5">
       <c r="B97" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C97" s="17" t="s">
         <v>472</v>
@@ -12544,7 +12589,7 @@
     </row>
     <row r="98" spans="2:5">
       <c r="B98" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C98" s="17" t="s">
         <v>472</v>
@@ -12558,7 +12603,7 @@
     </row>
     <row r="99" spans="2:5">
       <c r="B99" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C99" s="17" t="s">
         <v>472</v>
@@ -13090,7 +13135,7 @@
     </row>
     <row r="137" spans="2:5">
       <c r="B137" s="16" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C137" s="17" t="s">
         <v>626</v>
@@ -13930,7 +13975,7 @@
     </row>
     <row r="197" spans="2:5">
       <c r="B197" s="16" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C197" s="17" t="s">
         <v>626</v>
@@ -13944,7 +13989,7 @@
     </row>
     <row r="198" spans="2:5">
       <c r="B198" s="16" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C198" s="17" t="s">
         <v>626</v>
@@ -13958,7 +14003,7 @@
     </row>
     <row r="199" spans="2:5">
       <c r="B199" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C199" s="17" t="s">
         <v>626</v>
@@ -13972,7 +14017,7 @@
     </row>
     <row r="200" spans="2:5">
       <c r="B200" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C200" s="17" t="s">
         <v>626</v>
@@ -13986,7 +14031,7 @@
     </row>
     <row r="201" spans="2:5">
       <c r="B201" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C201" s="17" t="s">
         <v>626</v>
@@ -14000,7 +14045,7 @@
     </row>
     <row r="202" spans="2:5">
       <c r="B202" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C202" s="17" t="s">
         <v>626</v>
@@ -14014,7 +14059,7 @@
     </row>
     <row r="203" spans="2:5">
       <c r="B203" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C203" s="17" t="s">
         <v>626</v>
@@ -14028,7 +14073,7 @@
     </row>
     <row r="204" spans="2:5">
       <c r="B204" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C204" s="17" t="s">
         <v>626</v>
@@ -14042,7 +14087,7 @@
     </row>
     <row r="205" spans="2:5">
       <c r="B205" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C205" s="17" t="s">
         <v>626</v>
@@ -14056,7 +14101,7 @@
     </row>
     <row r="206" spans="2:5">
       <c r="B206" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C206" s="17" t="s">
         <v>626</v>
@@ -14070,7 +14115,7 @@
     </row>
     <row r="207" spans="2:5">
       <c r="B207" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C207" s="17" t="s">
         <v>626</v>
@@ -14084,7 +14129,7 @@
     </row>
     <row r="208" spans="2:5">
       <c r="B208" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C208" s="17" t="s">
         <v>627</v>
@@ -14098,7 +14143,7 @@
     </row>
     <row r="209" spans="2:5">
       <c r="B209" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C209" s="17" t="s">
         <v>627</v>
@@ -14112,7 +14157,7 @@
     </row>
     <row r="210" spans="2:5">
       <c r="B210" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C210" s="17" t="s">
         <v>627</v>
@@ -14126,7 +14171,7 @@
     </row>
     <row r="211" spans="2:5">
       <c r="B211" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C211" s="17" t="s">
         <v>627</v>
@@ -14140,7 +14185,7 @@
     </row>
     <row r="212" spans="2:5">
       <c r="B212" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C212" s="17" t="s">
         <v>627</v>
@@ -14154,7 +14199,7 @@
     </row>
     <row r="213" spans="2:5">
       <c r="B213" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C213" s="17" t="s">
         <v>472</v>
@@ -14168,7 +14213,7 @@
     </row>
     <row r="214" spans="2:5">
       <c r="B214" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C214" s="17" t="s">
         <v>472</v>
@@ -14182,7 +14227,7 @@
     </row>
     <row r="215" spans="2:5">
       <c r="B215" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C215" s="17" t="s">
         <v>472</v>
@@ -14196,7 +14241,7 @@
     </row>
     <row r="216" spans="2:5">
       <c r="B216" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C216" s="17" t="s">
         <v>472</v>
@@ -14210,7 +14255,7 @@
     </row>
     <row r="217" spans="2:5">
       <c r="B217" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C217" s="17" t="s">
         <v>472</v>
@@ -14224,7 +14269,7 @@
     </row>
     <row r="218" spans="2:5">
       <c r="B218" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C218" s="17" t="s">
         <v>472</v>
@@ -14238,7 +14283,7 @@
     </row>
     <row r="219" spans="2:5">
       <c r="B219" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C219" s="17" t="s">
         <v>472</v>
@@ -14252,7 +14297,7 @@
     </row>
     <row r="220" spans="2:5">
       <c r="B220" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C220" s="17" t="s">
         <v>472</v>
@@ -14266,7 +14311,7 @@
     </row>
     <row r="221" spans="2:5">
       <c r="B221" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C221" s="17" t="s">
         <v>472</v>
@@ -14280,7 +14325,7 @@
     </row>
     <row r="222" spans="2:5">
       <c r="B222" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C222" s="17" t="s">
         <v>472</v>
@@ -14294,7 +14339,7 @@
     </row>
     <row r="223" spans="2:5">
       <c r="B223" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C223" s="17" t="s">
         <v>472</v>
@@ -14308,7 +14353,7 @@
     </row>
     <row r="224" spans="2:5">
       <c r="B224" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C224" s="17" t="s">
         <v>472</v>
@@ -14322,7 +14367,7 @@
     </row>
     <row r="225" spans="2:5">
       <c r="B225" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C225" s="17" t="s">
         <v>472</v>
@@ -14336,7 +14381,7 @@
     </row>
     <row r="226" spans="2:5">
       <c r="B226" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C226" s="17" t="s">
         <v>472</v>
@@ -14350,7 +14395,7 @@
     </row>
     <row r="227" spans="2:5">
       <c r="B227" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C227" s="17" t="s">
         <v>472</v>
@@ -14364,7 +14409,7 @@
     </row>
     <row r="228" spans="2:5">
       <c r="B228" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C228" s="17" t="s">
         <v>472</v>
@@ -14378,7 +14423,7 @@
     </row>
     <row r="229" spans="2:5">
       <c r="B229" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C229" s="17" t="s">
         <v>473</v>
@@ -14392,7 +14437,7 @@
     </row>
     <row r="230" spans="2:5">
       <c r="B230" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C230" s="17" t="s">
         <v>473</v>
@@ -14406,7 +14451,7 @@
     </row>
     <row r="231" spans="2:5">
       <c r="B231" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C231" s="17" t="s">
         <v>473</v>
@@ -14420,7 +14465,7 @@
     </row>
     <row r="232" spans="2:5">
       <c r="B232" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C232" s="17" t="s">
         <v>473</v>
@@ -14434,7 +14479,7 @@
     </row>
     <row r="233" spans="2:5">
       <c r="B233" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C233" s="17" t="s">
         <v>473</v>
@@ -14448,7 +14493,7 @@
     </row>
     <row r="234" spans="2:5">
       <c r="B234" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C234" s="17" t="s">
         <v>473</v>
@@ -14462,7 +14507,7 @@
     </row>
     <row r="235" spans="2:5">
       <c r="B235" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C235" s="17" t="s">
         <v>473</v>
@@ -14476,7 +14521,7 @@
     </row>
     <row r="236" spans="2:5">
       <c r="B236" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C236" s="17" t="s">
         <v>473</v>
@@ -14490,7 +14535,7 @@
     </row>
     <row r="237" spans="2:5">
       <c r="B237" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C237" s="17" t="s">
         <v>473</v>
@@ -14504,7 +14549,7 @@
     </row>
     <row r="238" spans="2:5">
       <c r="B238" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C238" s="17" t="s">
         <v>473</v>
@@ -14518,7 +14563,7 @@
     </row>
     <row r="239" spans="2:5">
       <c r="B239" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C239" s="17" t="s">
         <v>473</v>
@@ -14532,7 +14577,7 @@
     </row>
     <row r="240" spans="2:5">
       <c r="B240" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C240" s="17" t="s">
         <v>473</v>
@@ -14546,7 +14591,7 @@
     </row>
     <row r="241" spans="2:5">
       <c r="B241" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C241" s="17" t="s">
         <v>473</v>
@@ -14560,7 +14605,7 @@
     </row>
     <row r="242" spans="2:5">
       <c r="B242" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C242" s="17" t="s">
         <v>473</v>
@@ -14574,7 +14619,7 @@
     </row>
     <row r="243" spans="2:5">
       <c r="B243" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C243" s="17" t="s">
         <v>474</v>
@@ -14588,7 +14633,7 @@
     </row>
     <row r="244" spans="2:5">
       <c r="B244" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C244" s="17" t="s">
         <v>474</v>
@@ -14602,7 +14647,7 @@
     </row>
     <row r="245" spans="2:5">
       <c r="B245" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C245" s="17" t="s">
         <v>474</v>
@@ -14616,7 +14661,7 @@
     </row>
     <row r="246" spans="2:5">
       <c r="B246" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C246" s="17" t="s">
         <v>474</v>
@@ -14630,7 +14675,7 @@
     </row>
     <row r="247" spans="2:5">
       <c r="B247" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C247" s="17" t="s">
         <v>474</v>
@@ -14644,7 +14689,7 @@
     </row>
     <row r="248" spans="2:5">
       <c r="B248" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C248" s="17" t="s">
         <v>474</v>
@@ -14658,7 +14703,7 @@
     </row>
     <row r="249" spans="2:5">
       <c r="B249" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C249" s="17" t="s">
         <v>474</v>
@@ -14672,7 +14717,7 @@
     </row>
     <row r="250" spans="2:5">
       <c r="B250" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C250" s="17" t="s">
         <v>474</v>
@@ -14686,7 +14731,7 @@
     </row>
     <row r="251" spans="2:5">
       <c r="B251" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C251" s="17" t="s">
         <v>474</v>
@@ -14700,7 +14745,7 @@
     </row>
     <row r="252" spans="2:5">
       <c r="B252" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C252" s="17" t="s">
         <v>474</v>
@@ -14714,7 +14759,7 @@
     </row>
     <row r="253" spans="2:5">
       <c r="B253" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C253" s="17" t="s">
         <v>474</v>
@@ -14728,7 +14773,7 @@
     </row>
     <row r="254" spans="2:5">
       <c r="B254" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C254" s="17" t="s">
         <v>474</v>
@@ -14742,7 +14787,7 @@
     </row>
     <row r="255" spans="2:5">
       <c r="B255" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C255" s="17" t="s">
         <v>474</v>
@@ -14756,7 +14801,7 @@
     </row>
     <row r="256" spans="2:5">
       <c r="B256" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C256" s="17" t="s">
         <v>474</v>
@@ -20172,7 +20217,7 @@
         <v>618</v>
       </c>
       <c r="C641" s="17" t="s">
-        <v>636</v>
+        <v>1016</v>
       </c>
       <c r="D641" s="18" t="s">
         <v>579</v>
@@ -20186,7 +20231,7 @@
         <v>618</v>
       </c>
       <c r="C642" s="17" t="s">
-        <v>636</v>
+        <v>1016</v>
       </c>
       <c r="D642" s="18" t="s">
         <v>582</v>
@@ -20200,7 +20245,7 @@
         <v>618</v>
       </c>
       <c r="C643" s="17" t="s">
-        <v>636</v>
+        <v>1016</v>
       </c>
       <c r="D643" s="18" t="s">
         <v>583</v>
@@ -20214,7 +20259,7 @@
         <v>618</v>
       </c>
       <c r="C644" s="17" t="s">
-        <v>636</v>
+        <v>1016</v>
       </c>
       <c r="D644" s="18" t="s">
         <v>584</v>
@@ -20228,7 +20273,7 @@
         <v>618</v>
       </c>
       <c r="C645" s="17" t="s">
-        <v>636</v>
+        <v>1016</v>
       </c>
       <c r="D645" s="18" t="s">
         <v>585</v>
@@ -20242,7 +20287,7 @@
         <v>618</v>
       </c>
       <c r="C646" s="17" t="s">
-        <v>636</v>
+        <v>1016</v>
       </c>
       <c r="D646" s="18" t="s">
         <v>586</v>
@@ -20256,7 +20301,7 @@
         <v>618</v>
       </c>
       <c r="C647" s="17" t="s">
-        <v>636</v>
+        <v>1016</v>
       </c>
       <c r="D647" s="18" t="s">
         <v>587</v>
@@ -20270,7 +20315,7 @@
         <v>618</v>
       </c>
       <c r="C648" s="17" t="s">
-        <v>636</v>
+        <v>1016</v>
       </c>
       <c r="D648" s="18" t="s">
         <v>589</v>
@@ -20284,7 +20329,7 @@
         <v>618</v>
       </c>
       <c r="C649" s="17" t="s">
-        <v>636</v>
+        <v>1016</v>
       </c>
       <c r="D649" s="18" t="s">
         <v>590</v>
@@ -20298,7 +20343,7 @@
         <v>618</v>
       </c>
       <c r="C650" s="17" t="s">
-        <v>636</v>
+        <v>1016</v>
       </c>
       <c r="D650" s="18" t="s">
         <v>623</v>
@@ -20312,7 +20357,7 @@
         <v>618</v>
       </c>
       <c r="C651" s="17" t="s">
-        <v>636</v>
+        <v>1016</v>
       </c>
       <c r="D651" s="18" t="s">
         <v>591</v>
@@ -20326,7 +20371,7 @@
         <v>618</v>
       </c>
       <c r="C652" s="17" t="s">
-        <v>636</v>
+        <v>1016</v>
       </c>
       <c r="D652" s="18" t="s">
         <v>593</v>
@@ -20340,7 +20385,7 @@
         <v>618</v>
       </c>
       <c r="C653" s="17" t="s">
-        <v>636</v>
+        <v>1016</v>
       </c>
       <c r="D653" s="18" t="s">
         <v>594</v>
@@ -20354,7 +20399,7 @@
         <v>618</v>
       </c>
       <c r="C654" s="17" t="s">
-        <v>637</v>
+        <v>1017</v>
       </c>
       <c r="D654" s="18" t="s">
         <v>578</v>
@@ -20368,7 +20413,7 @@
         <v>618</v>
       </c>
       <c r="C655" s="17" t="s">
-        <v>637</v>
+        <v>1017</v>
       </c>
       <c r="D655" s="18" t="s">
         <v>582</v>
@@ -20382,7 +20427,7 @@
         <v>618</v>
       </c>
       <c r="C656" s="17" t="s">
-        <v>637</v>
+        <v>1017</v>
       </c>
       <c r="D656" s="18" t="s">
         <v>583</v>
@@ -20396,7 +20441,7 @@
         <v>618</v>
       </c>
       <c r="C657" s="17" t="s">
-        <v>637</v>
+        <v>1017</v>
       </c>
       <c r="D657" s="18" t="s">
         <v>584</v>
@@ -20410,7 +20455,7 @@
         <v>618</v>
       </c>
       <c r="C658" s="17" t="s">
-        <v>637</v>
+        <v>1017</v>
       </c>
       <c r="D658" s="18" t="s">
         <v>585</v>
@@ -20424,7 +20469,7 @@
         <v>618</v>
       </c>
       <c r="C659" s="17" t="s">
-        <v>637</v>
+        <v>1017</v>
       </c>
       <c r="D659" s="18" t="s">
         <v>586</v>
@@ -20438,7 +20483,7 @@
         <v>618</v>
       </c>
       <c r="C660" s="17" t="s">
-        <v>637</v>
+        <v>1017</v>
       </c>
       <c r="D660" s="18" t="s">
         <v>587</v>
@@ -20452,7 +20497,7 @@
         <v>618</v>
       </c>
       <c r="C661" s="17" t="s">
-        <v>637</v>
+        <v>1017</v>
       </c>
       <c r="D661" s="18" t="s">
         <v>619</v>
@@ -20466,7 +20511,7 @@
         <v>618</v>
       </c>
       <c r="C662" s="17" t="s">
-        <v>637</v>
+        <v>1017</v>
       </c>
       <c r="D662" s="18" t="s">
         <v>620</v>
@@ -20480,7 +20525,7 @@
         <v>618</v>
       </c>
       <c r="C663" s="17" t="s">
-        <v>637</v>
+        <v>1017</v>
       </c>
       <c r="D663" s="18" t="s">
         <v>623</v>
@@ -20494,7 +20539,7 @@
         <v>618</v>
       </c>
       <c r="C664" s="17" t="s">
-        <v>637</v>
+        <v>1017</v>
       </c>
       <c r="D664" s="18" t="s">
         <v>591</v>
@@ -20508,7 +20553,7 @@
         <v>618</v>
       </c>
       <c r="C665" s="17" t="s">
-        <v>637</v>
+        <v>1017</v>
       </c>
       <c r="D665" s="18" t="s">
         <v>593</v>
@@ -20522,7 +20567,7 @@
         <v>618</v>
       </c>
       <c r="C666" s="17" t="s">
-        <v>637</v>
+        <v>1017</v>
       </c>
       <c r="D666" s="18" t="s">
         <v>594</v>
@@ -20536,7 +20581,7 @@
         <v>618</v>
       </c>
       <c r="C667" s="17" t="s">
-        <v>638</v>
+        <v>1018</v>
       </c>
       <c r="D667" s="18" t="s">
         <v>580</v>
@@ -20550,7 +20595,7 @@
         <v>618</v>
       </c>
       <c r="C668" s="17" t="s">
-        <v>638</v>
+        <v>1018</v>
       </c>
       <c r="D668" s="18" t="s">
         <v>582</v>
@@ -20564,7 +20609,7 @@
         <v>618</v>
       </c>
       <c r="C669" s="17" t="s">
-        <v>638</v>
+        <v>1018</v>
       </c>
       <c r="D669" s="18" t="s">
         <v>583</v>
@@ -20578,7 +20623,7 @@
         <v>618</v>
       </c>
       <c r="C670" s="17" t="s">
-        <v>638</v>
+        <v>1018</v>
       </c>
       <c r="D670" s="18" t="s">
         <v>584</v>
@@ -20592,7 +20637,7 @@
         <v>618</v>
       </c>
       <c r="C671" s="17" t="s">
-        <v>638</v>
+        <v>1018</v>
       </c>
       <c r="D671" s="18" t="s">
         <v>585</v>
@@ -20606,7 +20651,7 @@
         <v>618</v>
       </c>
       <c r="C672" s="17" t="s">
-        <v>638</v>
+        <v>1018</v>
       </c>
       <c r="D672" s="18" t="s">
         <v>621</v>
@@ -20620,7 +20665,7 @@
         <v>618</v>
       </c>
       <c r="C673" s="17" t="s">
-        <v>638</v>
+        <v>1018</v>
       </c>
       <c r="D673" s="18" t="s">
         <v>588</v>
@@ -20634,7 +20679,7 @@
         <v>618</v>
       </c>
       <c r="C674" s="17" t="s">
-        <v>638</v>
+        <v>1018</v>
       </c>
       <c r="D674" s="18" t="s">
         <v>623</v>
@@ -20648,7 +20693,7 @@
         <v>618</v>
       </c>
       <c r="C675" s="17" t="s">
-        <v>638</v>
+        <v>1018</v>
       </c>
       <c r="D675" s="18" t="s">
         <v>591</v>
@@ -20662,7 +20707,7 @@
         <v>618</v>
       </c>
       <c r="C676" s="17" t="s">
-        <v>638</v>
+        <v>1018</v>
       </c>
       <c r="D676" s="18" t="s">
         <v>593</v>
@@ -20676,7 +20721,7 @@
         <v>618</v>
       </c>
       <c r="C677" s="17" t="s">
-        <v>638</v>
+        <v>1018</v>
       </c>
       <c r="D677" s="18" t="s">
         <v>594</v>
@@ -20694,10 +20739,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20762,7 +20807,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>40</v>
@@ -20776,7 +20821,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>42</v>
@@ -20790,7 +20835,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>41</v>
@@ -20804,10 +20849,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -20818,10 +20863,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -20832,10 +20877,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -20846,10 +20891,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -20860,10 +20905,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>668</v>
+        <v>1019</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -20874,10 +20919,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -20888,10 +20933,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -20902,10 +20947,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
@@ -20916,10 +20961,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="E15" s="23">
         <v>0</v>
@@ -20930,10 +20975,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="E16" s="23">
         <v>0</v>
@@ -20944,10 +20989,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E17" s="23">
         <v>0</v>
@@ -20955,13 +21000,13 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="5" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -20972,10 +21017,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -20986,10 +21031,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
@@ -20997,13 +21042,13 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="4" t="s">
-        <v>1</v>
+        <v>1010</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>652</v>
+        <v>1011</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>1012</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -21014,10 +21059,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>685</v>
+        <v>664</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>649</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -21025,13 +21070,13 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>679</v>
+        <v>1</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>682</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -21039,13 +21084,13 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>704</v>
+        <v>29</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>676</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
@@ -21056,10 +21101,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E25" s="5">
         <v>0</v>
@@ -21070,10 +21115,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>671</v>
+        <v>700</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>652</v>
+        <v>702</v>
       </c>
       <c r="E26" s="5">
         <v>0</v>
@@ -21084,24 +21129,24 @@
         <v>1</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>959</v>
+        <v>668</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>662</v>
       </c>
       <c r="E28" s="5">
         <v>0</v>
@@ -21109,13 +21154,13 @@
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>659</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
@@ -21123,13 +21168,13 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>652</v>
+        <v>658</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="E30" s="5">
         <v>0</v>
@@ -21137,41 +21182,41 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>662</v>
+        <v>656</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>649</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="E32" s="5">
+      <c r="B32" s="29" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E32" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>659</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>669</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
@@ -21179,13 +21224,13 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>685</v>
+        <v>649</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
@@ -21193,13 +21238,13 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>731</v>
+        <v>665</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>730</v>
+        <v>666</v>
       </c>
       <c r="E35" s="5">
         <v>0</v>
@@ -21207,13 +21252,13 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>737</v>
+        <v>642</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>730</v>
+        <v>682</v>
       </c>
       <c r="E36" s="5">
         <v>0</v>
@@ -21221,13 +21266,13 @@
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>982</v>
+        <v>728</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>983</v>
+        <v>727</v>
       </c>
       <c r="E37" s="5">
         <v>0</v>
@@ -21235,13 +21280,13 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>679</v>
+        <v>656</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>727</v>
       </c>
       <c r="E38" s="5">
         <v>0</v>
@@ -21249,13 +21294,13 @@
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>703</v>
+        <v>979</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>704</v>
+        <v>980</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
@@ -21263,13 +21308,13 @@
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>705</v>
+        <v>656</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>676</v>
       </c>
       <c r="E40" s="5">
         <v>0</v>
@@ -21277,13 +21322,13 @@
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>671</v>
+        <v>700</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>652</v>
+        <v>701</v>
       </c>
       <c r="E41" s="5">
         <v>0</v>
@@ -21291,41 +21336,41 @@
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>959</v>
+        <v>700</v>
       </c>
       <c r="D42" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E42" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>978</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="E43" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>979</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>648</v>
       </c>
       <c r="E44" s="5">
         <v>0</v>
@@ -21333,13 +21378,13 @@
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E45" s="5">
         <v>0</v>
@@ -21347,13 +21392,13 @@
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="E46" s="5">
         <v>0</v>
@@ -21361,13 +21406,13 @@
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>981</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>670</v>
+        <v>977</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>645</v>
       </c>
       <c r="E47" s="5">
         <v>0</v>
@@ -21375,13 +21420,13 @@
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>981</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>699</v>
+        <v>978</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>663</v>
       </c>
       <c r="E48" s="5">
         <v>0</v>
@@ -21389,13 +21434,13 @@
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="7" t="s">
-        <v>1000</v>
+        <v>644</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>1002</v>
+        <v>978</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>667</v>
       </c>
       <c r="E49" s="5">
         <v>0</v>
@@ -21403,13 +21448,13 @@
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>666</v>
+        <v>978</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>696</v>
       </c>
       <c r="E50" s="5">
         <v>0</v>
@@ -21417,13 +21462,13 @@
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="7" t="s">
-        <v>647</v>
+        <v>997</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>676</v>
+        <v>998</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>677</v>
+        <v>999</v>
       </c>
       <c r="E51" s="5">
         <v>0</v>
@@ -21431,83 +21476,83 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="E52" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="22" t="s">
-        <v>647</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>975</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>976</v>
-      </c>
-      <c r="E53" s="23">
+      <c r="B53" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="E53" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="22" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>975</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>977</v>
-      </c>
-      <c r="E54" s="23">
+      <c r="B54" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="E54" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="E55" s="5">
+      <c r="B55" s="22" t="s">
+        <v>644</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>972</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>973</v>
+      </c>
+      <c r="E55" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="E56" s="5">
+      <c r="B56" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>972</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>974</v>
+      </c>
+      <c r="E56" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>725</v>
+        <v>644</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>642</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="E57" s="5">
         <v>0</v>
@@ -21515,13 +21560,13 @@
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>663</v>
+        <v>648</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>1002</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E58" s="5">
         <v>0</v>
@@ -21529,13 +21574,13 @@
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>720</v>
+        <v>648</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>722</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E59" s="5">
         <v>0</v>
@@ -21543,13 +21588,13 @@
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>738</v>
+        <v>660</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E60" s="5">
         <v>0</v>
@@ -21557,13 +21602,13 @@
     </row>
     <row r="61" spans="2:5">
       <c r="B61" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E61" s="5">
         <v>0</v>
@@ -21571,13 +21616,13 @@
     </row>
     <row r="62" spans="2:5">
       <c r="B62" s="7" t="s">
-        <v>723</v>
+        <v>648</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>681</v>
+        <v>735</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>724</v>
+        <v>647</v>
       </c>
       <c r="E62" s="5">
         <v>0</v>
@@ -21585,13 +21630,13 @@
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="7" t="s">
-        <v>680</v>
+        <v>648</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>682</v>
+        <v>719</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>724</v>
+        <v>647</v>
       </c>
       <c r="E63" s="5">
         <v>0</v>
@@ -21599,13 +21644,13 @@
     </row>
     <row r="64" spans="2:5">
       <c r="B64" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>725</v>
+        <v>720</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>678</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E64" s="5">
         <v>0</v>
@@ -21613,13 +21658,13 @@
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E65" s="5">
         <v>0</v>
@@ -21627,13 +21672,13 @@
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>684</v>
+        <v>720</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>722</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E66" s="5">
         <v>0</v>
@@ -21641,13 +21686,13 @@
     </row>
     <row r="67" spans="2:5">
       <c r="B67" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>720</v>
-      </c>
       <c r="D67" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E67" s="5">
         <v>0</v>
@@ -21655,13 +21700,13 @@
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C68" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>721</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>724</v>
       </c>
       <c r="E68" s="5">
         <v>0</v>
@@ -21669,13 +21714,13 @@
     </row>
     <row r="69" spans="2:5">
       <c r="B69" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E69" s="5">
         <v>0</v>
@@ -21683,13 +21728,13 @@
     </row>
     <row r="70" spans="2:5">
       <c r="B70" s="7" t="s">
-        <v>644</v>
+        <v>677</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>645</v>
+        <v>718</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>646</v>
+        <v>721</v>
       </c>
       <c r="E70" s="5">
         <v>0</v>
@@ -21697,13 +21742,13 @@
     </row>
     <row r="71" spans="2:5">
       <c r="B71" s="7" t="s">
-        <v>644</v>
+        <v>677</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>672</v>
+        <v>719</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>673</v>
+        <v>721</v>
       </c>
       <c r="E71" s="5">
         <v>0</v>
@@ -21711,13 +21756,13 @@
     </row>
     <row r="72" spans="2:5">
       <c r="B72" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>672</v>
+        <v>642</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>674</v>
+        <v>643</v>
       </c>
       <c r="E72" s="5">
         <v>0</v>
@@ -21725,13 +21770,13 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>726</v>
+        <v>669</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E73" s="5">
         <v>0</v>
@@ -21739,13 +21784,13 @@
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>727</v>
+        <v>669</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E74" s="5">
         <v>0</v>
@@ -21753,13 +21798,13 @@
     </row>
     <row r="75" spans="2:5">
       <c r="B75" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>660</v>
+        <v>641</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>723</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="E75" s="5">
         <v>0</v>
@@ -21767,13 +21812,13 @@
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>660</v>
+        <v>641</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>724</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>700</v>
+        <v>670</v>
       </c>
       <c r="E76" s="5">
         <v>0</v>
@@ -21781,13 +21826,13 @@
     </row>
     <row r="77" spans="2:5">
       <c r="B77" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E77" s="5">
         <v>0</v>
@@ -21795,13 +21840,13 @@
     </row>
     <row r="78" spans="2:5">
       <c r="B78" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>658</v>
+        <v>697</v>
       </c>
       <c r="E78" s="5">
         <v>0</v>
@@ -21809,13 +21854,13 @@
     </row>
     <row r="79" spans="2:5">
       <c r="B79" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>654</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>665</v>
       </c>
       <c r="E79" s="5">
         <v>0</v>
@@ -21823,13 +21868,13 @@
     </row>
     <row r="80" spans="2:5">
       <c r="B80" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>697</v>
+        <v>651</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>655</v>
       </c>
       <c r="E80" s="5">
         <v>0</v>
@@ -21837,13 +21882,13 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>697</v>
+        <v>651</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>1021</v>
       </c>
       <c r="E81" s="5">
         <v>0</v>
@@ -21851,13 +21896,13 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="7" t="s">
-        <v>1010</v>
+        <v>651</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1011</v>
+        <v>646</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>1012</v>
+        <v>662</v>
       </c>
       <c r="E82" s="5">
         <v>0</v>
@@ -21865,13 +21910,13 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="7" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>713</v>
+        <v>694</v>
       </c>
       <c r="E83" s="5">
         <v>0</v>
@@ -21879,13 +21924,13 @@
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="7" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="E84" s="5">
         <v>0</v>
@@ -21893,13 +21938,13 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="7" t="s">
-        <v>958</v>
+        <v>1007</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>703</v>
+        <v>1008</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>704</v>
+        <v>1009</v>
       </c>
       <c r="E85" s="5">
         <v>0</v>
@@ -21907,13 +21952,13 @@
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>710</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>698</v>
       </c>
       <c r="E86" s="5">
         <v>0</v>
@@ -21921,13 +21966,13 @@
     </row>
     <row r="87" spans="2:5">
       <c r="B87" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>707</v>
+        <v>699</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>700</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="E87" s="5">
         <v>0</v>
@@ -21935,13 +21980,13 @@
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="7" t="s">
-        <v>709</v>
+        <v>955</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="E88" s="5">
         <v>0</v>
@@ -21949,13 +21994,13 @@
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>716</v>
+        <v>707</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>704</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>718</v>
+        <v>695</v>
       </c>
       <c r="E89" s="5">
         <v>0</v>
@@ -21963,13 +22008,13 @@
     </row>
     <row r="90" spans="2:5">
       <c r="B90" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>719</v>
+        <v>705</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>704</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="E90" s="5">
         <v>0</v>
@@ -21977,13 +22022,13 @@
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="7" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="E91" s="5">
         <v>0</v>
@@ -21991,13 +22036,13 @@
     </row>
     <row r="92" spans="2:5">
       <c r="B92" s="7" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>736</v>
+        <v>713</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="E92" s="5">
         <v>0</v>
@@ -22005,13 +22050,13 @@
     </row>
     <row r="93" spans="2:5">
       <c r="B93" s="7" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="E93" s="5">
         <v>0</v>
@@ -22019,13 +22064,13 @@
     </row>
     <row r="94" spans="2:5">
       <c r="B94" s="7" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E94" s="5">
         <v>0</v>
@@ -22033,13 +22078,13 @@
     </row>
     <row r="95" spans="2:5">
       <c r="B95" s="7" t="s">
-        <v>1003</v>
+        <v>729</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>1004</v>
+        <v>733</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>1007</v>
+        <v>730</v>
       </c>
       <c r="E95" s="5">
         <v>0</v>
@@ -22047,13 +22092,13 @@
     </row>
     <row r="96" spans="2:5">
       <c r="B96" s="7" t="s">
-        <v>1003</v>
+        <v>729</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>1006</v>
+        <v>731</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>1007</v>
+        <v>730</v>
       </c>
       <c r="E96" s="5">
         <v>0</v>
@@ -22061,13 +22106,13 @@
     </row>
     <row r="97" spans="2:5">
       <c r="B97" s="7" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>1008</v>
+        <v>729</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>732</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>1007</v>
+        <v>730</v>
       </c>
       <c r="E97" s="5">
         <v>0</v>
@@ -22075,20 +22120,62 @@
     </row>
     <row r="98" spans="2:5">
       <c r="B98" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E98" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>1003</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E98" s="5">
+      <c r="D99" s="9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E99" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E100" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E101" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:E95"/>
+  <autoFilter ref="B3:E98"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22160,7 +22247,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="7" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>36</v>
@@ -22169,10 +22256,10 @@
         <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>51</v>
@@ -22180,7 +22267,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="20" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
@@ -22200,10 +22287,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="20" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>28</v>
@@ -22402,7 +22489,7 @@
     </row>
     <row r="4" spans="1:16" ht="27">
       <c r="B4" s="20" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
@@ -22429,14 +22516,14 @@
         <v>25</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="20" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="O4" s="7">
         <v>58108</v>
@@ -22606,7 +22693,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="24" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>54</v>
@@ -22623,53 +22710,53 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="25" t="s">
+        <v>987</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>991</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>992</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>993</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="26" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="26" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
   </sheetData>

--- a/wico/数据表结构.xlsx
+++ b/wico/数据表结构.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3780" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3806" uniqueCount="1042">
   <si>
     <t>SLIDE ADJR OUT L,FR SEAT</t>
   </si>
@@ -103,147 +103,147 @@
   </si>
   <si>
     <t>WICO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4739132-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2VH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手动-前排-左席座椅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>电动滑轨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>WicoPartNumber</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TsPartNumber</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PartName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PartType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Importance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Supplier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CarModel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SeatModel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RepairMethod</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>涂装刮花</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换滑轨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>涂油反复作动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换端盖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SLIDE ADJR OUT L,FR SEAT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Lot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>INTEGER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TEXT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Production Line</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>INTEGER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Regular</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NgInfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Sync</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sqlite数据类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Mysql数据类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DATETIME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ManufactureDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NgTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TINYINT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SMALLINT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FC</t>
@@ -1426,7 +1426,7 @@
   </si>
   <si>
     <t>2QY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1478,7 +1478,7 @@
   </si>
   <si>
     <t>2QY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手动-前排-左席座椅</t>
@@ -1503,591 +1503,591 @@
   </si>
   <si>
     <t>手动-前排-右席座椅（NOR）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手动-前排-左席座椅（HEI）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手动-前排-左席座椅（NOR）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2110-414-210</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手动-后排-右席座椅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2110-414-120</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手动-后排-左席座椅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2110-413-110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-120</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手动-前排-左席座椅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-210</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-220</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-419-310</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-419-520</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-418-410</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">2311-418-720 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4739141-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4739162-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4739231-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4739242-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3745521-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3745421-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3745511-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3745411-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3745212-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3745112-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3725542-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3725612-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3725522-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3742412-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3742411-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3742431-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3742421-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3742441-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4729910-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4729920-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4831510-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4055340-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4597110-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4420420-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4638170-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4639710-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>184-040010-5-0010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3466360-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4734620-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4735622-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3488270K-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4785410-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3390210W-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3390250-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-110-2FW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-120-2FW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-220-2FW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-210-2FW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3488270-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4734650-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手动-前排-左席座椅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-558-210</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-557-210</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-558-120</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4816230-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3390210W-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-566-610</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-566-520</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-565-510</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-565-420</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-110-2FW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-120-2FW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-220-2FW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-210-2FW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3488270-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-120-2FW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手动-前排-左席座椅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-220-2FW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-210-2FW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3488270-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4734650-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-589-610</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-588-610</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-589-520</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-588-520</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4586310-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-565-420</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手动-前排-左席座椅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-566-520</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-565-710</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-566-810</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-598-320</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-598-410</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-599-420</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-599-510</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2110-389-110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2110-389-120</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2110-418-120</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-550-120</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-550-420</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-549-120</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-549-420</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4855440-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4855430-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3742452-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3742462-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3742451-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3742461-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-3928350-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4922310-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4922410-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4638180-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-598-310</t>
-    <phoneticPr fontId="26"/>
+    <phoneticPr fontId="27"/>
   </si>
   <si>
     <t>2311-599-410</t>
-    <phoneticPr fontId="26"/>
+    <phoneticPr fontId="27"/>
   </si>
   <si>
     <t>2311-599-520</t>
-    <phoneticPr fontId="26"/>
+    <phoneticPr fontId="27"/>
   </si>
   <si>
     <t>2311-550-410</t>
-    <phoneticPr fontId="26"/>
+    <phoneticPr fontId="27"/>
   </si>
   <si>
     <t>2311-549-410</t>
-    <phoneticPr fontId="26"/>
+    <phoneticPr fontId="27"/>
   </si>
   <si>
     <t>21-3466360-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3390250-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23-4420420-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3441510-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2VH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2VH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2LQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2LQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2HY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2HY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2YT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2YT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2WB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2WB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2UB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2UB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2VP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2VP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2FW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2FW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2YN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2YN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3BS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3BS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2GN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2GN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2YC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2YC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-550-110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-549-110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-598-420</t>
-    <phoneticPr fontId="26"/>
+    <phoneticPr fontId="27"/>
   </si>
   <si>
     <t>23-4767052-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-3675720-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手动-中排-右席座椅</t>
@@ -2114,428 +2114,428 @@
   </si>
   <si>
     <t>23-4767052-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手动-前排-右席座椅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>电动-前排-左席座椅（8WAY带记忆）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>电动-前排-左席座椅（8WAY无记忆）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>电动-前排-右席座椅（4WAY无记忆）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2311-557-120</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手动-中排-左席座椅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手动-中排-右席座椅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PartPicUrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>滑动震动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换齿轮箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>在最前端无法作动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换滑块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>调角器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>不在初始位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>调整到初始位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>电动支架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换电机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>无法作动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换滑动电机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>滑动电机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换滑轨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换丝杆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>电动座椅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换H型滑轨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>后升降震动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>调节制动器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换制动器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手动滑轨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>滑动异音</t>
   </si>
   <si>
     <t>滑动异音</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>涂润滑油，反复作动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>螺丝孔滑牙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>调节丝杆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>涂油反复作动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>反复作动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>齿轮箱支架装配孔滑牙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换条码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>调节电机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>上导轨螺丝脱落</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>锁紧挡圈松动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换调角器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>敲紧挡圈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>前/后端连接臂铆接过紧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>前/后端连接臂铆接过松</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换侧支架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>铜棒敲击修理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>刮花部位涂油漆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>升降电机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>前升降异音</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>前升降反转音</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>前升降电机不作动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>前升降打啃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>调节到初始位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>WicoPartNumber</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CM_Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3QY</t>
   </si>
   <si>
     <t>3QY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2LQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3LQ</t>
   </si>
   <si>
     <t>3LQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>解锁手柄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手柄变形</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>有凹坑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>解锁手柄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换解锁手柄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换绕性轴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>调节制动器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>调整/更换 绕性轴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>破损</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>涡卷弹簧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>生锈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>除锈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换滑轨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换涡卷弹簧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>植毛破损</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>绕性轴（长）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>扇形齿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>绕性轴（短）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换绕性轴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>滑动电机支架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换滑动电机支架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>有压痕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换扇形齿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>有裂纹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>冲压侧支架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换冲压侧支架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>漏冲孔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>插头破损</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>插头内粘附焊渣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>脉冲功能失效（按下按钮只能动一点）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>升降电机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换升降电机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>电机声音过大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>锁紧挡圈欠品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装了2枚锁紧挡圈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>翻边轮廓不良</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>用工具掰正</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换滑轨前端解锁小支架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>变位拉杆不回弹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>制动器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换制动器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>作动时有异响</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>作动很多次座椅才能升到顶端</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手柄回位不顺畅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>变位拉杆松动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>插头内粘附焊渣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>http://gitee.com/sunny_ho/image_bed/raw/master/wico/153-080025-5.jpg</t>
@@ -3196,247 +3196,247 @@
   </si>
   <si>
     <t>涡卷弹簧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>上导轨螺丝滑牙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2022-05-14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2YT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Day</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Night</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2022-05-14 15:35:51</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2022-05-13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>滑动异音</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换齿轮箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>滑动缓慢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>调节滑动电机支架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>涂油反复作动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>调整丝杆螺母，反复作动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>调整丝杆螺母，反复作动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换齿轮箱、丝杆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>调节滑动电机支架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>升降缓慢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>涂油反复作动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>调整滑动电机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>升降异音</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>升降反转音</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>升降电机不作动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>升降打啃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>端盖破损</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换端盖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>电动滑轨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2HY</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>23-4739242-2</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2022-02-16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2LQ</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>ComplainDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CarModel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>WicoPartNumber</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PartName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NgInfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SLIDE ADJR INN L,FR SEAT（8WAY）</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>内侧滑轨铆钉漏铆接</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2022-06-20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">SLIDE ADJR INN L,FR SEAT（8WAY） </t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>电动座椅在最前端滑不动</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>电动支架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>升降打啃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换电机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>调角器电机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>二维码破损/脏污</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>滑动异音</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>作动异音</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换调角器电机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>电机声音过大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>无法作动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>解锁手柄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>弹簧松动/脱落</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换弹簧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>电动滑轨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>无法作动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>调节滑动电机支架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>撬护架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>滑动异音</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手动滑轨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>英国电动-前排-右席座椅（8WAY带记忆）</t>
@@ -3449,15 +3449,15 @@
   </si>
   <si>
     <t>条码脏污/破损，无法识别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>后升降无法作动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>清除焊渣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>81201-3A02-X810-M1-0000</t>
@@ -3500,23 +3500,85 @@
   </si>
   <si>
     <t>滑轨无法作动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>电动座椅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>滑轨无法作动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换H型滑轨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>条码脏污/破损，无法识别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2110-355-310</t>
+  </si>
+  <si>
+    <t>2110-355-320</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gitee.com/sunny_ho/image_bed/raw/master/wico/2110-355-310.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gitee.com/sunny_ho/image_bed/raw/master/wico/2110-355-320.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>58104/58112</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3B4A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动-后排-左席座椅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动-后排-右席座椅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2110-355-310</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2110-355-320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L001779025</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L001779035</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MINI RECLINER ASSY_RH，MANUAL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MINI RECLINER ASSY_LH，MANUAL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调角器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3530,12 +3592,20 @@
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3714,6 +3784,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -3825,32 +3910,68 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="375">
+  <cellStyleXfs count="389">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
@@ -3889,496 +4010,485 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4388,28 +4498,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4433,25 +4552,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="300" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="300" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="310" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="310" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="300" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="300" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="310" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="310" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4460,7 +4579,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4472,16 +4591,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4490,8 +4609,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="377" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="300" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="375">
+  <cellStyles count="389">
     <cellStyle name="_x0004_" xfId="2"/>
     <cellStyle name="_x0004_ 2" xfId="3"/>
     <cellStyle name="_1月" xfId="4"/>
@@ -4763,10 +4888,13 @@
     <cellStyle name="差_检查成绩书台账 2 2" xfId="268"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 10" xfId="269"/>
+    <cellStyle name="常规 10 2" xfId="383"/>
     <cellStyle name="常规 11" xfId="270"/>
+    <cellStyle name="常规 11 2" xfId="382"/>
     <cellStyle name="常规 12" xfId="271"/>
     <cellStyle name="常规 13" xfId="272"/>
     <cellStyle name="常规 14" xfId="1"/>
+    <cellStyle name="常规 15" xfId="375"/>
     <cellStyle name="常规 2" xfId="273"/>
     <cellStyle name="常规 2 2" xfId="274"/>
     <cellStyle name="常规 2 2 2" xfId="275"/>
@@ -4787,22 +4915,32 @@
     <cellStyle name="常规 3 2 2 2" xfId="286"/>
     <cellStyle name="常规 3 3" xfId="287"/>
     <cellStyle name="常规 3 3 2" xfId="288"/>
+    <cellStyle name="常规 3 3 2 2" xfId="387"/>
     <cellStyle name="常规 3 3 3" xfId="366"/>
+    <cellStyle name="常规 3 3 4" xfId="380"/>
     <cellStyle name="常规 3 4" xfId="289"/>
+    <cellStyle name="常规 3 4 2" xfId="384"/>
     <cellStyle name="常规 3 5" xfId="374"/>
+    <cellStyle name="常规 3 6" xfId="376"/>
     <cellStyle name="常规 4" xfId="290"/>
     <cellStyle name="常规 4 2" xfId="291"/>
     <cellStyle name="常规 4 2 2" xfId="292"/>
+    <cellStyle name="常规 4 2 2 2" xfId="388"/>
     <cellStyle name="常规 4 2 3" xfId="365"/>
+    <cellStyle name="常规 4 2 4" xfId="381"/>
     <cellStyle name="常规 4 3" xfId="293"/>
+    <cellStyle name="常规 4 3 2" xfId="385"/>
     <cellStyle name="常规 4 4" xfId="370"/>
+    <cellStyle name="常规 4 5" xfId="378"/>
     <cellStyle name="常规 5" xfId="294"/>
     <cellStyle name="常规 5 2" xfId="295"/>
     <cellStyle name="常规 5 2 2" xfId="296"/>
     <cellStyle name="常规 5 3" xfId="297"/>
     <cellStyle name="常规 6" xfId="298"/>
     <cellStyle name="常规 6 2" xfId="299"/>
+    <cellStyle name="常规 6 2 2" xfId="386"/>
     <cellStyle name="常规 6 3" xfId="367"/>
+    <cellStyle name="常规 6 4" xfId="379"/>
     <cellStyle name="常规 7" xfId="300"/>
     <cellStyle name="常规 7 2" xfId="301"/>
     <cellStyle name="常规 7 2 2" xfId="302"/>
@@ -4814,6 +4952,7 @@
     <cellStyle name="常规 9" xfId="308"/>
     <cellStyle name="常规 9 2" xfId="309"/>
     <cellStyle name="常规_X11M PT-2#2出货次序表" xfId="310"/>
+    <cellStyle name="超链接" xfId="377" builtinId="8"/>
     <cellStyle name="超链接 2" xfId="311"/>
     <cellStyle name="好_2CN" xfId="312"/>
     <cellStyle name="好_2CN 2" xfId="313"/>
@@ -4874,9 +5013,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -4901,7 +5037,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4962,7 +5098,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5023,7 +5159,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5079,7 +5215,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5137,7 +5273,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5195,7 +5331,7 @@
         <xdr:cNvPr id="13" name="TextBox 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5258,7 +5394,7 @@
         <xdr:cNvPr id="16" name="直接箭头连接符 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5311,7 +5447,7 @@
         <xdr:cNvPr id="21" name="图片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5372,7 +5508,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5433,7 +5569,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5486,7 +5622,7 @@
         <xdr:cNvPr id="27" name="直接箭头连接符 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5539,7 +5675,7 @@
         <xdr:cNvPr id="29" name="直接箭头连接符 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5592,7 +5728,7 @@
         <xdr:cNvPr id="31" name="直接箭头连接符 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5645,7 +5781,7 @@
         <xdr:cNvPr id="33" name="直接箭头连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5698,7 +5834,7 @@
         <xdr:cNvPr id="36" name="直接箭头连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5746,7 +5882,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6138,7 +6274,7 @@
       <c r="T32" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6151,8 +6287,8 @@
   </sheetPr>
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="D124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K153" sqref="K153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6162,7 +6298,7 @@
     <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="31.625" customWidth="1"/>
     <col min="5" max="5" width="44.75" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="64.875" customWidth="1"/>
     <col min="7" max="7" width="13.625" customWidth="1"/>
     <col min="8" max="8" width="12.75" customWidth="1"/>
     <col min="9" max="9" width="15.75" customWidth="1"/>
@@ -7937,7 +8073,7 @@
         <v>2</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>776</v>
+        <v>1031</v>
       </c>
       <c r="J55" s="19" t="s">
         <v>746</v>
@@ -11212,22 +11348,84 @@
         <v>439</v>
       </c>
     </row>
-    <row r="153" spans="2:12" ht="15" customHeight="1"/>
-    <row r="154" spans="2:12" ht="15" customHeight="1"/>
+    <row r="153" spans="2:12" ht="15" customHeight="1">
+      <c r="B153" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F153" s="31" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H153" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I153" s="7">
+        <v>58112</v>
+      </c>
+      <c r="J153" s="1"/>
+      <c r="K153" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:12" ht="15" customHeight="1">
+      <c r="B154" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F154" s="31" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H154" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I154" s="7">
+        <v>58112</v>
+      </c>
+      <c r="J154" s="1"/>
+      <c r="K154" s="7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B3:K152"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F153" r:id="rId1"/>
+    <hyperlink ref="F154" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="22" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="22" orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E677"/>
+  <dimension ref="A1:E681"/>
   <sheetViews>
-    <sheetView topLeftCell="A522" workbookViewId="0">
-      <selection activeCell="D537" sqref="D537"/>
+    <sheetView topLeftCell="A664" workbookViewId="0">
+      <selection activeCell="D679" sqref="D679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20746,9 +20944,65 @@
         <v>0</v>
       </c>
     </row>
+    <row r="678" spans="2:5">
+      <c r="B678" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C678" s="32" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D678" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E678" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="2:5">
+      <c r="B679" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C679" s="32" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D679" s="7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E679" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="2:5">
+      <c r="B680" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C680" s="32" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D680" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E680" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="2:5">
+      <c r="B681" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C681" s="32" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D681" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E681" s="16">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B3:E677"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20757,8 +21011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22206,7 +22460,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B3:E99"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22336,7 +22590,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -22699,7 +22953,7 @@
       <c r="P12" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22790,7 +23044,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/wico/数据表结构.xlsx
+++ b/wico/数据表结构.xlsx
@@ -16,7 +16,7 @@
     <sheet name="客户正式投诉" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'零件清单（下载）'!$B$3:$K$152</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'座椅配置（下载）'!$B$3:$E$677</definedName>
   </definedNames>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3806" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3812" uniqueCount="1046">
   <si>
     <t>SLIDE ADJR OUT L,FR SEAT</t>
   </si>
@@ -3578,6 +3578,22 @@
   </si>
   <si>
     <t>调角器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动晃动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撬L形支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑轨</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3788,6 +3804,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5037,7 +5054,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5098,7 +5115,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5159,7 +5176,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5215,7 +5232,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5273,7 +5290,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5331,7 +5348,7 @@
         <xdr:cNvPr id="13" name="TextBox 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5394,7 +5411,7 @@
         <xdr:cNvPr id="16" name="直接箭头连接符 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5447,7 +5464,7 @@
         <xdr:cNvPr id="21" name="图片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5508,7 +5525,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5569,7 +5586,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5622,7 +5639,7 @@
         <xdr:cNvPr id="27" name="直接箭头连接符 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5675,7 +5692,7 @@
         <xdr:cNvPr id="29" name="直接箭头连接符 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5728,7 +5745,7 @@
         <xdr:cNvPr id="31" name="直接箭头连接符 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5781,7 +5798,7 @@
         <xdr:cNvPr id="33" name="直接箭头连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5834,7 +5851,7 @@
         <xdr:cNvPr id="36" name="直接箭头连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5882,7 +5899,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21009,10 +21026,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21172,13 +21189,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>652</v>
+        <v>1044</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1043</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -21188,11 +21205,11 @@
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>627</v>
+      <c r="C12" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1045</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -21203,10 +21220,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>626</v>
+        <v>1005</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -21220,37 +21237,37 @@
         <v>626</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>952</v>
       </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>951</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>953</v>
-      </c>
-      <c r="E15" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>951</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>955</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="E16" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21262,49 +21279,49 @@
         <v>951</v>
       </c>
       <c r="D17" s="22" t="s">
+        <v>953</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>951</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>955</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>951</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>957</v>
       </c>
-      <c r="E17" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="5" t="s">
+      <c r="E19" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="5" t="s">
         <v>967</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>965</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>966</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>954</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>956</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
@@ -21312,13 +21329,13 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="4" t="s">
-        <v>996</v>
+        <v>1</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>997</v>
+        <v>633</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>998</v>
+        <v>954</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -21329,10 +21346,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>636</v>
+        <v>956</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -21340,13 +21357,13 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="4" t="s">
-        <v>1</v>
+        <v>996</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>629</v>
+        <v>997</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>668</v>
+        <v>998</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -21354,13 +21371,13 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>662</v>
+        <v>1</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>636</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
@@ -21371,10 +21388,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>686</v>
+        <v>629</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="E25" s="5">
         <v>0</v>
@@ -21382,13 +21399,13 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>688</v>
+        <v>29</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>662</v>
       </c>
       <c r="E26" s="5">
         <v>0</v>
@@ -21399,10 +21416,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>654</v>
+        <v>686</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>636</v>
+        <v>687</v>
       </c>
       <c r="E27" s="5">
         <v>0</v>
@@ -21413,38 +21430,38 @@
         <v>1</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>942</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="E30" s="5">
         <v>0</v>
@@ -21457,24 +21474,24 @@
       <c r="C31" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>636</v>
+      <c r="D31" s="9" t="s">
+        <v>646</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="29" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>999</v>
-      </c>
-      <c r="E32" s="29">
+      <c r="B32" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21482,27 +21499,27 @@
       <c r="B33" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>646</v>
+      <c r="C33" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>636</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="E34" s="5">
+      <c r="B34" s="29" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>999</v>
+      </c>
+      <c r="E34" s="29">
         <v>0</v>
       </c>
     </row>
@@ -21511,10 +21528,10 @@
         <v>643</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>652</v>
+        <v>624</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>646</v>
       </c>
       <c r="E35" s="5">
         <v>0</v>
@@ -21525,10 +21542,10 @@
         <v>643</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>668</v>
+        <v>636</v>
       </c>
       <c r="E36" s="5">
         <v>0</v>
@@ -21539,10 +21556,10 @@
         <v>643</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>714</v>
+        <v>1025</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>713</v>
+        <v>652</v>
       </c>
       <c r="E37" s="5">
         <v>0</v>
@@ -21553,10 +21570,10 @@
         <v>643</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>720</v>
+        <v>629</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>713</v>
+        <v>668</v>
       </c>
       <c r="E38" s="5">
         <v>0</v>
@@ -21567,10 +21584,10 @@
         <v>643</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>965</v>
+        <v>714</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>966</v>
+        <v>713</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
@@ -21580,11 +21597,11 @@
       <c r="B40" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>662</v>
+      <c r="C40" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>713</v>
       </c>
       <c r="E40" s="5">
         <v>0</v>
@@ -21595,10 +21612,10 @@
         <v>643</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>686</v>
+        <v>965</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>687</v>
+        <v>966</v>
       </c>
       <c r="E41" s="5">
         <v>0</v>
@@ -21608,11 +21625,11 @@
       <c r="B42" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>688</v>
+      <c r="C42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>662</v>
       </c>
       <c r="E42" s="5">
         <v>0</v>
@@ -21623,10 +21640,10 @@
         <v>643</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>654</v>
+        <v>686</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>636</v>
+        <v>687</v>
       </c>
       <c r="E43" s="5">
         <v>0</v>
@@ -21637,38 +21654,38 @@
         <v>643</v>
       </c>
       <c r="C44" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>942</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E44" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="E45" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="B46" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>632</v>
       </c>
       <c r="E46" s="5">
         <v>0</v>
@@ -21679,7 +21696,7 @@
         <v>631</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>632</v>
@@ -21693,10 +21710,10 @@
         <v>631</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="E48" s="5">
         <v>0</v>
@@ -21707,10 +21724,10 @@
         <v>631</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>964</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>653</v>
+        <v>963</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>632</v>
       </c>
       <c r="E49" s="5">
         <v>0</v>
@@ -21723,8 +21740,8 @@
       <c r="C50" s="7" t="s">
         <v>964</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>682</v>
+      <c r="D50" s="7" t="s">
+        <v>650</v>
       </c>
       <c r="E50" s="5">
         <v>0</v>
@@ -21732,13 +21749,13 @@
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="7" t="s">
-        <v>983</v>
+        <v>631</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>984</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>985</v>
+        <v>964</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>653</v>
       </c>
       <c r="E51" s="5">
         <v>0</v>
@@ -21749,10 +21766,10 @@
         <v>631</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>650</v>
+        <v>964</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>682</v>
       </c>
       <c r="E52" s="5">
         <v>0</v>
@@ -21760,13 +21777,13 @@
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="7" t="s">
-        <v>631</v>
+        <v>983</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>659</v>
+        <v>984</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>660</v>
+        <v>985</v>
       </c>
       <c r="E53" s="5">
         <v>0</v>
@@ -21777,80 +21794,80 @@
         <v>631</v>
       </c>
       <c r="C54" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D55" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="E54" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" s="22" t="s">
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="22" t="s">
         <v>631</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C57" s="22" t="s">
         <v>958</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D57" s="22" t="s">
         <v>959</v>
       </c>
-      <c r="E55" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="B56" s="22" t="s">
+      <c r="E57" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="22" t="s">
         <v>983</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C58" s="22" t="s">
         <v>958</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D58" s="22" t="s">
         <v>960</v>
       </c>
-      <c r="E56" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="E57" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="E58" s="5">
+      <c r="E58" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>708</v>
+        <v>631</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>629</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>634</v>
+        <v>668</v>
       </c>
       <c r="E59" s="5">
         <v>0</v>
@@ -21860,8 +21877,8 @@
       <c r="B60" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>647</v>
+      <c r="C60" s="5" t="s">
+        <v>988</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>634</v>
@@ -21874,8 +21891,8 @@
       <c r="B61" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>703</v>
+      <c r="C61" s="5" t="s">
+        <v>708</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>634</v>
@@ -21889,7 +21906,7 @@
         <v>635</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>721</v>
+        <v>647</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>634</v>
@@ -21903,7 +21920,7 @@
         <v>635</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>634</v>
@@ -21914,13 +21931,13 @@
     </row>
     <row r="64" spans="2:5">
       <c r="B64" s="7" t="s">
-        <v>706</v>
+        <v>635</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>664</v>
+        <v>721</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>707</v>
+        <v>634</v>
       </c>
       <c r="E64" s="5">
         <v>0</v>
@@ -21928,13 +21945,13 @@
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="7" t="s">
-        <v>663</v>
+        <v>635</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>707</v>
+        <v>634</v>
       </c>
       <c r="E65" s="5">
         <v>0</v>
@@ -21944,8 +21961,8 @@
       <c r="B66" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>708</v>
+      <c r="C66" s="7" t="s">
+        <v>664</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>707</v>
@@ -21959,7 +21976,7 @@
         <v>663</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>707</v>
@@ -21970,10 +21987,10 @@
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>667</v>
+        <v>706</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>708</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>707</v>
@@ -21987,7 +22004,7 @@
         <v>663</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>703</v>
+        <v>666</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>707</v>
@@ -22001,7 +22018,7 @@
         <v>663</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>704</v>
+        <v>667</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>707</v>
@@ -22015,7 +22032,7 @@
         <v>663</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>707</v>
@@ -22026,13 +22043,13 @@
     </row>
     <row r="72" spans="2:5">
       <c r="B72" s="7" t="s">
-        <v>628</v>
+        <v>663</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>630</v>
+        <v>707</v>
       </c>
       <c r="E72" s="5">
         <v>0</v>
@@ -22040,13 +22057,13 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="7" t="s">
-        <v>628</v>
+        <v>663</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>655</v>
+        <v>705</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>656</v>
+        <v>707</v>
       </c>
       <c r="E73" s="5">
         <v>0</v>
@@ -22057,10 +22074,10 @@
         <v>628</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="E74" s="5">
         <v>0</v>
@@ -22071,7 +22088,7 @@
         <v>628</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>709</v>
+        <v>655</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>656</v>
@@ -22085,10 +22102,10 @@
         <v>628</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>710</v>
+        <v>655</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E76" s="5">
         <v>0</v>
@@ -22096,13 +22113,13 @@
     </row>
     <row r="77" spans="2:5">
       <c r="B77" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>644</v>
+        <v>628</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>709</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>639</v>
+        <v>656</v>
       </c>
       <c r="E77" s="5">
         <v>0</v>
@@ -22110,13 +22127,13 @@
     </row>
     <row r="78" spans="2:5">
       <c r="B78" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>644</v>
+        <v>628</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>710</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>683</v>
+        <v>656</v>
       </c>
       <c r="E78" s="5">
         <v>0</v>
@@ -22127,10 +22144,10 @@
         <v>638</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E79" s="5">
         <v>0</v>
@@ -22141,10 +22158,10 @@
         <v>638</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>642</v>
+        <v>683</v>
       </c>
       <c r="E80" s="5">
         <v>0</v>
@@ -22155,10 +22172,10 @@
         <v>638</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>1006</v>
+        <v>640</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>1007</v>
+        <v>641</v>
       </c>
       <c r="E81" s="5">
         <v>0</v>
@@ -22168,11 +22185,11 @@
       <c r="B82" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>649</v>
+      <c r="C82" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>642</v>
       </c>
       <c r="E82" s="5">
         <v>0</v>
@@ -22180,13 +22197,13 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="7" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>1023</v>
+        <v>638</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>1006</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>1024</v>
+        <v>1007</v>
       </c>
       <c r="E83" s="5">
         <v>0</v>
@@ -22194,13 +22211,13 @@
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="7" t="s">
-        <v>679</v>
+        <v>638</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>677</v>
+        <v>1021</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>680</v>
+        <v>649</v>
       </c>
       <c r="E84" s="5">
         <v>0</v>
@@ -22208,13 +22225,13 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="7" t="s">
-        <v>676</v>
+        <v>1022</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>680</v>
+        <v>1023</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>1024</v>
       </c>
       <c r="E85" s="5">
         <v>0</v>
@@ -22222,13 +22239,13 @@
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="7" t="s">
-        <v>993</v>
+        <v>679</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>994</v>
+        <v>677</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>995</v>
+        <v>680</v>
       </c>
       <c r="E86" s="5">
         <v>0</v>
@@ -22236,13 +22253,13 @@
     </row>
     <row r="87" spans="2:5">
       <c r="B87" s="7" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="E87" s="5">
         <v>0</v>
@@ -22250,13 +22267,13 @@
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="7" t="s">
-        <v>685</v>
+        <v>993</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>686</v>
+        <v>994</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>689</v>
+        <v>995</v>
       </c>
       <c r="E88" s="5">
         <v>0</v>
@@ -22264,13 +22281,13 @@
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="7" t="s">
-        <v>941</v>
+        <v>695</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="E89" s="5">
         <v>0</v>
@@ -22278,13 +22295,13 @@
     </row>
     <row r="90" spans="2:5">
       <c r="B90" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>690</v>
+        <v>685</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>686</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="E90" s="5">
         <v>0</v>
@@ -22292,13 +22309,13 @@
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>690</v>
+        <v>941</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>686</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="E91" s="5">
         <v>0</v>
@@ -22306,13 +22323,13 @@
     </row>
     <row r="92" spans="2:5">
       <c r="B92" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>697</v>
+        <v>693</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>690</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="E92" s="5">
         <v>0</v>
@@ -22320,13 +22337,13 @@
     </row>
     <row r="93" spans="2:5">
       <c r="B93" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>699</v>
+        <v>691</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>690</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E93" s="5">
         <v>0</v>
@@ -22334,13 +22351,13 @@
     </row>
     <row r="94" spans="2:5">
       <c r="B94" s="7" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E94" s="5">
         <v>0</v>
@@ -22351,10 +22368,10 @@
         <v>700</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="E95" s="5">
         <v>0</v>
@@ -22362,13 +22379,13 @@
     </row>
     <row r="96" spans="2:5">
       <c r="B96" s="7" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="E96" s="5">
         <v>0</v>
@@ -22376,13 +22393,13 @@
     </row>
     <row r="97" spans="2:5">
       <c r="B97" s="7" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E97" s="5">
         <v>0</v>
@@ -22393,7 +22410,7 @@
         <v>715</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>716</v>
@@ -22404,13 +22421,13 @@
     </row>
     <row r="99" spans="2:5">
       <c r="B99" s="7" t="s">
-        <v>986</v>
+        <v>715</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>987</v>
+        <v>717</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>990</v>
+        <v>716</v>
       </c>
       <c r="E99" s="5">
         <v>0</v>
@@ -22418,13 +22435,13 @@
     </row>
     <row r="100" spans="2:5">
       <c r="B100" s="7" t="s">
-        <v>986</v>
+        <v>715</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>989</v>
+        <v>718</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>990</v>
+        <v>716</v>
       </c>
       <c r="E100" s="5">
         <v>0</v>
@@ -22434,8 +22451,8 @@
       <c r="B101" s="7" t="s">
         <v>986</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>991</v>
+      <c r="C101" s="6" t="s">
+        <v>987</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>990</v>
@@ -22448,8 +22465,8 @@
       <c r="B102" s="7" t="s">
         <v>986</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>992</v>
+      <c r="C102" s="6" t="s">
+        <v>989</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>990</v>
@@ -22458,8 +22475,36 @@
         <v>0</v>
       </c>
     </row>
+    <row r="103" spans="2:5">
+      <c r="B103" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="E103" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="E104" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B3:E99"/>
+  <autoFilter ref="B3:E101"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wico/数据表结构.xlsx
+++ b/wico/数据表结构.xlsx
@@ -16,7 +16,7 @@
     <sheet name="客户正式投诉" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'零件清单（下载）'!$B$3:$K$152</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'座椅配置（下载）'!$B$3:$E$677</definedName>
   </definedNames>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3812" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3827" uniqueCount="1056">
   <si>
     <t>SLIDE ADJR OUT L,FR SEAT</t>
   </si>
@@ -2414,10 +2414,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>绕性轴（长）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>扇形齿</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3296,10 +3292,6 @@
   </si>
   <si>
     <t>更换端盖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3593,7 +3585,55 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>滑动拉力过大</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂润滑油，反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>更换滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动晃动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴弯曲了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绕性轴（短）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绕性轴（长）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱、短轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑轨震动并且晃动</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6440,10 +6480,10 @@
         <v>342</v>
       </c>
       <c r="F4" s="19" t="s">
+        <v>721</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>722</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>723</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>65</v>
@@ -6471,10 +6511,10 @@
         <v>64</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>65</v>
@@ -6502,10 +6542,10 @@
         <v>68</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>65</v>
@@ -6533,10 +6573,10 @@
         <v>71</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>2</v>
@@ -6564,10 +6604,10 @@
         <v>310</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>65</v>
@@ -6595,7 +6635,7 @@
         <v>329</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>330</v>
@@ -6626,7 +6666,7 @@
         <v>329</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>330</v>
@@ -6657,7 +6697,7 @@
         <v>329</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>330</v>
@@ -6688,7 +6728,7 @@
         <v>329</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>330</v>
@@ -6719,10 +6759,10 @@
         <v>355</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>2</v>
@@ -6750,10 +6790,10 @@
         <v>103</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>65</v>
@@ -6781,10 +6821,10 @@
         <v>358</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>65</v>
@@ -6812,7 +6852,7 @@
         <v>417</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>418</v>
@@ -6843,10 +6883,10 @@
         <v>313</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>2</v>
@@ -6874,10 +6914,10 @@
         <v>316</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>2</v>
@@ -6905,7 +6945,7 @@
         <v>320</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>321</v>
@@ -6936,7 +6976,7 @@
         <v>320</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>321</v>
@@ -6967,7 +7007,7 @@
         <v>320</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>321</v>
@@ -6998,7 +7038,7 @@
         <v>320</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>321</v>
@@ -7029,7 +7069,7 @@
         <v>106</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>80</v>
@@ -7060,10 +7100,10 @@
         <v>109</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>65</v>
@@ -7091,10 +7131,10 @@
         <v>112</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>65</v>
@@ -7122,7 +7162,7 @@
         <v>173</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>116</v>
@@ -7134,7 +7174,7 @@
         <v>58109</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K26" s="7">
         <v>0</v>
@@ -7157,7 +7197,7 @@
         <v>173</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>116</v>
@@ -7169,7 +7209,7 @@
         <v>58109</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K27" s="7">
         <v>0</v>
@@ -7192,7 +7232,7 @@
         <v>115</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>116</v>
@@ -7202,7 +7242,7 @@
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K28" s="7">
         <v>0</v>
@@ -7225,7 +7265,7 @@
         <v>178</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>116</v>
@@ -7237,7 +7277,7 @@
         <v>58109</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K29" s="7">
         <v>0</v>
@@ -7260,7 +7300,7 @@
         <v>119</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>116</v>
@@ -7270,7 +7310,7 @@
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K30" s="7">
         <v>0</v>
@@ -7293,7 +7333,7 @@
         <v>262</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>263</v>
@@ -7324,7 +7364,7 @@
         <v>266</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>263</v>
@@ -7355,7 +7395,7 @@
         <v>269</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>270</v>
@@ -7386,7 +7426,7 @@
         <v>262</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>263</v>
@@ -7417,7 +7457,7 @@
         <v>269</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>270</v>
@@ -7448,7 +7488,7 @@
         <v>262</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>263</v>
@@ -7458,7 +7498,7 @@
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="19" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K36" s="7">
         <v>0</v>
@@ -7481,7 +7521,7 @@
         <v>266</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>263</v>
@@ -7491,7 +7531,7 @@
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K37" s="7">
         <v>0</v>
@@ -7508,13 +7548,13 @@
         <v>279</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>280</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>263</v>
@@ -7524,7 +7564,7 @@
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K38" s="7">
         <v>0</v>
@@ -7541,13 +7581,13 @@
         <v>281</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>282</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>263</v>
@@ -7557,7 +7597,7 @@
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="19" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K39" s="7">
         <v>0</v>
@@ -7580,7 +7620,7 @@
         <v>296</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>297</v>
@@ -7611,7 +7651,7 @@
         <v>300</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>297</v>
@@ -7642,7 +7682,7 @@
         <v>402</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>297</v>
@@ -7673,7 +7713,7 @@
         <v>402</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>297</v>
@@ -7704,7 +7744,7 @@
         <v>407</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>297</v>
@@ -7735,7 +7775,7 @@
         <v>407</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>297</v>
@@ -7766,7 +7806,7 @@
         <v>143</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>80</v>
@@ -7778,7 +7818,7 @@
         <v>58104</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K46" s="7">
         <v>0</v>
@@ -7801,7 +7841,7 @@
         <v>146</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>80</v>
@@ -7813,7 +7853,7 @@
         <v>58104</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K47" s="7">
         <v>0</v>
@@ -7836,7 +7876,7 @@
         <v>149</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>80</v>
@@ -7848,7 +7888,7 @@
         <v>58104</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K48" s="7">
         <v>0</v>
@@ -7871,7 +7911,7 @@
         <v>152</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>80</v>
@@ -7883,7 +7923,7 @@
         <v>58104</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K49" s="7">
         <v>0</v>
@@ -7906,7 +7946,7 @@
         <v>143</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>80</v>
@@ -7918,7 +7958,7 @@
         <v>58112</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K50" s="7">
         <v>0</v>
@@ -7941,7 +7981,7 @@
         <v>143</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>80</v>
@@ -7950,10 +7990,10 @@
         <v>2</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K51" s="7">
         <v>0</v>
@@ -7976,7 +8016,7 @@
         <v>146</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>80</v>
@@ -7988,7 +8028,7 @@
         <v>58112</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K52" s="7">
         <v>0</v>
@@ -8011,7 +8051,7 @@
         <v>146</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>80</v>
@@ -8020,10 +8060,10 @@
         <v>2</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K53" s="7">
         <v>0</v>
@@ -8046,7 +8086,7 @@
         <v>149</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>80</v>
@@ -8058,7 +8098,7 @@
         <v>58112</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K54" s="7">
         <v>0</v>
@@ -8081,7 +8121,7 @@
         <v>149</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>80</v>
@@ -8090,10 +8130,10 @@
         <v>2</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K55" s="7">
         <v>0</v>
@@ -8116,7 +8156,7 @@
         <v>152</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>80</v>
@@ -8128,7 +8168,7 @@
         <v>58112</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K56" s="7">
         <v>0</v>
@@ -8151,7 +8191,7 @@
         <v>152</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>80</v>
@@ -8160,10 +8200,10 @@
         <v>2</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K57" s="7">
         <v>0</v>
@@ -8183,10 +8223,10 @@
         <v>161</v>
       </c>
       <c r="E58" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="F58" s="19" t="s">
         <v>783</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>784</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>80</v>
@@ -8198,7 +8238,7 @@
         <v>52111</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K58" s="7">
         <v>0</v>
@@ -8221,7 +8261,7 @@
         <v>164</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>80</v>
@@ -8233,7 +8273,7 @@
         <v>52111</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K59" s="7">
         <v>0</v>
@@ -8256,7 +8296,7 @@
         <v>79</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>80</v>
@@ -8266,7 +8306,7 @@
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K60" s="7">
         <v>0</v>
@@ -8289,7 +8329,7 @@
         <v>83</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>80</v>
@@ -8299,7 +8339,7 @@
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K61" s="7">
         <v>0</v>
@@ -8322,7 +8362,7 @@
         <v>86</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>80</v>
@@ -8332,7 +8372,7 @@
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K62" s="7">
         <v>0</v>
@@ -8355,7 +8395,7 @@
         <v>89</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>80</v>
@@ -8365,7 +8405,7 @@
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K63" s="7">
         <v>0</v>
@@ -8388,7 +8428,7 @@
         <v>167</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>80</v>
@@ -8400,7 +8440,7 @@
         <v>58111</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K64" s="7">
         <v>0</v>
@@ -8423,7 +8463,7 @@
         <v>170</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>80</v>
@@ -8435,7 +8475,7 @@
         <v>58111</v>
       </c>
       <c r="J65" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K65" s="7">
         <v>0</v>
@@ -8458,7 +8498,7 @@
         <v>92</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>80</v>
@@ -8468,7 +8508,7 @@
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K66" s="7">
         <v>0</v>
@@ -8491,7 +8531,7 @@
         <v>95</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>80</v>
@@ -8501,7 +8541,7 @@
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K67" s="7">
         <v>0</v>
@@ -8524,7 +8564,7 @@
         <v>98</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>80</v>
@@ -8534,7 +8574,7 @@
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K68" s="7">
         <v>0</v>
@@ -8551,13 +8591,13 @@
         <v>99</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>100</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>80</v>
@@ -8567,7 +8607,7 @@
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K69" s="7">
         <v>0</v>
@@ -8590,7 +8630,7 @@
         <v>421</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>418</v>
@@ -8621,7 +8661,7 @@
         <v>421</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>418</v>
@@ -8652,7 +8692,7 @@
         <v>377</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>378</v>
@@ -8683,7 +8723,7 @@
         <v>256</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>257</v>
@@ -8695,7 +8735,7 @@
         <v>58105</v>
       </c>
       <c r="J73" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K73" s="7">
         <v>0</v>
@@ -8718,10 +8758,10 @@
         <v>373</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>65</v>
@@ -8749,7 +8789,7 @@
         <v>285</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>263</v>
@@ -8780,7 +8820,7 @@
         <v>285</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>263</v>
@@ -8811,7 +8851,7 @@
         <v>426</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>418</v>
@@ -8842,7 +8882,7 @@
         <v>381</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>382</v>
@@ -8873,7 +8913,7 @@
         <v>381</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>382</v>
@@ -8904,7 +8944,7 @@
         <v>417</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>418</v>
@@ -8935,7 +8975,7 @@
         <v>334</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>257</v>
@@ -8966,7 +9006,7 @@
         <v>334</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>257</v>
@@ -8997,7 +9037,7 @@
         <v>136</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>137</v>
@@ -9007,7 +9047,7 @@
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="19" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K83" s="7">
         <v>0</v>
@@ -9030,7 +9070,7 @@
         <v>136</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>137</v>
@@ -9040,7 +9080,7 @@
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="K84" s="7">
         <v>0</v>
@@ -9063,7 +9103,7 @@
         <v>291</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>292</v>
@@ -9094,7 +9134,7 @@
         <v>413</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>292</v>
@@ -9125,10 +9165,10 @@
         <v>126</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>2</v>
@@ -9156,7 +9196,7 @@
         <v>129</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>130</v>
@@ -9187,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>1</v>
@@ -9199,7 +9239,7 @@
         <v>58108</v>
       </c>
       <c r="J89" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K89" s="7">
         <v>0</v>
@@ -9222,7 +9262,7 @@
         <v>7</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>1</v>
@@ -9234,7 +9274,7 @@
         <v>58108</v>
       </c>
       <c r="J90" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="K90" s="7">
         <v>0</v>
@@ -9257,7 +9297,7 @@
         <v>10</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>1</v>
@@ -9269,7 +9309,7 @@
         <v>58108</v>
       </c>
       <c r="J91" s="19" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K91" s="7">
         <v>0</v>
@@ -9292,7 +9332,7 @@
         <v>13</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>1</v>
@@ -9304,7 +9344,7 @@
         <v>58108</v>
       </c>
       <c r="J92" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K92" s="7">
         <v>0</v>
@@ -9327,7 +9367,7 @@
         <v>3</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>1</v>
@@ -9339,7 +9379,7 @@
         <v>58108</v>
       </c>
       <c r="J93" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K93" s="7">
         <v>0</v>
@@ -9362,7 +9402,7 @@
         <v>18</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>1</v>
@@ -9374,7 +9414,7 @@
         <v>58108</v>
       </c>
       <c r="J94" s="19" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K94" s="7">
         <v>0</v>
@@ -9397,7 +9437,7 @@
         <v>21</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>1</v>
@@ -9409,7 +9449,7 @@
         <v>58108</v>
       </c>
       <c r="J95" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K95" s="7">
         <v>0</v>
@@ -9432,7 +9472,7 @@
         <v>24</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>1</v>
@@ -9444,7 +9484,7 @@
         <v>58108</v>
       </c>
       <c r="J96" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K96" s="7">
         <v>0</v>
@@ -9467,7 +9507,7 @@
         <v>363</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>364</v>
@@ -9498,7 +9538,7 @@
         <v>334</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>257</v>
@@ -9529,7 +9569,7 @@
         <v>334</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>257</v>
@@ -9560,7 +9600,7 @@
         <v>129</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>130</v>
@@ -9591,7 +9631,7 @@
         <v>136</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>137</v>
@@ -9601,7 +9641,7 @@
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="19" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K101" s="7">
         <v>0</v>
@@ -9618,13 +9658,13 @@
         <v>138</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>139</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>137</v>
@@ -9634,7 +9674,7 @@
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="19" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K102" s="7">
         <v>0</v>
@@ -9657,7 +9697,7 @@
         <v>129</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>130</v>
@@ -9688,7 +9728,7 @@
         <v>74</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>75</v>
@@ -9719,7 +9759,7 @@
         <v>122</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>123</v>
@@ -9729,7 +9769,7 @@
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K105" s="7">
         <v>0</v>
@@ -9752,7 +9792,7 @@
         <v>122</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>123</v>
@@ -9762,7 +9802,7 @@
       </c>
       <c r="I106" s="7"/>
       <c r="J106" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K106" s="7">
         <v>0</v>
@@ -9785,7 +9825,7 @@
         <v>181</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>182</v>
@@ -9797,7 +9837,7 @@
         <v>58103</v>
       </c>
       <c r="J107" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K107" s="7">
         <v>0</v>
@@ -9820,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="19" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>182</v>
@@ -9832,7 +9872,7 @@
         <v>58103</v>
       </c>
       <c r="J108" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K108" s="7">
         <v>0</v>
@@ -9855,7 +9895,7 @@
         <v>187</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>182</v>
@@ -9867,7 +9907,7 @@
         <v>58103</v>
       </c>
       <c r="J109" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K109" s="7">
         <v>0</v>
@@ -9890,7 +9930,7 @@
         <v>3</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>182</v>
@@ -9902,7 +9942,7 @@
         <v>58103</v>
       </c>
       <c r="J110" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K110" s="7">
         <v>0</v>
@@ -9925,7 +9965,7 @@
         <v>181</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>182</v>
@@ -9934,10 +9974,10 @@
         <v>2</v>
       </c>
       <c r="I111" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="J111" s="19" t="s">
         <v>851</v>
-      </c>
-      <c r="J111" s="19" t="s">
-        <v>852</v>
       </c>
       <c r="K111" s="7">
         <v>0</v>
@@ -9960,7 +10000,7 @@
         <v>0</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>182</v>
@@ -9969,10 +10009,10 @@
         <v>2</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J112" s="19" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K112" s="7">
         <v>0</v>
@@ -9995,7 +10035,7 @@
         <v>196</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>182</v>
@@ -10004,10 +10044,10 @@
         <v>2</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J113" s="19" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K113" s="7">
         <v>0</v>
@@ -10030,7 +10070,7 @@
         <v>3</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>182</v>
@@ -10039,10 +10079,10 @@
         <v>2</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J114" s="19" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="K114" s="7">
         <v>0</v>
@@ -10065,7 +10105,7 @@
         <v>187</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>182</v>
@@ -10074,10 +10114,10 @@
         <v>2</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J115" s="19" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K115" s="7">
         <v>0</v>
@@ -10100,7 +10140,7 @@
         <v>203</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>182</v>
@@ -10109,10 +10149,10 @@
         <v>2</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J116" s="19" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="K116" s="7">
         <v>0</v>
@@ -10135,7 +10175,7 @@
         <v>206</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>182</v>
@@ -10147,7 +10187,7 @@
         <v>58103</v>
       </c>
       <c r="J117" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K117" s="7">
         <v>0</v>
@@ -10170,7 +10210,7 @@
         <v>209</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>182</v>
@@ -10182,7 +10222,7 @@
         <v>58103</v>
       </c>
       <c r="J118" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K118" s="7">
         <v>0</v>
@@ -10205,7 +10245,7 @@
         <v>212</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>182</v>
@@ -10217,7 +10257,7 @@
         <v>58103</v>
       </c>
       <c r="J119" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K119" s="7">
         <v>0</v>
@@ -10240,7 +10280,7 @@
         <v>215</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>182</v>
@@ -10252,7 +10292,7 @@
         <v>58103</v>
       </c>
       <c r="J120" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K120" s="7">
         <v>0</v>
@@ -10275,7 +10315,7 @@
         <v>218</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>182</v>
@@ -10287,7 +10327,7 @@
         <v>58103</v>
       </c>
       <c r="J121" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K121" s="7">
         <v>0</v>
@@ -10310,7 +10350,7 @@
         <v>221</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>182</v>
@@ -10322,7 +10362,7 @@
         <v>58103</v>
       </c>
       <c r="J122" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K122" s="7">
         <v>0</v>
@@ -10339,13 +10379,13 @@
         <v>386</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>387</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>116</v>
@@ -10355,7 +10395,7 @@
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="19" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K123" s="7">
         <v>0</v>
@@ -10372,13 +10412,13 @@
         <v>222</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>223</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G124" s="7" t="s">
         <v>116</v>
@@ -10390,7 +10430,7 @@
         <v>58109</v>
       </c>
       <c r="J124" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K124" s="7">
         <v>0</v>
@@ -10407,13 +10447,13 @@
         <v>388</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>387</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>116</v>
@@ -10423,7 +10463,7 @@
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="19" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="K125" s="7">
         <v>0</v>
@@ -10440,13 +10480,13 @@
         <v>224</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>223</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>116</v>
@@ -10458,7 +10498,7 @@
         <v>58109</v>
       </c>
       <c r="J126" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K126" s="7">
         <v>0</v>
@@ -10475,13 +10515,13 @@
         <v>389</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>390</v>
       </c>
       <c r="F127" s="19" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G127" s="7" t="s">
         <v>116</v>
@@ -10491,7 +10531,7 @@
       </c>
       <c r="I127" s="7"/>
       <c r="J127" s="19" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="K127" s="7">
         <v>0</v>
@@ -10508,13 +10548,13 @@
         <v>225</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E128" s="7" t="s">
         <v>226</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G128" s="7" t="s">
         <v>116</v>
@@ -10526,7 +10566,7 @@
         <v>58109</v>
       </c>
       <c r="J128" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K128" s="7">
         <v>0</v>
@@ -10543,13 +10583,13 @@
         <v>391</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>390</v>
       </c>
       <c r="F129" s="19" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>116</v>
@@ -10559,7 +10599,7 @@
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K129" s="7">
         <v>0</v>
@@ -10576,13 +10616,13 @@
         <v>227</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>226</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G130" s="7" t="s">
         <v>116</v>
@@ -10594,7 +10634,7 @@
         <v>58109</v>
       </c>
       <c r="J130" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K130" s="7">
         <v>0</v>
@@ -10617,7 +10657,7 @@
         <v>230</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G131" s="7" t="s">
         <v>182</v>
@@ -10629,7 +10669,7 @@
         <v>58116</v>
       </c>
       <c r="J131" s="19" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K131" s="7">
         <v>0</v>
@@ -10652,7 +10692,7 @@
         <v>233</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G132" s="7" t="s">
         <v>182</v>
@@ -10664,7 +10704,7 @@
         <v>58116</v>
       </c>
       <c r="J132" s="19" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="K132" s="7">
         <v>0</v>
@@ -10687,7 +10727,7 @@
         <v>236</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G133" s="7" t="s">
         <v>182</v>
@@ -10699,7 +10739,7 @@
         <v>58117</v>
       </c>
       <c r="J133" s="19" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K133" s="7">
         <v>0</v>
@@ -10722,7 +10762,7 @@
         <v>239</v>
       </c>
       <c r="F134" s="19" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G134" s="7" t="s">
         <v>182</v>
@@ -10734,7 +10774,7 @@
         <v>58117</v>
       </c>
       <c r="J134" s="19" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="K134" s="7">
         <v>0</v>
@@ -10751,13 +10791,13 @@
         <v>240</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>206</v>
       </c>
       <c r="F135" s="19" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G135" s="7" t="s">
         <v>182</v>
@@ -10769,7 +10809,7 @@
         <v>58119</v>
       </c>
       <c r="J135" s="19" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K135" s="7">
         <v>0</v>
@@ -10786,13 +10826,13 @@
         <v>241</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>209</v>
       </c>
       <c r="F136" s="19" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G136" s="7" t="s">
         <v>182</v>
@@ -10804,7 +10844,7 @@
         <v>58119</v>
       </c>
       <c r="J136" s="19" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="K136" s="7">
         <v>0</v>
@@ -10821,13 +10861,13 @@
         <v>242</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>209</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>182</v>
@@ -10839,7 +10879,7 @@
         <v>58119</v>
       </c>
       <c r="J137" s="19" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K137" s="7">
         <v>0</v>
@@ -10856,13 +10896,13 @@
         <v>243</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E138" s="7" t="s">
         <v>215</v>
       </c>
       <c r="F138" s="19" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>182</v>
@@ -10874,7 +10914,7 @@
         <v>58120</v>
       </c>
       <c r="J138" s="19" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K138" s="7">
         <v>0</v>
@@ -10891,13 +10931,13 @@
         <v>244</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E139" s="7" t="s">
         <v>221</v>
       </c>
       <c r="F139" s="19" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G139" s="7" t="s">
         <v>182</v>
@@ -10909,7 +10949,7 @@
         <v>58120</v>
       </c>
       <c r="J139" s="19" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K139" s="7">
         <v>0</v>
@@ -10926,13 +10966,13 @@
         <v>245</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>221</v>
       </c>
       <c r="F140" s="19" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G140" s="7" t="s">
         <v>182</v>
@@ -10944,7 +10984,7 @@
         <v>58120</v>
       </c>
       <c r="J140" s="19" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="K140" s="7">
         <v>0</v>
@@ -10961,13 +11001,13 @@
         <v>246</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E141" s="7" t="s">
         <v>230</v>
       </c>
       <c r="F141" s="19" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G141" s="7" t="s">
         <v>182</v>
@@ -10979,7 +11019,7 @@
         <v>58116</v>
       </c>
       <c r="J141" s="19" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="K141" s="7">
         <v>0</v>
@@ -10996,13 +11036,13 @@
         <v>247</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E142" s="7" t="s">
         <v>233</v>
       </c>
       <c r="F142" s="19" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G142" s="7" t="s">
         <v>182</v>
@@ -11014,7 +11054,7 @@
         <v>58116</v>
       </c>
       <c r="J142" s="19" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="K142" s="7">
         <v>0</v>
@@ -11031,13 +11071,13 @@
         <v>248</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E143" s="7" t="s">
         <v>236</v>
       </c>
       <c r="F143" s="19" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>182</v>
@@ -11049,7 +11089,7 @@
         <v>58117</v>
       </c>
       <c r="J143" s="19" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="K143" s="7">
         <v>0</v>
@@ -11066,13 +11106,13 @@
         <v>249</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E144" s="7" t="s">
         <v>239</v>
       </c>
       <c r="F144" s="19" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>182</v>
@@ -11084,7 +11124,7 @@
         <v>58117</v>
       </c>
       <c r="J144" s="19" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="K144" s="7">
         <v>0</v>
@@ -11101,13 +11141,13 @@
         <v>392</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>181</v>
       </c>
       <c r="F145" s="19" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G145" s="7" t="s">
         <v>1</v>
@@ -11117,7 +11157,7 @@
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="19" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K145" s="7">
         <v>0</v>
@@ -11134,13 +11174,13 @@
         <v>250</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E146" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F146" s="19" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>1</v>
@@ -11152,7 +11192,7 @@
         <v>58118</v>
       </c>
       <c r="J146" s="19" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K146" s="7">
         <v>0</v>
@@ -11169,13 +11209,13 @@
         <v>251</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E147" s="7" t="s">
         <v>181</v>
       </c>
       <c r="F147" s="19" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G147" s="7" t="s">
         <v>1</v>
@@ -11187,7 +11227,7 @@
         <v>58118</v>
       </c>
       <c r="J147" s="19" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K147" s="7">
         <v>0</v>
@@ -11204,13 +11244,13 @@
         <v>393</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E148" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F148" s="19" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G148" s="7" t="s">
         <v>1</v>
@@ -11220,7 +11260,7 @@
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="19" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="K148" s="7">
         <v>0</v>
@@ -11237,13 +11277,13 @@
         <v>394</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E149" s="7" t="s">
         <v>187</v>
       </c>
       <c r="F149" s="19" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G149" s="7" t="s">
         <v>1</v>
@@ -11253,7 +11293,7 @@
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="K149" s="7">
         <v>0</v>
@@ -11270,13 +11310,13 @@
         <v>252</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E150" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F150" s="19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G150" s="7" t="s">
         <v>1</v>
@@ -11288,7 +11328,7 @@
         <v>58118</v>
       </c>
       <c r="J150" s="19" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="K150" s="7">
         <v>0</v>
@@ -11305,13 +11345,13 @@
         <v>253</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>187</v>
       </c>
       <c r="F151" s="19" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G151" s="7" t="s">
         <v>1</v>
@@ -11323,7 +11363,7 @@
         <v>58118</v>
       </c>
       <c r="J151" s="19" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K151" s="7">
         <v>0</v>
@@ -11340,13 +11380,13 @@
         <v>395</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F152" s="19" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G152" s="7" t="s">
         <v>1</v>
@@ -11356,7 +11396,7 @@
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="19" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K152" s="7">
         <v>0</v>
@@ -11370,22 +11410,22 @@
         <v>140</v>
       </c>
       <c r="C153" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D153" s="7" t="s">
         <v>1035</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="E153" s="7" t="s">
         <v>1037</v>
       </c>
-      <c r="E153" s="7" t="s">
+      <c r="F153" s="31" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G153" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="F153" s="31" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>1041</v>
-      </c>
       <c r="H153" s="9" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I153" s="7">
         <v>58112</v>
@@ -11400,22 +11440,22 @@
         <v>140</v>
       </c>
       <c r="C154" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D154" s="7" t="s">
         <v>1036</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="E154" s="7" t="s">
         <v>1038</v>
       </c>
-      <c r="E154" s="7" t="s">
-        <v>1040</v>
-      </c>
       <c r="F154" s="31" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="G154" s="7" t="s">
         <v>80</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I154" s="7">
         <v>58112</v>
@@ -20448,7 +20488,7 @@
         <v>605</v>
       </c>
       <c r="C641" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D641" s="18" t="s">
         <v>566</v>
@@ -20462,7 +20502,7 @@
         <v>605</v>
       </c>
       <c r="C642" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D642" s="18" t="s">
         <v>569</v>
@@ -20476,7 +20516,7 @@
         <v>605</v>
       </c>
       <c r="C643" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D643" s="18" t="s">
         <v>570</v>
@@ -20490,7 +20530,7 @@
         <v>605</v>
       </c>
       <c r="C644" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D644" s="18" t="s">
         <v>571</v>
@@ -20504,7 +20544,7 @@
         <v>605</v>
       </c>
       <c r="C645" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D645" s="18" t="s">
         <v>572</v>
@@ -20518,7 +20558,7 @@
         <v>605</v>
       </c>
       <c r="C646" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D646" s="18" t="s">
         <v>573</v>
@@ -20532,7 +20572,7 @@
         <v>605</v>
       </c>
       <c r="C647" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D647" s="18" t="s">
         <v>574</v>
@@ -20546,7 +20586,7 @@
         <v>605</v>
       </c>
       <c r="C648" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D648" s="18" t="s">
         <v>576</v>
@@ -20560,7 +20600,7 @@
         <v>605</v>
       </c>
       <c r="C649" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D649" s="18" t="s">
         <v>577</v>
@@ -20574,7 +20614,7 @@
         <v>605</v>
       </c>
       <c r="C650" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D650" s="18" t="s">
         <v>610</v>
@@ -20588,7 +20628,7 @@
         <v>605</v>
       </c>
       <c r="C651" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D651" s="18" t="s">
         <v>578</v>
@@ -20602,7 +20642,7 @@
         <v>605</v>
       </c>
       <c r="C652" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D652" s="18" t="s">
         <v>580</v>
@@ -20616,7 +20656,7 @@
         <v>605</v>
       </c>
       <c r="C653" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D653" s="18" t="s">
         <v>581</v>
@@ -20630,7 +20670,7 @@
         <v>605</v>
       </c>
       <c r="C654" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D654" s="18" t="s">
         <v>565</v>
@@ -20644,7 +20684,7 @@
         <v>605</v>
       </c>
       <c r="C655" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D655" s="18" t="s">
         <v>569</v>
@@ -20658,7 +20698,7 @@
         <v>605</v>
       </c>
       <c r="C656" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D656" s="18" t="s">
         <v>570</v>
@@ -20672,7 +20712,7 @@
         <v>605</v>
       </c>
       <c r="C657" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D657" s="18" t="s">
         <v>571</v>
@@ -20686,7 +20726,7 @@
         <v>605</v>
       </c>
       <c r="C658" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D658" s="18" t="s">
         <v>572</v>
@@ -20700,7 +20740,7 @@
         <v>605</v>
       </c>
       <c r="C659" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D659" s="18" t="s">
         <v>573</v>
@@ -20714,7 +20754,7 @@
         <v>605</v>
       </c>
       <c r="C660" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D660" s="18" t="s">
         <v>574</v>
@@ -20728,7 +20768,7 @@
         <v>605</v>
       </c>
       <c r="C661" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D661" s="18" t="s">
         <v>606</v>
@@ -20742,7 +20782,7 @@
         <v>605</v>
       </c>
       <c r="C662" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D662" s="18" t="s">
         <v>607</v>
@@ -20756,7 +20796,7 @@
         <v>605</v>
       </c>
       <c r="C663" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D663" s="18" t="s">
         <v>610</v>
@@ -20770,7 +20810,7 @@
         <v>605</v>
       </c>
       <c r="C664" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D664" s="18" t="s">
         <v>578</v>
@@ -20784,7 +20824,7 @@
         <v>605</v>
       </c>
       <c r="C665" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D665" s="18" t="s">
         <v>580</v>
@@ -20798,7 +20838,7 @@
         <v>605</v>
       </c>
       <c r="C666" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D666" s="18" t="s">
         <v>581</v>
@@ -20812,7 +20852,7 @@
         <v>605</v>
       </c>
       <c r="C667" s="17" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D667" s="18" t="s">
         <v>567</v>
@@ -20826,7 +20866,7 @@
         <v>605</v>
       </c>
       <c r="C668" s="17" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D668" s="18" t="s">
         <v>569</v>
@@ -20840,7 +20880,7 @@
         <v>605</v>
       </c>
       <c r="C669" s="17" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D669" s="18" t="s">
         <v>570</v>
@@ -20854,7 +20894,7 @@
         <v>605</v>
       </c>
       <c r="C670" s="17" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D670" s="18" t="s">
         <v>571</v>
@@ -20868,7 +20908,7 @@
         <v>605</v>
       </c>
       <c r="C671" s="17" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D671" s="18" t="s">
         <v>572</v>
@@ -20882,7 +20922,7 @@
         <v>605</v>
       </c>
       <c r="C672" s="17" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D672" s="18" t="s">
         <v>608</v>
@@ -20896,7 +20936,7 @@
         <v>605</v>
       </c>
       <c r="C673" s="17" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D673" s="18" t="s">
         <v>575</v>
@@ -20910,7 +20950,7 @@
         <v>605</v>
       </c>
       <c r="C674" s="17" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D674" s="18" t="s">
         <v>610</v>
@@ -20924,7 +20964,7 @@
         <v>605</v>
       </c>
       <c r="C675" s="17" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D675" s="18" t="s">
         <v>578</v>
@@ -20938,7 +20978,7 @@
         <v>605</v>
       </c>
       <c r="C676" s="17" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D676" s="18" t="s">
         <v>580</v>
@@ -20952,7 +20992,7 @@
         <v>605</v>
       </c>
       <c r="C677" s="17" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D677" s="18" t="s">
         <v>581</v>
@@ -20963,13 +21003,13 @@
     </row>
     <row r="678" spans="2:5">
       <c r="B678" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C678" s="32" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D678" s="7" t="s">
         <v>1033</v>
-      </c>
-      <c r="D678" s="7" t="s">
-        <v>1035</v>
       </c>
       <c r="E678" s="16">
         <v>0</v>
@@ -20977,13 +21017,13 @@
     </row>
     <row r="679" spans="2:5">
       <c r="B679" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C679" s="32" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D679" s="7" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E679" s="16">
         <v>0</v>
@@ -20991,13 +21031,13 @@
     </row>
     <row r="680" spans="2:5">
       <c r="B680" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C680" s="32" t="s">
         <v>1032</v>
       </c>
-      <c r="C680" s="32" t="s">
-        <v>1034</v>
-      </c>
       <c r="D680" s="7" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E680" s="16">
         <v>0</v>
@@ -21005,13 +21045,13 @@
     </row>
     <row r="681" spans="2:5">
       <c r="B681" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C681" s="32" t="s">
         <v>1032</v>
       </c>
-      <c r="C681" s="32" t="s">
-        <v>1034</v>
-      </c>
       <c r="D681" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E681" s="16">
         <v>0</v>
@@ -21026,10 +21066,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21189,13 +21229,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="4" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -21206,10 +21246,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -21217,13 +21257,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>652</v>
+        <v>1047</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1054</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -21234,10 +21274,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>626</v>
+        <v>1003</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>627</v>
+        <v>652</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
@@ -21251,7 +21291,7 @@
         <v>626</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
@@ -21265,23 +21305,23 @@
         <v>626</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>952</v>
+        <v>648</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>951</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>953</v>
-      </c>
-      <c r="E17" s="23">
+      <c r="E17" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21290,10 +21330,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E18" s="23">
         <v>0</v>
@@ -21304,38 +21344,38 @@
         <v>1</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E19" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="5" t="s">
-        <v>967</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>950</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>956</v>
+      </c>
+      <c r="E20" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>965</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>966</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>954</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -21348,8 +21388,8 @@
       <c r="C22" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>956</v>
+      <c r="D22" s="7" t="s">
+        <v>953</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -21357,13 +21397,13 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="4" t="s">
-        <v>996</v>
+        <v>1</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>997</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>998</v>
+        <v>633</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>955</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -21371,13 +21411,13 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="4" t="s">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>636</v>
+        <v>995</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>996</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
@@ -21388,10 +21428,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>668</v>
+        <v>651</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>636</v>
       </c>
       <c r="E25" s="5">
         <v>0</v>
@@ -21399,13 +21439,13 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>662</v>
+        <v>1</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>668</v>
       </c>
       <c r="E26" s="5">
         <v>0</v>
@@ -21413,13 +21453,13 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>687</v>
+        <v>29</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>662</v>
       </c>
       <c r="E27" s="5">
         <v>0</v>
@@ -21433,7 +21473,7 @@
         <v>686</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E28" s="5">
         <v>0</v>
@@ -21444,10 +21484,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>654</v>
+        <v>686</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>636</v>
+        <v>688</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
@@ -21458,24 +21498,24 @@
         <v>1</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>942</v>
+        <v>654</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>646</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
@@ -21488,8 +21528,8 @@
       <c r="C32" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>42</v>
+      <c r="D32" s="9" t="s">
+        <v>646</v>
       </c>
       <c r="E32" s="5">
         <v>0</v>
@@ -21502,38 +21542,38 @@
       <c r="C33" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="29" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D34" s="30" t="s">
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="29" t="s">
         <v>999</v>
       </c>
-      <c r="E34" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="E35" s="5">
+      <c r="C35" s="29" t="s">
+        <v>998</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>997</v>
+      </c>
+      <c r="E35" s="29">
         <v>0</v>
       </c>
     </row>
@@ -21544,8 +21584,8 @@
       <c r="C36" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>636</v>
+      <c r="D36" s="9" t="s">
+        <v>646</v>
       </c>
       <c r="E36" s="5">
         <v>0</v>
@@ -21556,10 +21596,10 @@
         <v>643</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>1025</v>
+        <v>624</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="E37" s="5">
         <v>0</v>
@@ -21570,10 +21610,10 @@
         <v>643</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>629</v>
+        <v>1023</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="E38" s="5">
         <v>0</v>
@@ -21584,10 +21624,10 @@
         <v>643</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>714</v>
+        <v>629</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>713</v>
+        <v>668</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
@@ -21598,10 +21638,10 @@
         <v>643</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E40" s="5">
         <v>0</v>
@@ -21612,10 +21652,10 @@
         <v>643</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>965</v>
+        <v>719</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>966</v>
+        <v>712</v>
       </c>
       <c r="E41" s="5">
         <v>0</v>
@@ -21625,11 +21665,11 @@
       <c r="B42" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>662</v>
+      <c r="C42" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="E42" s="5">
         <v>0</v>
@@ -21639,11 +21679,11 @@
       <c r="B43" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>687</v>
+      <c r="C43" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>662</v>
       </c>
       <c r="E43" s="5">
         <v>0</v>
@@ -21657,7 +21697,7 @@
         <v>686</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E44" s="5">
         <v>0</v>
@@ -21668,10 +21708,10 @@
         <v>643</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>654</v>
+        <v>686</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>636</v>
+        <v>688</v>
       </c>
       <c r="E45" s="5">
         <v>0</v>
@@ -21682,52 +21722,52 @@
         <v>643</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>942</v>
+        <v>654</v>
       </c>
       <c r="D46" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="B47" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>632</v>
-      </c>
       <c r="E47" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="7" t="s">
-        <v>631</v>
+      <c r="B48" s="5" t="s">
+        <v>1044</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>632</v>
+        <v>1043</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>1045</v>
       </c>
       <c r="E48" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="7" t="s">
-        <v>631</v>
+      <c r="B49" s="5" t="s">
+        <v>643</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>963</v>
+        <v>1043</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>632</v>
+        <v>1046</v>
       </c>
       <c r="E49" s="5">
         <v>0</v>
@@ -21738,10 +21778,10 @@
         <v>631</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="E50" s="5">
         <v>0</v>
@@ -21752,10 +21792,10 @@
         <v>631</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>964</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>653</v>
+        <v>961</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>632</v>
       </c>
       <c r="E51" s="5">
         <v>0</v>
@@ -21766,10 +21806,10 @@
         <v>631</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>964</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>682</v>
+        <v>962</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>632</v>
       </c>
       <c r="E52" s="5">
         <v>0</v>
@@ -21777,13 +21817,13 @@
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="7" t="s">
-        <v>983</v>
+        <v>631</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>984</v>
+        <v>963</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>985</v>
+        <v>650</v>
       </c>
       <c r="E53" s="5">
         <v>0</v>
@@ -21794,10 +21834,10 @@
         <v>631</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>650</v>
+        <v>963</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>653</v>
       </c>
       <c r="E54" s="5">
         <v>0</v>
@@ -21808,10 +21848,10 @@
         <v>631</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>660</v>
+        <v>963</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>682</v>
       </c>
       <c r="E55" s="5">
         <v>0</v>
@@ -21819,43 +21859,43 @@
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C57" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="E56" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57" s="22" t="s">
-        <v>631</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>958</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>959</v>
-      </c>
-      <c r="E57" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" s="22" t="s">
-        <v>983</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>958</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>960</v>
-      </c>
-      <c r="E58" s="23">
+      <c r="D58" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="E58" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21864,52 +21904,52 @@
         <v>631</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>629</v>
+        <v>659</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E59" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="E60" s="5">
+      <c r="B60" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>957</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>958</v>
+      </c>
+      <c r="E60" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="E61" s="5">
+      <c r="B61" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>957</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="E61" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>634</v>
+        <v>668</v>
       </c>
       <c r="E62" s="5">
         <v>0</v>
@@ -21919,8 +21959,8 @@
       <c r="B63" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>703</v>
+      <c r="C63" s="5" t="s">
+        <v>986</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>634</v>
@@ -21933,8 +21973,8 @@
       <c r="B64" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>721</v>
+      <c r="C64" s="5" t="s">
+        <v>707</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>634</v>
@@ -21948,7 +21988,7 @@
         <v>635</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>705</v>
+        <v>647</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>634</v>
@@ -21959,13 +21999,13 @@
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="7" t="s">
-        <v>706</v>
+        <v>635</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>664</v>
+        <v>702</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>707</v>
+        <v>634</v>
       </c>
       <c r="E66" s="5">
         <v>0</v>
@@ -21973,13 +22013,13 @@
     </row>
     <row r="67" spans="2:5">
       <c r="B67" s="7" t="s">
-        <v>663</v>
+        <v>635</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>665</v>
+        <v>720</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>707</v>
+        <v>634</v>
       </c>
       <c r="E67" s="5">
         <v>0</v>
@@ -21987,13 +22027,13 @@
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>708</v>
+        <v>635</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>704</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>707</v>
+        <v>634</v>
       </c>
       <c r="E68" s="5">
         <v>0</v>
@@ -22001,13 +22041,13 @@
     </row>
     <row r="69" spans="2:5">
       <c r="B69" s="7" t="s">
-        <v>663</v>
+        <v>705</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E69" s="5">
         <v>0</v>
@@ -22018,10 +22058,10 @@
         <v>663</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E70" s="5">
         <v>0</v>
@@ -22029,13 +22069,13 @@
     </row>
     <row r="71" spans="2:5">
       <c r="B71" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>703</v>
+        <v>705</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>707</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E71" s="5">
         <v>0</v>
@@ -22046,10 +22086,10 @@
         <v>663</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>704</v>
+        <v>666</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E72" s="5">
         <v>0</v>
@@ -22060,10 +22100,10 @@
         <v>663</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>705</v>
+        <v>667</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E73" s="5">
         <v>0</v>
@@ -22071,13 +22111,13 @@
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="7" t="s">
-        <v>628</v>
+        <v>663</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>629</v>
+        <v>702</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>630</v>
+        <v>706</v>
       </c>
       <c r="E74" s="5">
         <v>0</v>
@@ -22085,13 +22125,13 @@
     </row>
     <row r="75" spans="2:5">
       <c r="B75" s="7" t="s">
-        <v>628</v>
+        <v>663</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>655</v>
+        <v>703</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>656</v>
+        <v>706</v>
       </c>
       <c r="E75" s="5">
         <v>0</v>
@@ -22099,13 +22139,13 @@
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="7" t="s">
-        <v>628</v>
+        <v>663</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>655</v>
+        <v>704</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>657</v>
+        <v>706</v>
       </c>
       <c r="E76" s="5">
         <v>0</v>
@@ -22116,10 +22156,10 @@
         <v>628</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>709</v>
+        <v>629</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="E77" s="5">
         <v>0</v>
@@ -22130,7 +22170,7 @@
         <v>628</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>710</v>
+        <v>655</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>656</v>
@@ -22141,13 +22181,13 @@
     </row>
     <row r="79" spans="2:5">
       <c r="B79" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>644</v>
+        <v>628</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>655</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="E79" s="5">
         <v>0</v>
@@ -22155,13 +22195,13 @@
     </row>
     <row r="80" spans="2:5">
       <c r="B80" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>644</v>
+        <v>628</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>708</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>683</v>
+        <v>656</v>
       </c>
       <c r="E80" s="5">
         <v>0</v>
@@ -22169,13 +22209,13 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>640</v>
+        <v>628</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>709</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="E81" s="5">
         <v>0</v>
@@ -22186,10 +22226,10 @@
         <v>638</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E82" s="5">
         <v>0</v>
@@ -22200,10 +22240,10 @@
         <v>638</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>1006</v>
+        <v>644</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>1007</v>
+        <v>683</v>
       </c>
       <c r="E83" s="5">
         <v>0</v>
@@ -22213,11 +22253,11 @@
       <c r="B84" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>649</v>
+      <c r="C84" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>641</v>
       </c>
       <c r="E84" s="5">
         <v>0</v>
@@ -22225,13 +22265,13 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="7" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>1023</v>
+        <v>638</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>640</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>1024</v>
+        <v>642</v>
       </c>
       <c r="E85" s="5">
         <v>0</v>
@@ -22239,13 +22279,13 @@
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>680</v>
+        <v>638</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>1005</v>
       </c>
       <c r="E86" s="5">
         <v>0</v>
@@ -22253,13 +22293,13 @@
     </row>
     <row r="87" spans="2:5">
       <c r="B87" s="7" t="s">
-        <v>676</v>
+        <v>638</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>678</v>
+        <v>1019</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>680</v>
+        <v>649</v>
       </c>
       <c r="E87" s="5">
         <v>0</v>
@@ -22267,13 +22307,13 @@
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="7" t="s">
-        <v>993</v>
+        <v>1020</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>994</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>995</v>
+        <v>1021</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>1022</v>
       </c>
       <c r="E88" s="5">
         <v>0</v>
@@ -22281,13 +22321,13 @@
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="7" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="E89" s="5">
         <v>0</v>
@@ -22295,13 +22335,13 @@
     </row>
     <row r="90" spans="2:5">
       <c r="B90" s="7" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="E90" s="5">
         <v>0</v>
@@ -22309,13 +22349,13 @@
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="7" t="s">
-        <v>941</v>
+        <v>991</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>686</v>
+        <v>992</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>687</v>
+        <v>993</v>
       </c>
       <c r="E91" s="5">
         <v>0</v>
@@ -22323,13 +22363,13 @@
     </row>
     <row r="92" spans="2:5">
       <c r="B92" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>690</v>
+        <v>694</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>684</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="E92" s="5">
         <v>0</v>
@@ -22337,13 +22377,13 @@
     </row>
     <row r="93" spans="2:5">
       <c r="B93" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>690</v>
+        <v>685</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>686</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E93" s="5">
         <v>0</v>
@@ -22351,13 +22391,13 @@
     </row>
     <row r="94" spans="2:5">
       <c r="B94" s="7" t="s">
-        <v>692</v>
+        <v>940</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="E94" s="5">
         <v>0</v>
@@ -22365,13 +22405,13 @@
     </row>
     <row r="95" spans="2:5">
       <c r="B95" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>699</v>
+        <v>692</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>690</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="E95" s="5">
         <v>0</v>
@@ -22379,13 +22419,13 @@
     </row>
     <row r="96" spans="2:5">
       <c r="B96" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>702</v>
+        <v>1051</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>1050</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>701</v>
+        <v>1052</v>
       </c>
       <c r="E96" s="5">
         <v>0</v>
@@ -22393,13 +22433,13 @@
     </row>
     <row r="97" spans="2:5">
       <c r="B97" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>711</v>
+        <v>1053</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>690</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="E97" s="5">
         <v>0</v>
@@ -22407,13 +22447,13 @@
     </row>
     <row r="98" spans="2:5">
       <c r="B98" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>719</v>
+        <v>1053</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>1050</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>716</v>
+        <v>681</v>
       </c>
       <c r="E98" s="5">
         <v>0</v>
@@ -22421,13 +22461,13 @@
     </row>
     <row r="99" spans="2:5">
       <c r="B99" s="7" t="s">
-        <v>715</v>
+        <v>691</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>716</v>
+        <v>697</v>
       </c>
       <c r="E99" s="5">
         <v>0</v>
@@ -22435,13 +22475,13 @@
     </row>
     <row r="100" spans="2:5">
       <c r="B100" s="7" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="E100" s="5">
         <v>0</v>
@@ -22449,13 +22489,13 @@
     </row>
     <row r="101" spans="2:5">
       <c r="B101" s="7" t="s">
-        <v>986</v>
+        <v>699</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>987</v>
+        <v>701</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>990</v>
+        <v>700</v>
       </c>
       <c r="E101" s="5">
         <v>0</v>
@@ -22463,13 +22503,13 @@
     </row>
     <row r="102" spans="2:5">
       <c r="B102" s="7" t="s">
-        <v>986</v>
+        <v>699</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>989</v>
+        <v>710</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>990</v>
+        <v>711</v>
       </c>
       <c r="E102" s="5">
         <v>0</v>
@@ -22477,13 +22517,13 @@
     </row>
     <row r="103" spans="2:5">
       <c r="B103" s="7" t="s">
-        <v>986</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>991</v>
+        <v>714</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>718</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>990</v>
+        <v>715</v>
       </c>
       <c r="E103" s="5">
         <v>0</v>
@@ -22491,20 +22531,90 @@
     </row>
     <row r="104" spans="2:5">
       <c r="B104" s="7" t="s">
-        <v>986</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>992</v>
+        <v>714</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>716</v>
       </c>
       <c r="D104" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="E104" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="E105" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>988</v>
+      </c>
+      <c r="E106" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>988</v>
+      </c>
+      <c r="E107" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>988</v>
+      </c>
+      <c r="E108" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>990</v>
       </c>
-      <c r="E104" s="5">
+      <c r="D109" s="9" t="s">
+        <v>988</v>
+      </c>
+      <c r="E109" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:E101"/>
+  <autoFilter ref="B3:E106"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22585,10 +22695,10 @@
         <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>945</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>946</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>51</v>
@@ -22596,7 +22706,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="20" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
@@ -22616,10 +22726,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="20" t="s">
+        <v>942</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>943</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>944</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>28</v>
@@ -22818,7 +22928,7 @@
     </row>
     <row r="4" spans="1:16" ht="27">
       <c r="B4" s="20" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
@@ -22845,14 +22955,14 @@
         <v>25</v>
       </c>
       <c r="K4" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>949</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>950</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="20" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="O4" s="7">
         <v>58108</v>
@@ -23022,7 +23132,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="24" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>54</v>
@@ -23039,53 +23149,53 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="25" t="s">
+        <v>971</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>974</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>975</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>976</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="26" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="26" t="s">
+        <v>978</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>967</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>968</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>980</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>969</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>970</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>982</v>
       </c>
     </row>
   </sheetData>

--- a/wico/数据表结构.xlsx
+++ b/wico/数据表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13200" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13200" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="6" r:id="rId1"/>
@@ -16,16 +16,16 @@
     <sheet name="客户正式投诉" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$120</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'零件清单（下载）'!$B$3:$K$152</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'座椅配置（下载）'!$B$3:$E$677</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'座椅配置（下载）'!$B$3:$E$676</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3827" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3857" uniqueCount="1081">
   <si>
     <t>SLIDE ADJR OUT L,FR SEAT</t>
   </si>
@@ -3271,10 +3271,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>升降异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>升降反转音</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3634,6 +3630,110 @@
   </si>
   <si>
     <t>滑轨震动并且晃动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机破损</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撬扇形齿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降打啃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降干涉异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撬支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱、短轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动晃动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动震动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepairMethod</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降电机异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>变形</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动电机支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑动电机支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱、短轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整/更换 绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动震动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动晃动</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5094,7 +5194,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5155,7 +5255,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5216,7 +5316,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5272,7 +5372,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5330,7 +5430,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5388,7 +5488,7 @@
         <xdr:cNvPr id="13" name="TextBox 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5451,7 +5551,7 @@
         <xdr:cNvPr id="16" name="直接箭头连接符 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5504,7 +5604,7 @@
         <xdr:cNvPr id="21" name="图片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5565,7 +5665,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5626,7 +5726,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5679,7 +5779,7 @@
         <xdr:cNvPr id="27" name="直接箭头连接符 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5732,7 +5832,7 @@
         <xdr:cNvPr id="29" name="直接箭头连接符 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5785,7 +5885,7 @@
         <xdr:cNvPr id="31" name="直接箭头连接符 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5838,7 +5938,7 @@
         <xdr:cNvPr id="33" name="直接箭头连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5891,7 +5991,7 @@
         <xdr:cNvPr id="36" name="直接箭头连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5939,7 +6039,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7548,7 +7648,7 @@
         <v>279</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>280</v>
@@ -7581,7 +7681,7 @@
         <v>281</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>282</v>
@@ -8130,7 +8230,7 @@
         <v>2</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="J55" s="19" t="s">
         <v>745</v>
@@ -9658,7 +9758,7 @@
         <v>138</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>139</v>
@@ -10861,7 +10961,7 @@
         <v>242</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>209</v>
@@ -10966,7 +11066,7 @@
         <v>245</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>221</v>
@@ -11141,7 +11241,7 @@
         <v>392</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>181</v>
@@ -11174,7 +11274,7 @@
         <v>250</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E146" s="7" t="s">
         <v>0</v>
@@ -11209,7 +11309,7 @@
         <v>251</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E147" s="7" t="s">
         <v>181</v>
@@ -11244,7 +11344,7 @@
         <v>393</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E148" s="7" t="s">
         <v>0</v>
@@ -11277,7 +11377,7 @@
         <v>394</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E149" s="7" t="s">
         <v>187</v>
@@ -11310,7 +11410,7 @@
         <v>252</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E150" s="7" t="s">
         <v>3</v>
@@ -11345,7 +11445,7 @@
         <v>253</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>187</v>
@@ -11380,7 +11480,7 @@
         <v>395</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>3</v>
@@ -11410,22 +11510,22 @@
         <v>140</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F153" s="31" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I153" s="7">
         <v>58112</v>
@@ -11440,22 +11540,22 @@
         <v>140</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F154" s="31" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G154" s="7" t="s">
         <v>80</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I154" s="7">
         <v>58112</v>
@@ -11479,10 +11579,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E681"/>
+  <dimension ref="A1:E680"/>
   <sheetViews>
-    <sheetView topLeftCell="A664" workbookViewId="0">
-      <selection activeCell="D679" sqref="D679"/>
+    <sheetView topLeftCell="A443" workbookViewId="0">
+      <selection activeCell="C379" sqref="C379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16814,7 +16914,7 @@
         <v>459</v>
       </c>
       <c r="D380" s="18" t="s">
-        <v>302</v>
+        <v>62</v>
       </c>
       <c r="E380" s="16">
         <v>0</v>
@@ -16825,10 +16925,10 @@
         <v>589</v>
       </c>
       <c r="C381" s="17" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D381" s="18" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="E381" s="16">
         <v>0</v>
@@ -16842,7 +16942,7 @@
         <v>461</v>
       </c>
       <c r="D382" s="18" t="s">
-        <v>104</v>
+        <v>264</v>
       </c>
       <c r="E382" s="16">
         <v>0</v>
@@ -16856,7 +16956,7 @@
         <v>461</v>
       </c>
       <c r="D383" s="18" t="s">
-        <v>264</v>
+        <v>422</v>
       </c>
       <c r="E383" s="16">
         <v>0</v>
@@ -16870,7 +16970,7 @@
         <v>461</v>
       </c>
       <c r="D384" s="18" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="E384" s="16">
         <v>0</v>
@@ -16884,7 +16984,7 @@
         <v>461</v>
       </c>
       <c r="D385" s="18" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="E385" s="16">
         <v>0</v>
@@ -16898,7 +16998,7 @@
         <v>461</v>
       </c>
       <c r="D386" s="18" t="s">
-        <v>405</v>
+        <v>5</v>
       </c>
       <c r="E386" s="16">
         <v>0</v>
@@ -16912,7 +17012,7 @@
         <v>461</v>
       </c>
       <c r="D387" s="18" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E387" s="16">
         <v>0</v>
@@ -16926,7 +17026,7 @@
         <v>461</v>
       </c>
       <c r="D388" s="18" t="s">
-        <v>16</v>
+        <v>366</v>
       </c>
       <c r="E388" s="16">
         <v>0</v>
@@ -16940,7 +17040,7 @@
         <v>461</v>
       </c>
       <c r="D389" s="18" t="s">
-        <v>366</v>
+        <v>127</v>
       </c>
       <c r="E389" s="16">
         <v>0</v>
@@ -16954,7 +17054,7 @@
         <v>461</v>
       </c>
       <c r="D390" s="18" t="s">
-        <v>127</v>
+        <v>375</v>
       </c>
       <c r="E390" s="16">
         <v>0</v>
@@ -16968,7 +17068,7 @@
         <v>461</v>
       </c>
       <c r="D391" s="18" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E391" s="16">
         <v>0</v>
@@ -16982,7 +17082,7 @@
         <v>461</v>
       </c>
       <c r="D392" s="18" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="E392" s="16">
         <v>0</v>
@@ -16996,7 +17096,7 @@
         <v>461</v>
       </c>
       <c r="D393" s="18" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E393" s="16">
         <v>0</v>
@@ -17010,7 +17110,7 @@
         <v>461</v>
       </c>
       <c r="D394" s="18" t="s">
-        <v>415</v>
+        <v>314</v>
       </c>
       <c r="E394" s="16">
         <v>0</v>
@@ -17024,7 +17124,7 @@
         <v>461</v>
       </c>
       <c r="D395" s="18" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="E395" s="16">
         <v>0</v>
@@ -17038,7 +17138,7 @@
         <v>461</v>
       </c>
       <c r="D396" s="18" t="s">
-        <v>302</v>
+        <v>62</v>
       </c>
       <c r="E396" s="16">
         <v>0</v>
@@ -17046,13 +17146,13 @@
     </row>
     <row r="397" spans="2:5">
       <c r="B397" s="16" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C397" s="17" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D397" s="18" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="E397" s="16">
         <v>0</v>
@@ -17066,7 +17166,7 @@
         <v>465</v>
       </c>
       <c r="D398" s="18" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E398" s="16">
         <v>0</v>
@@ -17074,13 +17174,13 @@
     </row>
     <row r="399" spans="2:5">
       <c r="B399" s="16" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C399" s="17" t="s">
         <v>465</v>
       </c>
       <c r="D399" s="18" t="s">
-        <v>213</v>
+        <v>397</v>
       </c>
       <c r="E399" s="16">
         <v>0</v>
@@ -17094,7 +17194,7 @@
         <v>465</v>
       </c>
       <c r="D400" s="18" t="s">
-        <v>397</v>
+        <v>463</v>
       </c>
       <c r="E400" s="16">
         <v>0</v>
@@ -17108,7 +17208,7 @@
         <v>465</v>
       </c>
       <c r="D401" s="18" t="s">
-        <v>463</v>
+        <v>155</v>
       </c>
       <c r="E401" s="16">
         <v>0</v>
@@ -17122,7 +17222,7 @@
         <v>465</v>
       </c>
       <c r="D402" s="18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E402" s="16">
         <v>0</v>
@@ -17136,7 +17236,7 @@
         <v>465</v>
       </c>
       <c r="D403" s="18" t="s">
-        <v>157</v>
+        <v>327</v>
       </c>
       <c r="E403" s="16">
         <v>0</v>
@@ -17147,10 +17247,10 @@
         <v>591</v>
       </c>
       <c r="C404" s="17" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D404" s="18" t="s">
-        <v>327</v>
+        <v>210</v>
       </c>
       <c r="E404" s="16">
         <v>0</v>
@@ -17164,7 +17264,7 @@
         <v>466</v>
       </c>
       <c r="D405" s="18" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E405" s="16">
         <v>0</v>
@@ -17178,7 +17278,7 @@
         <v>466</v>
       </c>
       <c r="D406" s="18" t="s">
-        <v>216</v>
+        <v>397</v>
       </c>
       <c r="E406" s="16">
         <v>0</v>
@@ -17192,7 +17292,7 @@
         <v>466</v>
       </c>
       <c r="D407" s="18" t="s">
-        <v>397</v>
+        <v>463</v>
       </c>
       <c r="E407" s="16">
         <v>0</v>
@@ -17206,7 +17306,7 @@
         <v>466</v>
       </c>
       <c r="D408" s="18" t="s">
-        <v>463</v>
+        <v>155</v>
       </c>
       <c r="E408" s="16">
         <v>0</v>
@@ -17220,7 +17320,7 @@
         <v>466</v>
       </c>
       <c r="D409" s="18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E409" s="16">
         <v>0</v>
@@ -17234,7 +17334,7 @@
         <v>466</v>
       </c>
       <c r="D410" s="18" t="s">
-        <v>157</v>
+        <v>327</v>
       </c>
       <c r="E410" s="16">
         <v>0</v>
@@ -17245,10 +17345,10 @@
         <v>591</v>
       </c>
       <c r="C411" s="17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D411" s="18" t="s">
-        <v>327</v>
+        <v>207</v>
       </c>
       <c r="E411" s="16">
         <v>0</v>
@@ -17262,7 +17362,7 @@
         <v>464</v>
       </c>
       <c r="D412" s="18" t="s">
-        <v>207</v>
+        <v>332</v>
       </c>
       <c r="E412" s="16">
         <v>0</v>
@@ -17276,13 +17376,14 @@
         <v>464</v>
       </c>
       <c r="D413" s="18" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
       <c r="E413" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:5">
+      <c r="A414" s="1"/>
       <c r="B414" s="16" t="s">
         <v>591</v>
       </c>
@@ -17290,7 +17391,7 @@
         <v>464</v>
       </c>
       <c r="D414" s="18" t="s">
-        <v>463</v>
+        <v>153</v>
       </c>
       <c r="E414" s="16">
         <v>0</v>
@@ -17305,7 +17406,7 @@
         <v>464</v>
       </c>
       <c r="D415" s="18" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E415" s="16">
         <v>0</v>
@@ -17320,7 +17421,7 @@
         <v>464</v>
       </c>
       <c r="D416" s="18" t="s">
-        <v>159</v>
+        <v>327</v>
       </c>
       <c r="E416" s="16">
         <v>0</v>
@@ -17329,13 +17430,13 @@
     <row r="417" spans="1:5">
       <c r="A417" s="1"/>
       <c r="B417" s="16" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C417" s="17" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D417" s="18" t="s">
-        <v>327</v>
+        <v>204</v>
       </c>
       <c r="E417" s="16">
         <v>0</v>
@@ -17350,7 +17451,7 @@
         <v>465</v>
       </c>
       <c r="D418" s="18" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E418" s="16">
         <v>0</v>
@@ -17359,13 +17460,13 @@
     <row r="419" spans="1:5">
       <c r="A419" s="1"/>
       <c r="B419" s="16" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C419" s="17" t="s">
         <v>465</v>
       </c>
       <c r="D419" s="18" t="s">
-        <v>213</v>
+        <v>397</v>
       </c>
       <c r="E419" s="16">
         <v>0</v>
@@ -17380,7 +17481,7 @@
         <v>465</v>
       </c>
       <c r="D420" s="18" t="s">
-        <v>397</v>
+        <v>463</v>
       </c>
       <c r="E420" s="16">
         <v>0</v>
@@ -17395,7 +17496,7 @@
         <v>465</v>
       </c>
       <c r="D421" s="18" t="s">
-        <v>463</v>
+        <v>155</v>
       </c>
       <c r="E421" s="16">
         <v>0</v>
@@ -17410,7 +17511,7 @@
         <v>465</v>
       </c>
       <c r="D422" s="18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E422" s="16">
         <v>0</v>
@@ -17425,7 +17526,7 @@
         <v>465</v>
       </c>
       <c r="D423" s="18" t="s">
-        <v>157</v>
+        <v>327</v>
       </c>
       <c r="E423" s="16">
         <v>0</v>
@@ -17437,10 +17538,10 @@
         <v>593</v>
       </c>
       <c r="C424" s="17" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D424" s="18" t="s">
-        <v>327</v>
+        <v>210</v>
       </c>
       <c r="E424" s="16">
         <v>0</v>
@@ -17455,7 +17556,7 @@
         <v>466</v>
       </c>
       <c r="D425" s="18" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E425" s="16">
         <v>0</v>
@@ -17470,7 +17571,7 @@
         <v>466</v>
       </c>
       <c r="D426" s="18" t="s">
-        <v>216</v>
+        <v>397</v>
       </c>
       <c r="E426" s="16">
         <v>0</v>
@@ -17485,7 +17586,7 @@
         <v>466</v>
       </c>
       <c r="D427" s="18" t="s">
-        <v>397</v>
+        <v>463</v>
       </c>
       <c r="E427" s="16">
         <v>0</v>
@@ -17500,7 +17601,7 @@
         <v>466</v>
       </c>
       <c r="D428" s="18" t="s">
-        <v>463</v>
+        <v>155</v>
       </c>
       <c r="E428" s="16">
         <v>0</v>
@@ -17515,7 +17616,7 @@
         <v>466</v>
       </c>
       <c r="D429" s="18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E429" s="16">
         <v>0</v>
@@ -17530,7 +17631,7 @@
         <v>466</v>
       </c>
       <c r="D430" s="18" t="s">
-        <v>157</v>
+        <v>327</v>
       </c>
       <c r="E430" s="16">
         <v>0</v>
@@ -17542,10 +17643,10 @@
         <v>593</v>
       </c>
       <c r="C431" s="17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D431" s="18" t="s">
-        <v>327</v>
+        <v>207</v>
       </c>
       <c r="E431" s="16">
         <v>0</v>
@@ -17560,7 +17661,7 @@
         <v>464</v>
       </c>
       <c r="D432" s="18" t="s">
-        <v>207</v>
+        <v>332</v>
       </c>
       <c r="E432" s="16">
         <v>0</v>
@@ -17575,7 +17676,7 @@
         <v>464</v>
       </c>
       <c r="D433" s="18" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
       <c r="E433" s="16">
         <v>0</v>
@@ -17590,7 +17691,7 @@
         <v>464</v>
       </c>
       <c r="D434" s="18" t="s">
-        <v>463</v>
+        <v>153</v>
       </c>
       <c r="E434" s="16">
         <v>0</v>
@@ -17605,7 +17706,7 @@
         <v>464</v>
       </c>
       <c r="D435" s="18" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E435" s="16">
         <v>0</v>
@@ -17620,22 +17721,21 @@
         <v>464</v>
       </c>
       <c r="D436" s="18" t="s">
-        <v>159</v>
+        <v>327</v>
       </c>
       <c r="E436" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:5">
-      <c r="A437" s="1"/>
       <c r="B437" s="16" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C437" s="17" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="D437" s="18" t="s">
-        <v>327</v>
+        <v>473</v>
       </c>
       <c r="E437" s="16">
         <v>0</v>
@@ -17649,7 +17749,7 @@
         <v>474</v>
       </c>
       <c r="D438" s="18" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E438" s="16">
         <v>0</v>
@@ -17657,13 +17757,13 @@
     </row>
     <row r="439" spans="1:5">
       <c r="B439" s="16" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C439" s="17" t="s">
         <v>474</v>
       </c>
       <c r="D439" s="18" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E439" s="16">
         <v>0</v>
@@ -17677,7 +17777,7 @@
         <v>474</v>
       </c>
       <c r="D440" s="18" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E440" s="16">
         <v>0</v>
@@ -17691,7 +17791,7 @@
         <v>474</v>
       </c>
       <c r="D441" s="18" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="E441" s="16">
         <v>0</v>
@@ -17705,7 +17805,7 @@
         <v>474</v>
       </c>
       <c r="D442" s="18" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E442" s="16">
         <v>0</v>
@@ -17719,7 +17819,7 @@
         <v>474</v>
       </c>
       <c r="D443" s="18" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="E443" s="16">
         <v>0</v>
@@ -17733,7 +17833,7 @@
         <v>474</v>
       </c>
       <c r="D444" s="18" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E444" s="16">
         <v>0</v>
@@ -17747,7 +17847,7 @@
         <v>474</v>
       </c>
       <c r="D445" s="18" t="s">
-        <v>510</v>
+        <v>615</v>
       </c>
       <c r="E445" s="16">
         <v>0</v>
@@ -17761,7 +17861,7 @@
         <v>474</v>
       </c>
       <c r="D446" s="18" t="s">
-        <v>615</v>
+        <v>511</v>
       </c>
       <c r="E446" s="16">
         <v>0</v>
@@ -17775,7 +17875,7 @@
         <v>474</v>
       </c>
       <c r="D447" s="18" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E447" s="16">
         <v>0</v>
@@ -17789,7 +17889,7 @@
         <v>474</v>
       </c>
       <c r="D448" s="18" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E448" s="16">
         <v>0</v>
@@ -17803,7 +17903,7 @@
         <v>474</v>
       </c>
       <c r="D449" s="18" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E449" s="16">
         <v>0</v>
@@ -17814,10 +17914,10 @@
         <v>595</v>
       </c>
       <c r="C450" s="17" t="s">
-        <v>474</v>
+        <v>616</v>
       </c>
       <c r="D450" s="18" t="s">
-        <v>514</v>
+        <v>472</v>
       </c>
       <c r="E450" s="16">
         <v>0</v>
@@ -17831,7 +17931,7 @@
         <v>616</v>
       </c>
       <c r="D451" s="18" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="E451" s="16">
         <v>0</v>
@@ -17845,7 +17945,7 @@
         <v>616</v>
       </c>
       <c r="D452" s="18" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E452" s="16">
         <v>0</v>
@@ -17859,7 +17959,7 @@
         <v>616</v>
       </c>
       <c r="D453" s="18" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E453" s="16">
         <v>0</v>
@@ -17873,7 +17973,7 @@
         <v>616</v>
       </c>
       <c r="D454" s="18" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="E454" s="16">
         <v>0</v>
@@ -17887,7 +17987,7 @@
         <v>616</v>
       </c>
       <c r="D455" s="18" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E455" s="16">
         <v>0</v>
@@ -17901,7 +18001,7 @@
         <v>616</v>
       </c>
       <c r="D456" s="18" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="E456" s="16">
         <v>0</v>
@@ -17915,7 +18015,7 @@
         <v>616</v>
       </c>
       <c r="D457" s="18" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E457" s="16">
         <v>0</v>
@@ -17929,7 +18029,7 @@
         <v>616</v>
       </c>
       <c r="D458" s="18" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E458" s="16">
         <v>0</v>
@@ -17943,7 +18043,7 @@
         <v>616</v>
       </c>
       <c r="D459" s="18" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E459" s="16">
         <v>0</v>
@@ -17954,10 +18054,10 @@
         <v>595</v>
       </c>
       <c r="C460" s="17" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D460" s="18" t="s">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="E460" s="16">
         <v>0</v>
@@ -17971,7 +18071,7 @@
         <v>617</v>
       </c>
       <c r="D461" s="18" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E461" s="16">
         <v>0</v>
@@ -17985,7 +18085,7 @@
         <v>617</v>
       </c>
       <c r="D462" s="18" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="E462" s="16">
         <v>0</v>
@@ -17999,7 +18099,7 @@
         <v>617</v>
       </c>
       <c r="D463" s="18" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E463" s="16">
         <v>0</v>
@@ -18013,7 +18113,7 @@
         <v>617</v>
       </c>
       <c r="D464" s="18" t="s">
-        <v>492</v>
+        <v>104</v>
       </c>
       <c r="E464" s="16">
         <v>0</v>
@@ -18027,7 +18127,7 @@
         <v>617</v>
       </c>
       <c r="D465" s="18" t="s">
-        <v>104</v>
+        <v>496</v>
       </c>
       <c r="E465" s="16">
         <v>0</v>
@@ -18041,7 +18141,7 @@
         <v>617</v>
       </c>
       <c r="D466" s="18" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E466" s="16">
         <v>0</v>
@@ -18055,7 +18155,7 @@
         <v>617</v>
       </c>
       <c r="D467" s="18" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E467" s="16">
         <v>0</v>
@@ -18069,7 +18169,7 @@
         <v>617</v>
       </c>
       <c r="D468" s="18" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E468" s="16">
         <v>0</v>
@@ -18083,7 +18183,7 @@
         <v>617</v>
       </c>
       <c r="D469" s="18" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E469" s="16">
         <v>0</v>
@@ -18097,7 +18197,7 @@
         <v>617</v>
       </c>
       <c r="D470" s="18" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E470" s="16">
         <v>0</v>
@@ -18111,7 +18211,7 @@
         <v>617</v>
       </c>
       <c r="D471" s="18" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E471" s="16">
         <v>0</v>
@@ -18125,7 +18225,7 @@
         <v>617</v>
       </c>
       <c r="D472" s="18" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E472" s="16">
         <v>0</v>
@@ -18139,7 +18239,7 @@
         <v>617</v>
       </c>
       <c r="D473" s="18" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E473" s="16">
         <v>0</v>
@@ -18153,7 +18253,7 @@
         <v>617</v>
       </c>
       <c r="D474" s="18" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E474" s="16">
         <v>0</v>
@@ -18167,7 +18267,7 @@
         <v>617</v>
       </c>
       <c r="D475" s="18" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E475" s="16">
         <v>0</v>
@@ -18178,10 +18278,10 @@
         <v>595</v>
       </c>
       <c r="C476" s="17" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D476" s="18" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="E476" s="16">
         <v>0</v>
@@ -18195,7 +18295,7 @@
         <v>618</v>
       </c>
       <c r="D477" s="18" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E477" s="16">
         <v>0</v>
@@ -18209,7 +18309,7 @@
         <v>618</v>
       </c>
       <c r="D478" s="18" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="E478" s="16">
         <v>0</v>
@@ -18223,7 +18323,7 @@
         <v>618</v>
       </c>
       <c r="D479" s="18" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E479" s="16">
         <v>0</v>
@@ -18237,7 +18337,7 @@
         <v>618</v>
       </c>
       <c r="D480" s="18" t="s">
-        <v>493</v>
+        <v>104</v>
       </c>
       <c r="E480" s="16">
         <v>0</v>
@@ -18251,7 +18351,7 @@
         <v>618</v>
       </c>
       <c r="D481" s="18" t="s">
-        <v>104</v>
+        <v>495</v>
       </c>
       <c r="E481" s="16">
         <v>0</v>
@@ -18265,7 +18365,7 @@
         <v>618</v>
       </c>
       <c r="D482" s="18" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E482" s="16">
         <v>0</v>
@@ -18279,7 +18379,7 @@
         <v>618</v>
       </c>
       <c r="D483" s="18" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E483" s="16">
         <v>0</v>
@@ -18293,7 +18393,7 @@
         <v>618</v>
       </c>
       <c r="D484" s="18" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E484" s="16">
         <v>0</v>
@@ -18307,7 +18407,7 @@
         <v>618</v>
       </c>
       <c r="D485" s="18" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E485" s="16">
         <v>0</v>
@@ -18321,7 +18421,7 @@
         <v>618</v>
       </c>
       <c r="D486" s="18" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E486" s="16">
         <v>0</v>
@@ -18335,7 +18435,7 @@
         <v>618</v>
       </c>
       <c r="D487" s="18" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E487" s="16">
         <v>0</v>
@@ -18349,7 +18449,7 @@
         <v>618</v>
       </c>
       <c r="D488" s="18" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E488" s="16">
         <v>0</v>
@@ -18363,7 +18463,7 @@
         <v>618</v>
       </c>
       <c r="D489" s="18" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E489" s="16">
         <v>0</v>
@@ -18377,7 +18477,7 @@
         <v>618</v>
       </c>
       <c r="D490" s="18" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E490" s="16">
         <v>0</v>
@@ -18391,7 +18491,7 @@
         <v>618</v>
       </c>
       <c r="D491" s="18" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E491" s="16">
         <v>0</v>
@@ -18402,10 +18502,10 @@
         <v>595</v>
       </c>
       <c r="C492" s="17" t="s">
-        <v>618</v>
+        <v>461</v>
       </c>
       <c r="D492" s="18" t="s">
-        <v>508</v>
+        <v>481</v>
       </c>
       <c r="E492" s="16">
         <v>0</v>
@@ -18419,7 +18519,7 @@
         <v>461</v>
       </c>
       <c r="D493" s="18" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E493" s="16">
         <v>0</v>
@@ -18433,7 +18533,7 @@
         <v>461</v>
       </c>
       <c r="D494" s="18" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E494" s="16">
         <v>0</v>
@@ -18444,10 +18544,10 @@
         <v>595</v>
       </c>
       <c r="C495" s="17" t="s">
-        <v>461</v>
+        <v>619</v>
       </c>
       <c r="D495" s="18" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E495" s="16">
         <v>0</v>
@@ -18461,7 +18561,7 @@
         <v>619</v>
       </c>
       <c r="D496" s="18" t="s">
-        <v>488</v>
+        <v>104</v>
       </c>
       <c r="E496" s="16">
         <v>0</v>
@@ -18475,7 +18575,7 @@
         <v>619</v>
       </c>
       <c r="D497" s="18" t="s">
-        <v>104</v>
+        <v>494</v>
       </c>
       <c r="E497" s="16">
         <v>0</v>
@@ -18489,7 +18589,7 @@
         <v>619</v>
       </c>
       <c r="D498" s="18" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E498" s="16">
         <v>0</v>
@@ -18503,7 +18603,7 @@
         <v>619</v>
       </c>
       <c r="D499" s="18" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E499" s="16">
         <v>0</v>
@@ -18517,7 +18617,7 @@
         <v>619</v>
       </c>
       <c r="D500" s="18" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E500" s="16">
         <v>0</v>
@@ -18531,7 +18631,7 @@
         <v>619</v>
       </c>
       <c r="D501" s="18" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E501" s="16">
         <v>0</v>
@@ -18545,7 +18645,7 @@
         <v>619</v>
       </c>
       <c r="D502" s="18" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E502" s="16">
         <v>0</v>
@@ -18559,7 +18659,7 @@
         <v>619</v>
       </c>
       <c r="D503" s="18" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E503" s="16">
         <v>0</v>
@@ -18573,7 +18673,7 @@
         <v>619</v>
       </c>
       <c r="D504" s="18" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E504" s="16">
         <v>0</v>
@@ -18587,7 +18687,7 @@
         <v>619</v>
       </c>
       <c r="D505" s="18" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E505" s="16">
         <v>0</v>
@@ -18601,7 +18701,7 @@
         <v>619</v>
       </c>
       <c r="D506" s="18" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E506" s="16">
         <v>0</v>
@@ -18615,7 +18715,7 @@
         <v>619</v>
       </c>
       <c r="D507" s="18" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E507" s="16">
         <v>0</v>
@@ -18626,10 +18726,10 @@
         <v>595</v>
       </c>
       <c r="C508" s="17" t="s">
-        <v>619</v>
+        <v>470</v>
       </c>
       <c r="D508" s="18" t="s">
-        <v>508</v>
+        <v>469</v>
       </c>
       <c r="E508" s="16">
         <v>0</v>
@@ -18640,10 +18740,10 @@
         <v>595</v>
       </c>
       <c r="C509" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D509" s="18" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E509" s="16">
         <v>0</v>
@@ -18657,7 +18757,7 @@
         <v>468</v>
       </c>
       <c r="D510" s="18" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="E510" s="16">
         <v>0</v>
@@ -18665,13 +18765,13 @@
     </row>
     <row r="511" spans="2:5">
       <c r="B511" s="16" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C511" s="17" t="s">
-        <v>468</v>
+        <v>28</v>
       </c>
       <c r="D511" s="18" t="s">
-        <v>471</v>
+        <v>516</v>
       </c>
       <c r="E511" s="16">
         <v>0</v>
@@ -18685,7 +18785,7 @@
         <v>28</v>
       </c>
       <c r="D512" s="18" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E512" s="16">
         <v>0</v>
@@ -18693,13 +18793,13 @@
     </row>
     <row r="513" spans="2:5">
       <c r="B513" s="16" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C513" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D513" s="18" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E513" s="16">
         <v>0</v>
@@ -18710,10 +18810,10 @@
         <v>597</v>
       </c>
       <c r="C514" s="17" t="s">
-        <v>28</v>
+        <v>521</v>
       </c>
       <c r="D514" s="18" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E514" s="16">
         <v>0</v>
@@ -18727,7 +18827,7 @@
         <v>521</v>
       </c>
       <c r="D515" s="18" t="s">
-        <v>520</v>
+        <v>615</v>
       </c>
       <c r="E515" s="16">
         <v>0</v>
@@ -18741,7 +18841,7 @@
         <v>521</v>
       </c>
       <c r="D516" s="18" t="s">
-        <v>615</v>
+        <v>524</v>
       </c>
       <c r="E516" s="16">
         <v>0</v>
@@ -18755,7 +18855,7 @@
         <v>521</v>
       </c>
       <c r="D517" s="18" t="s">
-        <v>524</v>
+        <v>620</v>
       </c>
       <c r="E517" s="16">
         <v>0</v>
@@ -18769,7 +18869,7 @@
         <v>521</v>
       </c>
       <c r="D518" s="18" t="s">
-        <v>620</v>
+        <v>525</v>
       </c>
       <c r="E518" s="16">
         <v>0</v>
@@ -18783,7 +18883,7 @@
         <v>521</v>
       </c>
       <c r="D519" s="18" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E519" s="16">
         <v>0</v>
@@ -18794,10 +18894,10 @@
         <v>597</v>
       </c>
       <c r="C520" s="17" t="s">
-        <v>521</v>
+        <v>616</v>
       </c>
       <c r="D520" s="18" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="E520" s="16">
         <v>0</v>
@@ -18811,7 +18911,7 @@
         <v>616</v>
       </c>
       <c r="D521" s="18" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E521" s="16">
         <v>0</v>
@@ -18825,7 +18925,7 @@
         <v>616</v>
       </c>
       <c r="D522" s="18" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E522" s="16">
         <v>0</v>
@@ -18839,7 +18939,7 @@
         <v>616</v>
       </c>
       <c r="D523" s="18" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E523" s="16">
         <v>0</v>
@@ -18853,7 +18953,7 @@
         <v>616</v>
       </c>
       <c r="D524" s="18" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E524" s="16">
         <v>0</v>
@@ -18867,7 +18967,7 @@
         <v>616</v>
       </c>
       <c r="D525" s="18" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E525" s="16">
         <v>0</v>
@@ -18881,7 +18981,7 @@
         <v>616</v>
       </c>
       <c r="D526" s="18" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E526" s="16">
         <v>0</v>
@@ -18889,13 +18989,13 @@
     </row>
     <row r="527" spans="2:5">
       <c r="B527" s="16" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C527" s="17" t="s">
-        <v>616</v>
+        <v>521</v>
       </c>
       <c r="D527" s="18" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E527" s="16">
         <v>0</v>
@@ -18909,7 +19009,7 @@
         <v>521</v>
       </c>
       <c r="D528" s="18" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E528" s="16">
         <v>0</v>
@@ -18917,13 +19017,13 @@
     </row>
     <row r="529" spans="2:5">
       <c r="B529" s="16" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C529" s="17" t="s">
         <v>521</v>
       </c>
       <c r="D529" s="18" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E529" s="16">
         <v>0</v>
@@ -18937,7 +19037,7 @@
         <v>521</v>
       </c>
       <c r="D530" s="18" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E530" s="16">
         <v>0</v>
@@ -18951,7 +19051,7 @@
         <v>521</v>
       </c>
       <c r="D531" s="18" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E531" s="16">
         <v>0</v>
@@ -18965,7 +19065,7 @@
         <v>521</v>
       </c>
       <c r="D532" s="18" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="E532" s="16">
         <v>0</v>
@@ -18979,7 +19079,7 @@
         <v>521</v>
       </c>
       <c r="D533" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E533" s="16">
         <v>0</v>
@@ -18993,7 +19093,7 @@
         <v>521</v>
       </c>
       <c r="D534" s="18" t="s">
-        <v>525</v>
+        <v>615</v>
       </c>
       <c r="E534" s="16">
         <v>0</v>
@@ -19007,7 +19107,7 @@
         <v>521</v>
       </c>
       <c r="D535" s="18" t="s">
-        <v>615</v>
+        <v>520</v>
       </c>
       <c r="E535" s="16">
         <v>0</v>
@@ -19018,10 +19118,10 @@
         <v>599</v>
       </c>
       <c r="C536" s="17" t="s">
-        <v>521</v>
+        <v>616</v>
       </c>
       <c r="D536" s="18" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="E536" s="16">
         <v>0</v>
@@ -19035,7 +19135,7 @@
         <v>616</v>
       </c>
       <c r="D537" s="18" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E537" s="16">
         <v>0</v>
@@ -19049,7 +19149,7 @@
         <v>616</v>
       </c>
       <c r="D538" s="18" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E538" s="16">
         <v>0</v>
@@ -19063,7 +19163,7 @@
         <v>616</v>
       </c>
       <c r="D539" s="18" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E539" s="16">
         <v>0</v>
@@ -19077,7 +19177,7 @@
         <v>616</v>
       </c>
       <c r="D540" s="18" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E540" s="16">
         <v>0</v>
@@ -19091,7 +19191,7 @@
         <v>616</v>
       </c>
       <c r="D541" s="18" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="E541" s="16">
         <v>0</v>
@@ -19105,7 +19205,7 @@
         <v>616</v>
       </c>
       <c r="D542" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E542" s="16">
         <v>0</v>
@@ -19113,13 +19213,13 @@
     </row>
     <row r="543" spans="2:5">
       <c r="B543" s="16" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C543" s="17" t="s">
-        <v>616</v>
+        <v>537</v>
       </c>
       <c r="D543" s="18" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="E543" s="16">
         <v>0</v>
@@ -19133,7 +19233,7 @@
         <v>537</v>
       </c>
       <c r="D544" s="18" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E544" s="16">
         <v>0</v>
@@ -19141,13 +19241,13 @@
     </row>
     <row r="545" spans="2:5">
       <c r="B545" s="16" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C545" s="17" t="s">
         <v>537</v>
       </c>
       <c r="D545" s="18" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E545" s="16">
         <v>0</v>
@@ -19161,7 +19261,7 @@
         <v>537</v>
       </c>
       <c r="D546" s="18" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E546" s="16">
         <v>0</v>
@@ -19175,7 +19275,7 @@
         <v>537</v>
       </c>
       <c r="D547" s="18" t="s">
-        <v>541</v>
+        <v>615</v>
       </c>
       <c r="E547" s="16">
         <v>0</v>
@@ -19186,10 +19286,10 @@
         <v>601</v>
       </c>
       <c r="C548" s="17" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="D548" s="18" t="s">
-        <v>615</v>
+        <v>544</v>
       </c>
       <c r="E548" s="16">
         <v>0</v>
@@ -19203,7 +19303,7 @@
         <v>521</v>
       </c>
       <c r="D549" s="18" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E549" s="16">
         <v>0</v>
@@ -19217,7 +19317,7 @@
         <v>521</v>
       </c>
       <c r="D550" s="18" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="E550" s="16">
         <v>0</v>
@@ -19231,7 +19331,7 @@
         <v>521</v>
       </c>
       <c r="D551" s="18" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E551" s="16">
         <v>0</v>
@@ -19245,7 +19345,7 @@
         <v>521</v>
       </c>
       <c r="D552" s="18" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E552" s="16">
         <v>0</v>
@@ -19256,10 +19356,10 @@
         <v>601</v>
       </c>
       <c r="C553" s="17" t="s">
-        <v>521</v>
+        <v>616</v>
       </c>
       <c r="D553" s="18" t="s">
-        <v>546</v>
+        <v>515</v>
       </c>
       <c r="E553" s="16">
         <v>0</v>
@@ -19273,7 +19373,7 @@
         <v>616</v>
       </c>
       <c r="D554" s="18" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="E554" s="16">
         <v>0</v>
@@ -19287,7 +19387,7 @@
         <v>616</v>
       </c>
       <c r="D555" s="18" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E555" s="16">
         <v>0</v>
@@ -19301,7 +19401,7 @@
         <v>616</v>
       </c>
       <c r="D556" s="18" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E556" s="16">
         <v>0</v>
@@ -19315,7 +19415,7 @@
         <v>616</v>
       </c>
       <c r="D557" s="18" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E557" s="16">
         <v>0</v>
@@ -19329,7 +19429,7 @@
         <v>616</v>
       </c>
       <c r="D558" s="18" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="E558" s="16">
         <v>0</v>
@@ -19343,7 +19443,7 @@
         <v>616</v>
       </c>
       <c r="D559" s="18" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E559" s="16">
         <v>0</v>
@@ -19357,7 +19457,7 @@
         <v>616</v>
       </c>
       <c r="D560" s="18" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E560" s="16">
         <v>0</v>
@@ -19365,13 +19465,13 @@
     </row>
     <row r="561" spans="2:5">
       <c r="B561" s="16" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C561" s="17" t="s">
-        <v>616</v>
+        <v>537</v>
       </c>
       <c r="D561" s="18" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="E561" s="16">
         <v>0</v>
@@ -19385,7 +19485,7 @@
         <v>537</v>
       </c>
       <c r="D562" s="18" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E562" s="16">
         <v>0</v>
@@ -19393,13 +19493,13 @@
     </row>
     <row r="563" spans="2:5">
       <c r="B563" s="16" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C563" s="17" t="s">
         <v>537</v>
       </c>
       <c r="D563" s="18" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E563" s="16">
         <v>0</v>
@@ -19413,7 +19513,7 @@
         <v>537</v>
       </c>
       <c r="D564" s="18" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E564" s="16">
         <v>0</v>
@@ -19427,7 +19527,7 @@
         <v>537</v>
       </c>
       <c r="D565" s="18" t="s">
-        <v>541</v>
+        <v>615</v>
       </c>
       <c r="E565" s="16">
         <v>0</v>
@@ -19438,10 +19538,10 @@
         <v>603</v>
       </c>
       <c r="C566" s="17" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="D566" s="18" t="s">
-        <v>615</v>
+        <v>544</v>
       </c>
       <c r="E566" s="16">
         <v>0</v>
@@ -19455,7 +19555,7 @@
         <v>521</v>
       </c>
       <c r="D567" s="18" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E567" s="16">
         <v>0</v>
@@ -19469,7 +19569,7 @@
         <v>521</v>
       </c>
       <c r="D568" s="18" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="E568" s="16">
         <v>0</v>
@@ -19483,7 +19583,7 @@
         <v>521</v>
       </c>
       <c r="D569" s="18" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E569" s="16">
         <v>0</v>
@@ -19497,7 +19597,7 @@
         <v>521</v>
       </c>
       <c r="D570" s="18" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E570" s="16">
         <v>0</v>
@@ -19508,10 +19608,10 @@
         <v>603</v>
       </c>
       <c r="C571" s="17" t="s">
-        <v>521</v>
+        <v>616</v>
       </c>
       <c r="D571" s="18" t="s">
-        <v>546</v>
+        <v>515</v>
       </c>
       <c r="E571" s="16">
         <v>0</v>
@@ -19525,7 +19625,7 @@
         <v>616</v>
       </c>
       <c r="D572" s="18" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="E572" s="16">
         <v>0</v>
@@ -19539,7 +19639,7 @@
         <v>616</v>
       </c>
       <c r="D573" s="18" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E573" s="16">
         <v>0</v>
@@ -19553,7 +19653,7 @@
         <v>616</v>
       </c>
       <c r="D574" s="18" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E574" s="16">
         <v>0</v>
@@ -19567,7 +19667,7 @@
         <v>616</v>
       </c>
       <c r="D575" s="18" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E575" s="16">
         <v>0</v>
@@ -19581,7 +19681,7 @@
         <v>616</v>
       </c>
       <c r="D576" s="18" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="E576" s="16">
         <v>0</v>
@@ -19595,7 +19695,7 @@
         <v>616</v>
       </c>
       <c r="D577" s="18" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E577" s="16">
         <v>0</v>
@@ -19609,7 +19709,7 @@
         <v>616</v>
       </c>
       <c r="D578" s="18" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E578" s="16">
         <v>0</v>
@@ -19617,13 +19717,13 @@
     </row>
     <row r="579" spans="2:5">
       <c r="B579" s="16" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C579" s="17" t="s">
-        <v>616</v>
+        <v>548</v>
       </c>
       <c r="D579" s="18" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E579" s="16">
         <v>0</v>
@@ -19637,7 +19737,7 @@
         <v>548</v>
       </c>
       <c r="D580" s="18" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E580" s="16">
         <v>0</v>
@@ -19645,13 +19745,13 @@
     </row>
     <row r="581" spans="2:5">
       <c r="B581" s="16" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C581" s="17" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="D581" s="18" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="E581" s="16">
         <v>0</v>
@@ -19665,7 +19765,7 @@
         <v>521</v>
       </c>
       <c r="D582" s="18" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E582" s="16">
         <v>0</v>
@@ -19679,7 +19779,7 @@
         <v>521</v>
       </c>
       <c r="D583" s="18" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E583" s="16">
         <v>0</v>
@@ -19693,7 +19793,7 @@
         <v>521</v>
       </c>
       <c r="D584" s="18" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="E584" s="16">
         <v>0</v>
@@ -19707,7 +19807,7 @@
         <v>521</v>
       </c>
       <c r="D585" s="18" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E585" s="16">
         <v>0</v>
@@ -19721,7 +19821,7 @@
         <v>521</v>
       </c>
       <c r="D586" s="18" t="s">
-        <v>520</v>
+        <v>609</v>
       </c>
       <c r="E586" s="16">
         <v>0</v>
@@ -19735,7 +19835,7 @@
         <v>521</v>
       </c>
       <c r="D587" s="18" t="s">
-        <v>609</v>
+        <v>526</v>
       </c>
       <c r="E587" s="16">
         <v>0</v>
@@ -19749,7 +19849,7 @@
         <v>521</v>
       </c>
       <c r="D588" s="18" t="s">
-        <v>526</v>
+        <v>579</v>
       </c>
       <c r="E588" s="16">
         <v>0</v>
@@ -19760,10 +19860,10 @@
         <v>605</v>
       </c>
       <c r="C589" s="17" t="s">
-        <v>521</v>
+        <v>616</v>
       </c>
       <c r="D589" s="18" t="s">
-        <v>579</v>
+        <v>550</v>
       </c>
       <c r="E589" s="16">
         <v>0</v>
@@ -19777,7 +19877,7 @@
         <v>616</v>
       </c>
       <c r="D590" s="18" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E590" s="16">
         <v>0</v>
@@ -19791,7 +19891,7 @@
         <v>616</v>
       </c>
       <c r="D591" s="18" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="E591" s="16">
         <v>0</v>
@@ -19805,7 +19905,7 @@
         <v>616</v>
       </c>
       <c r="D592" s="18" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E592" s="16">
         <v>0</v>
@@ -19819,7 +19919,7 @@
         <v>616</v>
       </c>
       <c r="D593" s="18" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E593" s="16">
         <v>0</v>
@@ -19833,7 +19933,7 @@
         <v>616</v>
       </c>
       <c r="D594" s="18" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="E594" s="16">
         <v>0</v>
@@ -19847,7 +19947,7 @@
         <v>616</v>
       </c>
       <c r="D595" s="18" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E595" s="16">
         <v>0</v>
@@ -19861,7 +19961,7 @@
         <v>616</v>
       </c>
       <c r="D596" s="18" t="s">
-        <v>526</v>
+        <v>579</v>
       </c>
       <c r="E596" s="16">
         <v>0</v>
@@ -19872,10 +19972,10 @@
         <v>605</v>
       </c>
       <c r="C597" s="17" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="D597" s="18" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="E597" s="16">
         <v>0</v>
@@ -19889,7 +19989,7 @@
         <v>621</v>
       </c>
       <c r="D598" s="18" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E598" s="16">
         <v>0</v>
@@ -19900,10 +20000,10 @@
         <v>605</v>
       </c>
       <c r="C599" s="17" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D599" s="18" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E599" s="16">
         <v>0</v>
@@ -19914,10 +20014,10 @@
         <v>605</v>
       </c>
       <c r="C600" s="17" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D600" s="18" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E600" s="16">
         <v>0</v>
@@ -19931,7 +20031,7 @@
         <v>617</v>
       </c>
       <c r="D601" s="18" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E601" s="16">
         <v>0</v>
@@ -19945,7 +20045,7 @@
         <v>617</v>
       </c>
       <c r="D602" s="18" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="E602" s="16">
         <v>0</v>
@@ -19959,7 +20059,7 @@
         <v>617</v>
       </c>
       <c r="D603" s="18" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E603" s="16">
         <v>0</v>
@@ -19973,7 +20073,7 @@
         <v>617</v>
       </c>
       <c r="D604" s="18" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E604" s="16">
         <v>0</v>
@@ -19987,7 +20087,7 @@
         <v>617</v>
       </c>
       <c r="D605" s="18" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="E605" s="16">
         <v>0</v>
@@ -20001,7 +20101,7 @@
         <v>617</v>
       </c>
       <c r="D606" s="18" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E606" s="16">
         <v>0</v>
@@ -20015,7 +20115,7 @@
         <v>617</v>
       </c>
       <c r="D607" s="18" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E607" s="16">
         <v>0</v>
@@ -20029,7 +20129,7 @@
         <v>617</v>
       </c>
       <c r="D608" s="18" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E608" s="16">
         <v>0</v>
@@ -20043,7 +20143,7 @@
         <v>617</v>
       </c>
       <c r="D609" s="18" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E609" s="16">
         <v>0</v>
@@ -20057,7 +20157,7 @@
         <v>617</v>
       </c>
       <c r="D610" s="18" t="s">
-        <v>572</v>
+        <v>610</v>
       </c>
       <c r="E610" s="16">
         <v>0</v>
@@ -20071,7 +20171,7 @@
         <v>617</v>
       </c>
       <c r="D611" s="18" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
       <c r="E611" s="16">
         <v>0</v>
@@ -20085,7 +20185,7 @@
         <v>617</v>
       </c>
       <c r="D612" s="18" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E612" s="16">
         <v>0</v>
@@ -20099,7 +20199,7 @@
         <v>617</v>
       </c>
       <c r="D613" s="18" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E613" s="16">
         <v>0</v>
@@ -20110,10 +20210,10 @@
         <v>605</v>
       </c>
       <c r="C614" s="17" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D614" s="18" t="s">
-        <v>581</v>
+        <v>552</v>
       </c>
       <c r="E614" s="16">
         <v>0</v>
@@ -20127,7 +20227,7 @@
         <v>618</v>
       </c>
       <c r="D615" s="18" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E615" s="16">
         <v>0</v>
@@ -20141,7 +20241,7 @@
         <v>618</v>
       </c>
       <c r="D616" s="18" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="E616" s="16">
         <v>0</v>
@@ -20155,7 +20255,7 @@
         <v>618</v>
       </c>
       <c r="D617" s="18" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E617" s="16">
         <v>0</v>
@@ -20169,7 +20269,7 @@
         <v>618</v>
       </c>
       <c r="D618" s="18" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="E618" s="16">
         <v>0</v>
@@ -20183,7 +20283,7 @@
         <v>618</v>
       </c>
       <c r="D619" s="18" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E619" s="16">
         <v>0</v>
@@ -20197,7 +20297,7 @@
         <v>618</v>
       </c>
       <c r="D620" s="18" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E620" s="16">
         <v>0</v>
@@ -20211,7 +20311,7 @@
         <v>618</v>
       </c>
       <c r="D621" s="18" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E621" s="16">
         <v>0</v>
@@ -20225,7 +20325,7 @@
         <v>618</v>
       </c>
       <c r="D622" s="18" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E622" s="16">
         <v>0</v>
@@ -20239,7 +20339,7 @@
         <v>618</v>
       </c>
       <c r="D623" s="18" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E623" s="16">
         <v>0</v>
@@ -20253,7 +20353,7 @@
         <v>618</v>
       </c>
       <c r="D624" s="18" t="s">
-        <v>572</v>
+        <v>610</v>
       </c>
       <c r="E624" s="16">
         <v>0</v>
@@ -20267,7 +20367,7 @@
         <v>618</v>
       </c>
       <c r="D625" s="18" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
       <c r="E625" s="16">
         <v>0</v>
@@ -20281,7 +20381,7 @@
         <v>618</v>
       </c>
       <c r="D626" s="18" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E626" s="16">
         <v>0</v>
@@ -20295,7 +20395,7 @@
         <v>618</v>
       </c>
       <c r="D627" s="18" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E627" s="16">
         <v>0</v>
@@ -20306,10 +20406,10 @@
         <v>605</v>
       </c>
       <c r="C628" s="17" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D628" s="18" t="s">
-        <v>581</v>
+        <v>553</v>
       </c>
       <c r="E628" s="16">
         <v>0</v>
@@ -20320,10 +20420,10 @@
         <v>605</v>
       </c>
       <c r="C629" s="17" t="s">
-        <v>619</v>
+        <v>461</v>
       </c>
       <c r="D629" s="18" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E629" s="16">
         <v>0</v>
@@ -20337,7 +20437,7 @@
         <v>461</v>
       </c>
       <c r="D630" s="18" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="E630" s="16">
         <v>0</v>
@@ -20351,7 +20451,7 @@
         <v>461</v>
       </c>
       <c r="D631" s="18" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E631" s="16">
         <v>0</v>
@@ -20365,7 +20465,7 @@
         <v>461</v>
       </c>
       <c r="D632" s="18" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="E632" s="16">
         <v>0</v>
@@ -20379,7 +20479,7 @@
         <v>461</v>
       </c>
       <c r="D633" s="18" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E633" s="16">
         <v>0</v>
@@ -20393,7 +20493,7 @@
         <v>461</v>
       </c>
       <c r="D634" s="18" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E634" s="16">
         <v>0</v>
@@ -20407,7 +20507,7 @@
         <v>461</v>
       </c>
       <c r="D635" s="18" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E635" s="16">
         <v>0</v>
@@ -20421,7 +20521,7 @@
         <v>461</v>
       </c>
       <c r="D636" s="18" t="s">
-        <v>572</v>
+        <v>610</v>
       </c>
       <c r="E636" s="16">
         <v>0</v>
@@ -20435,7 +20535,7 @@
         <v>461</v>
       </c>
       <c r="D637" s="18" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
       <c r="E637" s="16">
         <v>0</v>
@@ -20449,7 +20549,7 @@
         <v>461</v>
       </c>
       <c r="D638" s="18" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E638" s="16">
         <v>0</v>
@@ -20463,7 +20563,7 @@
         <v>461</v>
       </c>
       <c r="D639" s="18" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E639" s="16">
         <v>0</v>
@@ -20474,10 +20574,10 @@
         <v>605</v>
       </c>
       <c r="C640" s="17" t="s">
-        <v>461</v>
+        <v>999</v>
       </c>
       <c r="D640" s="18" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="E640" s="16">
         <v>0</v>
@@ -20488,10 +20588,10 @@
         <v>605</v>
       </c>
       <c r="C641" s="17" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D641" s="18" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E641" s="16">
         <v>0</v>
@@ -20502,10 +20602,10 @@
         <v>605</v>
       </c>
       <c r="C642" s="17" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D642" s="18" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E642" s="16">
         <v>0</v>
@@ -20516,10 +20616,10 @@
         <v>605</v>
       </c>
       <c r="C643" s="17" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D643" s="18" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E643" s="16">
         <v>0</v>
@@ -20530,10 +20630,10 @@
         <v>605</v>
       </c>
       <c r="C644" s="17" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D644" s="18" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E644" s="16">
         <v>0</v>
@@ -20544,10 +20644,10 @@
         <v>605</v>
       </c>
       <c r="C645" s="17" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D645" s="18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E645" s="16">
         <v>0</v>
@@ -20558,10 +20658,10 @@
         <v>605</v>
       </c>
       <c r="C646" s="17" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D646" s="18" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E646" s="16">
         <v>0</v>
@@ -20572,10 +20672,10 @@
         <v>605</v>
       </c>
       <c r="C647" s="17" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D647" s="18" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E647" s="16">
         <v>0</v>
@@ -20586,10 +20686,10 @@
         <v>605</v>
       </c>
       <c r="C648" s="17" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D648" s="18" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E648" s="16">
         <v>0</v>
@@ -20600,10 +20700,10 @@
         <v>605</v>
       </c>
       <c r="C649" s="17" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D649" s="18" t="s">
-        <v>577</v>
+        <v>610</v>
       </c>
       <c r="E649" s="16">
         <v>0</v>
@@ -20614,10 +20714,10 @@
         <v>605</v>
       </c>
       <c r="C650" s="17" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D650" s="18" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
       <c r="E650" s="16">
         <v>0</v>
@@ -20628,10 +20728,10 @@
         <v>605</v>
       </c>
       <c r="C651" s="17" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D651" s="18" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E651" s="16">
         <v>0</v>
@@ -20642,10 +20742,10 @@
         <v>605</v>
       </c>
       <c r="C652" s="17" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D652" s="18" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E652" s="16">
         <v>0</v>
@@ -20659,7 +20759,7 @@
         <v>1000</v>
       </c>
       <c r="D653" s="18" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="E653" s="16">
         <v>0</v>
@@ -20670,10 +20770,10 @@
         <v>605</v>
       </c>
       <c r="C654" s="17" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D654" s="18" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="E654" s="16">
         <v>0</v>
@@ -20684,10 +20784,10 @@
         <v>605</v>
       </c>
       <c r="C655" s="17" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D655" s="18" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E655" s="16">
         <v>0</v>
@@ -20698,10 +20798,10 @@
         <v>605</v>
       </c>
       <c r="C656" s="17" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D656" s="18" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E656" s="16">
         <v>0</v>
@@ -20712,10 +20812,10 @@
         <v>605</v>
       </c>
       <c r="C657" s="17" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D657" s="18" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E657" s="16">
         <v>0</v>
@@ -20726,10 +20826,10 @@
         <v>605</v>
       </c>
       <c r="C658" s="17" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D658" s="18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E658" s="16">
         <v>0</v>
@@ -20740,10 +20840,10 @@
         <v>605</v>
       </c>
       <c r="C659" s="17" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D659" s="18" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E659" s="16">
         <v>0</v>
@@ -20754,10 +20854,10 @@
         <v>605</v>
       </c>
       <c r="C660" s="17" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D660" s="18" t="s">
-        <v>574</v>
+        <v>606</v>
       </c>
       <c r="E660" s="16">
         <v>0</v>
@@ -20768,10 +20868,10 @@
         <v>605</v>
       </c>
       <c r="C661" s="17" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D661" s="18" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E661" s="16">
         <v>0</v>
@@ -20782,10 +20882,10 @@
         <v>605</v>
       </c>
       <c r="C662" s="17" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D662" s="18" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="E662" s="16">
         <v>0</v>
@@ -20796,10 +20896,10 @@
         <v>605</v>
       </c>
       <c r="C663" s="17" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D663" s="18" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
       <c r="E663" s="16">
         <v>0</v>
@@ -20810,10 +20910,10 @@
         <v>605</v>
       </c>
       <c r="C664" s="17" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D664" s="18" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E664" s="16">
         <v>0</v>
@@ -20824,10 +20924,10 @@
         <v>605</v>
       </c>
       <c r="C665" s="17" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D665" s="18" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E665" s="16">
         <v>0</v>
@@ -20841,7 +20941,7 @@
         <v>1001</v>
       </c>
       <c r="D666" s="18" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="E666" s="16">
         <v>0</v>
@@ -20852,10 +20952,10 @@
         <v>605</v>
       </c>
       <c r="C667" s="17" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D667" s="18" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E667" s="16">
         <v>0</v>
@@ -20866,10 +20966,10 @@
         <v>605</v>
       </c>
       <c r="C668" s="17" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D668" s="18" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E668" s="16">
         <v>0</v>
@@ -20880,10 +20980,10 @@
         <v>605</v>
       </c>
       <c r="C669" s="17" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D669" s="18" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E669" s="16">
         <v>0</v>
@@ -20894,10 +20994,10 @@
         <v>605</v>
       </c>
       <c r="C670" s="17" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D670" s="18" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E670" s="16">
         <v>0</v>
@@ -20908,10 +21008,10 @@
         <v>605</v>
       </c>
       <c r="C671" s="17" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D671" s="18" t="s">
-        <v>572</v>
+        <v>608</v>
       </c>
       <c r="E671" s="16">
         <v>0</v>
@@ -20922,10 +21022,10 @@
         <v>605</v>
       </c>
       <c r="C672" s="17" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D672" s="18" t="s">
-        <v>608</v>
+        <v>575</v>
       </c>
       <c r="E672" s="16">
         <v>0</v>
@@ -20936,10 +21036,10 @@
         <v>605</v>
       </c>
       <c r="C673" s="17" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D673" s="18" t="s">
-        <v>575</v>
+        <v>610</v>
       </c>
       <c r="E673" s="16">
         <v>0</v>
@@ -20950,10 +21050,10 @@
         <v>605</v>
       </c>
       <c r="C674" s="17" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D674" s="18" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
       <c r="E674" s="16">
         <v>0</v>
@@ -20964,10 +21064,10 @@
         <v>605</v>
       </c>
       <c r="C675" s="17" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D675" s="18" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E675" s="16">
         <v>0</v>
@@ -20978,24 +21078,24 @@
         <v>605</v>
       </c>
       <c r="C676" s="17" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D676" s="18" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E676" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="677" spans="2:5">
-      <c r="B677" s="16" t="s">
-        <v>605</v>
-      </c>
-      <c r="C677" s="17" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D677" s="18" t="s">
-        <v>581</v>
+      <c r="B677" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C677" s="32" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D677" s="7" t="s">
+        <v>1032</v>
       </c>
       <c r="E677" s="16">
         <v>0</v>
@@ -21003,10 +21103,10 @@
     </row>
     <row r="678" spans="2:5">
       <c r="B678" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C678" s="32" t="s">
         <v>1030</v>
-      </c>
-      <c r="C678" s="32" t="s">
-        <v>1031</v>
       </c>
       <c r="D678" s="7" t="s">
         <v>1033</v>
@@ -21017,13 +21117,13 @@
     </row>
     <row r="679" spans="2:5">
       <c r="B679" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C679" s="32" t="s">
         <v>1031</v>
       </c>
       <c r="D679" s="7" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="E679" s="16">
         <v>0</v>
@@ -21031,10 +21131,10 @@
     </row>
     <row r="680" spans="2:5">
       <c r="B680" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C680" s="32" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D680" s="7" t="s">
         <v>1024</v>
@@ -21043,22 +21143,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="2:5">
-      <c r="B681" s="3" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C681" s="32" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D681" s="7" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E681" s="16">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B3:E677"/>
+  <autoFilter ref="B3:E676"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21066,7 +21152,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
@@ -21189,11 +21275,11 @@
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>624</v>
+      <c r="C8" s="5" t="s">
+        <v>1068</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>625</v>
+        <v>1075</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -21201,13 +21287,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>637</v>
+        <v>1076</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>1078</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -21221,7 +21307,7 @@
         <v>624</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -21229,13 +21315,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="4" t="s">
-        <v>1042</v>
+        <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1040</v>
+        <v>624</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1041</v>
+        <v>637</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -21246,10 +21332,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1048</v>
+        <v>624</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1049</v>
+        <v>636</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -21257,13 +21343,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="4" t="s">
-        <v>1047</v>
+        <v>1065</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1055</v>
+        <v>1067</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1054</v>
+        <v>1064</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -21271,13 +21357,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>1003</v>
+        <v>1076</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>1079</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>652</v>
+        <v>1078</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
@@ -21285,13 +21371,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>627</v>
+        <v>1041</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>1040</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
@@ -21301,11 +21387,11 @@
       <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>648</v>
+      <c r="C16" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1048</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -21313,69 +21399,69 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>951</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>950</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>952</v>
-      </c>
-      <c r="E18" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>950</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>954</v>
-      </c>
-      <c r="E19" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>950</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>956</v>
-      </c>
-      <c r="E20" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="5" t="s">
-        <v>1047</v>
-      </c>
       <c r="C21" s="7" t="s">
-        <v>964</v>
+        <v>1002</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>965</v>
+        <v>652</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -21386,10 +21472,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>953</v>
+        <v>627</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -21400,10 +21486,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>955</v>
+        <v>626</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>648</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -21411,69 +21497,69 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="4" t="s">
-        <v>994</v>
+        <v>1</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>995</v>
+        <v>626</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>996</v>
+        <v>951</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="C25" s="22" t="s">
+        <v>950</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>952</v>
+      </c>
+      <c r="E25" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="C26" s="22" t="s">
+        <v>950</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>954</v>
+      </c>
+      <c r="E26" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="B27" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>950</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>956</v>
+      </c>
+      <c r="E27" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="4" t="s">
-        <v>1</v>
+      <c r="B28" s="5" t="s">
+        <v>1046</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>686</v>
+        <v>963</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>687</v>
+        <v>964</v>
       </c>
       <c r="E28" s="5">
         <v>0</v>
@@ -21484,10 +21570,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>686</v>
+        <v>633</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>688</v>
+        <v>953</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
@@ -21498,10 +21584,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>955</v>
       </c>
       <c r="E30" s="5">
         <v>0</v>
@@ -21509,94 +21595,94 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>941</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>646</v>
+      <c r="C32" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>636</v>
       </c>
       <c r="E32" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>42</v>
+      <c r="B33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>668</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>636</v>
+      <c r="B34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>662</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="29" t="s">
-        <v>999</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>998</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="E35" s="29">
+      <c r="B35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="E35" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="5" t="s">
-        <v>643</v>
+      <c r="B36" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>646</v>
+        <v>686</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>688</v>
       </c>
       <c r="E36" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="5" t="s">
-        <v>643</v>
+      <c r="B37" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>624</v>
+        <v>654</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>636</v>
@@ -21606,14 +21692,14 @@
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="5" t="s">
-        <v>643</v>
+      <c r="B38" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>1023</v>
+        <v>941</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>652</v>
+        <v>40</v>
       </c>
       <c r="E38" s="5">
         <v>0</v>
@@ -21623,11 +21709,11 @@
       <c r="B39" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>668</v>
+      <c r="C39" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>646</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
@@ -21637,11 +21723,11 @@
       <c r="B40" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>712</v>
+      <c r="C40" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="E40" s="5">
         <v>0</v>
@@ -21651,27 +21737,27 @@
       <c r="B41" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>719</v>
+      <c r="C41" s="6" t="s">
+        <v>645</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>712</v>
+        <v>636</v>
       </c>
       <c r="E41" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>964</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>965</v>
-      </c>
-      <c r="E42" s="5">
+      <c r="B42" s="29" t="s">
+        <v>998</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>997</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>996</v>
+      </c>
+      <c r="E42" s="29">
         <v>0</v>
       </c>
     </row>
@@ -21679,11 +21765,11 @@
       <c r="B43" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>662</v>
+      <c r="C43" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>646</v>
       </c>
       <c r="E43" s="5">
         <v>0</v>
@@ -21694,10 +21780,10 @@
         <v>643</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>686</v>
+        <v>624</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>687</v>
+        <v>636</v>
       </c>
       <c r="E44" s="5">
         <v>0</v>
@@ -21708,10 +21794,10 @@
         <v>643</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>686</v>
+        <v>1022</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>688</v>
+        <v>652</v>
       </c>
       <c r="E45" s="5">
         <v>0</v>
@@ -21722,10 +21808,10 @@
         <v>643</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>654</v>
+        <v>629</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>636</v>
+        <v>668</v>
       </c>
       <c r="E46" s="5">
         <v>0</v>
@@ -21736,10 +21822,10 @@
         <v>643</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>941</v>
+        <v>713</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>40</v>
+        <v>712</v>
       </c>
       <c r="E47" s="5">
         <v>0</v>
@@ -21747,13 +21833,13 @@
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="5" t="s">
-        <v>1044</v>
+        <v>643</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>1045</v>
+        <v>719</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>712</v>
       </c>
       <c r="E48" s="5">
         <v>0</v>
@@ -21764,108 +21850,108 @@
         <v>643</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="5" t="s">
         <v>1043</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E49" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>960</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="E50" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="B51" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="E51" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="E52" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="B53" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>963</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="E53" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>963</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="E54" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" s="7" t="s">
-        <v>631</v>
-      </c>
       <c r="C55" s="7" t="s">
-        <v>963</v>
+        <v>1042</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>682</v>
+        <v>1044</v>
       </c>
       <c r="E55" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="7" t="s">
-        <v>981</v>
+      <c r="B56" s="5" t="s">
+        <v>643</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>982</v>
+        <v>1042</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>983</v>
+        <v>1045</v>
       </c>
       <c r="E56" s="5">
         <v>0</v>
@@ -21876,10 +21962,10 @@
         <v>631</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>658</v>
+        <v>1071</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="E57" s="5">
         <v>0</v>
@@ -21887,13 +21973,13 @@
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="7" t="s">
-        <v>631</v>
+        <v>1060</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>659</v>
+        <v>1061</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>660</v>
+        <v>1062</v>
       </c>
       <c r="E58" s="5">
         <v>0</v>
@@ -21904,52 +21990,52 @@
         <v>631</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>659</v>
+        <v>960</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>661</v>
+        <v>632</v>
       </c>
       <c r="E59" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="C60" s="22" t="s">
-        <v>957</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>958</v>
-      </c>
-      <c r="E60" s="23">
+      <c r="C60" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="E60" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="22" t="s">
-        <v>981</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>957</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>959</v>
-      </c>
-      <c r="E61" s="23">
+      <c r="B61" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="E61" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" s="7" t="s">
-        <v>631</v>
+        <v>1056</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>668</v>
+        <v>962</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>653</v>
       </c>
       <c r="E62" s="5">
         <v>0</v>
@@ -21957,13 +22043,13 @@
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>986</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>682</v>
       </c>
       <c r="E63" s="5">
         <v>0</v>
@@ -21971,13 +22057,13 @@
     </row>
     <row r="64" spans="2:5">
       <c r="B64" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>707</v>
+        <v>980</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>981</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>634</v>
+        <v>982</v>
       </c>
       <c r="E64" s="5">
         <v>0</v>
@@ -21985,13 +22071,13 @@
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="7" t="s">
-        <v>635</v>
+        <v>980</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>647</v>
+        <v>1059</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>634</v>
+        <v>1058</v>
       </c>
       <c r="E65" s="5">
         <v>0</v>
@@ -21999,13 +22085,13 @@
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>702</v>
+        <v>658</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="E66" s="5">
         <v>0</v>
@@ -22013,13 +22099,13 @@
     </row>
     <row r="67" spans="2:5">
       <c r="B67" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>720</v>
+        <v>659</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>634</v>
+        <v>660</v>
       </c>
       <c r="E67" s="5">
         <v>0</v>
@@ -22027,55 +22113,55 @@
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>704</v>
+        <v>659</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>634</v>
+        <v>661</v>
       </c>
       <c r="E68" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="E69" s="5">
+      <c r="B69" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>957</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>958</v>
+      </c>
+      <c r="E69" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:5">
-      <c r="B70" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="E70" s="5">
+      <c r="B70" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>957</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="E70" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:5">
       <c r="B71" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>707</v>
+        <v>631</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>629</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>706</v>
+        <v>668</v>
       </c>
       <c r="E71" s="5">
         <v>0</v>
@@ -22083,13 +22169,13 @@
     </row>
     <row r="72" spans="2:5">
       <c r="B72" s="7" t="s">
-        <v>663</v>
+        <v>1056</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>666</v>
+        <v>1055</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>706</v>
+        <v>1057</v>
       </c>
       <c r="E72" s="5">
         <v>0</v>
@@ -22097,13 +22183,13 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>667</v>
+        <v>635</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>985</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>706</v>
+        <v>634</v>
       </c>
       <c r="E73" s="5">
         <v>0</v>
@@ -22111,13 +22197,13 @@
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>702</v>
+        <v>635</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>707</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>706</v>
+        <v>634</v>
       </c>
       <c r="E74" s="5">
         <v>0</v>
@@ -22125,13 +22211,13 @@
     </row>
     <row r="75" spans="2:5">
       <c r="B75" s="7" t="s">
-        <v>663</v>
+        <v>635</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>703</v>
+        <v>647</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>706</v>
+        <v>634</v>
       </c>
       <c r="E75" s="5">
         <v>0</v>
@@ -22139,13 +22225,13 @@
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="7" t="s">
-        <v>663</v>
+        <v>635</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>706</v>
+        <v>634</v>
       </c>
       <c r="E76" s="5">
         <v>0</v>
@@ -22153,13 +22239,13 @@
     </row>
     <row r="77" spans="2:5">
       <c r="B77" s="7" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>629</v>
+        <v>720</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E77" s="5">
         <v>0</v>
@@ -22167,13 +22253,13 @@
     </row>
     <row r="78" spans="2:5">
       <c r="B78" s="7" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>655</v>
+        <v>704</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="E78" s="5">
         <v>0</v>
@@ -22181,13 +22267,13 @@
     </row>
     <row r="79" spans="2:5">
       <c r="B79" s="7" t="s">
-        <v>628</v>
+        <v>705</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>657</v>
+        <v>706</v>
       </c>
       <c r="E79" s="5">
         <v>0</v>
@@ -22195,13 +22281,13 @@
     </row>
     <row r="80" spans="2:5">
       <c r="B80" s="7" t="s">
-        <v>628</v>
+        <v>663</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>708</v>
+        <v>665</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>656</v>
+        <v>706</v>
       </c>
       <c r="E80" s="5">
         <v>0</v>
@@ -22209,13 +22295,13 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>709</v>
+        <v>705</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>707</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>656</v>
+        <v>706</v>
       </c>
       <c r="E81" s="5">
         <v>0</v>
@@ -22223,13 +22309,13 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>644</v>
+        <v>663</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>666</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>639</v>
+        <v>706</v>
       </c>
       <c r="E82" s="5">
         <v>0</v>
@@ -22237,13 +22323,13 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>644</v>
+        <v>663</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>667</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>683</v>
+        <v>706</v>
       </c>
       <c r="E83" s="5">
         <v>0</v>
@@ -22251,13 +22337,13 @@
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>640</v>
+        <v>663</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>702</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>641</v>
+        <v>706</v>
       </c>
       <c r="E84" s="5">
         <v>0</v>
@@ -22265,13 +22351,13 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>640</v>
+        <v>663</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>703</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>642</v>
+        <v>706</v>
       </c>
       <c r="E85" s="5">
         <v>0</v>
@@ -22279,13 +22365,13 @@
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>1004</v>
+        <v>663</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>704</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>1005</v>
+        <v>706</v>
       </c>
       <c r="E86" s="5">
         <v>0</v>
@@ -22293,13 +22379,13 @@
     </row>
     <row r="87" spans="2:5">
       <c r="B87" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>649</v>
+        <v>628</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>630</v>
       </c>
       <c r="E87" s="5">
         <v>0</v>
@@ -22307,13 +22393,13 @@
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="7" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>1021</v>
+        <v>628</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>655</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1022</v>
+        <v>656</v>
       </c>
       <c r="E88" s="5">
         <v>0</v>
@@ -22321,13 +22407,13 @@
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>680</v>
+        <v>628</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>657</v>
       </c>
       <c r="E89" s="5">
         <v>0</v>
@@ -22335,13 +22421,13 @@
     </row>
     <row r="90" spans="2:5">
       <c r="B90" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>680</v>
+        <v>628</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>656</v>
       </c>
       <c r="E90" s="5">
         <v>0</v>
@@ -22349,13 +22435,13 @@
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="7" t="s">
-        <v>991</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>993</v>
+        <v>628</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>656</v>
       </c>
       <c r="E91" s="5">
         <v>0</v>
@@ -22363,13 +22449,13 @@
     </row>
     <row r="92" spans="2:5">
       <c r="B92" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>695</v>
+        <v>638</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>639</v>
       </c>
       <c r="E92" s="5">
         <v>0</v>
@@ -22377,13 +22463,13 @@
     </row>
     <row r="93" spans="2:5">
       <c r="B93" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>689</v>
+        <v>638</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>683</v>
       </c>
       <c r="E93" s="5">
         <v>0</v>
@@ -22391,13 +22477,13 @@
     </row>
     <row r="94" spans="2:5">
       <c r="B94" s="7" t="s">
-        <v>940</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>687</v>
+        <v>638</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>641</v>
       </c>
       <c r="E94" s="5">
         <v>0</v>
@@ -22405,13 +22491,13 @@
     </row>
     <row r="95" spans="2:5">
       <c r="B95" s="7" t="s">
-        <v>692</v>
+        <v>638</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>681</v>
+        <v>640</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>642</v>
       </c>
       <c r="E95" s="5">
         <v>0</v>
@@ -22419,13 +22505,13 @@
     </row>
     <row r="96" spans="2:5">
       <c r="B96" s="7" t="s">
-        <v>1051</v>
+        <v>638</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>1052</v>
+        <v>1003</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>1004</v>
       </c>
       <c r="E96" s="5">
         <v>0</v>
@@ -22433,13 +22519,13 @@
     </row>
     <row r="97" spans="2:5">
       <c r="B97" s="7" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>690</v>
+        <v>638</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>1018</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>693</v>
+        <v>649</v>
       </c>
       <c r="E97" s="5">
         <v>0</v>
@@ -22447,13 +22533,13 @@
     </row>
     <row r="98" spans="2:5">
       <c r="B98" s="7" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>681</v>
+        <v>1019</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>1021</v>
       </c>
       <c r="E98" s="5">
         <v>0</v>
@@ -22461,13 +22547,13 @@
     </row>
     <row r="99" spans="2:5">
       <c r="B99" s="7" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="E99" s="5">
         <v>0</v>
@@ -22475,13 +22561,13 @@
     </row>
     <row r="100" spans="2:5">
       <c r="B100" s="7" t="s">
-        <v>699</v>
+        <v>676</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="E100" s="5">
         <v>0</v>
@@ -22489,13 +22575,13 @@
     </row>
     <row r="101" spans="2:5">
       <c r="B101" s="7" t="s">
-        <v>699</v>
+        <v>990</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>701</v>
+        <v>991</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>700</v>
+        <v>992</v>
       </c>
       <c r="E101" s="5">
         <v>0</v>
@@ -22503,13 +22589,13 @@
     </row>
     <row r="102" spans="2:5">
       <c r="B102" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>710</v>
+        <v>684</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="E102" s="5">
         <v>0</v>
@@ -22517,13 +22603,13 @@
     </row>
     <row r="103" spans="2:5">
       <c r="B103" s="7" t="s">
-        <v>714</v>
+        <v>1073</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>718</v>
+        <v>1072</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>715</v>
+        <v>1074</v>
       </c>
       <c r="E103" s="5">
         <v>0</v>
@@ -22531,13 +22617,13 @@
     </row>
     <row r="104" spans="2:5">
       <c r="B104" s="7" t="s">
-        <v>714</v>
+        <v>685</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>716</v>
+        <v>686</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>715</v>
+        <v>689</v>
       </c>
       <c r="E104" s="5">
         <v>0</v>
@@ -22545,13 +22631,13 @@
     </row>
     <row r="105" spans="2:5">
       <c r="B105" s="7" t="s">
-        <v>714</v>
+        <v>940</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>717</v>
+        <v>686</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
       <c r="E105" s="5">
         <v>0</v>
@@ -22559,13 +22645,13 @@
     </row>
     <row r="106" spans="2:5">
       <c r="B106" s="7" t="s">
-        <v>984</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>985</v>
+        <v>692</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>690</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>988</v>
+        <v>681</v>
       </c>
       <c r="E106" s="5">
         <v>0</v>
@@ -22573,13 +22659,13 @@
     </row>
     <row r="107" spans="2:5">
       <c r="B107" s="7" t="s">
-        <v>984</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>987</v>
+        <v>1050</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>1049</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>988</v>
+        <v>1051</v>
       </c>
       <c r="E107" s="5">
         <v>0</v>
@@ -22587,13 +22673,13 @@
     </row>
     <row r="108" spans="2:5">
       <c r="B108" s="7" t="s">
-        <v>984</v>
+        <v>1052</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>989</v>
+        <v>690</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>988</v>
+        <v>693</v>
       </c>
       <c r="E108" s="5">
         <v>0</v>
@@ -22601,20 +22687,174 @@
     </row>
     <row r="109" spans="2:5">
       <c r="B109" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="E109" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="E110" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="E111" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="E112" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="E113" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="E114" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="E115" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="E116" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>984</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>990</v>
-      </c>
-      <c r="D109" s="9" t="s">
+      <c r="D117" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="E117" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="E118" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>988</v>
       </c>
-      <c r="E109" s="5">
+      <c r="D119" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="E119" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="E120" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:E106"/>
+  <autoFilter ref="B3:E120"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22756,7 +22996,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22899,7 +23139,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>33</v>
+        <v>1069</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>34</v>
@@ -22911,7 +23151,7 @@
         <v>50</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>38</v>
+        <v>1070</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>44</v>
@@ -23132,7 +23372,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="24" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>54</v>
@@ -23149,53 +23389,53 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="25" t="s">
+        <v>970</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>972</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>974</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="26" t="s">
+        <v>968</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>969</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>970</v>
-      </c>
       <c r="C3" s="27" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D3" s="27" t="s">
+        <v>975</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>976</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="26" t="s">
+        <v>977</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>966</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>967</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>978</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>967</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>968</v>
-      </c>
-      <c r="D4" s="27" t="s">
+      <c r="E4" s="28" t="s">
         <v>979</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>980</v>
       </c>
     </row>
   </sheetData>

--- a/wico/数据表结构.xlsx
+++ b/wico/数据表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13200" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13200" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="客户正式投诉" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$121</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'零件清单（下载）'!$B$3:$K$152</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'座椅配置（下载）'!$B$3:$E$676</definedName>
   </definedNames>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3857" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3860" uniqueCount="1083">
   <si>
     <t>SLIDE ADJR OUT L,FR SEAT</t>
   </si>
@@ -3232,10 +3232,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>涂油反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>调整丝杆螺母，反复作动</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3722,19 +3718,31 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>滑动晃动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regular</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>([0-9]{2})([A-L])([0-3][0-9])([A-M]) ([0-9]{3})</t>
+  </si>
+  <si>
+    <t>涂油反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>滑动震动</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>滑动晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Regular</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>([0-9]{2})([A-L])([0-3][0-9])([A-M]) ([0-9]{3})</t>
+    <t>涂油反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5194,7 +5202,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5255,7 +5263,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5316,7 +5324,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5372,7 +5380,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5430,7 +5438,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5488,7 +5496,7 @@
         <xdr:cNvPr id="13" name="TextBox 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5551,7 +5559,7 @@
         <xdr:cNvPr id="16" name="直接箭头连接符 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5604,7 +5612,7 @@
         <xdr:cNvPr id="21" name="图片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5665,7 +5673,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5726,7 +5734,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5779,7 +5787,7 @@
         <xdr:cNvPr id="27" name="直接箭头连接符 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5832,7 +5840,7 @@
         <xdr:cNvPr id="29" name="直接箭头连接符 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5885,7 +5893,7 @@
         <xdr:cNvPr id="31" name="直接箭头连接符 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5938,7 +5946,7 @@
         <xdr:cNvPr id="33" name="直接箭头连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5991,7 +5999,7 @@
         <xdr:cNvPr id="36" name="直接箭头连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6039,7 +6047,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6444,7 +6452,7 @@
   </sheetPr>
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D75" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -6560,7 +6568,7 @@
         <v>47</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>50</v>
@@ -7274,7 +7282,7 @@
         <v>58109</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K26" s="7">
         <v>0</v>
@@ -7309,7 +7317,7 @@
         <v>58109</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K27" s="7">
         <v>0</v>
@@ -7342,7 +7350,7 @@
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K28" s="7">
         <v>0</v>
@@ -7377,7 +7385,7 @@
         <v>58109</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K29" s="7">
         <v>0</v>
@@ -7410,7 +7418,7 @@
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K30" s="7">
         <v>0</v>
@@ -7648,7 +7656,7 @@
         <v>278</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>279</v>
@@ -7681,7 +7689,7 @@
         <v>280</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>281</v>
@@ -7918,7 +7926,7 @@
         <v>58104</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K46" s="7">
         <v>0</v>
@@ -7953,7 +7961,7 @@
         <v>58104</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K47" s="7">
         <v>0</v>
@@ -7988,7 +7996,7 @@
         <v>58104</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K48" s="7">
         <v>0</v>
@@ -8023,7 +8031,7 @@
         <v>58104</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K49" s="7">
         <v>0</v>
@@ -8058,7 +8066,7 @@
         <v>58112</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K50" s="7">
         <v>0</v>
@@ -8093,7 +8101,7 @@
         <v>773</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K51" s="7">
         <v>0</v>
@@ -8128,7 +8136,7 @@
         <v>58112</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K52" s="7">
         <v>0</v>
@@ -8163,7 +8171,7 @@
         <v>773</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K53" s="7">
         <v>0</v>
@@ -8198,7 +8206,7 @@
         <v>58112</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K54" s="7">
         <v>0</v>
@@ -8230,10 +8238,10 @@
         <v>2</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K55" s="7">
         <v>0</v>
@@ -8268,7 +8276,7 @@
         <v>58112</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K56" s="7">
         <v>0</v>
@@ -8303,7 +8311,7 @@
         <v>773</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K57" s="7">
         <v>0</v>
@@ -8338,7 +8346,7 @@
         <v>52111</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K58" s="7">
         <v>0</v>
@@ -8373,7 +8381,7 @@
         <v>52111</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K59" s="7">
         <v>0</v>
@@ -8406,7 +8414,7 @@
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K60" s="7">
         <v>0</v>
@@ -8439,7 +8447,7 @@
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K61" s="7">
         <v>0</v>
@@ -8472,7 +8480,7 @@
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K62" s="7">
         <v>0</v>
@@ -8505,7 +8513,7 @@
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K63" s="7">
         <v>0</v>
@@ -8540,7 +8548,7 @@
         <v>58111</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K64" s="7">
         <v>0</v>
@@ -8575,7 +8583,7 @@
         <v>58111</v>
       </c>
       <c r="J65" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K65" s="7">
         <v>0</v>
@@ -8608,7 +8616,7 @@
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K66" s="7">
         <v>0</v>
@@ -8641,7 +8649,7 @@
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K67" s="7">
         <v>0</v>
@@ -8674,7 +8682,7 @@
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K68" s="7">
         <v>0</v>
@@ -8707,7 +8715,7 @@
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K69" s="7">
         <v>0</v>
@@ -8835,7 +8843,7 @@
         <v>58105</v>
       </c>
       <c r="J73" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K73" s="7">
         <v>0</v>
@@ -9758,7 +9766,7 @@
         <v>137</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>138</v>
@@ -9869,7 +9877,7 @@
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K105" s="7">
         <v>0</v>
@@ -9902,7 +9910,7 @@
       </c>
       <c r="I106" s="7"/>
       <c r="J106" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K106" s="7">
         <v>0</v>
@@ -9937,7 +9945,7 @@
         <v>58103</v>
       </c>
       <c r="J107" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K107" s="7">
         <v>0</v>
@@ -9972,7 +9980,7 @@
         <v>58103</v>
       </c>
       <c r="J108" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K108" s="7">
         <v>0</v>
@@ -10007,7 +10015,7 @@
         <v>58103</v>
       </c>
       <c r="J109" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K109" s="7">
         <v>0</v>
@@ -10042,7 +10050,7 @@
         <v>58103</v>
       </c>
       <c r="J110" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K110" s="7">
         <v>0</v>
@@ -10287,7 +10295,7 @@
         <v>58103</v>
       </c>
       <c r="J117" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K117" s="7">
         <v>0</v>
@@ -10322,7 +10330,7 @@
         <v>58103</v>
       </c>
       <c r="J118" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K118" s="7">
         <v>0</v>
@@ -10357,7 +10365,7 @@
         <v>58103</v>
       </c>
       <c r="J119" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K119" s="7">
         <v>0</v>
@@ -10392,7 +10400,7 @@
         <v>58103</v>
       </c>
       <c r="J120" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K120" s="7">
         <v>0</v>
@@ -10427,7 +10435,7 @@
         <v>58103</v>
       </c>
       <c r="J121" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K121" s="7">
         <v>0</v>
@@ -10462,7 +10470,7 @@
         <v>58103</v>
       </c>
       <c r="J122" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K122" s="7">
         <v>0</v>
@@ -10530,7 +10538,7 @@
         <v>58109</v>
       </c>
       <c r="J124" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K124" s="7">
         <v>0</v>
@@ -10598,7 +10606,7 @@
         <v>58109</v>
       </c>
       <c r="J126" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K126" s="7">
         <v>0</v>
@@ -10666,7 +10674,7 @@
         <v>58109</v>
       </c>
       <c r="J128" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K128" s="7">
         <v>0</v>
@@ -10734,7 +10742,7 @@
         <v>58109</v>
       </c>
       <c r="J130" s="19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K130" s="7">
         <v>0</v>
@@ -10961,7 +10969,7 @@
         <v>241</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>208</v>
@@ -11066,7 +11074,7 @@
         <v>244</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>220</v>
@@ -11241,7 +11249,7 @@
         <v>391</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>180</v>
@@ -11274,7 +11282,7 @@
         <v>249</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E146" s="7" t="s">
         <v>0</v>
@@ -11309,7 +11317,7 @@
         <v>250</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E147" s="7" t="s">
         <v>180</v>
@@ -11344,7 +11352,7 @@
         <v>392</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E148" s="7" t="s">
         <v>0</v>
@@ -11377,7 +11385,7 @@
         <v>393</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E149" s="7" t="s">
         <v>186</v>
@@ -11410,7 +11418,7 @@
         <v>251</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E150" s="7" t="s">
         <v>3</v>
@@ -11445,7 +11453,7 @@
         <v>252</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>186</v>
@@ -11480,7 +11488,7 @@
         <v>394</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>3</v>
@@ -11510,22 +11518,22 @@
         <v>139</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F153" s="31" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I153" s="7">
         <v>58112</v>
@@ -11540,22 +11548,22 @@
         <v>139</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F154" s="31" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G154" s="7" t="s">
         <v>79</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I154" s="7">
         <v>58112</v>
@@ -20574,7 +20582,7 @@
         <v>604</v>
       </c>
       <c r="C640" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D640" s="18" t="s">
         <v>565</v>
@@ -20588,7 +20596,7 @@
         <v>604</v>
       </c>
       <c r="C641" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D641" s="18" t="s">
         <v>568</v>
@@ -20602,7 +20610,7 @@
         <v>604</v>
       </c>
       <c r="C642" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D642" s="18" t="s">
         <v>569</v>
@@ -20616,7 +20624,7 @@
         <v>604</v>
       </c>
       <c r="C643" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D643" s="18" t="s">
         <v>570</v>
@@ -20630,7 +20638,7 @@
         <v>604</v>
       </c>
       <c r="C644" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D644" s="18" t="s">
         <v>571</v>
@@ -20644,7 +20652,7 @@
         <v>604</v>
       </c>
       <c r="C645" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D645" s="18" t="s">
         <v>572</v>
@@ -20658,7 +20666,7 @@
         <v>604</v>
       </c>
       <c r="C646" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D646" s="18" t="s">
         <v>573</v>
@@ -20672,7 +20680,7 @@
         <v>604</v>
       </c>
       <c r="C647" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D647" s="18" t="s">
         <v>575</v>
@@ -20686,7 +20694,7 @@
         <v>604</v>
       </c>
       <c r="C648" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D648" s="18" t="s">
         <v>576</v>
@@ -20700,7 +20708,7 @@
         <v>604</v>
       </c>
       <c r="C649" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D649" s="18" t="s">
         <v>609</v>
@@ -20714,7 +20722,7 @@
         <v>604</v>
       </c>
       <c r="C650" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D650" s="18" t="s">
         <v>577</v>
@@ -20728,7 +20736,7 @@
         <v>604</v>
       </c>
       <c r="C651" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D651" s="18" t="s">
         <v>579</v>
@@ -20742,7 +20750,7 @@
         <v>604</v>
       </c>
       <c r="C652" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D652" s="18" t="s">
         <v>580</v>
@@ -20756,7 +20764,7 @@
         <v>604</v>
       </c>
       <c r="C653" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D653" s="18" t="s">
         <v>564</v>
@@ -20770,7 +20778,7 @@
         <v>604</v>
       </c>
       <c r="C654" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D654" s="18" t="s">
         <v>568</v>
@@ -20784,7 +20792,7 @@
         <v>604</v>
       </c>
       <c r="C655" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D655" s="18" t="s">
         <v>569</v>
@@ -20798,7 +20806,7 @@
         <v>604</v>
       </c>
       <c r="C656" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D656" s="18" t="s">
         <v>570</v>
@@ -20812,7 +20820,7 @@
         <v>604</v>
       </c>
       <c r="C657" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D657" s="18" t="s">
         <v>571</v>
@@ -20826,7 +20834,7 @@
         <v>604</v>
       </c>
       <c r="C658" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D658" s="18" t="s">
         <v>572</v>
@@ -20840,7 +20848,7 @@
         <v>604</v>
       </c>
       <c r="C659" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D659" s="18" t="s">
         <v>573</v>
@@ -20854,7 +20862,7 @@
         <v>604</v>
       </c>
       <c r="C660" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D660" s="18" t="s">
         <v>605</v>
@@ -20868,7 +20876,7 @@
         <v>604</v>
       </c>
       <c r="C661" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D661" s="18" t="s">
         <v>606</v>
@@ -20882,7 +20890,7 @@
         <v>604</v>
       </c>
       <c r="C662" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D662" s="18" t="s">
         <v>609</v>
@@ -20896,7 +20904,7 @@
         <v>604</v>
       </c>
       <c r="C663" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D663" s="18" t="s">
         <v>577</v>
@@ -20910,7 +20918,7 @@
         <v>604</v>
       </c>
       <c r="C664" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D664" s="18" t="s">
         <v>579</v>
@@ -20924,7 +20932,7 @@
         <v>604</v>
       </c>
       <c r="C665" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D665" s="18" t="s">
         <v>580</v>
@@ -20938,7 +20946,7 @@
         <v>604</v>
       </c>
       <c r="C666" s="17" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D666" s="18" t="s">
         <v>566</v>
@@ -20952,7 +20960,7 @@
         <v>604</v>
       </c>
       <c r="C667" s="17" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D667" s="18" t="s">
         <v>568</v>
@@ -20966,7 +20974,7 @@
         <v>604</v>
       </c>
       <c r="C668" s="17" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D668" s="18" t="s">
         <v>569</v>
@@ -20980,7 +20988,7 @@
         <v>604</v>
       </c>
       <c r="C669" s="17" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D669" s="18" t="s">
         <v>570</v>
@@ -20994,7 +21002,7 @@
         <v>604</v>
       </c>
       <c r="C670" s="17" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D670" s="18" t="s">
         <v>571</v>
@@ -21008,7 +21016,7 @@
         <v>604</v>
       </c>
       <c r="C671" s="17" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D671" s="18" t="s">
         <v>607</v>
@@ -21022,7 +21030,7 @@
         <v>604</v>
       </c>
       <c r="C672" s="17" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D672" s="18" t="s">
         <v>574</v>
@@ -21036,7 +21044,7 @@
         <v>604</v>
       </c>
       <c r="C673" s="17" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D673" s="18" t="s">
         <v>609</v>
@@ -21050,7 +21058,7 @@
         <v>604</v>
       </c>
       <c r="C674" s="17" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D674" s="18" t="s">
         <v>577</v>
@@ -21064,7 +21072,7 @@
         <v>604</v>
       </c>
       <c r="C675" s="17" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D675" s="18" t="s">
         <v>579</v>
@@ -21078,7 +21086,7 @@
         <v>604</v>
       </c>
       <c r="C676" s="17" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D676" s="18" t="s">
         <v>580</v>
@@ -21089,13 +21097,13 @@
     </row>
     <row r="677" spans="2:5">
       <c r="B677" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C677" s="32" t="s">
         <v>1027</v>
       </c>
-      <c r="C677" s="32" t="s">
-        <v>1028</v>
-      </c>
       <c r="D677" s="7" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E677" s="16">
         <v>0</v>
@@ -21103,13 +21111,13 @@
     </row>
     <row r="678" spans="2:5">
       <c r="B678" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C678" s="32" t="s">
         <v>1027</v>
       </c>
-      <c r="C678" s="32" t="s">
-        <v>1028</v>
-      </c>
       <c r="D678" s="7" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E678" s="16">
         <v>0</v>
@@ -21117,13 +21125,13 @@
     </row>
     <row r="679" spans="2:5">
       <c r="B679" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C679" s="32" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D679" s="7" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E679" s="16">
         <v>0</v>
@@ -21131,13 +21139,13 @@
     </row>
     <row r="680" spans="2:5">
       <c r="B680" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C680" s="32" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D680" s="7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E680" s="16">
         <v>0</v>
@@ -21152,10 +21160,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21276,10 +21284,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -21287,13 +21295,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>1074</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>1075</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>1076</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -21343,13 +21351,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -21357,13 +21365,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
@@ -21371,13 +21379,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="4" t="s">
-        <v>1039</v>
+        <v>1080</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1037</v>
+        <v>623</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1038</v>
+        <v>1082</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
@@ -21385,13 +21393,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="4" t="s">
-        <v>1</v>
+        <v>1038</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -21399,13 +21407,13 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="4" t="s">
-        <v>1039</v>
+        <v>1</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1064</v>
+        <v>1044</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1061</v>
+        <v>1045</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
@@ -21413,13 +21421,13 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>1063</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>1045</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -21427,13 +21435,13 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>1076</v>
+        <v>1044</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>1061</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -21441,13 +21449,13 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="4" t="s">
-        <v>1044</v>
+        <v>1062</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>1051</v>
+        <v>1076</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>1075</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
@@ -21455,13 +21463,13 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>651</v>
+        <v>1043</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>1050</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -21472,10 +21480,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>625</v>
+        <v>999</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>626</v>
+        <v>651</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -21489,7 +21497,7 @@
         <v>625</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -21503,23 +21511,23 @@
         <v>625</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>949</v>
       </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>948</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>950</v>
-      </c>
-      <c r="E25" s="23">
+      <c r="E25" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21531,7 +21539,7 @@
         <v>948</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>952</v>
+        <v>1079</v>
       </c>
       <c r="E26" s="23">
         <v>0</v>
@@ -21545,35 +21553,35 @@
         <v>948</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="E27" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>948</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>953</v>
+      </c>
+      <c r="E28" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>961</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>951</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
@@ -21586,8 +21594,8 @@
       <c r="C30" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>953</v>
+      <c r="D30" s="7" t="s">
+        <v>950</v>
       </c>
       <c r="E30" s="5">
         <v>0</v>
@@ -21595,13 +21603,13 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="4" t="s">
-        <v>991</v>
+        <v>1</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>992</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>993</v>
+        <v>632</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>952</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
@@ -21609,13 +21617,13 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="4" t="s">
-        <v>1</v>
+        <v>990</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>635</v>
+        <v>991</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>992</v>
       </c>
       <c r="E32" s="5">
         <v>0</v>
@@ -21626,10 +21634,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>667</v>
+        <v>650</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>635</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
@@ -21637,13 +21645,13 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>661</v>
+        <v>1</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>667</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
@@ -21651,13 +21659,13 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>686</v>
+        <v>29</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>661</v>
       </c>
       <c r="E35" s="5">
         <v>0</v>
@@ -21671,7 +21679,7 @@
         <v>685</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E36" s="5">
         <v>0</v>
@@ -21682,10 +21690,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>653</v>
+        <v>685</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>635</v>
+        <v>687</v>
       </c>
       <c r="E37" s="5">
         <v>0</v>
@@ -21696,24 +21704,24 @@
         <v>1</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>939</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E38" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>645</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
@@ -21726,8 +21734,8 @@
       <c r="C40" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>42</v>
+      <c r="D40" s="9" t="s">
+        <v>645</v>
       </c>
       <c r="E40" s="5">
         <v>0</v>
@@ -21740,38 +21748,38 @@
       <c r="C41" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="E41" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="29" t="s">
-        <v>996</v>
-      </c>
-      <c r="C42" s="29" t="s">
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="29" t="s">
         <v>995</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="C43" s="29" t="s">
         <v>994</v>
       </c>
-      <c r="E42" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="E43" s="5">
+      <c r="D43" s="30" t="s">
+        <v>993</v>
+      </c>
+      <c r="E43" s="29">
         <v>0</v>
       </c>
     </row>
@@ -21782,8 +21790,8 @@
       <c r="C44" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>635</v>
+      <c r="D44" s="9" t="s">
+        <v>645</v>
       </c>
       <c r="E44" s="5">
         <v>0</v>
@@ -21794,10 +21802,10 @@
         <v>642</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>1020</v>
+        <v>623</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="E45" s="5">
         <v>0</v>
@@ -21808,10 +21816,10 @@
         <v>642</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>628</v>
+        <v>1019</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="E46" s="5">
         <v>0</v>
@@ -21822,10 +21830,10 @@
         <v>642</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>712</v>
+        <v>628</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>711</v>
+        <v>667</v>
       </c>
       <c r="E47" s="5">
         <v>0</v>
@@ -21836,7 +21844,7 @@
         <v>642</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>711</v>
@@ -21850,10 +21858,10 @@
         <v>642</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>961</v>
+        <v>718</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>962</v>
+        <v>711</v>
       </c>
       <c r="E49" s="5">
         <v>0</v>
@@ -21863,11 +21871,11 @@
       <c r="B50" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>661</v>
+      <c r="C50" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>961</v>
       </c>
       <c r="E50" s="5">
         <v>0</v>
@@ -21877,11 +21885,11 @@
       <c r="B51" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>686</v>
+      <c r="C51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>661</v>
       </c>
       <c r="E51" s="5">
         <v>0</v>
@@ -21895,7 +21903,7 @@
         <v>685</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E52" s="5">
         <v>0</v>
@@ -21906,10 +21914,10 @@
         <v>642</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>653</v>
+        <v>685</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>635</v>
+        <v>687</v>
       </c>
       <c r="E53" s="5">
         <v>0</v>
@@ -21920,10 +21928,10 @@
         <v>642</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>939</v>
+        <v>653</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>40</v>
+        <v>635</v>
       </c>
       <c r="E54" s="5">
         <v>0</v>
@@ -21931,13 +21939,13 @@
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="5" t="s">
-        <v>1041</v>
+        <v>642</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>1042</v>
+        <v>939</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="E55" s="5">
         <v>0</v>
@@ -21945,27 +21953,27 @@
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E56" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57" s="7" t="s">
-        <v>630</v>
-      </c>
       <c r="C57" s="7" t="s">
-        <v>1069</v>
+        <v>1039</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>631</v>
+        <v>1042</v>
       </c>
       <c r="E57" s="5">
         <v>0</v>
@@ -21973,13 +21981,13 @@
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="7" t="s">
-        <v>1058</v>
+        <v>630</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>1059</v>
+        <v>1068</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>1060</v>
+        <v>631</v>
       </c>
       <c r="E58" s="5">
         <v>0</v>
@@ -21987,13 +21995,13 @@
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="7" t="s">
-        <v>630</v>
+        <v>1057</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>958</v>
+        <v>1058</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>631</v>
+        <v>1059</v>
       </c>
       <c r="E59" s="5">
         <v>0</v>
@@ -22004,7 +22012,7 @@
         <v>630</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>631</v>
@@ -22018,10 +22026,10 @@
         <v>630</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>1057</v>
+        <v>958</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="E61" s="5">
         <v>0</v>
@@ -22029,13 +22037,13 @@
     </row>
     <row r="62" spans="2:5">
       <c r="B62" s="7" t="s">
-        <v>1054</v>
+        <v>630</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>960</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>652</v>
+        <v>1056</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>649</v>
       </c>
       <c r="E62" s="5">
         <v>0</v>
@@ -22043,13 +22051,13 @@
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="7" t="s">
-        <v>630</v>
+        <v>1053</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>681</v>
+        <v>652</v>
       </c>
       <c r="E63" s="5">
         <v>0</v>
@@ -22057,13 +22065,13 @@
     </row>
     <row r="64" spans="2:5">
       <c r="B64" s="7" t="s">
-        <v>978</v>
+        <v>630</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>979</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>980</v>
+        <v>959</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>681</v>
       </c>
       <c r="E64" s="5">
         <v>0</v>
@@ -22071,13 +22079,13 @@
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="7" t="s">
+        <v>977</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>978</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>1057</v>
-      </c>
       <c r="D65" s="7" t="s">
-        <v>1056</v>
+        <v>979</v>
       </c>
       <c r="E65" s="5">
         <v>0</v>
@@ -22085,13 +22093,13 @@
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="7" t="s">
-        <v>630</v>
+        <v>977</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>657</v>
+        <v>1056</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>649</v>
+        <v>1055</v>
       </c>
       <c r="E66" s="5">
         <v>0</v>
@@ -22102,10 +22110,10 @@
         <v>630</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="E67" s="5">
         <v>0</v>
@@ -22119,63 +22127,63 @@
         <v>658</v>
       </c>
       <c r="D68" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="E68" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="B69" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>955</v>
-      </c>
-      <c r="D69" s="22" t="s">
-        <v>956</v>
-      </c>
-      <c r="E69" s="23">
+      <c r="E69" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:5">
       <c r="B70" s="22" t="s">
-        <v>978</v>
+        <v>630</v>
       </c>
       <c r="C70" s="22" t="s">
+        <v>954</v>
+      </c>
+      <c r="D70" s="22" t="s">
         <v>955</v>
       </c>
-      <c r="D70" s="22" t="s">
-        <v>957</v>
-      </c>
       <c r="E70" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="E71" s="5">
+      <c r="B71" s="22" t="s">
+        <v>977</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>954</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>956</v>
+      </c>
+      <c r="E71" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" s="7" t="s">
-        <v>1054</v>
+        <v>630</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>1053</v>
+        <v>628</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>1055</v>
+        <v>667</v>
       </c>
       <c r="E72" s="5">
         <v>0</v>
@@ -22183,13 +22191,13 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>983</v>
+        <v>1053</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>1052</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>633</v>
+        <v>1054</v>
       </c>
       <c r="E73" s="5">
         <v>0</v>
@@ -22200,7 +22208,7 @@
         <v>634</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>706</v>
+        <v>982</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>633</v>
@@ -22213,8 +22221,8 @@
       <c r="B75" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>646</v>
+      <c r="C75" s="5" t="s">
+        <v>706</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>633</v>
@@ -22228,7 +22236,7 @@
         <v>634</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>701</v>
+        <v>646</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>633</v>
@@ -22242,7 +22250,7 @@
         <v>634</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>633</v>
@@ -22256,7 +22264,7 @@
         <v>634</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>633</v>
@@ -22267,13 +22275,13 @@
     </row>
     <row r="79" spans="2:5">
       <c r="B79" s="7" t="s">
-        <v>704</v>
+        <v>634</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>663</v>
+        <v>703</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>705</v>
+        <v>633</v>
       </c>
       <c r="E79" s="5">
         <v>0</v>
@@ -22281,10 +22289,10 @@
     </row>
     <row r="80" spans="2:5">
       <c r="B80" s="7" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>705</v>
@@ -22295,10 +22303,10 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>706</v>
+        <v>662</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>664</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>705</v>
@@ -22309,10 +22317,10 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>665</v>
+        <v>704</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>706</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>705</v>
@@ -22326,7 +22334,7 @@
         <v>662</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>705</v>
@@ -22340,7 +22348,7 @@
         <v>662</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>701</v>
+        <v>666</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>705</v>
@@ -22354,7 +22362,7 @@
         <v>662</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>705</v>
@@ -22368,7 +22376,7 @@
         <v>662</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>705</v>
@@ -22379,13 +22387,13 @@
     </row>
     <row r="87" spans="2:5">
       <c r="B87" s="7" t="s">
-        <v>627</v>
+        <v>662</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>628</v>
+        <v>703</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
       <c r="E87" s="5">
         <v>0</v>
@@ -22396,10 +22404,10 @@
         <v>627</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>654</v>
+        <v>628</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
       <c r="E88" s="5">
         <v>0</v>
@@ -22413,7 +22421,7 @@
         <v>654</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E89" s="5">
         <v>0</v>
@@ -22424,10 +22432,10 @@
         <v>627</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>707</v>
+        <v>654</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E90" s="5">
         <v>0</v>
@@ -22438,7 +22446,7 @@
         <v>627</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>655</v>
@@ -22449,13 +22457,13 @@
     </row>
     <row r="92" spans="2:5">
       <c r="B92" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>643</v>
+        <v>627</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>708</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>638</v>
+        <v>655</v>
       </c>
       <c r="E92" s="5">
         <v>0</v>
@@ -22469,7 +22477,7 @@
         <v>643</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>682</v>
+        <v>638</v>
       </c>
       <c r="E93" s="5">
         <v>0</v>
@@ -22480,10 +22488,10 @@
         <v>637</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>640</v>
+        <v>682</v>
       </c>
       <c r="E94" s="5">
         <v>0</v>
@@ -22497,7 +22505,7 @@
         <v>639</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E95" s="5">
         <v>0</v>
@@ -22508,10 +22516,10 @@
         <v>637</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>1001</v>
+        <v>639</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>1002</v>
+        <v>641</v>
       </c>
       <c r="E96" s="5">
         <v>0</v>
@@ -22521,11 +22529,11 @@
       <c r="B97" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>648</v>
+      <c r="C97" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>1001</v>
       </c>
       <c r="E97" s="5">
         <v>0</v>
@@ -22533,13 +22541,13 @@
     </row>
     <row r="98" spans="2:5">
       <c r="B98" s="7" t="s">
-        <v>1017</v>
+        <v>637</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>1019</v>
+        <v>1015</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>648</v>
       </c>
       <c r="E98" s="5">
         <v>0</v>
@@ -22547,13 +22555,13 @@
     </row>
     <row r="99" spans="2:5">
       <c r="B99" s="7" t="s">
-        <v>678</v>
+        <v>1016</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>679</v>
+        <v>1017</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>1018</v>
       </c>
       <c r="E99" s="5">
         <v>0</v>
@@ -22561,10 +22569,10 @@
     </row>
     <row r="100" spans="2:5">
       <c r="B100" s="7" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>679</v>
@@ -22575,13 +22583,13 @@
     </row>
     <row r="101" spans="2:5">
       <c r="B101" s="7" t="s">
-        <v>988</v>
+        <v>675</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>989</v>
+        <v>677</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>990</v>
+        <v>679</v>
       </c>
       <c r="E101" s="5">
         <v>0</v>
@@ -22589,13 +22597,13 @@
     </row>
     <row r="102" spans="2:5">
       <c r="B102" s="7" t="s">
-        <v>693</v>
+        <v>987</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>683</v>
+        <v>988</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>694</v>
+        <v>989</v>
       </c>
       <c r="E102" s="5">
         <v>0</v>
@@ -22603,13 +22611,13 @@
     </row>
     <row r="103" spans="2:5">
       <c r="B103" s="7" t="s">
-        <v>1071</v>
+        <v>693</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>1070</v>
+        <v>683</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>1072</v>
+        <v>694</v>
       </c>
       <c r="E103" s="5">
         <v>0</v>
@@ -22617,13 +22625,13 @@
     </row>
     <row r="104" spans="2:5">
       <c r="B104" s="7" t="s">
-        <v>684</v>
+        <v>1070</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>685</v>
+        <v>1069</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>688</v>
+        <v>1071</v>
       </c>
       <c r="E104" s="5">
         <v>0</v>
@@ -22631,13 +22639,13 @@
     </row>
     <row r="105" spans="2:5">
       <c r="B105" s="7" t="s">
-        <v>938</v>
+        <v>684</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>685</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E105" s="5">
         <v>0</v>
@@ -22645,13 +22653,13 @@
     </row>
     <row r="106" spans="2:5">
       <c r="B106" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>689</v>
+        <v>938</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>685</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="E106" s="5">
         <v>0</v>
@@ -22659,13 +22667,13 @@
     </row>
     <row r="107" spans="2:5">
       <c r="B107" s="7" t="s">
-        <v>1048</v>
+        <v>691</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>1047</v>
+        <v>689</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>1049</v>
+        <v>680</v>
       </c>
       <c r="E107" s="5">
         <v>0</v>
@@ -22673,13 +22681,13 @@
     </row>
     <row r="108" spans="2:5">
       <c r="B108" s="7" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>689</v>
+        <v>1046</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>692</v>
+        <v>1048</v>
       </c>
       <c r="E108" s="5">
         <v>0</v>
@@ -22687,13 +22695,13 @@
     </row>
     <row r="109" spans="2:5">
       <c r="B109" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>1047</v>
+        <v>689</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="E109" s="5">
         <v>0</v>
@@ -22701,13 +22709,13 @@
     </row>
     <row r="110" spans="2:5">
       <c r="B110" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>695</v>
+        <v>1049</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>1046</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="E110" s="5">
         <v>0</v>
@@ -22715,13 +22723,13 @@
     </row>
     <row r="111" spans="2:5">
       <c r="B111" s="7" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E111" s="5">
         <v>0</v>
@@ -22732,7 +22740,7 @@
         <v>698</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>699</v>
@@ -22746,10 +22754,10 @@
         <v>698</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="E113" s="5">
         <v>0</v>
@@ -22757,13 +22765,13 @@
     </row>
     <row r="114" spans="2:5">
       <c r="B114" s="7" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E114" s="5">
         <v>0</v>
@@ -22774,7 +22782,7 @@
         <v>713</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>714</v>
@@ -22788,7 +22796,7 @@
         <v>713</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>714</v>
@@ -22799,13 +22807,13 @@
     </row>
     <row r="117" spans="2:5">
       <c r="B117" s="7" t="s">
-        <v>981</v>
+        <v>713</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>982</v>
+        <v>716</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>985</v>
+        <v>714</v>
       </c>
       <c r="E117" s="5">
         <v>0</v>
@@ -22813,13 +22821,13 @@
     </row>
     <row r="118" spans="2:5">
       <c r="B118" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>981</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="D118" s="9" t="s">
         <v>984</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>985</v>
       </c>
       <c r="E118" s="5">
         <v>0</v>
@@ -22827,13 +22835,13 @@
     </row>
     <row r="119" spans="2:5">
       <c r="B119" s="7" t="s">
-        <v>981</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>986</v>
+        <v>980</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>983</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E119" s="5">
         <v>0</v>
@@ -22841,20 +22849,34 @@
     </row>
     <row r="120" spans="2:5">
       <c r="B120" s="7" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E120" s="5">
         <v>0</v>
       </c>
     </row>
+    <row r="121" spans="2:5">
+      <c r="B121" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>984</v>
+      </c>
+      <c r="E121" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B3:E120"/>
+  <autoFilter ref="B3:E121"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23139,7 +23161,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>34</v>
@@ -23151,7 +23173,7 @@
         <v>49</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>44</v>
@@ -23372,7 +23394,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="24" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>53</v>
@@ -23389,53 +23411,53 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="25" t="s">
+        <v>967</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>968</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>970</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>971</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="26" t="s">
+        <v>965</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>966</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>967</v>
-      </c>
       <c r="C3" s="27" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D3" s="27" t="s">
+        <v>972</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>973</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="26" t="s">
+        <v>974</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>963</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>964</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>975</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>964</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>965</v>
-      </c>
-      <c r="D4" s="27" t="s">
+      <c r="E4" s="28" t="s">
         <v>976</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>977</v>
       </c>
     </row>
   </sheetData>

--- a/wico/数据表结构.xlsx
+++ b/wico/数据表结构.xlsx
@@ -16,7 +16,7 @@
     <sheet name="客户正式投诉" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$131</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'零件清单（下载）'!$B$3:$K$152</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'座椅配置（下载）'!$B$3:$E$676</definedName>
   </definedNames>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3860" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="1081">
   <si>
     <t>SLIDE ADJR OUT L,FR SEAT</t>
   </si>
@@ -2378,10 +2378,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>调整/更换 绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>破损</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3425,323 +3421,319 @@
     <t>英国电动-前排-左席座椅（4WAY无记忆）</t>
   </si>
   <si>
+    <t>后升降无法作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除焊渣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>81201-3A02-X810-M1-0000</t>
+  </si>
+  <si>
+    <t>81260-3B42-H010-M1-0000</t>
+  </si>
+  <si>
+    <t>81270-3B42-H010-M1-0000</t>
+  </si>
+  <si>
+    <t>81260-3E73-E810-M1-0000</t>
+  </si>
+  <si>
+    <t>81660-3B42-H710-M1-0000</t>
+  </si>
+  <si>
+    <t>81260-3B42-H710-M1-0000</t>
+  </si>
+  <si>
+    <t>81660-3E73-E810-M1-0000</t>
+  </si>
+  <si>
+    <t>81670-3B42-H710-M1-0000</t>
+  </si>
+  <si>
+    <t>81270-3B42-H710-M1-0000</t>
+  </si>
+  <si>
+    <t>81270-3E73-E810-M1-0000</t>
+  </si>
+  <si>
+    <t>81670-3E73-E810-M1-0000</t>
+  </si>
+  <si>
+    <t>81202-3E73-E810-M1-0000</t>
+  </si>
+  <si>
+    <t>81602-3A02-A710-M1-0001</t>
+  </si>
+  <si>
+    <t>滑轨无法作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动座椅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑轨无法作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换H型滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>条码脏污/破损，无法识别</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>后升降无法作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除焊渣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>81201-3A02-X810-M1-0000</t>
-  </si>
-  <si>
-    <t>81260-3B42-H010-M1-0000</t>
-  </si>
-  <si>
-    <t>81270-3B42-H010-M1-0000</t>
-  </si>
-  <si>
-    <t>81260-3E73-E810-M1-0000</t>
-  </si>
-  <si>
-    <t>81660-3B42-H710-M1-0000</t>
-  </si>
-  <si>
-    <t>81260-3B42-H710-M1-0000</t>
-  </si>
-  <si>
-    <t>81660-3E73-E810-M1-0000</t>
-  </si>
-  <si>
-    <t>81670-3B42-H710-M1-0000</t>
-  </si>
-  <si>
-    <t>81270-3B42-H710-M1-0000</t>
-  </si>
-  <si>
-    <t>81270-3E73-E810-M1-0000</t>
-  </si>
-  <si>
-    <t>81670-3E73-E810-M1-0000</t>
-  </si>
-  <si>
-    <t>81202-3E73-E810-M1-0000</t>
-  </si>
-  <si>
-    <t>81602-3A02-A710-M1-0001</t>
-  </si>
-  <si>
-    <t>滑轨无法作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑轨无法作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换H型滑轨</t>
+    <t>2110-355-310</t>
+  </si>
+  <si>
+    <t>2110-355-320</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gitee.com/sunny_ho/image_bed/raw/master/wico/2110-355-310.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gitee.com/sunny_ho/image_bed/raw/master/wico/2110-355-320.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>58104/58112</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3B4A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动-后排-左席座椅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动-后排-右席座椅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2110-355-310</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2110-355-320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L001779025</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L001779035</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MINI RECLINER ASSY_RH，MANUAL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MINI RECLINER ASSY_LH，MANUAL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调角器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动晃动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撬L形支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动拉力过大</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂润滑油，反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动晃动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴弯曲了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绕性轴（短）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绕性轴（长）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑轨震动并且晃动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机破损</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撬扇形齿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降打啃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降干涉异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撬支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动晃动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动震动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepairMethod</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降电机异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>变形</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动电机支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑动电机支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regular</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>([0-9]{2})([A-L])([0-3][0-9])([A-M]) ([0-9]{3})</t>
+  </si>
+  <si>
+    <t>涂油反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动震动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂油反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱、短绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱、长绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整/更换 短绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整/更换 长绕性轴</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>条码脏污/破损，无法识别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2110-355-310</t>
-  </si>
-  <si>
-    <t>2110-355-320</t>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://gitee.com/sunny_ho/image_bed/raw/master/wico/2110-355-310.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://gitee.com/sunny_ho/image_bed/raw/master/wico/2110-355-320.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>58104/58112</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3B4A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动-后排-左席座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动-后排-右席座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2110-355-310</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2110-355-320</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>L001779025</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>L001779035</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MINI RECLINER ASSY_RH，MANUAL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MINI RECLINER ASSY_LH，MANUAL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调角器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>撬L形支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动拉力过大</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>涂润滑油，反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>轴弯曲了</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>绕性轴（短）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>绕性轴（长）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换齿轮箱、短轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑轨震动并且晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机破损</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>撬扇形齿</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降打啃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降干涉异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>撬支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换齿轮箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换齿轮箱、短轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PartType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepairMethod</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降电机异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>变形</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动电机支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换滑动电机支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换齿轮箱、短轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整/更换 绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Regular</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>([0-9]{2})([A-L])([0-3][0-9])([A-M]) ([0-9]{3})</t>
-  </si>
-  <si>
-    <t>涂油反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>涂油反复作动</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5202,7 +5194,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5263,7 +5255,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5324,7 +5316,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5380,7 +5372,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5438,7 +5430,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5496,7 +5488,7 @@
         <xdr:cNvPr id="13" name="TextBox 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5559,7 +5551,7 @@
         <xdr:cNvPr id="16" name="直接箭头连接符 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5612,7 +5604,7 @@
         <xdr:cNvPr id="21" name="图片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5673,7 +5665,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5734,7 +5726,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5787,7 +5779,7 @@
         <xdr:cNvPr id="27" name="直接箭头连接符 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5840,7 +5832,7 @@
         <xdr:cNvPr id="29" name="直接箭头连接符 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5893,7 +5885,7 @@
         <xdr:cNvPr id="31" name="直接箭头连接符 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5946,7 +5938,7 @@
         <xdr:cNvPr id="33" name="直接箭头连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5999,7 +5991,7 @@
         <xdr:cNvPr id="36" name="直接箭头连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6047,7 +6039,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6568,7 +6560,7 @@
         <v>47</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>50</v>
@@ -6588,10 +6580,10 @@
         <v>341</v>
       </c>
       <c r="F4" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>721</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>64</v>
@@ -6619,10 +6611,10 @@
         <v>63</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>64</v>
@@ -6650,10 +6642,10 @@
         <v>67</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>64</v>
@@ -6681,10 +6673,10 @@
         <v>70</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>2</v>
@@ -6712,10 +6704,10 @@
         <v>309</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>64</v>
@@ -6743,7 +6735,7 @@
         <v>328</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>329</v>
@@ -6774,7 +6766,7 @@
         <v>328</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>329</v>
@@ -6805,7 +6797,7 @@
         <v>328</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>329</v>
@@ -6836,7 +6828,7 @@
         <v>328</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>329</v>
@@ -6867,10 +6859,10 @@
         <v>354</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>2</v>
@@ -6898,10 +6890,10 @@
         <v>102</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>64</v>
@@ -6929,10 +6921,10 @@
         <v>357</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>64</v>
@@ -6960,7 +6952,7 @@
         <v>416</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>417</v>
@@ -6991,10 +6983,10 @@
         <v>312</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>2</v>
@@ -7022,10 +7014,10 @@
         <v>315</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>2</v>
@@ -7053,7 +7045,7 @@
         <v>319</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>320</v>
@@ -7084,7 +7076,7 @@
         <v>319</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>320</v>
@@ -7115,7 +7107,7 @@
         <v>319</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>320</v>
@@ -7146,7 +7138,7 @@
         <v>319</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>320</v>
@@ -7177,7 +7169,7 @@
         <v>105</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>79</v>
@@ -7208,10 +7200,10 @@
         <v>108</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>64</v>
@@ -7239,10 +7231,10 @@
         <v>111</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>64</v>
@@ -7270,7 +7262,7 @@
         <v>172</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>115</v>
@@ -7282,7 +7274,7 @@
         <v>58109</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K26" s="7">
         <v>0</v>
@@ -7305,7 +7297,7 @@
         <v>172</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>115</v>
@@ -7317,7 +7309,7 @@
         <v>58109</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K27" s="7">
         <v>0</v>
@@ -7340,7 +7332,7 @@
         <v>114</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>115</v>
@@ -7350,7 +7342,7 @@
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K28" s="7">
         <v>0</v>
@@ -7373,7 +7365,7 @@
         <v>177</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>115</v>
@@ -7385,7 +7377,7 @@
         <v>58109</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K29" s="7">
         <v>0</v>
@@ -7408,7 +7400,7 @@
         <v>118</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>115</v>
@@ -7418,7 +7410,7 @@
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K30" s="7">
         <v>0</v>
@@ -7441,7 +7433,7 @@
         <v>261</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>262</v>
@@ -7472,7 +7464,7 @@
         <v>265</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>262</v>
@@ -7503,7 +7495,7 @@
         <v>268</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>269</v>
@@ -7534,7 +7526,7 @@
         <v>261</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>262</v>
@@ -7565,7 +7557,7 @@
         <v>268</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>269</v>
@@ -7596,7 +7588,7 @@
         <v>261</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>262</v>
@@ -7606,7 +7598,7 @@
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K36" s="7">
         <v>0</v>
@@ -7629,7 +7621,7 @@
         <v>265</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>262</v>
@@ -7639,7 +7631,7 @@
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K37" s="7">
         <v>0</v>
@@ -7656,13 +7648,13 @@
         <v>278</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>279</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>262</v>
@@ -7672,7 +7664,7 @@
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="19" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K38" s="7">
         <v>0</v>
@@ -7689,13 +7681,13 @@
         <v>280</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>281</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>262</v>
@@ -7705,7 +7697,7 @@
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="19" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K39" s="7">
         <v>0</v>
@@ -7728,7 +7720,7 @@
         <v>295</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>296</v>
@@ -7759,7 +7751,7 @@
         <v>299</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>296</v>
@@ -7790,7 +7782,7 @@
         <v>401</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>296</v>
@@ -7821,7 +7813,7 @@
         <v>401</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>296</v>
@@ -7852,7 +7844,7 @@
         <v>406</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>296</v>
@@ -7883,7 +7875,7 @@
         <v>406</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>296</v>
@@ -7914,7 +7906,7 @@
         <v>142</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>79</v>
@@ -7926,7 +7918,7 @@
         <v>58104</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K46" s="7">
         <v>0</v>
@@ -7949,7 +7941,7 @@
         <v>145</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>79</v>
@@ -7961,7 +7953,7 @@
         <v>58104</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K47" s="7">
         <v>0</v>
@@ -7984,7 +7976,7 @@
         <v>148</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>79</v>
@@ -7996,7 +7988,7 @@
         <v>58104</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K48" s="7">
         <v>0</v>
@@ -8019,7 +8011,7 @@
         <v>151</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>79</v>
@@ -8031,7 +8023,7 @@
         <v>58104</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K49" s="7">
         <v>0</v>
@@ -8054,7 +8046,7 @@
         <v>142</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>79</v>
@@ -8066,7 +8058,7 @@
         <v>58112</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K50" s="7">
         <v>0</v>
@@ -8089,7 +8081,7 @@
         <v>142</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>79</v>
@@ -8098,10 +8090,10 @@
         <v>2</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K51" s="7">
         <v>0</v>
@@ -8124,7 +8116,7 @@
         <v>145</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>79</v>
@@ -8136,7 +8128,7 @@
         <v>58112</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K52" s="7">
         <v>0</v>
@@ -8159,7 +8151,7 @@
         <v>145</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>79</v>
@@ -8168,10 +8160,10 @@
         <v>2</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K53" s="7">
         <v>0</v>
@@ -8194,7 +8186,7 @@
         <v>148</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>79</v>
@@ -8206,7 +8198,7 @@
         <v>58112</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K54" s="7">
         <v>0</v>
@@ -8229,7 +8221,7 @@
         <v>148</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>79</v>
@@ -8238,10 +8230,10 @@
         <v>2</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K55" s="7">
         <v>0</v>
@@ -8264,7 +8256,7 @@
         <v>151</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>79</v>
@@ -8276,7 +8268,7 @@
         <v>58112</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K56" s="7">
         <v>0</v>
@@ -8299,7 +8291,7 @@
         <v>151</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>79</v>
@@ -8308,10 +8300,10 @@
         <v>2</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K57" s="7">
         <v>0</v>
@@ -8331,10 +8323,10 @@
         <v>160</v>
       </c>
       <c r="E58" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="F58" s="19" t="s">
         <v>780</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>781</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>79</v>
@@ -8346,7 +8338,7 @@
         <v>52111</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K58" s="7">
         <v>0</v>
@@ -8369,7 +8361,7 @@
         <v>163</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>79</v>
@@ -8381,7 +8373,7 @@
         <v>52111</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K59" s="7">
         <v>0</v>
@@ -8404,7 +8396,7 @@
         <v>78</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>79</v>
@@ -8414,7 +8406,7 @@
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K60" s="7">
         <v>0</v>
@@ -8437,7 +8429,7 @@
         <v>82</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>79</v>
@@ -8447,7 +8439,7 @@
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K61" s="7">
         <v>0</v>
@@ -8470,7 +8462,7 @@
         <v>85</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>79</v>
@@ -8480,7 +8472,7 @@
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K62" s="7">
         <v>0</v>
@@ -8503,7 +8495,7 @@
         <v>88</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>79</v>
@@ -8513,7 +8505,7 @@
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K63" s="7">
         <v>0</v>
@@ -8536,7 +8528,7 @@
         <v>166</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>79</v>
@@ -8548,7 +8540,7 @@
         <v>58111</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K64" s="7">
         <v>0</v>
@@ -8571,7 +8563,7 @@
         <v>169</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>79</v>
@@ -8583,7 +8575,7 @@
         <v>58111</v>
       </c>
       <c r="J65" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K65" s="7">
         <v>0</v>
@@ -8606,7 +8598,7 @@
         <v>91</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>79</v>
@@ -8616,7 +8608,7 @@
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K66" s="7">
         <v>0</v>
@@ -8639,7 +8631,7 @@
         <v>94</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>79</v>
@@ -8649,7 +8641,7 @@
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K67" s="7">
         <v>0</v>
@@ -8672,7 +8664,7 @@
         <v>97</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>79</v>
@@ -8682,7 +8674,7 @@
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K68" s="7">
         <v>0</v>
@@ -8699,13 +8691,13 @@
         <v>98</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>99</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>79</v>
@@ -8715,7 +8707,7 @@
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K69" s="7">
         <v>0</v>
@@ -8738,7 +8730,7 @@
         <v>420</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>417</v>
@@ -8769,7 +8761,7 @@
         <v>420</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>417</v>
@@ -8800,7 +8792,7 @@
         <v>376</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>377</v>
@@ -8831,7 +8823,7 @@
         <v>255</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>256</v>
@@ -8843,7 +8835,7 @@
         <v>58105</v>
       </c>
       <c r="J73" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K73" s="7">
         <v>0</v>
@@ -8866,10 +8858,10 @@
         <v>372</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>64</v>
@@ -8897,7 +8889,7 @@
         <v>284</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>262</v>
@@ -8928,7 +8920,7 @@
         <v>284</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>262</v>
@@ -8959,7 +8951,7 @@
         <v>425</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>417</v>
@@ -8990,7 +8982,7 @@
         <v>380</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>381</v>
@@ -9021,7 +9013,7 @@
         <v>380</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>381</v>
@@ -9052,7 +9044,7 @@
         <v>416</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>417</v>
@@ -9083,7 +9075,7 @@
         <v>333</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>256</v>
@@ -9114,7 +9106,7 @@
         <v>333</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>256</v>
@@ -9145,7 +9137,7 @@
         <v>135</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>136</v>
@@ -9155,7 +9147,7 @@
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K83" s="7">
         <v>0</v>
@@ -9178,7 +9170,7 @@
         <v>135</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>136</v>
@@ -9188,7 +9180,7 @@
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="K84" s="7">
         <v>0</v>
@@ -9211,7 +9203,7 @@
         <v>290</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>291</v>
@@ -9242,7 +9234,7 @@
         <v>412</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>291</v>
@@ -9273,10 +9265,10 @@
         <v>125</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>2</v>
@@ -9304,7 +9296,7 @@
         <v>128</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>129</v>
@@ -9335,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>1</v>
@@ -9347,7 +9339,7 @@
         <v>58108</v>
       </c>
       <c r="J89" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K89" s="7">
         <v>0</v>
@@ -9370,7 +9362,7 @@
         <v>7</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>1</v>
@@ -9382,7 +9374,7 @@
         <v>58108</v>
       </c>
       <c r="J90" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K90" s="7">
         <v>0</v>
@@ -9405,7 +9397,7 @@
         <v>10</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>1</v>
@@ -9417,7 +9409,7 @@
         <v>58108</v>
       </c>
       <c r="J91" s="19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="K91" s="7">
         <v>0</v>
@@ -9440,7 +9432,7 @@
         <v>13</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>1</v>
@@ -9452,7 +9444,7 @@
         <v>58108</v>
       </c>
       <c r="J92" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="K92" s="7">
         <v>0</v>
@@ -9475,7 +9467,7 @@
         <v>3</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>1</v>
@@ -9487,7 +9479,7 @@
         <v>58108</v>
       </c>
       <c r="J93" s="19" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K93" s="7">
         <v>0</v>
@@ -9510,7 +9502,7 @@
         <v>18</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>1</v>
@@ -9522,7 +9514,7 @@
         <v>58108</v>
       </c>
       <c r="J94" s="19" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K94" s="7">
         <v>0</v>
@@ -9545,7 +9537,7 @@
         <v>21</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>1</v>
@@ -9557,7 +9549,7 @@
         <v>58108</v>
       </c>
       <c r="J95" s="19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K95" s="7">
         <v>0</v>
@@ -9580,7 +9572,7 @@
         <v>24</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>1</v>
@@ -9592,7 +9584,7 @@
         <v>58108</v>
       </c>
       <c r="J96" s="19" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K96" s="7">
         <v>0</v>
@@ -9615,7 +9607,7 @@
         <v>362</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>363</v>
@@ -9646,7 +9638,7 @@
         <v>333</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>256</v>
@@ -9677,7 +9669,7 @@
         <v>333</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>256</v>
@@ -9708,7 +9700,7 @@
         <v>128</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>129</v>
@@ -9739,7 +9731,7 @@
         <v>135</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>136</v>
@@ -9749,7 +9741,7 @@
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="19" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K101" s="7">
         <v>0</v>
@@ -9766,13 +9758,13 @@
         <v>137</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>138</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>136</v>
@@ -9782,7 +9774,7 @@
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="19" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K102" s="7">
         <v>0</v>
@@ -9805,7 +9797,7 @@
         <v>128</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>129</v>
@@ -9836,7 +9828,7 @@
         <v>73</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>74</v>
@@ -9867,7 +9859,7 @@
         <v>121</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>122</v>
@@ -9877,7 +9869,7 @@
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K105" s="7">
         <v>0</v>
@@ -9900,7 +9892,7 @@
         <v>121</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>122</v>
@@ -9910,7 +9902,7 @@
       </c>
       <c r="I106" s="7"/>
       <c r="J106" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K106" s="7">
         <v>0</v>
@@ -9933,7 +9925,7 @@
         <v>180</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>181</v>
@@ -9945,7 +9937,7 @@
         <v>58103</v>
       </c>
       <c r="J107" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K107" s="7">
         <v>0</v>
@@ -9968,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>181</v>
@@ -9980,7 +9972,7 @@
         <v>58103</v>
       </c>
       <c r="J108" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K108" s="7">
         <v>0</v>
@@ -10003,7 +9995,7 @@
         <v>186</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>181</v>
@@ -10015,7 +10007,7 @@
         <v>58103</v>
       </c>
       <c r="J109" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K109" s="7">
         <v>0</v>
@@ -10038,7 +10030,7 @@
         <v>3</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>181</v>
@@ -10050,7 +10042,7 @@
         <v>58103</v>
       </c>
       <c r="J110" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K110" s="7">
         <v>0</v>
@@ -10073,7 +10065,7 @@
         <v>180</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>181</v>
@@ -10082,10 +10074,10 @@
         <v>2</v>
       </c>
       <c r="I111" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="J111" s="19" t="s">
         <v>848</v>
-      </c>
-      <c r="J111" s="19" t="s">
-        <v>849</v>
       </c>
       <c r="K111" s="7">
         <v>0</v>
@@ -10108,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>181</v>
@@ -10117,10 +10109,10 @@
         <v>2</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J112" s="19" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K112" s="7">
         <v>0</v>
@@ -10143,7 +10135,7 @@
         <v>195</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>181</v>
@@ -10152,10 +10144,10 @@
         <v>2</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J113" s="19" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K113" s="7">
         <v>0</v>
@@ -10178,7 +10170,7 @@
         <v>3</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>181</v>
@@ -10187,10 +10179,10 @@
         <v>2</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J114" s="19" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K114" s="7">
         <v>0</v>
@@ -10213,7 +10205,7 @@
         <v>186</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>181</v>
@@ -10222,10 +10214,10 @@
         <v>2</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J115" s="19" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K115" s="7">
         <v>0</v>
@@ -10248,7 +10240,7 @@
         <v>202</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>181</v>
@@ -10257,10 +10249,10 @@
         <v>2</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J116" s="19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="K116" s="7">
         <v>0</v>
@@ -10283,7 +10275,7 @@
         <v>205</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>181</v>
@@ -10295,7 +10287,7 @@
         <v>58103</v>
       </c>
       <c r="J117" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K117" s="7">
         <v>0</v>
@@ -10318,7 +10310,7 @@
         <v>208</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>181</v>
@@ -10330,7 +10322,7 @@
         <v>58103</v>
       </c>
       <c r="J118" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K118" s="7">
         <v>0</v>
@@ -10353,7 +10345,7 @@
         <v>211</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>181</v>
@@ -10365,7 +10357,7 @@
         <v>58103</v>
       </c>
       <c r="J119" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K119" s="7">
         <v>0</v>
@@ -10388,7 +10380,7 @@
         <v>214</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>181</v>
@@ -10400,7 +10392,7 @@
         <v>58103</v>
       </c>
       <c r="J120" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K120" s="7">
         <v>0</v>
@@ -10423,7 +10415,7 @@
         <v>217</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>181</v>
@@ -10435,7 +10427,7 @@
         <v>58103</v>
       </c>
       <c r="J121" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K121" s="7">
         <v>0</v>
@@ -10458,7 +10450,7 @@
         <v>220</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>181</v>
@@ -10470,7 +10462,7 @@
         <v>58103</v>
       </c>
       <c r="J122" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K122" s="7">
         <v>0</v>
@@ -10487,13 +10479,13 @@
         <v>385</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>386</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>115</v>
@@ -10503,7 +10495,7 @@
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="19" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K123" s="7">
         <v>0</v>
@@ -10520,13 +10512,13 @@
         <v>221</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>222</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G124" s="7" t="s">
         <v>115</v>
@@ -10538,7 +10530,7 @@
         <v>58109</v>
       </c>
       <c r="J124" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K124" s="7">
         <v>0</v>
@@ -10555,13 +10547,13 @@
         <v>387</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>386</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>115</v>
@@ -10571,7 +10563,7 @@
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="K125" s="7">
         <v>0</v>
@@ -10588,13 +10580,13 @@
         <v>223</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>222</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>115</v>
@@ -10606,7 +10598,7 @@
         <v>58109</v>
       </c>
       <c r="J126" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K126" s="7">
         <v>0</v>
@@ -10623,13 +10615,13 @@
         <v>388</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>389</v>
       </c>
       <c r="F127" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G127" s="7" t="s">
         <v>115</v>
@@ -10639,7 +10631,7 @@
       </c>
       <c r="I127" s="7"/>
       <c r="J127" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K127" s="7">
         <v>0</v>
@@ -10656,13 +10648,13 @@
         <v>224</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E128" s="7" t="s">
         <v>225</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G128" s="7" t="s">
         <v>115</v>
@@ -10674,7 +10666,7 @@
         <v>58109</v>
       </c>
       <c r="J128" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K128" s="7">
         <v>0</v>
@@ -10691,13 +10683,13 @@
         <v>390</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>389</v>
       </c>
       <c r="F129" s="19" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>115</v>
@@ -10707,7 +10699,7 @@
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="19" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K129" s="7">
         <v>0</v>
@@ -10724,13 +10716,13 @@
         <v>226</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>225</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G130" s="7" t="s">
         <v>115</v>
@@ -10742,7 +10734,7 @@
         <v>58109</v>
       </c>
       <c r="J130" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K130" s="7">
         <v>0</v>
@@ -10765,7 +10757,7 @@
         <v>229</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G131" s="7" t="s">
         <v>181</v>
@@ -10777,7 +10769,7 @@
         <v>58116</v>
       </c>
       <c r="J131" s="19" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K131" s="7">
         <v>0</v>
@@ -10800,7 +10792,7 @@
         <v>232</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G132" s="7" t="s">
         <v>181</v>
@@ -10812,7 +10804,7 @@
         <v>58116</v>
       </c>
       <c r="J132" s="19" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K132" s="7">
         <v>0</v>
@@ -10835,7 +10827,7 @@
         <v>235</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G133" s="7" t="s">
         <v>181</v>
@@ -10847,7 +10839,7 @@
         <v>58117</v>
       </c>
       <c r="J133" s="19" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K133" s="7">
         <v>0</v>
@@ -10870,7 +10862,7 @@
         <v>238</v>
       </c>
       <c r="F134" s="19" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G134" s="7" t="s">
         <v>181</v>
@@ -10882,7 +10874,7 @@
         <v>58117</v>
       </c>
       <c r="J134" s="19" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="K134" s="7">
         <v>0</v>
@@ -10899,13 +10891,13 @@
         <v>239</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>205</v>
       </c>
       <c r="F135" s="19" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G135" s="7" t="s">
         <v>181</v>
@@ -10917,7 +10909,7 @@
         <v>58119</v>
       </c>
       <c r="J135" s="19" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="K135" s="7">
         <v>0</v>
@@ -10934,13 +10926,13 @@
         <v>240</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>208</v>
       </c>
       <c r="F136" s="19" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G136" s="7" t="s">
         <v>181</v>
@@ -10952,7 +10944,7 @@
         <v>58119</v>
       </c>
       <c r="J136" s="19" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K136" s="7">
         <v>0</v>
@@ -10969,13 +10961,13 @@
         <v>241</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>208</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>181</v>
@@ -10987,7 +10979,7 @@
         <v>58119</v>
       </c>
       <c r="J137" s="19" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="K137" s="7">
         <v>0</v>
@@ -11004,13 +10996,13 @@
         <v>242</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E138" s="7" t="s">
         <v>214</v>
       </c>
       <c r="F138" s="19" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>181</v>
@@ -11022,7 +11014,7 @@
         <v>58120</v>
       </c>
       <c r="J138" s="19" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K138" s="7">
         <v>0</v>
@@ -11039,13 +11031,13 @@
         <v>243</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E139" s="7" t="s">
         <v>220</v>
       </c>
       <c r="F139" s="19" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G139" s="7" t="s">
         <v>181</v>
@@ -11057,7 +11049,7 @@
         <v>58120</v>
       </c>
       <c r="J139" s="19" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K139" s="7">
         <v>0</v>
@@ -11074,13 +11066,13 @@
         <v>244</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>220</v>
       </c>
       <c r="F140" s="19" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G140" s="7" t="s">
         <v>181</v>
@@ -11092,7 +11084,7 @@
         <v>58120</v>
       </c>
       <c r="J140" s="19" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="K140" s="7">
         <v>0</v>
@@ -11109,13 +11101,13 @@
         <v>245</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E141" s="7" t="s">
         <v>229</v>
       </c>
       <c r="F141" s="19" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G141" s="7" t="s">
         <v>181</v>
@@ -11127,7 +11119,7 @@
         <v>58116</v>
       </c>
       <c r="J141" s="19" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="K141" s="7">
         <v>0</v>
@@ -11144,13 +11136,13 @@
         <v>246</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E142" s="7" t="s">
         <v>232</v>
       </c>
       <c r="F142" s="19" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G142" s="7" t="s">
         <v>181</v>
@@ -11162,7 +11154,7 @@
         <v>58116</v>
       </c>
       <c r="J142" s="19" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="K142" s="7">
         <v>0</v>
@@ -11179,13 +11171,13 @@
         <v>247</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E143" s="7" t="s">
         <v>235</v>
       </c>
       <c r="F143" s="19" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>181</v>
@@ -11197,7 +11189,7 @@
         <v>58117</v>
       </c>
       <c r="J143" s="19" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="K143" s="7">
         <v>0</v>
@@ -11214,13 +11206,13 @@
         <v>248</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E144" s="7" t="s">
         <v>238</v>
       </c>
       <c r="F144" s="19" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>181</v>
@@ -11232,7 +11224,7 @@
         <v>58117</v>
       </c>
       <c r="J144" s="19" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="K144" s="7">
         <v>0</v>
@@ -11249,13 +11241,13 @@
         <v>391</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F145" s="19" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G145" s="7" t="s">
         <v>1</v>
@@ -11265,7 +11257,7 @@
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="19" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="K145" s="7">
         <v>0</v>
@@ -11282,13 +11274,13 @@
         <v>249</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E146" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F146" s="19" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>1</v>
@@ -11300,7 +11292,7 @@
         <v>58118</v>
       </c>
       <c r="J146" s="19" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="K146" s="7">
         <v>0</v>
@@ -11317,13 +11309,13 @@
         <v>250</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E147" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F147" s="19" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G147" s="7" t="s">
         <v>1</v>
@@ -11335,7 +11327,7 @@
         <v>58118</v>
       </c>
       <c r="J147" s="19" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="K147" s="7">
         <v>0</v>
@@ -11352,13 +11344,13 @@
         <v>392</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E148" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F148" s="19" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G148" s="7" t="s">
         <v>1</v>
@@ -11368,7 +11360,7 @@
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="19" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K148" s="7">
         <v>0</v>
@@ -11385,13 +11377,13 @@
         <v>393</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E149" s="7" t="s">
         <v>186</v>
       </c>
       <c r="F149" s="19" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G149" s="7" t="s">
         <v>1</v>
@@ -11401,7 +11393,7 @@
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="19" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="K149" s="7">
         <v>0</v>
@@ -11418,13 +11410,13 @@
         <v>251</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E150" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F150" s="19" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G150" s="7" t="s">
         <v>1</v>
@@ -11436,7 +11428,7 @@
         <v>58118</v>
       </c>
       <c r="J150" s="19" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K150" s="7">
         <v>0</v>
@@ -11453,13 +11445,13 @@
         <v>252</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>186</v>
       </c>
       <c r="F151" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G151" s="7" t="s">
         <v>1</v>
@@ -11471,7 +11463,7 @@
         <v>58118</v>
       </c>
       <c r="J151" s="19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="K151" s="7">
         <v>0</v>
@@ -11488,13 +11480,13 @@
         <v>394</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F152" s="19" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G152" s="7" t="s">
         <v>1</v>
@@ -11504,7 +11496,7 @@
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="19" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K152" s="7">
         <v>0</v>
@@ -11518,22 +11510,22 @@
         <v>139</v>
       </c>
       <c r="C153" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D153" s="7" t="s">
         <v>1029</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="E153" s="7" t="s">
         <v>1031</v>
       </c>
-      <c r="E153" s="7" t="s">
+      <c r="F153" s="31" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G153" s="7" t="s">
         <v>1033</v>
       </c>
-      <c r="F153" s="31" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>1035</v>
-      </c>
       <c r="H153" s="9" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="I153" s="7">
         <v>58112</v>
@@ -11548,22 +11540,22 @@
         <v>139</v>
       </c>
       <c r="C154" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D154" s="7" t="s">
         <v>1030</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="E154" s="7" t="s">
         <v>1032</v>
       </c>
-      <c r="E154" s="7" t="s">
-        <v>1034</v>
-      </c>
       <c r="F154" s="31" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="G154" s="7" t="s">
         <v>79</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="I154" s="7">
         <v>58112</v>
@@ -20582,7 +20574,7 @@
         <v>604</v>
       </c>
       <c r="C640" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D640" s="18" t="s">
         <v>565</v>
@@ -20596,7 +20588,7 @@
         <v>604</v>
       </c>
       <c r="C641" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D641" s="18" t="s">
         <v>568</v>
@@ -20610,7 +20602,7 @@
         <v>604</v>
       </c>
       <c r="C642" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D642" s="18" t="s">
         <v>569</v>
@@ -20624,7 +20616,7 @@
         <v>604</v>
       </c>
       <c r="C643" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D643" s="18" t="s">
         <v>570</v>
@@ -20638,7 +20630,7 @@
         <v>604</v>
       </c>
       <c r="C644" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D644" s="18" t="s">
         <v>571</v>
@@ -20652,7 +20644,7 @@
         <v>604</v>
       </c>
       <c r="C645" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D645" s="18" t="s">
         <v>572</v>
@@ -20666,7 +20658,7 @@
         <v>604</v>
       </c>
       <c r="C646" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D646" s="18" t="s">
         <v>573</v>
@@ -20680,7 +20672,7 @@
         <v>604</v>
       </c>
       <c r="C647" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D647" s="18" t="s">
         <v>575</v>
@@ -20694,7 +20686,7 @@
         <v>604</v>
       </c>
       <c r="C648" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D648" s="18" t="s">
         <v>576</v>
@@ -20708,7 +20700,7 @@
         <v>604</v>
       </c>
       <c r="C649" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D649" s="18" t="s">
         <v>609</v>
@@ -20722,7 +20714,7 @@
         <v>604</v>
       </c>
       <c r="C650" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D650" s="18" t="s">
         <v>577</v>
@@ -20736,7 +20728,7 @@
         <v>604</v>
       </c>
       <c r="C651" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D651" s="18" t="s">
         <v>579</v>
@@ -20750,7 +20742,7 @@
         <v>604</v>
       </c>
       <c r="C652" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D652" s="18" t="s">
         <v>580</v>
@@ -20764,7 +20756,7 @@
         <v>604</v>
       </c>
       <c r="C653" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D653" s="18" t="s">
         <v>564</v>
@@ -20778,7 +20770,7 @@
         <v>604</v>
       </c>
       <c r="C654" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D654" s="18" t="s">
         <v>568</v>
@@ -20792,7 +20784,7 @@
         <v>604</v>
       </c>
       <c r="C655" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D655" s="18" t="s">
         <v>569</v>
@@ -20806,7 +20798,7 @@
         <v>604</v>
       </c>
       <c r="C656" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D656" s="18" t="s">
         <v>570</v>
@@ -20820,7 +20812,7 @@
         <v>604</v>
       </c>
       <c r="C657" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D657" s="18" t="s">
         <v>571</v>
@@ -20834,7 +20826,7 @@
         <v>604</v>
       </c>
       <c r="C658" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D658" s="18" t="s">
         <v>572</v>
@@ -20848,7 +20840,7 @@
         <v>604</v>
       </c>
       <c r="C659" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D659" s="18" t="s">
         <v>573</v>
@@ -20862,7 +20854,7 @@
         <v>604</v>
       </c>
       <c r="C660" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D660" s="18" t="s">
         <v>605</v>
@@ -20876,7 +20868,7 @@
         <v>604</v>
       </c>
       <c r="C661" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D661" s="18" t="s">
         <v>606</v>
@@ -20890,7 +20882,7 @@
         <v>604</v>
       </c>
       <c r="C662" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D662" s="18" t="s">
         <v>609</v>
@@ -20904,7 +20896,7 @@
         <v>604</v>
       </c>
       <c r="C663" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D663" s="18" t="s">
         <v>577</v>
@@ -20918,7 +20910,7 @@
         <v>604</v>
       </c>
       <c r="C664" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D664" s="18" t="s">
         <v>579</v>
@@ -20932,7 +20924,7 @@
         <v>604</v>
       </c>
       <c r="C665" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D665" s="18" t="s">
         <v>580</v>
@@ -20946,7 +20938,7 @@
         <v>604</v>
       </c>
       <c r="C666" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D666" s="18" t="s">
         <v>566</v>
@@ -20960,7 +20952,7 @@
         <v>604</v>
       </c>
       <c r="C667" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D667" s="18" t="s">
         <v>568</v>
@@ -20974,7 +20966,7 @@
         <v>604</v>
       </c>
       <c r="C668" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D668" s="18" t="s">
         <v>569</v>
@@ -20988,7 +20980,7 @@
         <v>604</v>
       </c>
       <c r="C669" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D669" s="18" t="s">
         <v>570</v>
@@ -21002,7 +20994,7 @@
         <v>604</v>
       </c>
       <c r="C670" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D670" s="18" t="s">
         <v>571</v>
@@ -21016,7 +21008,7 @@
         <v>604</v>
       </c>
       <c r="C671" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D671" s="18" t="s">
         <v>607</v>
@@ -21030,7 +21022,7 @@
         <v>604</v>
       </c>
       <c r="C672" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D672" s="18" t="s">
         <v>574</v>
@@ -21044,7 +21036,7 @@
         <v>604</v>
       </c>
       <c r="C673" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D673" s="18" t="s">
         <v>609</v>
@@ -21058,7 +21050,7 @@
         <v>604</v>
       </c>
       <c r="C674" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D674" s="18" t="s">
         <v>577</v>
@@ -21072,7 +21064,7 @@
         <v>604</v>
       </c>
       <c r="C675" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D675" s="18" t="s">
         <v>579</v>
@@ -21086,7 +21078,7 @@
         <v>604</v>
       </c>
       <c r="C676" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D676" s="18" t="s">
         <v>580</v>
@@ -21097,13 +21089,13 @@
     </row>
     <row r="677" spans="2:5">
       <c r="B677" s="3" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C677" s="32" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D677" s="7" t="s">
         <v>1027</v>
-      </c>
-      <c r="D677" s="7" t="s">
-        <v>1029</v>
       </c>
       <c r="E677" s="16">
         <v>0</v>
@@ -21111,13 +21103,13 @@
     </row>
     <row r="678" spans="2:5">
       <c r="B678" s="3" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C678" s="32" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D678" s="7" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E678" s="16">
         <v>0</v>
@@ -21125,13 +21117,13 @@
     </row>
     <row r="679" spans="2:5">
       <c r="B679" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C679" s="32" t="s">
         <v>1026</v>
       </c>
-      <c r="C679" s="32" t="s">
-        <v>1028</v>
-      </c>
       <c r="D679" s="7" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E679" s="16">
         <v>0</v>
@@ -21139,13 +21131,13 @@
     </row>
     <row r="680" spans="2:5">
       <c r="B680" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C680" s="32" t="s">
         <v>1026</v>
       </c>
-      <c r="C680" s="32" t="s">
-        <v>1028</v>
-      </c>
       <c r="D680" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E680" s="16">
         <v>0</v>
@@ -21160,10 +21152,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21284,10 +21276,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -21295,13 +21287,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="4" t="s">
-        <v>1073</v>
+        <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>1075</v>
+        <v>1061</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1077</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -21309,13 +21301,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>624</v>
+        <v>1068</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>1078</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -21323,13 +21315,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>636</v>
+        <v>1058</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>1079</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -21343,7 +21335,7 @@
         <v>623</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -21351,13 +21343,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="4" t="s">
-        <v>1062</v>
+        <v>1</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1064</v>
+        <v>623</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1061</v>
+        <v>636</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -21365,13 +21357,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="4" t="s">
-        <v>1073</v>
+        <v>1</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>1075</v>
+        <v>623</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>635</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
@@ -21379,13 +21371,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="4" t="s">
-        <v>1080</v>
+        <v>1058</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>623</v>
+        <v>1060</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
@@ -21393,13 +21385,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="4" t="s">
-        <v>1038</v>
+        <v>1058</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1036</v>
+        <v>1060</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1037</v>
+        <v>1077</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -21407,13 +21399,13 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="4" t="s">
-        <v>1</v>
+        <v>1068</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>1045</v>
+        <v>1074</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>1078</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
@@ -21421,13 +21413,13 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="4" t="s">
-        <v>1038</v>
+        <v>1058</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D18" s="6" t="s">
         <v>1060</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>1079</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -21435,13 +21427,13 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="4" t="s">
-        <v>1062</v>
+        <v>1073</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1044</v>
+        <v>623</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1061</v>
+        <v>1075</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -21449,13 +21441,13 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="4" t="s">
-        <v>1062</v>
+        <v>1036</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>1075</v>
+        <v>1034</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>1035</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
@@ -21463,13 +21455,13 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>1043</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>1050</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -21477,13 +21469,13 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>651</v>
+        <v>1036</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>1057</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -21491,13 +21483,13 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>626</v>
+        <v>1058</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>1076</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -21505,13 +21497,13 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>647</v>
+        <v>1036</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>1077</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
@@ -21519,69 +21511,69 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>625</v>
+        <v>1058</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>1042</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>949</v>
+        <v>1078</v>
       </c>
       <c r="E25" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>948</v>
-      </c>
-      <c r="D26" s="22" t="s">
+      <c r="B26" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>1079</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>948</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>951</v>
-      </c>
-      <c r="E27" s="23">
+      <c r="B27" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E27" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>948</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>953</v>
-      </c>
-      <c r="E28" s="23">
+      <c r="B28" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E28" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="5" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>960</v>
+      <c r="B29" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>1048</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>961</v>
+        <v>1078</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
@@ -21589,13 +21581,13 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>632</v>
+        <v>1041</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>1048</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>950</v>
+        <v>1079</v>
       </c>
       <c r="E30" s="5">
         <v>0</v>
@@ -21606,10 +21598,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>952</v>
+        <v>1080</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>651</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
@@ -21617,13 +21609,13 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="4" t="s">
-        <v>990</v>
+        <v>1</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>991</v>
+        <v>625</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>992</v>
+        <v>626</v>
       </c>
       <c r="E32" s="5">
         <v>0</v>
@@ -21634,10 +21626,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>635</v>
+        <v>625</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>647</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
@@ -21648,66 +21640,66 @@
         <v>1</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>667</v>
+        <v>948</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="E35" s="5">
+      <c r="B35" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>947</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E35" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="E36" s="5">
+      <c r="C36" s="22" t="s">
+        <v>947</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>950</v>
+      </c>
+      <c r="E36" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="E37" s="5">
+      <c r="C37" s="22" t="s">
+        <v>947</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>952</v>
+      </c>
+      <c r="E37" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="4" t="s">
-        <v>1</v>
+      <c r="B38" s="5" t="s">
+        <v>1041</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>653</v>
+        <v>959</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>635</v>
+        <v>960</v>
       </c>
       <c r="E38" s="5">
         <v>0</v>
@@ -21718,136 +21710,136 @@
         <v>1</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>939</v>
+        <v>632</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E39" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="E40" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="E42" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="29" t="s">
-        <v>995</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>994</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="E43" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="E44" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="E45" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="B46" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="E46" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="B47" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="E47" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="B48" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>711</v>
       </c>
       <c r="E48" s="5">
         <v>0</v>
@@ -21857,11 +21849,11 @@
       <c r="B49" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>718</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>711</v>
+      <c r="C49" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>645</v>
       </c>
       <c r="E49" s="5">
         <v>0</v>
@@ -21871,11 +21863,11 @@
       <c r="B50" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>960</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>961</v>
+      <c r="C50" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="E50" s="5">
         <v>0</v>
@@ -21885,27 +21877,27 @@
       <c r="B51" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>661</v>
+      <c r="C51" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>635</v>
       </c>
       <c r="E51" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="E52" s="5">
+      <c r="B52" s="29" t="s">
+        <v>994</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>993</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>992</v>
+      </c>
+      <c r="E52" s="29">
         <v>0</v>
       </c>
     </row>
@@ -21914,10 +21906,10 @@
         <v>642</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>687</v>
+        <v>623</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>645</v>
       </c>
       <c r="E53" s="5">
         <v>0</v>
@@ -21928,7 +21920,7 @@
         <v>642</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>653</v>
+        <v>623</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>635</v>
@@ -21942,10 +21934,10 @@
         <v>642</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>939</v>
+        <v>1017</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>40</v>
+        <v>651</v>
       </c>
       <c r="E55" s="5">
         <v>0</v>
@@ -21953,13 +21945,13 @@
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="5" t="s">
-        <v>1040</v>
+        <v>642</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>1041</v>
+        <v>628</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>667</v>
       </c>
       <c r="E56" s="5">
         <v>0</v>
@@ -21970,136 +21962,136 @@
         <v>642</v>
       </c>
       <c r="C57" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>1039</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E57" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="E58" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="B59" s="7" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E59" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="B60" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>957</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="E60" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5">
-      <c r="B61" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>958</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="E61" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="E62" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="B63" s="7" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="E63" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="B64" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="E64" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65" s="7" t="s">
-        <v>977</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>978</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>979</v>
-      </c>
       <c r="E65" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:5">
-      <c r="B66" s="7" t="s">
-        <v>977</v>
+      <c r="B66" s="5" t="s">
+        <v>642</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>1056</v>
+        <v>1037</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>1055</v>
+        <v>1040</v>
       </c>
       <c r="E66" s="5">
         <v>0</v>
@@ -22110,10 +22102,10 @@
         <v>630</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>657</v>
+        <v>1064</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="E67" s="5">
         <v>0</v>
@@ -22121,13 +22113,13 @@
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="7" t="s">
-        <v>630</v>
+        <v>1054</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>658</v>
+        <v>1055</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>659</v>
+        <v>1056</v>
       </c>
       <c r="E68" s="5">
         <v>0</v>
@@ -22138,52 +22130,52 @@
         <v>630</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>658</v>
+        <v>956</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>660</v>
+        <v>631</v>
       </c>
       <c r="E69" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:5">
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="C70" s="22" t="s">
-        <v>954</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>955</v>
-      </c>
-      <c r="E70" s="23">
+      <c r="C70" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="E70" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="22" t="s">
-        <v>977</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>954</v>
-      </c>
-      <c r="D71" s="22" t="s">
-        <v>956</v>
-      </c>
-      <c r="E71" s="23">
+      <c r="B71" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="E71" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" s="7" t="s">
-        <v>630</v>
+        <v>1050</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>667</v>
+        <v>958</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>652</v>
       </c>
       <c r="E72" s="5">
         <v>0</v>
@@ -22191,13 +22183,13 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="7" t="s">
-        <v>1053</v>
+        <v>630</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>1054</v>
+        <v>958</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>681</v>
       </c>
       <c r="E73" s="5">
         <v>0</v>
@@ -22205,13 +22197,13 @@
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>982</v>
+        <v>976</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>977</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>633</v>
+        <v>978</v>
       </c>
       <c r="E74" s="5">
         <v>0</v>
@@ -22219,13 +22211,13 @@
     </row>
     <row r="75" spans="2:5">
       <c r="B75" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>706</v>
+        <v>976</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>1053</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>633</v>
+        <v>1052</v>
       </c>
       <c r="E75" s="5">
         <v>0</v>
@@ -22233,13 +22225,13 @@
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="E76" s="5">
         <v>0</v>
@@ -22247,13 +22239,13 @@
     </row>
     <row r="77" spans="2:5">
       <c r="B77" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>701</v>
+        <v>658</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>633</v>
+        <v>659</v>
       </c>
       <c r="E77" s="5">
         <v>0</v>
@@ -22261,55 +22253,55 @@
     </row>
     <row r="78" spans="2:5">
       <c r="B78" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>719</v>
+        <v>658</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>633</v>
+        <v>660</v>
       </c>
       <c r="E78" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:5">
-      <c r="B79" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="E79" s="5">
+      <c r="B79" s="22" t="s">
+        <v>630</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>953</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>954</v>
+      </c>
+      <c r="E79" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:5">
-      <c r="B80" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="E80" s="5">
+      <c r="B80" s="22" t="s">
+        <v>976</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>953</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>955</v>
+      </c>
+      <c r="E80" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="7" t="s">
-        <v>662</v>
+        <v>630</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>705</v>
+        <v>667</v>
       </c>
       <c r="E81" s="5">
         <v>0</v>
@@ -22317,13 +22309,13 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>706</v>
+        <v>1050</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>1049</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>705</v>
+        <v>1051</v>
       </c>
       <c r="E82" s="5">
         <v>0</v>
@@ -22331,13 +22323,13 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>665</v>
+        <v>634</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>981</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>705</v>
+        <v>633</v>
       </c>
       <c r="E83" s="5">
         <v>0</v>
@@ -22345,13 +22337,13 @@
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>666</v>
+        <v>634</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>705</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>705</v>
+        <v>633</v>
       </c>
       <c r="E84" s="5">
         <v>0</v>
@@ -22359,13 +22351,13 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="7" t="s">
-        <v>662</v>
+        <v>634</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>701</v>
+        <v>646</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>705</v>
+        <v>633</v>
       </c>
       <c r="E85" s="5">
         <v>0</v>
@@ -22373,13 +22365,13 @@
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="7" t="s">
-        <v>662</v>
+        <v>634</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>705</v>
+        <v>633</v>
       </c>
       <c r="E86" s="5">
         <v>0</v>
@@ -22387,13 +22379,13 @@
     </row>
     <row r="87" spans="2:5">
       <c r="B87" s="7" t="s">
-        <v>662</v>
+        <v>634</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>705</v>
+        <v>633</v>
       </c>
       <c r="E87" s="5">
         <v>0</v>
@@ -22401,13 +22393,13 @@
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="7" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>628</v>
+        <v>702</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="E88" s="5">
         <v>0</v>
@@ -22415,13 +22407,13 @@
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="7" t="s">
-        <v>627</v>
+        <v>703</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>655</v>
+        <v>704</v>
       </c>
       <c r="E89" s="5">
         <v>0</v>
@@ -22429,13 +22421,13 @@
     </row>
     <row r="90" spans="2:5">
       <c r="B90" s="7" t="s">
-        <v>627</v>
+        <v>662</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>656</v>
+        <v>704</v>
       </c>
       <c r="E90" s="5">
         <v>0</v>
@@ -22443,13 +22435,13 @@
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>707</v>
+        <v>703</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>705</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>655</v>
+        <v>704</v>
       </c>
       <c r="E91" s="5">
         <v>0</v>
@@ -22457,13 +22449,13 @@
     </row>
     <row r="92" spans="2:5">
       <c r="B92" s="7" t="s">
-        <v>627</v>
+        <v>662</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>708</v>
+        <v>665</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>655</v>
+        <v>704</v>
       </c>
       <c r="E92" s="5">
         <v>0</v>
@@ -22471,13 +22463,13 @@
     </row>
     <row r="93" spans="2:5">
       <c r="B93" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>643</v>
+        <v>662</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>666</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>638</v>
+        <v>704</v>
       </c>
       <c r="E93" s="5">
         <v>0</v>
@@ -22485,13 +22477,13 @@
     </row>
     <row r="94" spans="2:5">
       <c r="B94" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>643</v>
+        <v>662</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>700</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>682</v>
+        <v>704</v>
       </c>
       <c r="E94" s="5">
         <v>0</v>
@@ -22499,13 +22491,13 @@
     </row>
     <row r="95" spans="2:5">
       <c r="B95" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>639</v>
+        <v>662</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>701</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>640</v>
+        <v>704</v>
       </c>
       <c r="E95" s="5">
         <v>0</v>
@@ -22513,13 +22505,13 @@
     </row>
     <row r="96" spans="2:5">
       <c r="B96" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>639</v>
+        <v>662</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>702</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>641</v>
+        <v>704</v>
       </c>
       <c r="E96" s="5">
         <v>0</v>
@@ -22527,13 +22519,13 @@
     </row>
     <row r="97" spans="2:5">
       <c r="B97" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>1000</v>
+        <v>627</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>628</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>1001</v>
+        <v>629</v>
       </c>
       <c r="E97" s="5">
         <v>0</v>
@@ -22541,13 +22533,13 @@
     </row>
     <row r="98" spans="2:5">
       <c r="B98" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>648</v>
+        <v>627</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>655</v>
       </c>
       <c r="E98" s="5">
         <v>0</v>
@@ -22555,13 +22547,13 @@
     </row>
     <row r="99" spans="2:5">
       <c r="B99" s="7" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>1017</v>
+        <v>627</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>654</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>1018</v>
+        <v>656</v>
       </c>
       <c r="E99" s="5">
         <v>0</v>
@@ -22569,13 +22561,13 @@
     </row>
     <row r="100" spans="2:5">
       <c r="B100" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>679</v>
+        <v>627</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>655</v>
       </c>
       <c r="E100" s="5">
         <v>0</v>
@@ -22583,13 +22575,13 @@
     </row>
     <row r="101" spans="2:5">
       <c r="B101" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>679</v>
+        <v>627</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>655</v>
       </c>
       <c r="E101" s="5">
         <v>0</v>
@@ -22597,13 +22589,13 @@
     </row>
     <row r="102" spans="2:5">
       <c r="B102" s="7" t="s">
-        <v>987</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>988</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>989</v>
+        <v>637</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>638</v>
       </c>
       <c r="E102" s="5">
         <v>0</v>
@@ -22611,13 +22603,13 @@
     </row>
     <row r="103" spans="2:5">
       <c r="B103" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>694</v>
+        <v>637</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>1078</v>
       </c>
       <c r="E103" s="5">
         <v>0</v>
@@ -22625,13 +22617,13 @@
     </row>
     <row r="104" spans="2:5">
       <c r="B104" s="7" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>1071</v>
+        <v>637</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>1079</v>
       </c>
       <c r="E104" s="5">
         <v>0</v>
@@ -22639,13 +22631,13 @@
     </row>
     <row r="105" spans="2:5">
       <c r="B105" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>688</v>
+        <v>637</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>640</v>
       </c>
       <c r="E105" s="5">
         <v>0</v>
@@ -22653,13 +22645,13 @@
     </row>
     <row r="106" spans="2:5">
       <c r="B106" s="7" t="s">
-        <v>938</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>686</v>
+        <v>637</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>641</v>
       </c>
       <c r="E106" s="5">
         <v>0</v>
@@ -22667,13 +22659,13 @@
     </row>
     <row r="107" spans="2:5">
       <c r="B107" s="7" t="s">
-        <v>691</v>
+        <v>637</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>680</v>
+        <v>998</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>999</v>
       </c>
       <c r="E107" s="5">
         <v>0</v>
@@ -22681,13 +22673,13 @@
     </row>
     <row r="108" spans="2:5">
       <c r="B108" s="7" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>1046</v>
+        <v>637</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>1013</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>1048</v>
+        <v>648</v>
       </c>
       <c r="E108" s="5">
         <v>0</v>
@@ -22695,13 +22687,13 @@
     </row>
     <row r="109" spans="2:5">
       <c r="B109" s="7" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>692</v>
+        <v>1014</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>1016</v>
       </c>
       <c r="E109" s="5">
         <v>0</v>
@@ -22709,13 +22701,13 @@
     </row>
     <row r="110" spans="2:5">
       <c r="B110" s="7" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>1046</v>
+        <v>678</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>676</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E110" s="5">
         <v>0</v>
@@ -22723,13 +22715,13 @@
     </row>
     <row r="111" spans="2:5">
       <c r="B111" s="7" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>695</v>
+        <v>677</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="E111" s="5">
         <v>0</v>
@@ -22737,13 +22729,13 @@
     </row>
     <row r="112" spans="2:5">
       <c r="B112" s="7" t="s">
-        <v>698</v>
+        <v>986</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>697</v>
+        <v>987</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>699</v>
+        <v>988</v>
       </c>
       <c r="E112" s="5">
         <v>0</v>
@@ -22751,13 +22743,13 @@
     </row>
     <row r="113" spans="2:5">
       <c r="B113" s="7" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E113" s="5">
         <v>0</v>
@@ -22765,13 +22757,13 @@
     </row>
     <row r="114" spans="2:5">
       <c r="B114" s="7" t="s">
-        <v>698</v>
+        <v>1066</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>709</v>
+        <v>1065</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>710</v>
+        <v>1067</v>
       </c>
       <c r="E114" s="5">
         <v>0</v>
@@ -22779,13 +22771,13 @@
     </row>
     <row r="115" spans="2:5">
       <c r="B115" s="7" t="s">
-        <v>713</v>
+        <v>683</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>717</v>
+        <v>684</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>714</v>
+        <v>687</v>
       </c>
       <c r="E115" s="5">
         <v>0</v>
@@ -22793,13 +22785,13 @@
     </row>
     <row r="116" spans="2:5">
       <c r="B116" s="7" t="s">
-        <v>713</v>
+        <v>937</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>715</v>
+        <v>684</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>714</v>
+        <v>685</v>
       </c>
       <c r="E116" s="5">
         <v>0</v>
@@ -22807,13 +22799,13 @@
     </row>
     <row r="117" spans="2:5">
       <c r="B117" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>716</v>
+        <v>690</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>688</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>714</v>
+        <v>680</v>
       </c>
       <c r="E117" s="5">
         <v>0</v>
@@ -22821,13 +22813,13 @@
     </row>
     <row r="118" spans="2:5">
       <c r="B118" s="7" t="s">
-        <v>980</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>981</v>
+        <v>1045</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>1044</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>984</v>
+        <v>1046</v>
       </c>
       <c r="E118" s="5">
         <v>0</v>
@@ -22835,13 +22827,13 @@
     </row>
     <row r="119" spans="2:5">
       <c r="B119" s="7" t="s">
-        <v>980</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>983</v>
+        <v>1047</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>688</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>984</v>
+        <v>691</v>
       </c>
       <c r="E119" s="5">
         <v>0</v>
@@ -22849,13 +22841,13 @@
     </row>
     <row r="120" spans="2:5">
       <c r="B120" s="7" t="s">
-        <v>980</v>
+        <v>1047</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>985</v>
+        <v>1044</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>984</v>
+        <v>680</v>
       </c>
       <c r="E120" s="5">
         <v>0</v>
@@ -22863,20 +22855,160 @@
     </row>
     <row r="121" spans="2:5">
       <c r="B121" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="E121" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="E122" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="E123" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="E124" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="E125" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="B126" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="E126" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="E127" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>980</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>986</v>
-      </c>
-      <c r="D121" s="9" t="s">
+      <c r="D128" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="E128" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="E129" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>984</v>
       </c>
-      <c r="E121" s="5">
+      <c r="D130" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="E130" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="E131" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:E121"/>
+  <autoFilter ref="B3:E131"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22957,10 +23089,10 @@
         <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>942</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>943</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>50</v>
@@ -22968,7 +23100,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="20" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
@@ -22988,10 +23120,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="20" t="s">
+        <v>939</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>940</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>941</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>28</v>
@@ -23161,7 +23293,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>34</v>
@@ -23173,7 +23305,7 @@
         <v>49</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>44</v>
@@ -23190,7 +23322,7 @@
     </row>
     <row r="4" spans="1:16" ht="27">
       <c r="B4" s="20" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
@@ -23217,14 +23349,14 @@
         <v>25</v>
       </c>
       <c r="K4" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>946</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>947</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="20" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="O4" s="7">
         <v>58108</v>
@@ -23394,7 +23526,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="24" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>53</v>
@@ -23411,53 +23543,53 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="25" t="s">
+        <v>966</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>967</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>968</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>970</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="26" t="s">
+        <v>964</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>965</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>966</v>
-      </c>
       <c r="C3" s="27" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D3" s="27" t="s">
+        <v>971</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>972</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="26" t="s">
+        <v>973</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>962</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>963</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>974</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>963</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>964</v>
-      </c>
-      <c r="D4" s="27" t="s">
+      <c r="E4" s="28" t="s">
         <v>975</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>976</v>
       </c>
     </row>
   </sheetData>

--- a/wico/数据表结构.xlsx
+++ b/wico/数据表结构.xlsx
@@ -3634,106 +3634,106 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>更换齿轮箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动晃动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动震动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepairMethod</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降电机异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>变形</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动电机支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑动电机支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regular</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>([0-9]{2})([A-L])([0-3][0-9])([A-M]) ([0-9]{3})</t>
+  </si>
+  <si>
+    <t>涂油反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动震动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂油反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱、短绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱、长绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整/更换 短绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整/更换 长绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码脏污/破损，无法识别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撬支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>升降干涉异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>撬支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换齿轮箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PartType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepairMethod</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降电机异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>变形</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动电机支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换滑动电机支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Regular</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>([0-9]{2})([A-L])([0-3][0-9])([A-M]) ([0-9]{3})</t>
-  </si>
-  <si>
-    <t>涂油反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>涂油反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换齿轮箱、短绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换齿轮箱、长绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整/更换 短绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整/更换 长绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>条码脏污/破损，无法识别</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5194,7 +5194,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5255,7 +5255,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5316,7 +5316,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5372,7 +5372,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5430,7 +5430,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5488,7 +5488,7 @@
         <xdr:cNvPr id="13" name="TextBox 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5551,7 +5551,7 @@
         <xdr:cNvPr id="16" name="直接箭头连接符 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5604,7 +5604,7 @@
         <xdr:cNvPr id="21" name="图片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5665,7 +5665,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5726,7 +5726,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5779,7 +5779,7 @@
         <xdr:cNvPr id="27" name="直接箭头连接符 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5832,7 +5832,7 @@
         <xdr:cNvPr id="29" name="直接箭头连接符 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5885,7 +5885,7 @@
         <xdr:cNvPr id="31" name="直接箭头连接符 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5938,7 +5938,7 @@
         <xdr:cNvPr id="33" name="直接箭头连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5991,7 +5991,7 @@
         <xdr:cNvPr id="36" name="直接箭头连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6039,7 +6039,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6560,7 +6560,7 @@
         <v>47</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>50</v>
@@ -7274,7 +7274,7 @@
         <v>58109</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K26" s="7">
         <v>0</v>
@@ -7309,7 +7309,7 @@
         <v>58109</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K27" s="7">
         <v>0</v>
@@ -7342,7 +7342,7 @@
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K28" s="7">
         <v>0</v>
@@ -7377,7 +7377,7 @@
         <v>58109</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K29" s="7">
         <v>0</v>
@@ -7410,7 +7410,7 @@
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K30" s="7">
         <v>0</v>
@@ -7918,7 +7918,7 @@
         <v>58104</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K46" s="7">
         <v>0</v>
@@ -7953,7 +7953,7 @@
         <v>58104</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K47" s="7">
         <v>0</v>
@@ -7988,7 +7988,7 @@
         <v>58104</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K48" s="7">
         <v>0</v>
@@ -8023,7 +8023,7 @@
         <v>58104</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K49" s="7">
         <v>0</v>
@@ -8058,7 +8058,7 @@
         <v>58112</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K50" s="7">
         <v>0</v>
@@ -8093,7 +8093,7 @@
         <v>772</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K51" s="7">
         <v>0</v>
@@ -8128,7 +8128,7 @@
         <v>58112</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K52" s="7">
         <v>0</v>
@@ -8163,7 +8163,7 @@
         <v>772</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K53" s="7">
         <v>0</v>
@@ -8198,7 +8198,7 @@
         <v>58112</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K54" s="7">
         <v>0</v>
@@ -8233,7 +8233,7 @@
         <v>1023</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K55" s="7">
         <v>0</v>
@@ -8268,7 +8268,7 @@
         <v>58112</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K56" s="7">
         <v>0</v>
@@ -8303,7 +8303,7 @@
         <v>772</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K57" s="7">
         <v>0</v>
@@ -8338,7 +8338,7 @@
         <v>52111</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K58" s="7">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>52111</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K59" s="7">
         <v>0</v>
@@ -8406,7 +8406,7 @@
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K60" s="7">
         <v>0</v>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K61" s="7">
         <v>0</v>
@@ -8472,7 +8472,7 @@
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K62" s="7">
         <v>0</v>
@@ -8505,7 +8505,7 @@
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K63" s="7">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>58111</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K64" s="7">
         <v>0</v>
@@ -8575,7 +8575,7 @@
         <v>58111</v>
       </c>
       <c r="J65" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K65" s="7">
         <v>0</v>
@@ -8608,7 +8608,7 @@
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K66" s="7">
         <v>0</v>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K67" s="7">
         <v>0</v>
@@ -8674,7 +8674,7 @@
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K68" s="7">
         <v>0</v>
@@ -8707,7 +8707,7 @@
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K69" s="7">
         <v>0</v>
@@ -8835,7 +8835,7 @@
         <v>58105</v>
       </c>
       <c r="J73" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K73" s="7">
         <v>0</v>
@@ -9869,7 +9869,7 @@
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K105" s="7">
         <v>0</v>
@@ -9902,7 +9902,7 @@
       </c>
       <c r="I106" s="7"/>
       <c r="J106" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K106" s="7">
         <v>0</v>
@@ -9937,7 +9937,7 @@
         <v>58103</v>
       </c>
       <c r="J107" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K107" s="7">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>58103</v>
       </c>
       <c r="J108" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K108" s="7">
         <v>0</v>
@@ -10007,7 +10007,7 @@
         <v>58103</v>
       </c>
       <c r="J109" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K109" s="7">
         <v>0</v>
@@ -10042,7 +10042,7 @@
         <v>58103</v>
       </c>
       <c r="J110" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K110" s="7">
         <v>0</v>
@@ -10287,7 +10287,7 @@
         <v>58103</v>
       </c>
       <c r="J117" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K117" s="7">
         <v>0</v>
@@ -10322,7 +10322,7 @@
         <v>58103</v>
       </c>
       <c r="J118" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K118" s="7">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>58103</v>
       </c>
       <c r="J119" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K119" s="7">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>58103</v>
       </c>
       <c r="J120" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K120" s="7">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>58103</v>
       </c>
       <c r="J121" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K121" s="7">
         <v>0</v>
@@ -10462,7 +10462,7 @@
         <v>58103</v>
       </c>
       <c r="J122" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K122" s="7">
         <v>0</v>
@@ -10530,7 +10530,7 @@
         <v>58109</v>
       </c>
       <c r="J124" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K124" s="7">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>58109</v>
       </c>
       <c r="J126" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K126" s="7">
         <v>0</v>
@@ -10666,7 +10666,7 @@
         <v>58109</v>
       </c>
       <c r="J128" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K128" s="7">
         <v>0</v>
@@ -10734,7 +10734,7 @@
         <v>58109</v>
       </c>
       <c r="J130" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K130" s="7">
         <v>0</v>
@@ -21154,8 +21154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21276,10 +21276,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -21290,10 +21290,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -21301,13 +21301,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="4" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -21315,13 +21315,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="4" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -21371,13 +21371,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>1058</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>1060</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
@@ -21385,13 +21385,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>1058</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>1060</v>
-      </c>
       <c r="D16" s="6" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -21399,13 +21399,13 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="4" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
@@ -21413,13 +21413,13 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>1058</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>1060</v>
-      </c>
       <c r="D18" s="7" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -21427,13 +21427,13 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="4" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>623</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -21472,10 +21472,10 @@
         <v>1036</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -21483,13 +21483,13 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="4" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>1042</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -21503,7 +21503,7 @@
         <v>1042</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
@@ -21511,13 +21511,13 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="4" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>1042</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E25" s="5">
         <v>0</v>
@@ -21531,7 +21531,7 @@
         <v>1042</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E26" s="5">
         <v>0</v>
@@ -21545,7 +21545,7 @@
         <v>1048</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E27" s="5">
         <v>0</v>
@@ -21559,7 +21559,7 @@
         <v>1048</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E28" s="5">
         <v>0</v>
@@ -21573,7 +21573,7 @@
         <v>1048</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
@@ -21587,7 +21587,7 @@
         <v>1048</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E30" s="5">
         <v>0</v>
@@ -21598,7 +21598,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>651</v>
@@ -21657,7 +21657,7 @@
         <v>947</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E35" s="23">
         <v>0</v>
@@ -22102,7 +22102,7 @@
         <v>630</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>631</v>
@@ -22116,10 +22116,10 @@
         <v>1054</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>1055</v>
+        <v>1080</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>1056</v>
+        <v>1079</v>
       </c>
       <c r="E68" s="5">
         <v>0</v>
@@ -22609,7 +22609,7 @@
         <v>643</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E103" s="5">
         <v>0</v>
@@ -22623,7 +22623,7 @@
         <v>643</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E104" s="5">
         <v>0</v>
@@ -22757,13 +22757,13 @@
     </row>
     <row r="114" spans="2:5">
       <c r="B114" s="7" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C114" s="6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D114" s="9" t="s">
         <v>1065</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>1067</v>
       </c>
       <c r="E114" s="5">
         <v>0</v>
@@ -23293,7 +23293,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>34</v>
@@ -23305,7 +23305,7 @@
         <v>49</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>44</v>

--- a/wico/数据表结构.xlsx
+++ b/wico/数据表结构.xlsx
@@ -16,7 +16,7 @@
     <sheet name="客户正式投诉" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$139</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'零件清单（下载）'!$B$3:$K$152</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'座椅配置（下载）'!$B$3:$E$676</definedName>
   </definedNames>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3914" uniqueCount="1097">
   <si>
     <t>SLIDE ADJR OUT L,FR SEAT</t>
   </si>
@@ -2153,10 +2153,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在最前端无法作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>更换滑块</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2181,10 +2177,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>无法作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>更换滑动电机</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3248,10 +3240,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>涂油反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>调整滑动电机</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3261,10 +3249,6 @@
   </si>
   <si>
     <t>升降电机不作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降打啃</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3340,7 +3324,265 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>升降打啃</t>
+    <t>调角器电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码破损/脏污</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作动异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换调角器电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机声音过大</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁手柄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹簧松动/脱落</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换弹簧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节滑动电机支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英国电动-前排-右席座椅（8WAY带记忆）</t>
+  </si>
+  <si>
+    <t>英国电动-前排-右席座椅（8WAY无记忆）</t>
+  </si>
+  <si>
+    <t>英国电动-前排-左席座椅（4WAY无记忆）</t>
+  </si>
+  <si>
+    <t>后升降无法作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除焊渣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>81201-3A02-X810-M1-0000</t>
+  </si>
+  <si>
+    <t>81260-3B42-H010-M1-0000</t>
+  </si>
+  <si>
+    <t>81270-3B42-H010-M1-0000</t>
+  </si>
+  <si>
+    <t>81260-3E73-E810-M1-0000</t>
+  </si>
+  <si>
+    <t>81660-3B42-H710-M1-0000</t>
+  </si>
+  <si>
+    <t>81260-3B42-H710-M1-0000</t>
+  </si>
+  <si>
+    <t>81660-3E73-E810-M1-0000</t>
+  </si>
+  <si>
+    <t>81670-3B42-H710-M1-0000</t>
+  </si>
+  <si>
+    <t>81270-3B42-H710-M1-0000</t>
+  </si>
+  <si>
+    <t>81270-3E73-E810-M1-0000</t>
+  </si>
+  <si>
+    <t>81670-3E73-E810-M1-0000</t>
+  </si>
+  <si>
+    <t>81202-3E73-E810-M1-0000</t>
+  </si>
+  <si>
+    <t>81602-3A02-A710-M1-0001</t>
+  </si>
+  <si>
+    <t>滑轨无法作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动座椅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑轨无法作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换H型滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码脏污/破损，无法识别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2110-355-310</t>
+  </si>
+  <si>
+    <t>2110-355-320</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gitee.com/sunny_ho/image_bed/raw/master/wico/2110-355-310.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gitee.com/sunny_ho/image_bed/raw/master/wico/2110-355-320.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>58104/58112</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3B4A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动-后排-左席座椅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动-后排-右席座椅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2110-355-310</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2110-355-320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L001779025</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L001779035</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MINI RECLINER ASSY_RH，MANUAL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MINI RECLINER ASSY_LH，MANUAL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调角器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动晃动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撬L形支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动拉力过大</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂润滑油，反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动晃动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴弯曲了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绕性轴（短）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绕性轴（长）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑轨震动并且晃动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机破损</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动支架</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3348,11 +3590,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>调角器电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>二维码破损/脏污</t>
+    <t>撬扇形齿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动晃动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动震动</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3360,380 +3614,190 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>作动异音</t>
+    <t>PartType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepairMethod</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降电机异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>变形</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动电机支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑动电机支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regular</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>([0-9]{2})([A-L])([0-3][0-9])([A-M]) ([0-9]{3})</t>
+  </si>
+  <si>
+    <t>涂油反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动震动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱、短绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱、长绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整/更换 短绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整/更换 长绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码脏污/破损，无法识别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撬支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降干涉异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动途中卡死，无法再前后作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动途中卡死，无法再前后作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法作动到最前/后端</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作动到最前端后无法返回</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲护架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上导轨螺丝滑牙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作动到最顶/底端时有死点音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降打啃&amp;异响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降打啃&amp;异响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降缓慢</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂油反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法作动到最前/后端</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节滑动电机支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱、短绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整/更换 短绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动震动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂油反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动异音</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换调角器电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机声音过大</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁手柄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹簧松动/脱落</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换弹簧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调节滑动电机支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>撬护架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>英国电动-前排-右席座椅（8WAY带记忆）</t>
-  </si>
-  <si>
-    <t>英国电动-前排-右席座椅（8WAY无记忆）</t>
-  </si>
-  <si>
-    <t>英国电动-前排-左席座椅（4WAY无记忆）</t>
-  </si>
-  <si>
-    <t>后升降无法作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除焊渣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>81201-3A02-X810-M1-0000</t>
-  </si>
-  <si>
-    <t>81260-3B42-H010-M1-0000</t>
-  </si>
-  <si>
-    <t>81270-3B42-H010-M1-0000</t>
-  </si>
-  <si>
-    <t>81260-3E73-E810-M1-0000</t>
-  </si>
-  <si>
-    <t>81660-3B42-H710-M1-0000</t>
-  </si>
-  <si>
-    <t>81260-3B42-H710-M1-0000</t>
-  </si>
-  <si>
-    <t>81660-3E73-E810-M1-0000</t>
-  </si>
-  <si>
-    <t>81670-3B42-H710-M1-0000</t>
-  </si>
-  <si>
-    <t>81270-3B42-H710-M1-0000</t>
-  </si>
-  <si>
-    <t>81270-3E73-E810-M1-0000</t>
-  </si>
-  <si>
-    <t>81670-3E73-E810-M1-0000</t>
-  </si>
-  <si>
-    <t>81202-3E73-E810-M1-0000</t>
-  </si>
-  <si>
-    <t>81602-3A02-A710-M1-0001</t>
-  </si>
-  <si>
-    <t>滑轨无法作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑轨无法作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换H型滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>条码脏污/破损，无法识别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2110-355-310</t>
-  </si>
-  <si>
-    <t>2110-355-320</t>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://gitee.com/sunny_ho/image_bed/raw/master/wico/2110-355-310.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://gitee.com/sunny_ho/image_bed/raw/master/wico/2110-355-320.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>58104/58112</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3B4A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动-后排-左席座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动-后排-右席座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2110-355-310</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2110-355-320</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>L001779025</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>L001779035</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MINI RECLINER ASSY_RH，MANUAL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MINI RECLINER ASSY_LH，MANUAL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调角器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>撬L形支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动拉力过大</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>涂润滑油，反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>轴弯曲了</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>绕性轴（短）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>绕性轴（长）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑轨震动并且晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机破损</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>撬扇形齿</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降打啃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换齿轮箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PartType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepairMethod</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降电机异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>变形</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动电机支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换滑动电机支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Regular</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>([0-9]{2})([A-L])([0-3][0-9])([A-M]) ([0-9]{3})</t>
-  </si>
-  <si>
-    <t>涂油反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>涂油反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换齿轮箱、短绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换齿轮箱、长绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整/更换 短绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整/更换 长绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>条码脏污/破损，无法识别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>撬支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降干涉异音</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5194,7 +5258,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5255,7 +5319,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5316,7 +5380,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5372,7 +5436,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5430,7 +5494,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5488,7 +5552,7 @@
         <xdr:cNvPr id="13" name="TextBox 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5551,7 +5615,7 @@
         <xdr:cNvPr id="16" name="直接箭头连接符 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5604,7 +5668,7 @@
         <xdr:cNvPr id="21" name="图片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5665,7 +5729,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5726,7 +5790,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5779,7 +5843,7 @@
         <xdr:cNvPr id="27" name="直接箭头连接符 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5832,7 +5896,7 @@
         <xdr:cNvPr id="29" name="直接箭头连接符 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5885,7 +5949,7 @@
         <xdr:cNvPr id="31" name="直接箭头连接符 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5938,7 +6002,7 @@
         <xdr:cNvPr id="33" name="直接箭头连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5991,7 +6055,7 @@
         <xdr:cNvPr id="36" name="直接箭头连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6039,7 +6103,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6444,8 +6508,8 @@
   </sheetPr>
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView topLeftCell="D75" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="D58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6560,7 +6624,7 @@
         <v>47</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>50</v>
@@ -6580,10 +6644,10 @@
         <v>341</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>64</v>
@@ -6611,10 +6675,10 @@
         <v>63</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>64</v>
@@ -6642,10 +6706,10 @@
         <v>67</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>64</v>
@@ -6673,10 +6737,10 @@
         <v>70</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>2</v>
@@ -6704,10 +6768,10 @@
         <v>309</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>64</v>
@@ -6735,7 +6799,7 @@
         <v>328</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>329</v>
@@ -6766,7 +6830,7 @@
         <v>328</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>329</v>
@@ -6797,7 +6861,7 @@
         <v>328</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>329</v>
@@ -6828,7 +6892,7 @@
         <v>328</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>329</v>
@@ -6859,10 +6923,10 @@
         <v>354</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>2</v>
@@ -6890,10 +6954,10 @@
         <v>102</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>64</v>
@@ -6921,10 +6985,10 @@
         <v>357</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>64</v>
@@ -6952,7 +7016,7 @@
         <v>416</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>417</v>
@@ -6983,10 +7047,10 @@
         <v>312</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>2</v>
@@ -7014,10 +7078,10 @@
         <v>315</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>2</v>
@@ -7045,7 +7109,7 @@
         <v>319</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>320</v>
@@ -7076,7 +7140,7 @@
         <v>319</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>320</v>
@@ -7107,7 +7171,7 @@
         <v>319</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>320</v>
@@ -7138,7 +7202,7 @@
         <v>319</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>320</v>
@@ -7169,7 +7233,7 @@
         <v>105</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>79</v>
@@ -7200,10 +7264,10 @@
         <v>108</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>64</v>
@@ -7231,10 +7295,10 @@
         <v>111</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>64</v>
@@ -7262,7 +7326,7 @@
         <v>172</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>115</v>
@@ -7274,7 +7338,7 @@
         <v>58109</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K26" s="7">
         <v>0</v>
@@ -7297,7 +7361,7 @@
         <v>172</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>115</v>
@@ -7309,7 +7373,7 @@
         <v>58109</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K27" s="7">
         <v>0</v>
@@ -7332,7 +7396,7 @@
         <v>114</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>115</v>
@@ -7342,7 +7406,7 @@
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K28" s="7">
         <v>0</v>
@@ -7365,7 +7429,7 @@
         <v>177</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>115</v>
@@ -7377,7 +7441,7 @@
         <v>58109</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K29" s="7">
         <v>0</v>
@@ -7400,7 +7464,7 @@
         <v>118</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>115</v>
@@ -7410,7 +7474,7 @@
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K30" s="7">
         <v>0</v>
@@ -7433,7 +7497,7 @@
         <v>261</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>262</v>
@@ -7464,7 +7528,7 @@
         <v>265</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>262</v>
@@ -7495,7 +7559,7 @@
         <v>268</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>269</v>
@@ -7526,7 +7590,7 @@
         <v>261</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>262</v>
@@ -7557,7 +7621,7 @@
         <v>268</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>269</v>
@@ -7588,7 +7652,7 @@
         <v>261</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>262</v>
@@ -7598,7 +7662,7 @@
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="19" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="K36" s="7">
         <v>0</v>
@@ -7621,7 +7685,7 @@
         <v>265</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>262</v>
@@ -7631,7 +7695,7 @@
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="19" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="K37" s="7">
         <v>0</v>
@@ -7648,13 +7712,13 @@
         <v>278</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>279</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>262</v>
@@ -7664,7 +7728,7 @@
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="19" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="K38" s="7">
         <v>0</v>
@@ -7681,13 +7745,13 @@
         <v>280</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>281</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>262</v>
@@ -7697,7 +7761,7 @@
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="19" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="K39" s="7">
         <v>0</v>
@@ -7720,7 +7784,7 @@
         <v>295</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>296</v>
@@ -7751,7 +7815,7 @@
         <v>299</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>296</v>
@@ -7782,7 +7846,7 @@
         <v>401</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>296</v>
@@ -7813,7 +7877,7 @@
         <v>401</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>296</v>
@@ -7844,7 +7908,7 @@
         <v>406</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>296</v>
@@ -7875,7 +7939,7 @@
         <v>406</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>296</v>
@@ -7906,7 +7970,7 @@
         <v>142</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>79</v>
@@ -7918,7 +7982,7 @@
         <v>58104</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K46" s="7">
         <v>0</v>
@@ -7941,7 +8005,7 @@
         <v>145</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>79</v>
@@ -7953,7 +8017,7 @@
         <v>58104</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K47" s="7">
         <v>0</v>
@@ -7976,7 +8040,7 @@
         <v>148</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>79</v>
@@ -7988,7 +8052,7 @@
         <v>58104</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K48" s="7">
         <v>0</v>
@@ -8011,7 +8075,7 @@
         <v>151</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>79</v>
@@ -8023,7 +8087,7 @@
         <v>58104</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K49" s="7">
         <v>0</v>
@@ -8046,7 +8110,7 @@
         <v>142</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>79</v>
@@ -8058,7 +8122,7 @@
         <v>58112</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K50" s="7">
         <v>0</v>
@@ -8081,7 +8145,7 @@
         <v>142</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>79</v>
@@ -8090,10 +8154,10 @@
         <v>2</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K51" s="7">
         <v>0</v>
@@ -8116,7 +8180,7 @@
         <v>145</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>79</v>
@@ -8128,7 +8192,7 @@
         <v>58112</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K52" s="7">
         <v>0</v>
@@ -8151,7 +8215,7 @@
         <v>145</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>79</v>
@@ -8160,10 +8224,10 @@
         <v>2</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K53" s="7">
         <v>0</v>
@@ -8186,7 +8250,7 @@
         <v>148</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>79</v>
@@ -8198,7 +8262,7 @@
         <v>58112</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K54" s="7">
         <v>0</v>
@@ -8221,7 +8285,7 @@
         <v>148</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>79</v>
@@ -8230,10 +8294,10 @@
         <v>2</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K55" s="7">
         <v>0</v>
@@ -8256,7 +8320,7 @@
         <v>151</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>79</v>
@@ -8268,7 +8332,7 @@
         <v>58112</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K56" s="7">
         <v>0</v>
@@ -8291,7 +8355,7 @@
         <v>151</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>79</v>
@@ -8300,10 +8364,10 @@
         <v>2</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K57" s="7">
         <v>0</v>
@@ -8323,10 +8387,10 @@
         <v>160</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>79</v>
@@ -8338,7 +8402,7 @@
         <v>52111</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K58" s="7">
         <v>0</v>
@@ -8361,7 +8425,7 @@
         <v>163</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>79</v>
@@ -8373,7 +8437,7 @@
         <v>52111</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K59" s="7">
         <v>0</v>
@@ -8396,7 +8460,7 @@
         <v>78</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>79</v>
@@ -8406,7 +8470,7 @@
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K60" s="7">
         <v>0</v>
@@ -8429,7 +8493,7 @@
         <v>82</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>79</v>
@@ -8439,7 +8503,7 @@
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K61" s="7">
         <v>0</v>
@@ -8462,7 +8526,7 @@
         <v>85</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>79</v>
@@ -8472,7 +8536,7 @@
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K62" s="7">
         <v>0</v>
@@ -8495,7 +8559,7 @@
         <v>88</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>79</v>
@@ -8505,7 +8569,7 @@
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K63" s="7">
         <v>0</v>
@@ -8528,7 +8592,7 @@
         <v>166</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>79</v>
@@ -8540,7 +8604,7 @@
         <v>58111</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K64" s="7">
         <v>0</v>
@@ -8563,7 +8627,7 @@
         <v>169</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>79</v>
@@ -8575,7 +8639,7 @@
         <v>58111</v>
       </c>
       <c r="J65" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K65" s="7">
         <v>0</v>
@@ -8598,7 +8662,7 @@
         <v>91</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>79</v>
@@ -8608,7 +8672,7 @@
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K66" s="7">
         <v>0</v>
@@ -8631,7 +8695,7 @@
         <v>94</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>79</v>
@@ -8641,7 +8705,7 @@
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K67" s="7">
         <v>0</v>
@@ -8664,7 +8728,7 @@
         <v>97</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>79</v>
@@ -8674,7 +8738,7 @@
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K68" s="7">
         <v>0</v>
@@ -8691,13 +8755,13 @@
         <v>98</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>99</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>79</v>
@@ -8707,7 +8771,7 @@
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K69" s="7">
         <v>0</v>
@@ -8730,7 +8794,7 @@
         <v>420</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>417</v>
@@ -8761,7 +8825,7 @@
         <v>420</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>417</v>
@@ -8792,7 +8856,7 @@
         <v>376</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>377</v>
@@ -8823,7 +8887,7 @@
         <v>255</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>256</v>
@@ -8835,7 +8899,7 @@
         <v>58105</v>
       </c>
       <c r="J73" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K73" s="7">
         <v>0</v>
@@ -8858,10 +8922,10 @@
         <v>372</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>64</v>
@@ -8889,7 +8953,7 @@
         <v>284</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>262</v>
@@ -8920,7 +8984,7 @@
         <v>284</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>262</v>
@@ -8951,7 +9015,7 @@
         <v>425</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>417</v>
@@ -8982,7 +9046,7 @@
         <v>380</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>381</v>
@@ -9013,7 +9077,7 @@
         <v>380</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>381</v>
@@ -9044,7 +9108,7 @@
         <v>416</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>417</v>
@@ -9075,7 +9139,7 @@
         <v>333</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>256</v>
@@ -9106,7 +9170,7 @@
         <v>333</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>256</v>
@@ -9137,7 +9201,7 @@
         <v>135</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>136</v>
@@ -9147,7 +9211,7 @@
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="19" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="K83" s="7">
         <v>0</v>
@@ -9170,7 +9234,7 @@
         <v>135</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>136</v>
@@ -9180,7 +9244,7 @@
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="19" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="K84" s="7">
         <v>0</v>
@@ -9203,7 +9267,7 @@
         <v>290</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>291</v>
@@ -9234,7 +9298,7 @@
         <v>412</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>291</v>
@@ -9265,10 +9329,10 @@
         <v>125</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>2</v>
@@ -9296,7 +9360,7 @@
         <v>128</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>129</v>
@@ -9327,7 +9391,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>1</v>
@@ -9339,7 +9403,7 @@
         <v>58108</v>
       </c>
       <c r="J89" s="19" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="K89" s="7">
         <v>0</v>
@@ -9362,7 +9426,7 @@
         <v>7</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>1</v>
@@ -9374,7 +9438,7 @@
         <v>58108</v>
       </c>
       <c r="J90" s="19" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="K90" s="7">
         <v>0</v>
@@ -9397,7 +9461,7 @@
         <v>10</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>1</v>
@@ -9409,7 +9473,7 @@
         <v>58108</v>
       </c>
       <c r="J91" s="19" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="K91" s="7">
         <v>0</v>
@@ -9432,7 +9496,7 @@
         <v>13</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>1</v>
@@ -9444,7 +9508,7 @@
         <v>58108</v>
       </c>
       <c r="J92" s="19" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="K92" s="7">
         <v>0</v>
@@ -9467,7 +9531,7 @@
         <v>3</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>1</v>
@@ -9479,7 +9543,7 @@
         <v>58108</v>
       </c>
       <c r="J93" s="19" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="K93" s="7">
         <v>0</v>
@@ -9502,7 +9566,7 @@
         <v>18</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>1</v>
@@ -9514,7 +9578,7 @@
         <v>58108</v>
       </c>
       <c r="J94" s="19" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="K94" s="7">
         <v>0</v>
@@ -9537,7 +9601,7 @@
         <v>21</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>1</v>
@@ -9549,7 +9613,7 @@
         <v>58108</v>
       </c>
       <c r="J95" s="19" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="K95" s="7">
         <v>0</v>
@@ -9572,7 +9636,7 @@
         <v>24</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>1</v>
@@ -9584,7 +9648,7 @@
         <v>58108</v>
       </c>
       <c r="J96" s="19" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="K96" s="7">
         <v>0</v>
@@ -9607,7 +9671,7 @@
         <v>362</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>363</v>
@@ -9638,7 +9702,7 @@
         <v>333</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>256</v>
@@ -9669,7 +9733,7 @@
         <v>333</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>256</v>
@@ -9700,7 +9764,7 @@
         <v>128</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>129</v>
@@ -9731,7 +9795,7 @@
         <v>135</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>136</v>
@@ -9741,7 +9805,7 @@
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="19" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="K101" s="7">
         <v>0</v>
@@ -9758,13 +9822,13 @@
         <v>137</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>138</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>136</v>
@@ -9774,7 +9838,7 @@
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="19" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="K102" s="7">
         <v>0</v>
@@ -9797,7 +9861,7 @@
         <v>128</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>129</v>
@@ -9828,7 +9892,7 @@
         <v>73</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>74</v>
@@ -9859,7 +9923,7 @@
         <v>121</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>122</v>
@@ -9869,7 +9933,7 @@
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K105" s="7">
         <v>0</v>
@@ -9892,7 +9956,7 @@
         <v>121</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>122</v>
@@ -9902,7 +9966,7 @@
       </c>
       <c r="I106" s="7"/>
       <c r="J106" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K106" s="7">
         <v>0</v>
@@ -9925,7 +9989,7 @@
         <v>180</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>181</v>
@@ -9937,7 +10001,7 @@
         <v>58103</v>
       </c>
       <c r="J107" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K107" s="7">
         <v>0</v>
@@ -9960,7 +10024,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="19" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>181</v>
@@ -9972,7 +10036,7 @@
         <v>58103</v>
       </c>
       <c r="J108" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K108" s="7">
         <v>0</v>
@@ -9995,7 +10059,7 @@
         <v>186</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>181</v>
@@ -10007,7 +10071,7 @@
         <v>58103</v>
       </c>
       <c r="J109" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K109" s="7">
         <v>0</v>
@@ -10030,7 +10094,7 @@
         <v>3</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>181</v>
@@ -10042,7 +10106,7 @@
         <v>58103</v>
       </c>
       <c r="J110" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K110" s="7">
         <v>0</v>
@@ -10065,7 +10129,7 @@
         <v>180</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>181</v>
@@ -10074,10 +10138,10 @@
         <v>2</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J111" s="19" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="K111" s="7">
         <v>0</v>
@@ -10100,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>181</v>
@@ -10109,10 +10173,10 @@
         <v>2</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J112" s="19" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="K112" s="7">
         <v>0</v>
@@ -10135,7 +10199,7 @@
         <v>195</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>181</v>
@@ -10144,10 +10208,10 @@
         <v>2</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J113" s="19" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="K113" s="7">
         <v>0</v>
@@ -10170,7 +10234,7 @@
         <v>3</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>181</v>
@@ -10179,10 +10243,10 @@
         <v>2</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J114" s="19" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="K114" s="7">
         <v>0</v>
@@ -10205,7 +10269,7 @@
         <v>186</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>181</v>
@@ -10214,10 +10278,10 @@
         <v>2</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J115" s="19" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="K115" s="7">
         <v>0</v>
@@ -10240,7 +10304,7 @@
         <v>202</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>181</v>
@@ -10249,10 +10313,10 @@
         <v>2</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J116" s="19" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="K116" s="7">
         <v>0</v>
@@ -10275,7 +10339,7 @@
         <v>205</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>181</v>
@@ -10287,7 +10351,7 @@
         <v>58103</v>
       </c>
       <c r="J117" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K117" s="7">
         <v>0</v>
@@ -10310,7 +10374,7 @@
         <v>208</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>181</v>
@@ -10322,7 +10386,7 @@
         <v>58103</v>
       </c>
       <c r="J118" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K118" s="7">
         <v>0</v>
@@ -10345,7 +10409,7 @@
         <v>211</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>181</v>
@@ -10357,7 +10421,7 @@
         <v>58103</v>
       </c>
       <c r="J119" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K119" s="7">
         <v>0</v>
@@ -10380,7 +10444,7 @@
         <v>214</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>181</v>
@@ -10392,7 +10456,7 @@
         <v>58103</v>
       </c>
       <c r="J120" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K120" s="7">
         <v>0</v>
@@ -10415,7 +10479,7 @@
         <v>217</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>181</v>
@@ -10427,7 +10491,7 @@
         <v>58103</v>
       </c>
       <c r="J121" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K121" s="7">
         <v>0</v>
@@ -10450,7 +10514,7 @@
         <v>220</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>181</v>
@@ -10462,7 +10526,7 @@
         <v>58103</v>
       </c>
       <c r="J122" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K122" s="7">
         <v>0</v>
@@ -10479,13 +10543,13 @@
         <v>385</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>386</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>115</v>
@@ -10495,7 +10559,7 @@
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="19" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="K123" s="7">
         <v>0</v>
@@ -10512,13 +10576,13 @@
         <v>221</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>222</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G124" s="7" t="s">
         <v>115</v>
@@ -10530,7 +10594,7 @@
         <v>58109</v>
       </c>
       <c r="J124" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K124" s="7">
         <v>0</v>
@@ -10547,13 +10611,13 @@
         <v>387</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>386</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>115</v>
@@ -10563,7 +10627,7 @@
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="19" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="K125" s="7">
         <v>0</v>
@@ -10580,13 +10644,13 @@
         <v>223</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>222</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>115</v>
@@ -10598,7 +10662,7 @@
         <v>58109</v>
       </c>
       <c r="J126" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K126" s="7">
         <v>0</v>
@@ -10615,13 +10679,13 @@
         <v>388</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>389</v>
       </c>
       <c r="F127" s="19" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G127" s="7" t="s">
         <v>115</v>
@@ -10631,7 +10695,7 @@
       </c>
       <c r="I127" s="7"/>
       <c r="J127" s="19" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="K127" s="7">
         <v>0</v>
@@ -10648,13 +10712,13 @@
         <v>224</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E128" s="7" t="s">
         <v>225</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G128" s="7" t="s">
         <v>115</v>
@@ -10666,7 +10730,7 @@
         <v>58109</v>
       </c>
       <c r="J128" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K128" s="7">
         <v>0</v>
@@ -10683,13 +10747,13 @@
         <v>390</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>389</v>
       </c>
       <c r="F129" s="19" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>115</v>
@@ -10699,7 +10763,7 @@
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="19" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="K129" s="7">
         <v>0</v>
@@ -10716,13 +10780,13 @@
         <v>226</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>225</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G130" s="7" t="s">
         <v>115</v>
@@ -10734,7 +10798,7 @@
         <v>58109</v>
       </c>
       <c r="J130" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K130" s="7">
         <v>0</v>
@@ -10757,7 +10821,7 @@
         <v>229</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G131" s="7" t="s">
         <v>181</v>
@@ -10769,7 +10833,7 @@
         <v>58116</v>
       </c>
       <c r="J131" s="19" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="K131" s="7">
         <v>0</v>
@@ -10792,7 +10856,7 @@
         <v>232</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="G132" s="7" t="s">
         <v>181</v>
@@ -10804,7 +10868,7 @@
         <v>58116</v>
       </c>
       <c r="J132" s="19" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="K132" s="7">
         <v>0</v>
@@ -10827,7 +10891,7 @@
         <v>235</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G133" s="7" t="s">
         <v>181</v>
@@ -10839,7 +10903,7 @@
         <v>58117</v>
       </c>
       <c r="J133" s="19" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="K133" s="7">
         <v>0</v>
@@ -10862,7 +10926,7 @@
         <v>238</v>
       </c>
       <c r="F134" s="19" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G134" s="7" t="s">
         <v>181</v>
@@ -10874,7 +10938,7 @@
         <v>58117</v>
       </c>
       <c r="J134" s="19" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K134" s="7">
         <v>0</v>
@@ -10891,13 +10955,13 @@
         <v>239</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>205</v>
       </c>
       <c r="F135" s="19" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G135" s="7" t="s">
         <v>181</v>
@@ -10909,7 +10973,7 @@
         <v>58119</v>
       </c>
       <c r="J135" s="19" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="K135" s="7">
         <v>0</v>
@@ -10926,13 +10990,13 @@
         <v>240</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>208</v>
       </c>
       <c r="F136" s="19" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G136" s="7" t="s">
         <v>181</v>
@@ -10944,7 +11008,7 @@
         <v>58119</v>
       </c>
       <c r="J136" s="19" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="K136" s="7">
         <v>0</v>
@@ -10961,13 +11025,13 @@
         <v>241</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>208</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>181</v>
@@ -10979,7 +11043,7 @@
         <v>58119</v>
       </c>
       <c r="J137" s="19" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K137" s="7">
         <v>0</v>
@@ -10996,13 +11060,13 @@
         <v>242</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E138" s="7" t="s">
         <v>214</v>
       </c>
       <c r="F138" s="19" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>181</v>
@@ -11014,7 +11078,7 @@
         <v>58120</v>
       </c>
       <c r="J138" s="19" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="K138" s="7">
         <v>0</v>
@@ -11031,13 +11095,13 @@
         <v>243</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E139" s="7" t="s">
         <v>220</v>
       </c>
       <c r="F139" s="19" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="G139" s="7" t="s">
         <v>181</v>
@@ -11049,7 +11113,7 @@
         <v>58120</v>
       </c>
       <c r="J139" s="19" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="K139" s="7">
         <v>0</v>
@@ -11066,13 +11130,13 @@
         <v>244</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>220</v>
       </c>
       <c r="F140" s="19" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="G140" s="7" t="s">
         <v>181</v>
@@ -11084,7 +11148,7 @@
         <v>58120</v>
       </c>
       <c r="J140" s="19" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="K140" s="7">
         <v>0</v>
@@ -11101,13 +11165,13 @@
         <v>245</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E141" s="7" t="s">
         <v>229</v>
       </c>
       <c r="F141" s="19" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G141" s="7" t="s">
         <v>181</v>
@@ -11119,7 +11183,7 @@
         <v>58116</v>
       </c>
       <c r="J141" s="19" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="K141" s="7">
         <v>0</v>
@@ -11136,13 +11200,13 @@
         <v>246</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E142" s="7" t="s">
         <v>232</v>
       </c>
       <c r="F142" s="19" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="G142" s="7" t="s">
         <v>181</v>
@@ -11154,7 +11218,7 @@
         <v>58116</v>
       </c>
       <c r="J142" s="19" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="K142" s="7">
         <v>0</v>
@@ -11171,13 +11235,13 @@
         <v>247</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E143" s="7" t="s">
         <v>235</v>
       </c>
       <c r="F143" s="19" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>181</v>
@@ -11189,7 +11253,7 @@
         <v>58117</v>
       </c>
       <c r="J143" s="19" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="K143" s="7">
         <v>0</v>
@@ -11206,13 +11270,13 @@
         <v>248</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E144" s="7" t="s">
         <v>238</v>
       </c>
       <c r="F144" s="19" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>181</v>
@@ -11224,7 +11288,7 @@
         <v>58117</v>
       </c>
       <c r="J144" s="19" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="K144" s="7">
         <v>0</v>
@@ -11241,13 +11305,13 @@
         <v>391</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F145" s="19" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="G145" s="7" t="s">
         <v>1</v>
@@ -11257,7 +11321,7 @@
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="19" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="K145" s="7">
         <v>0</v>
@@ -11274,13 +11338,13 @@
         <v>249</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="E146" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F146" s="19" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>1</v>
@@ -11292,7 +11356,7 @@
         <v>58118</v>
       </c>
       <c r="J146" s="19" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="K146" s="7">
         <v>0</v>
@@ -11309,13 +11373,13 @@
         <v>250</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="E147" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F147" s="19" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G147" s="7" t="s">
         <v>1</v>
@@ -11327,7 +11391,7 @@
         <v>58118</v>
       </c>
       <c r="J147" s="19" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K147" s="7">
         <v>0</v>
@@ -11344,13 +11408,13 @@
         <v>392</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="E148" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F148" s="19" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="G148" s="7" t="s">
         <v>1</v>
@@ -11360,7 +11424,7 @@
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="19" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="K148" s="7">
         <v>0</v>
@@ -11377,13 +11441,13 @@
         <v>393</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="E149" s="7" t="s">
         <v>186</v>
       </c>
       <c r="F149" s="19" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="G149" s="7" t="s">
         <v>1</v>
@@ -11393,7 +11457,7 @@
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="19" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="K149" s="7">
         <v>0</v>
@@ -11410,13 +11474,13 @@
         <v>251</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="E150" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F150" s="19" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G150" s="7" t="s">
         <v>1</v>
@@ -11428,7 +11492,7 @@
         <v>58118</v>
       </c>
       <c r="J150" s="19" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="K150" s="7">
         <v>0</v>
@@ -11445,13 +11509,13 @@
         <v>252</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>186</v>
       </c>
       <c r="F151" s="19" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G151" s="7" t="s">
         <v>1</v>
@@ -11463,7 +11527,7 @@
         <v>58118</v>
       </c>
       <c r="J151" s="19" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="K151" s="7">
         <v>0</v>
@@ -11480,13 +11544,13 @@
         <v>394</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F152" s="19" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G152" s="7" t="s">
         <v>1</v>
@@ -11496,7 +11560,7 @@
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="19" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="K152" s="7">
         <v>0</v>
@@ -11510,22 +11574,22 @@
         <v>139</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="F153" s="31" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="I153" s="7">
         <v>58112</v>
@@ -11540,22 +11604,22 @@
         <v>139</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="F154" s="31" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="G154" s="7" t="s">
         <v>79</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="I154" s="7">
         <v>58112</v>
@@ -11581,7 +11645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E680"/>
   <sheetViews>
-    <sheetView topLeftCell="A443" workbookViewId="0">
+    <sheetView topLeftCell="A431" workbookViewId="0">
       <selection activeCell="C379" sqref="C379"/>
     </sheetView>
   </sheetViews>
@@ -11636,7 +11700,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>50</v>
@@ -12316,7 +12380,7 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>454</v>
@@ -12330,7 +12394,7 @@
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>456</v>
@@ -12344,7 +12408,7 @@
     </row>
     <row r="54" spans="2:5">
       <c r="B54" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>456</v>
@@ -12358,7 +12422,7 @@
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>456</v>
@@ -12372,7 +12436,7 @@
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>456</v>
@@ -12386,7 +12450,7 @@
     </row>
     <row r="57" spans="2:5">
       <c r="B57" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C57" s="17" t="s">
         <v>456</v>
@@ -12400,7 +12464,7 @@
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>456</v>
@@ -12414,7 +12478,7 @@
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>456</v>
@@ -12428,7 +12492,7 @@
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C60" s="17" t="s">
         <v>457</v>
@@ -12442,7 +12506,7 @@
     </row>
     <row r="61" spans="2:5">
       <c r="B61" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>457</v>
@@ -12456,7 +12520,7 @@
     </row>
     <row r="62" spans="2:5">
       <c r="B62" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C62" s="17" t="s">
         <v>457</v>
@@ -12470,7 +12534,7 @@
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>457</v>
@@ -12484,7 +12548,7 @@
     </row>
     <row r="64" spans="2:5">
       <c r="B64" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>457</v>
@@ -12498,7 +12562,7 @@
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C65" s="17" t="s">
         <v>457</v>
@@ -12512,7 +12576,7 @@
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>457</v>
@@ -12526,7 +12590,7 @@
     </row>
     <row r="67" spans="2:5">
       <c r="B67" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C67" s="17" t="s">
         <v>457</v>
@@ -12540,7 +12604,7 @@
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C68" s="17" t="s">
         <v>610</v>
@@ -12554,7 +12618,7 @@
     </row>
     <row r="69" spans="2:5">
       <c r="B69" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>610</v>
@@ -12568,7 +12632,7 @@
     </row>
     <row r="70" spans="2:5">
       <c r="B70" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>610</v>
@@ -12582,7 +12646,7 @@
     </row>
     <row r="71" spans="2:5">
       <c r="B71" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>610</v>
@@ -12596,7 +12660,7 @@
     </row>
     <row r="72" spans="2:5">
       <c r="B72" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C72" s="17" t="s">
         <v>610</v>
@@ -12610,7 +12674,7 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C73" s="17" t="s">
         <v>610</v>
@@ -12624,7 +12688,7 @@
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>610</v>
@@ -12638,7 +12702,7 @@
     </row>
     <row r="75" spans="2:5">
       <c r="B75" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>610</v>
@@ -12652,7 +12716,7 @@
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C76" s="17" t="s">
         <v>610</v>
@@ -12666,7 +12730,7 @@
     </row>
     <row r="77" spans="2:5">
       <c r="B77" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C77" s="17" t="s">
         <v>610</v>
@@ -12680,7 +12744,7 @@
     </row>
     <row r="78" spans="2:5">
       <c r="B78" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C78" s="17" t="s">
         <v>611</v>
@@ -12694,7 +12758,7 @@
     </row>
     <row r="79" spans="2:5">
       <c r="B79" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C79" s="17" t="s">
         <v>611</v>
@@ -12708,7 +12772,7 @@
     </row>
     <row r="80" spans="2:5">
       <c r="B80" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>611</v>
@@ -12722,7 +12786,7 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C81" s="17" t="s">
         <v>611</v>
@@ -12736,7 +12800,7 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C82" s="17" t="s">
         <v>611</v>
@@ -12750,7 +12814,7 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C83" s="17" t="s">
         <v>611</v>
@@ -12764,7 +12828,7 @@
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C84" s="17" t="s">
         <v>611</v>
@@ -12778,7 +12842,7 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C85" s="17" t="s">
         <v>611</v>
@@ -12792,7 +12856,7 @@
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C86" s="17" t="s">
         <v>611</v>
@@ -12806,7 +12870,7 @@
     </row>
     <row r="87" spans="2:5">
       <c r="B87" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C87" s="17" t="s">
         <v>611</v>
@@ -12820,7 +12884,7 @@
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>612</v>
@@ -12834,7 +12898,7 @@
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C89" s="17" t="s">
         <v>612</v>
@@ -12848,7 +12912,7 @@
     </row>
     <row r="90" spans="2:5">
       <c r="B90" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C90" s="17" t="s">
         <v>612</v>
@@ -12862,7 +12926,7 @@
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C91" s="17" t="s">
         <v>612</v>
@@ -12876,7 +12940,7 @@
     </row>
     <row r="92" spans="2:5">
       <c r="B92" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C92" s="17" t="s">
         <v>612</v>
@@ -12890,7 +12954,7 @@
     </row>
     <row r="93" spans="2:5">
       <c r="B93" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C93" s="17" t="s">
         <v>612</v>
@@ -12904,7 +12968,7 @@
     </row>
     <row r="94" spans="2:5">
       <c r="B94" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C94" s="17" t="s">
         <v>458</v>
@@ -12918,7 +12982,7 @@
     </row>
     <row r="95" spans="2:5">
       <c r="B95" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C95" s="17" t="s">
         <v>458</v>
@@ -12932,7 +12996,7 @@
     </row>
     <row r="96" spans="2:5">
       <c r="B96" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C96" s="17" t="s">
         <v>458</v>
@@ -12946,7 +13010,7 @@
     </row>
     <row r="97" spans="2:5">
       <c r="B97" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C97" s="17" t="s">
         <v>458</v>
@@ -12960,7 +13024,7 @@
     </row>
     <row r="98" spans="2:5">
       <c r="B98" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C98" s="17" t="s">
         <v>458</v>
@@ -12974,7 +13038,7 @@
     </row>
     <row r="99" spans="2:5">
       <c r="B99" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C99" s="17" t="s">
         <v>458</v>
@@ -13506,7 +13570,7 @@
     </row>
     <row r="137" spans="2:5">
       <c r="B137" s="16" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C137" s="17" t="s">
         <v>612</v>
@@ -14346,7 +14410,7 @@
     </row>
     <row r="197" spans="2:5">
       <c r="B197" s="16" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C197" s="17" t="s">
         <v>612</v>
@@ -14360,7 +14424,7 @@
     </row>
     <row r="198" spans="2:5">
       <c r="B198" s="16" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C198" s="17" t="s">
         <v>612</v>
@@ -14374,7 +14438,7 @@
     </row>
     <row r="199" spans="2:5">
       <c r="B199" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C199" s="17" t="s">
         <v>612</v>
@@ -14388,7 +14452,7 @@
     </row>
     <row r="200" spans="2:5">
       <c r="B200" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C200" s="17" t="s">
         <v>612</v>
@@ -14402,7 +14466,7 @@
     </row>
     <row r="201" spans="2:5">
       <c r="B201" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C201" s="17" t="s">
         <v>612</v>
@@ -14416,7 +14480,7 @@
     </row>
     <row r="202" spans="2:5">
       <c r="B202" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C202" s="17" t="s">
         <v>612</v>
@@ -14430,7 +14494,7 @@
     </row>
     <row r="203" spans="2:5">
       <c r="B203" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C203" s="17" t="s">
         <v>612</v>
@@ -14444,7 +14508,7 @@
     </row>
     <row r="204" spans="2:5">
       <c r="B204" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C204" s="17" t="s">
         <v>612</v>
@@ -14458,7 +14522,7 @@
     </row>
     <row r="205" spans="2:5">
       <c r="B205" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C205" s="17" t="s">
         <v>612</v>
@@ -14472,7 +14536,7 @@
     </row>
     <row r="206" spans="2:5">
       <c r="B206" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C206" s="17" t="s">
         <v>612</v>
@@ -14486,7 +14550,7 @@
     </row>
     <row r="207" spans="2:5">
       <c r="B207" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C207" s="17" t="s">
         <v>612</v>
@@ -14500,7 +14564,7 @@
     </row>
     <row r="208" spans="2:5">
       <c r="B208" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C208" s="17" t="s">
         <v>613</v>
@@ -14514,7 +14578,7 @@
     </row>
     <row r="209" spans="2:5">
       <c r="B209" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C209" s="17" t="s">
         <v>613</v>
@@ -14528,7 +14592,7 @@
     </row>
     <row r="210" spans="2:5">
       <c r="B210" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C210" s="17" t="s">
         <v>613</v>
@@ -14542,7 +14606,7 @@
     </row>
     <row r="211" spans="2:5">
       <c r="B211" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C211" s="17" t="s">
         <v>613</v>
@@ -14556,7 +14620,7 @@
     </row>
     <row r="212" spans="2:5">
       <c r="B212" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C212" s="17" t="s">
         <v>613</v>
@@ -14570,7 +14634,7 @@
     </row>
     <row r="213" spans="2:5">
       <c r="B213" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C213" s="17" t="s">
         <v>458</v>
@@ -14584,7 +14648,7 @@
     </row>
     <row r="214" spans="2:5">
       <c r="B214" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C214" s="17" t="s">
         <v>458</v>
@@ -14598,7 +14662,7 @@
     </row>
     <row r="215" spans="2:5">
       <c r="B215" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C215" s="17" t="s">
         <v>458</v>
@@ -14612,7 +14676,7 @@
     </row>
     <row r="216" spans="2:5">
       <c r="B216" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C216" s="17" t="s">
         <v>458</v>
@@ -14626,7 +14690,7 @@
     </row>
     <row r="217" spans="2:5">
       <c r="B217" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C217" s="17" t="s">
         <v>458</v>
@@ -14640,7 +14704,7 @@
     </row>
     <row r="218" spans="2:5">
       <c r="B218" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C218" s="17" t="s">
         <v>458</v>
@@ -14654,7 +14718,7 @@
     </row>
     <row r="219" spans="2:5">
       <c r="B219" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C219" s="17" t="s">
         <v>458</v>
@@ -14668,7 +14732,7 @@
     </row>
     <row r="220" spans="2:5">
       <c r="B220" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C220" s="17" t="s">
         <v>458</v>
@@ -14682,7 +14746,7 @@
     </row>
     <row r="221" spans="2:5">
       <c r="B221" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C221" s="17" t="s">
         <v>458</v>
@@ -14696,7 +14760,7 @@
     </row>
     <row r="222" spans="2:5">
       <c r="B222" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C222" s="17" t="s">
         <v>458</v>
@@ -14710,7 +14774,7 @@
     </row>
     <row r="223" spans="2:5">
       <c r="B223" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C223" s="17" t="s">
         <v>458</v>
@@ -14724,7 +14788,7 @@
     </row>
     <row r="224" spans="2:5">
       <c r="B224" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C224" s="17" t="s">
         <v>458</v>
@@ -14738,7 +14802,7 @@
     </row>
     <row r="225" spans="2:5">
       <c r="B225" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C225" s="17" t="s">
         <v>458</v>
@@ -14752,7 +14816,7 @@
     </row>
     <row r="226" spans="2:5">
       <c r="B226" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C226" s="17" t="s">
         <v>458</v>
@@ -14766,7 +14830,7 @@
     </row>
     <row r="227" spans="2:5">
       <c r="B227" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C227" s="17" t="s">
         <v>458</v>
@@ -14780,7 +14844,7 @@
     </row>
     <row r="228" spans="2:5">
       <c r="B228" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C228" s="17" t="s">
         <v>458</v>
@@ -14794,7 +14858,7 @@
     </row>
     <row r="229" spans="2:5">
       <c r="B229" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C229" s="17" t="s">
         <v>459</v>
@@ -14808,7 +14872,7 @@
     </row>
     <row r="230" spans="2:5">
       <c r="B230" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C230" s="17" t="s">
         <v>459</v>
@@ -14822,7 +14886,7 @@
     </row>
     <row r="231" spans="2:5">
       <c r="B231" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C231" s="17" t="s">
         <v>459</v>
@@ -14836,7 +14900,7 @@
     </row>
     <row r="232" spans="2:5">
       <c r="B232" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C232" s="17" t="s">
         <v>459</v>
@@ -14850,7 +14914,7 @@
     </row>
     <row r="233" spans="2:5">
       <c r="B233" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C233" s="17" t="s">
         <v>459</v>
@@ -14864,7 +14928,7 @@
     </row>
     <row r="234" spans="2:5">
       <c r="B234" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C234" s="17" t="s">
         <v>459</v>
@@ -14878,7 +14942,7 @@
     </row>
     <row r="235" spans="2:5">
       <c r="B235" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C235" s="17" t="s">
         <v>459</v>
@@ -14892,7 +14956,7 @@
     </row>
     <row r="236" spans="2:5">
       <c r="B236" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C236" s="17" t="s">
         <v>459</v>
@@ -14906,7 +14970,7 @@
     </row>
     <row r="237" spans="2:5">
       <c r="B237" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C237" s="17" t="s">
         <v>459</v>
@@ -14920,7 +14984,7 @@
     </row>
     <row r="238" spans="2:5">
       <c r="B238" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C238" s="17" t="s">
         <v>459</v>
@@ -14934,7 +14998,7 @@
     </row>
     <row r="239" spans="2:5">
       <c r="B239" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C239" s="17" t="s">
         <v>459</v>
@@ -14948,7 +15012,7 @@
     </row>
     <row r="240" spans="2:5">
       <c r="B240" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C240" s="17" t="s">
         <v>459</v>
@@ -14962,7 +15026,7 @@
     </row>
     <row r="241" spans="2:5">
       <c r="B241" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C241" s="17" t="s">
         <v>459</v>
@@ -14976,7 +15040,7 @@
     </row>
     <row r="242" spans="2:5">
       <c r="B242" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C242" s="17" t="s">
         <v>459</v>
@@ -14990,7 +15054,7 @@
     </row>
     <row r="243" spans="2:5">
       <c r="B243" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C243" s="17" t="s">
         <v>460</v>
@@ -15004,7 +15068,7 @@
     </row>
     <row r="244" spans="2:5">
       <c r="B244" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C244" s="17" t="s">
         <v>460</v>
@@ -15018,7 +15082,7 @@
     </row>
     <row r="245" spans="2:5">
       <c r="B245" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C245" s="17" t="s">
         <v>460</v>
@@ -15032,7 +15096,7 @@
     </row>
     <row r="246" spans="2:5">
       <c r="B246" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C246" s="17" t="s">
         <v>460</v>
@@ -15046,7 +15110,7 @@
     </row>
     <row r="247" spans="2:5">
       <c r="B247" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C247" s="17" t="s">
         <v>460</v>
@@ -15060,7 +15124,7 @@
     </row>
     <row r="248" spans="2:5">
       <c r="B248" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C248" s="17" t="s">
         <v>460</v>
@@ -15074,7 +15138,7 @@
     </row>
     <row r="249" spans="2:5">
       <c r="B249" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C249" s="17" t="s">
         <v>460</v>
@@ -15088,7 +15152,7 @@
     </row>
     <row r="250" spans="2:5">
       <c r="B250" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C250" s="17" t="s">
         <v>460</v>
@@ -15102,7 +15166,7 @@
     </row>
     <row r="251" spans="2:5">
       <c r="B251" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C251" s="17" t="s">
         <v>460</v>
@@ -15116,7 +15180,7 @@
     </row>
     <row r="252" spans="2:5">
       <c r="B252" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C252" s="17" t="s">
         <v>460</v>
@@ -15130,7 +15194,7 @@
     </row>
     <row r="253" spans="2:5">
       <c r="B253" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C253" s="17" t="s">
         <v>460</v>
@@ -15144,7 +15208,7 @@
     </row>
     <row r="254" spans="2:5">
       <c r="B254" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C254" s="17" t="s">
         <v>460</v>
@@ -15158,7 +15222,7 @@
     </row>
     <row r="255" spans="2:5">
       <c r="B255" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C255" s="17" t="s">
         <v>460</v>
@@ -15172,7 +15236,7 @@
     </row>
     <row r="256" spans="2:5">
       <c r="B256" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C256" s="17" t="s">
         <v>460</v>
@@ -20574,7 +20638,7 @@
         <v>604</v>
       </c>
       <c r="C640" s="17" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="D640" s="18" t="s">
         <v>565</v>
@@ -20588,7 +20652,7 @@
         <v>604</v>
       </c>
       <c r="C641" s="17" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="D641" s="18" t="s">
         <v>568</v>
@@ -20602,7 +20666,7 @@
         <v>604</v>
       </c>
       <c r="C642" s="17" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="D642" s="18" t="s">
         <v>569</v>
@@ -20616,7 +20680,7 @@
         <v>604</v>
       </c>
       <c r="C643" s="17" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="D643" s="18" t="s">
         <v>570</v>
@@ -20630,7 +20694,7 @@
         <v>604</v>
       </c>
       <c r="C644" s="17" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="D644" s="18" t="s">
         <v>571</v>
@@ -20644,7 +20708,7 @@
         <v>604</v>
       </c>
       <c r="C645" s="17" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="D645" s="18" t="s">
         <v>572</v>
@@ -20658,7 +20722,7 @@
         <v>604</v>
       </c>
       <c r="C646" s="17" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="D646" s="18" t="s">
         <v>573</v>
@@ -20672,7 +20736,7 @@
         <v>604</v>
       </c>
       <c r="C647" s="17" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="D647" s="18" t="s">
         <v>575</v>
@@ -20686,7 +20750,7 @@
         <v>604</v>
       </c>
       <c r="C648" s="17" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="D648" s="18" t="s">
         <v>576</v>
@@ -20700,7 +20764,7 @@
         <v>604</v>
       </c>
       <c r="C649" s="17" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="D649" s="18" t="s">
         <v>609</v>
@@ -20714,7 +20778,7 @@
         <v>604</v>
       </c>
       <c r="C650" s="17" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="D650" s="18" t="s">
         <v>577</v>
@@ -20728,7 +20792,7 @@
         <v>604</v>
       </c>
       <c r="C651" s="17" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="D651" s="18" t="s">
         <v>579</v>
@@ -20742,7 +20806,7 @@
         <v>604</v>
       </c>
       <c r="C652" s="17" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="D652" s="18" t="s">
         <v>580</v>
@@ -20756,7 +20820,7 @@
         <v>604</v>
       </c>
       <c r="C653" s="17" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="D653" s="18" t="s">
         <v>564</v>
@@ -20770,7 +20834,7 @@
         <v>604</v>
       </c>
       <c r="C654" s="17" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="D654" s="18" t="s">
         <v>568</v>
@@ -20784,7 +20848,7 @@
         <v>604</v>
       </c>
       <c r="C655" s="17" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="D655" s="18" t="s">
         <v>569</v>
@@ -20798,7 +20862,7 @@
         <v>604</v>
       </c>
       <c r="C656" s="17" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="D656" s="18" t="s">
         <v>570</v>
@@ -20812,7 +20876,7 @@
         <v>604</v>
       </c>
       <c r="C657" s="17" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="D657" s="18" t="s">
         <v>571</v>
@@ -20826,7 +20890,7 @@
         <v>604</v>
       </c>
       <c r="C658" s="17" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="D658" s="18" t="s">
         <v>572</v>
@@ -20840,7 +20904,7 @@
         <v>604</v>
       </c>
       <c r="C659" s="17" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="D659" s="18" t="s">
         <v>573</v>
@@ -20854,7 +20918,7 @@
         <v>604</v>
       </c>
       <c r="C660" s="17" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="D660" s="18" t="s">
         <v>605</v>
@@ -20868,7 +20932,7 @@
         <v>604</v>
       </c>
       <c r="C661" s="17" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="D661" s="18" t="s">
         <v>606</v>
@@ -20882,7 +20946,7 @@
         <v>604</v>
       </c>
       <c r="C662" s="17" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="D662" s="18" t="s">
         <v>609</v>
@@ -20896,7 +20960,7 @@
         <v>604</v>
       </c>
       <c r="C663" s="17" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="D663" s="18" t="s">
         <v>577</v>
@@ -20910,7 +20974,7 @@
         <v>604</v>
       </c>
       <c r="C664" s="17" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="D664" s="18" t="s">
         <v>579</v>
@@ -20924,7 +20988,7 @@
         <v>604</v>
       </c>
       <c r="C665" s="17" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="D665" s="18" t="s">
         <v>580</v>
@@ -20938,7 +21002,7 @@
         <v>604</v>
       </c>
       <c r="C666" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="D666" s="18" t="s">
         <v>566</v>
@@ -20952,7 +21016,7 @@
         <v>604</v>
       </c>
       <c r="C667" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="D667" s="18" t="s">
         <v>568</v>
@@ -20966,7 +21030,7 @@
         <v>604</v>
       </c>
       <c r="C668" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="D668" s="18" t="s">
         <v>569</v>
@@ -20980,7 +21044,7 @@
         <v>604</v>
       </c>
       <c r="C669" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="D669" s="18" t="s">
         <v>570</v>
@@ -20994,7 +21058,7 @@
         <v>604</v>
       </c>
       <c r="C670" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="D670" s="18" t="s">
         <v>571</v>
@@ -21008,7 +21072,7 @@
         <v>604</v>
       </c>
       <c r="C671" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="D671" s="18" t="s">
         <v>607</v>
@@ -21022,7 +21086,7 @@
         <v>604</v>
       </c>
       <c r="C672" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="D672" s="18" t="s">
         <v>574</v>
@@ -21036,7 +21100,7 @@
         <v>604</v>
       </c>
       <c r="C673" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="D673" s="18" t="s">
         <v>609</v>
@@ -21050,7 +21114,7 @@
         <v>604</v>
       </c>
       <c r="C674" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="D674" s="18" t="s">
         <v>577</v>
@@ -21064,7 +21128,7 @@
         <v>604</v>
       </c>
       <c r="C675" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="D675" s="18" t="s">
         <v>579</v>
@@ -21078,7 +21142,7 @@
         <v>604</v>
       </c>
       <c r="C676" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="D676" s="18" t="s">
         <v>580</v>
@@ -21089,13 +21153,13 @@
     </row>
     <row r="677" spans="2:5">
       <c r="B677" s="3" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="C677" s="32" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="D677" s="7" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="E677" s="16">
         <v>0</v>
@@ -21103,13 +21167,13 @@
     </row>
     <row r="678" spans="2:5">
       <c r="B678" s="3" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="C678" s="32" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="D678" s="7" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="E678" s="16">
         <v>0</v>
@@ -21117,13 +21181,13 @@
     </row>
     <row r="679" spans="2:5">
       <c r="B679" s="3" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="C679" s="32" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="D679" s="7" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="E679" s="16">
         <v>0</v>
@@ -21131,13 +21195,13 @@
     </row>
     <row r="680" spans="2:5">
       <c r="B680" s="3" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="C680" s="32" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="D680" s="7" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="E680" s="16">
         <v>0</v>
@@ -21152,10 +21216,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21220,7 +21284,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>40</v>
@@ -21234,7 +21298,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>42</v>
@@ -21248,7 +21312,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>41</v>
@@ -21262,7 +21326,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>643</v>
+        <v>1095</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>624</v>
@@ -21276,10 +21340,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1074</v>
+        <v>1090</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -21290,10 +21354,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -21301,13 +21365,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="4" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1076</v>
+        <v>1091</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -21315,13 +21379,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="4" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1077</v>
+        <v>1066</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -21349,7 +21413,7 @@
         <v>623</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -21363,7 +21427,7 @@
         <v>623</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
@@ -21371,13 +21435,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="4" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1074</v>
+        <v>1063</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
@@ -21385,13 +21449,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="4" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1058</v>
+        <v>1093</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -21399,13 +21463,13 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="4" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1076</v>
+        <v>1065</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
@@ -21413,13 +21477,13 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="4" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1077</v>
+        <v>1066</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -21427,13 +21491,13 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="4" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>623</v>
+        <v>1093</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1073</v>
+        <v>1094</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -21441,13 +21505,13 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="4" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
@@ -21458,10 +21522,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -21469,13 +21533,13 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="4" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1055</v>
+        <v>1092</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -21483,13 +21547,13 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="4" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1074</v>
+        <v>1063</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -21497,13 +21561,13 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="4" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
@@ -21511,13 +21575,13 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="4" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>1076</v>
+        <v>1065</v>
       </c>
       <c r="E25" s="5">
         <v>0</v>
@@ -21525,13 +21589,13 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="4" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>1077</v>
+        <v>1066</v>
       </c>
       <c r="E26" s="5">
         <v>0</v>
@@ -21539,13 +21603,13 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="4" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>1074</v>
+        <v>1063</v>
       </c>
       <c r="E27" s="5">
         <v>0</v>
@@ -21553,13 +21617,13 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="4" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="E28" s="5">
         <v>0</v>
@@ -21567,13 +21631,13 @@
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="4" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>1076</v>
+        <v>1065</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
@@ -21581,13 +21645,13 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="4" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>1077</v>
+        <v>1066</v>
       </c>
       <c r="E30" s="5">
         <v>0</v>
@@ -21598,10 +21662,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>1078</v>
+        <v>1067</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
@@ -21612,10 +21676,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>626</v>
       </c>
       <c r="E32" s="5">
         <v>0</v>
@@ -21626,10 +21690,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>625</v>
+        <v>1074</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
@@ -21640,10 +21704,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>625</v>
+        <v>1074</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
@@ -21654,10 +21718,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="E35" s="23">
         <v>0</v>
@@ -21668,10 +21732,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E36" s="23">
         <v>0</v>
@@ -21682,10 +21746,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E37" s="23">
         <v>0</v>
@@ -21693,13 +21757,13 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="5" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="E38" s="5">
         <v>0</v>
@@ -21710,10 +21774,10 @@
         <v>1</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>632</v>
+        <v>1071</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
@@ -21724,10 +21788,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>632</v>
+        <v>1070</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E40" s="5">
         <v>0</v>
@@ -21735,13 +21799,13 @@
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="4" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>990</v>
+        <v>1071</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="E41" s="5">
         <v>0</v>
@@ -21749,13 +21813,13 @@
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="4" t="s">
-        <v>1</v>
+        <v>983</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>635</v>
+        <v>1071</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>1072</v>
       </c>
       <c r="E42" s="5">
         <v>0</v>
@@ -21763,13 +21827,13 @@
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="4" t="s">
-        <v>1</v>
+        <v>983</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>628</v>
+        <v>1073</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>667</v>
+        <v>1075</v>
       </c>
       <c r="E43" s="5">
         <v>0</v>
@@ -21777,13 +21841,13 @@
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>661</v>
+        <v>983</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>947</v>
       </c>
       <c r="E44" s="5">
         <v>0</v>
@@ -21791,13 +21855,13 @@
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="4" t="s">
-        <v>1</v>
+        <v>983</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>685</v>
+        <v>1073</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>949</v>
       </c>
       <c r="E45" s="5">
         <v>0</v>
@@ -21805,13 +21869,13 @@
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="4" t="s">
-        <v>1</v>
+        <v>983</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>684</v>
+        <v>1073</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>686</v>
+        <v>1089</v>
       </c>
       <c r="E46" s="5">
         <v>0</v>
@@ -21819,13 +21883,13 @@
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="4" t="s">
-        <v>1</v>
+        <v>983</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>653</v>
+        <v>1073</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>635</v>
+        <v>1072</v>
       </c>
       <c r="E47" s="5">
         <v>0</v>
@@ -21836,94 +21900,94 @@
         <v>1</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>938</v>
-      </c>
-      <c r="D48" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E48" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="E49" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="B51" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="E51" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52" s="29" t="s">
-        <v>994</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>993</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>992</v>
-      </c>
-      <c r="E52" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="B53" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="E53" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>635</v>
       </c>
       <c r="E54" s="5">
         <v>0</v>
@@ -21931,13 +21995,13 @@
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>651</v>
+      <c r="D55" s="9" t="s">
+        <v>643</v>
       </c>
       <c r="E55" s="5">
         <v>0</v>
@@ -21945,13 +22009,13 @@
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>667</v>
+      <c r="D56" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="E56" s="5">
         <v>0</v>
@@ -21959,41 +22023,41 @@
     </row>
     <row r="57" spans="2:5">
       <c r="B57" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>711</v>
-      </c>
       <c r="D57" s="7" t="s">
-        <v>710</v>
+        <v>633</v>
       </c>
       <c r="E57" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="E58" s="5">
+      <c r="B58" s="29" t="s">
+        <v>986</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>985</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E58" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>960</v>
+        <v>623</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>643</v>
       </c>
       <c r="E59" s="5">
         <v>0</v>
@@ -22001,13 +22065,13 @@
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>661</v>
+        <v>640</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>633</v>
       </c>
       <c r="E60" s="5">
         <v>0</v>
@@ -22015,13 +22079,13 @@
     </row>
     <row r="61" spans="2:5">
       <c r="B61" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>684</v>
+        <v>1009</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>685</v>
+        <v>649</v>
       </c>
       <c r="E61" s="5">
         <v>0</v>
@@ -22029,13 +22093,13 @@
     </row>
     <row r="62" spans="2:5">
       <c r="B62" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>684</v>
+        <v>627</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="E62" s="5">
         <v>0</v>
@@ -22043,13 +22107,13 @@
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>653</v>
+        <v>709</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>635</v>
+        <v>708</v>
       </c>
       <c r="E63" s="5">
         <v>0</v>
@@ -22057,13 +22121,13 @@
     </row>
     <row r="64" spans="2:5">
       <c r="B64" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>938</v>
+        <v>715</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>40</v>
+        <v>708</v>
       </c>
       <c r="E64" s="5">
         <v>0</v>
@@ -22071,13 +22135,13 @@
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="5" t="s">
-        <v>1038</v>
+        <v>640</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>1039</v>
+        <v>955</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>956</v>
       </c>
       <c r="E65" s="5">
         <v>0</v>
@@ -22085,97 +22149,97 @@
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>1040</v>
+        <v>640</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>659</v>
       </c>
       <c r="E66" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="7" t="s">
-        <v>630</v>
+      <c r="B67" s="5" t="s">
+        <v>640</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>1062</v>
+        <v>682</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>631</v>
+        <v>683</v>
       </c>
       <c r="E67" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="7" t="s">
-        <v>1054</v>
+      <c r="B68" s="5" t="s">
+        <v>640</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>1080</v>
+        <v>682</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>1079</v>
+        <v>684</v>
       </c>
       <c r="E68" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="7" t="s">
-        <v>630</v>
+      <c r="B69" s="5" t="s">
+        <v>640</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>956</v>
+        <v>651</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>631</v>
+        <v>1078</v>
       </c>
       <c r="E69" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:5">
-      <c r="B70" s="7" t="s">
-        <v>630</v>
+      <c r="B70" s="5" t="s">
+        <v>640</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>957</v>
+        <v>1077</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>631</v>
+        <v>40</v>
       </c>
       <c r="E70" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="7" t="s">
-        <v>630</v>
+      <c r="B71" s="5" t="s">
+        <v>1030</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>649</v>
+        <v>1029</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>1031</v>
       </c>
       <c r="E71" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:5">
-      <c r="B72" s="7" t="s">
-        <v>1050</v>
+      <c r="B72" s="5" t="s">
+        <v>640</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>958</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>652</v>
+        <v>1029</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>1032</v>
       </c>
       <c r="E72" s="5">
         <v>0</v>
@@ -22183,13 +22247,13 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>630</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>958</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>681</v>
       </c>
       <c r="E73" s="5">
         <v>0</v>
@@ -22197,13 +22261,13 @@
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="7" t="s">
-        <v>976</v>
+        <v>1045</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>977</v>
+        <v>1069</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>978</v>
+        <v>1068</v>
       </c>
       <c r="E74" s="5">
         <v>0</v>
@@ -22211,13 +22275,13 @@
     </row>
     <row r="75" spans="2:5">
       <c r="B75" s="7" t="s">
-        <v>976</v>
+        <v>629</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>1053</v>
+        <v>953</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>1052</v>
+        <v>630</v>
       </c>
       <c r="E75" s="5">
         <v>0</v>
@@ -22225,13 +22289,13 @@
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="7" t="s">
-        <v>630</v>
+        <v>1080</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>657</v>
+        <v>1079</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>649</v>
+        <v>1081</v>
       </c>
       <c r="E76" s="5">
         <v>0</v>
@@ -22239,13 +22303,13 @@
     </row>
     <row r="77" spans="2:5">
       <c r="B77" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>630</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>659</v>
       </c>
       <c r="E77" s="5">
         <v>0</v>
@@ -22253,55 +22317,55 @@
     </row>
     <row r="78" spans="2:5">
       <c r="B78" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>658</v>
+        <v>1082</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="E78" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:5">
-      <c r="B79" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>953</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>954</v>
-      </c>
-      <c r="E79" s="23">
+      <c r="B79" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="E79" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:5">
-      <c r="B80" s="22" t="s">
-        <v>976</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>953</v>
-      </c>
-      <c r="D80" s="22" t="s">
-        <v>955</v>
-      </c>
-      <c r="E80" s="23">
+      <c r="B80" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="E80" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="7" t="s">
-        <v>630</v>
+        <v>972</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>628</v>
+        <v>1082</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>667</v>
+        <v>1085</v>
       </c>
       <c r="E81" s="5">
         <v>0</v>
@@ -22309,13 +22373,13 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="7" t="s">
-        <v>1050</v>
+        <v>972</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>1049</v>
+        <v>1082</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="E82" s="5">
         <v>0</v>
@@ -22323,27 +22387,25 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>981</v>
+        <v>629</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>1084</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="E83" s="5">
-        <v>0</v>
-      </c>
+        <v>1083</v>
+      </c>
+      <c r="E83" s="5"/>
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>705</v>
+        <v>629</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>655</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="E84" s="5">
         <v>0</v>
@@ -22351,13 +22413,13 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="E85" s="5">
         <v>0</v>
@@ -22365,55 +22427,55 @@
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>700</v>
+        <v>656</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>633</v>
+        <v>658</v>
       </c>
       <c r="E86" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:5">
-      <c r="B87" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>718</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="E87" s="5">
+      <c r="B87" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E87" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:5">
-      <c r="B88" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="E88" s="5">
+      <c r="B88" s="22" t="s">
+        <v>972</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>951</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>952</v>
+      </c>
+      <c r="E88" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="7" t="s">
-        <v>703</v>
+        <v>629</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>704</v>
+        <v>665</v>
       </c>
       <c r="E89" s="5">
         <v>0</v>
@@ -22421,13 +22483,13 @@
     </row>
     <row r="90" spans="2:5">
       <c r="B90" s="7" t="s">
-        <v>662</v>
+        <v>1042</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>664</v>
+        <v>1041</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>704</v>
+        <v>1043</v>
       </c>
       <c r="E90" s="5">
         <v>0</v>
@@ -22435,13 +22497,13 @@
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="7" t="s">
-        <v>703</v>
+        <v>632</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>705</v>
+        <v>975</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>704</v>
+        <v>631</v>
       </c>
       <c r="E91" s="5">
         <v>0</v>
@@ -22449,13 +22511,13 @@
     </row>
     <row r="92" spans="2:5">
       <c r="B92" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>665</v>
+        <v>632</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>703</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>704</v>
+        <v>631</v>
       </c>
       <c r="E92" s="5">
         <v>0</v>
@@ -22463,13 +22525,13 @@
     </row>
     <row r="93" spans="2:5">
       <c r="B93" s="7" t="s">
-        <v>662</v>
+        <v>632</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>666</v>
+        <v>644</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>704</v>
+        <v>631</v>
       </c>
       <c r="E93" s="5">
         <v>0</v>
@@ -22477,13 +22539,13 @@
     </row>
     <row r="94" spans="2:5">
       <c r="B94" s="7" t="s">
-        <v>662</v>
+        <v>632</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>704</v>
+        <v>631</v>
       </c>
       <c r="E94" s="5">
         <v>0</v>
@@ -22491,13 +22553,13 @@
     </row>
     <row r="95" spans="2:5">
       <c r="B95" s="7" t="s">
-        <v>662</v>
+        <v>632</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>704</v>
+        <v>631</v>
       </c>
       <c r="E95" s="5">
         <v>0</v>
@@ -22505,13 +22567,13 @@
     </row>
     <row r="96" spans="2:5">
       <c r="B96" s="7" t="s">
-        <v>662</v>
+        <v>632</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>704</v>
+        <v>631</v>
       </c>
       <c r="E96" s="5">
         <v>0</v>
@@ -22519,13 +22581,13 @@
     </row>
     <row r="97" spans="2:5">
       <c r="B97" s="7" t="s">
-        <v>627</v>
+        <v>701</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>628</v>
+        <v>661</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>629</v>
+        <v>702</v>
       </c>
       <c r="E97" s="5">
         <v>0</v>
@@ -22533,13 +22595,13 @@
     </row>
     <row r="98" spans="2:5">
       <c r="B98" s="7" t="s">
-        <v>627</v>
+        <v>660</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>655</v>
+        <v>702</v>
       </c>
       <c r="E98" s="5">
         <v>0</v>
@@ -22547,13 +22609,13 @@
     </row>
     <row r="99" spans="2:5">
       <c r="B99" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>654</v>
+        <v>701</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>703</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>656</v>
+        <v>702</v>
       </c>
       <c r="E99" s="5">
         <v>0</v>
@@ -22561,13 +22623,13 @@
     </row>
     <row r="100" spans="2:5">
       <c r="B100" s="7" t="s">
-        <v>627</v>
+        <v>660</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>706</v>
+        <v>663</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>655</v>
+        <v>702</v>
       </c>
       <c r="E100" s="5">
         <v>0</v>
@@ -22575,13 +22637,13 @@
     </row>
     <row r="101" spans="2:5">
       <c r="B101" s="7" t="s">
-        <v>627</v>
+        <v>660</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>707</v>
+        <v>664</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>655</v>
+        <v>702</v>
       </c>
       <c r="E101" s="5">
         <v>0</v>
@@ -22589,13 +22651,13 @@
     </row>
     <row r="102" spans="2:5">
       <c r="B102" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>643</v>
+        <v>660</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>698</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>638</v>
+        <v>702</v>
       </c>
       <c r="E102" s="5">
         <v>0</v>
@@ -22603,13 +22665,13 @@
     </row>
     <row r="103" spans="2:5">
       <c r="B103" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>643</v>
+        <v>660</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>699</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>1076</v>
+        <v>702</v>
       </c>
       <c r="E103" s="5">
         <v>0</v>
@@ -22617,13 +22679,13 @@
     </row>
     <row r="104" spans="2:5">
       <c r="B104" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>643</v>
+        <v>660</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>700</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>1077</v>
+        <v>702</v>
       </c>
       <c r="E104" s="5">
         <v>0</v>
@@ -22631,13 +22693,13 @@
     </row>
     <row r="105" spans="2:5">
       <c r="B105" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>639</v>
+        <v>626</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>627</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="E105" s="5">
         <v>0</v>
@@ -22645,13 +22707,13 @@
     </row>
     <row r="106" spans="2:5">
       <c r="B106" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>639</v>
+        <v>626</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>652</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="E106" s="5">
         <v>0</v>
@@ -22659,13 +22721,13 @@
     </row>
     <row r="107" spans="2:5">
       <c r="B107" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>998</v>
+        <v>626</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>652</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>999</v>
+        <v>654</v>
       </c>
       <c r="E107" s="5">
         <v>0</v>
@@ -22673,13 +22735,13 @@
     </row>
     <row r="108" spans="2:5">
       <c r="B108" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>648</v>
+        <v>626</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>653</v>
       </c>
       <c r="E108" s="5">
         <v>0</v>
@@ -22687,13 +22749,13 @@
     </row>
     <row r="109" spans="2:5">
       <c r="B109" s="7" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>1015</v>
+        <v>626</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>705</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>1016</v>
+        <v>653</v>
       </c>
       <c r="E109" s="5">
         <v>0</v>
@@ -22701,13 +22763,13 @@
     </row>
     <row r="110" spans="2:5">
       <c r="B110" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>679</v>
+        <v>635</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>636</v>
       </c>
       <c r="E110" s="5">
         <v>0</v>
@@ -22715,13 +22777,13 @@
     </row>
     <row r="111" spans="2:5">
       <c r="B111" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>679</v>
+        <v>635</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>1065</v>
       </c>
       <c r="E111" s="5">
         <v>0</v>
@@ -22729,13 +22791,13 @@
     </row>
     <row r="112" spans="2:5">
       <c r="B112" s="7" t="s">
-        <v>986</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>987</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>988</v>
+        <v>635</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>1066</v>
       </c>
       <c r="E112" s="5">
         <v>0</v>
@@ -22743,13 +22805,13 @@
     </row>
     <row r="113" spans="2:5">
       <c r="B113" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>693</v>
+        <v>635</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>638</v>
       </c>
       <c r="E113" s="5">
         <v>0</v>
@@ -22757,13 +22819,13 @@
     </row>
     <row r="114" spans="2:5">
       <c r="B114" s="7" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>1065</v>
+        <v>635</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>639</v>
       </c>
       <c r="E114" s="5">
         <v>0</v>
@@ -22771,13 +22833,13 @@
     </row>
     <row r="115" spans="2:5">
       <c r="B115" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>687</v>
+        <v>635</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>991</v>
       </c>
       <c r="E115" s="5">
         <v>0</v>
@@ -22785,13 +22847,13 @@
     </row>
     <row r="116" spans="2:5">
       <c r="B116" s="7" t="s">
-        <v>937</v>
+        <v>635</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>684</v>
+        <v>1005</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>685</v>
+        <v>646</v>
       </c>
       <c r="E116" s="5">
         <v>0</v>
@@ -22799,13 +22861,13 @@
     </row>
     <row r="117" spans="2:5">
       <c r="B117" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>680</v>
+        <v>1006</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>1008</v>
       </c>
       <c r="E117" s="5">
         <v>0</v>
@@ -22813,13 +22875,13 @@
     </row>
     <row r="118" spans="2:5">
       <c r="B118" s="7" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>1044</v>
+        <v>676</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>674</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>1046</v>
+        <v>677</v>
       </c>
       <c r="E118" s="5">
         <v>0</v>
@@ -22827,13 +22889,13 @@
     </row>
     <row r="119" spans="2:5">
       <c r="B119" s="7" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>688</v>
+        <v>673</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>675</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="E119" s="5">
         <v>0</v>
@@ -22841,13 +22903,13 @@
     </row>
     <row r="120" spans="2:5">
       <c r="B120" s="7" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>1044</v>
+        <v>980</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>981</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>680</v>
+        <v>982</v>
       </c>
       <c r="E120" s="5">
         <v>0</v>
@@ -22855,13 +22917,13 @@
     </row>
     <row r="121" spans="2:5">
       <c r="B121" s="7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E121" s="5">
         <v>0</v>
@@ -22869,13 +22931,13 @@
     </row>
     <row r="122" spans="2:5">
       <c r="B122" s="7" t="s">
-        <v>697</v>
+        <v>1054</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>696</v>
+        <v>1053</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>698</v>
+        <v>1055</v>
       </c>
       <c r="E122" s="5">
         <v>0</v>
@@ -22883,13 +22945,13 @@
     </row>
     <row r="123" spans="2:5">
       <c r="B123" s="7" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="E123" s="5">
         <v>0</v>
@@ -22897,13 +22959,13 @@
     </row>
     <row r="124" spans="2:5">
       <c r="B124" s="7" t="s">
-        <v>697</v>
+        <v>935</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>708</v>
+        <v>682</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>709</v>
+        <v>683</v>
       </c>
       <c r="E124" s="5">
         <v>0</v>
@@ -22911,13 +22973,13 @@
     </row>
     <row r="125" spans="2:5">
       <c r="B125" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>716</v>
+        <v>688</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>686</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>713</v>
+        <v>678</v>
       </c>
       <c r="E125" s="5">
         <v>0</v>
@@ -22925,13 +22987,13 @@
     </row>
     <row r="126" spans="2:5">
       <c r="B126" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>714</v>
+        <v>1037</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>1036</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>713</v>
+        <v>1038</v>
       </c>
       <c r="E126" s="5">
         <v>0</v>
@@ -22939,13 +23001,13 @@
     </row>
     <row r="127" spans="2:5">
       <c r="B127" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>715</v>
+        <v>1039</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>686</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>713</v>
+        <v>689</v>
       </c>
       <c r="E127" s="5">
         <v>0</v>
@@ -22953,13 +23015,13 @@
     </row>
     <row r="128" spans="2:5">
       <c r="B128" s="7" t="s">
-        <v>979</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>980</v>
+        <v>1039</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>1036</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>983</v>
+        <v>678</v>
       </c>
       <c r="E128" s="5">
         <v>0</v>
@@ -22967,13 +23029,13 @@
     </row>
     <row r="129" spans="2:5">
       <c r="B129" s="7" t="s">
-        <v>979</v>
+        <v>687</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>982</v>
+        <v>692</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>983</v>
+        <v>693</v>
       </c>
       <c r="E129" s="5">
         <v>0</v>
@@ -22981,13 +23043,13 @@
     </row>
     <row r="130" spans="2:5">
       <c r="B130" s="7" t="s">
-        <v>979</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>984</v>
+        <v>695</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>694</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>983</v>
+        <v>696</v>
       </c>
       <c r="E130" s="5">
         <v>0</v>
@@ -22995,20 +23057,132 @@
     </row>
     <row r="131" spans="2:5">
       <c r="B131" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="E131" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="E132" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="E133" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="E134" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="E135" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E136" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>977</v>
+      </c>
+      <c r="E137" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>977</v>
+      </c>
+      <c r="E138" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="C139" s="5" t="s">
         <v>979</v>
       </c>
-      <c r="C131" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>983</v>
-      </c>
-      <c r="E131" s="5">
+      <c r="D139" s="9" t="s">
+        <v>977</v>
+      </c>
+      <c r="E139" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:E131"/>
+  <autoFilter ref="B3:E139"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23080,7 +23254,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>36</v>
@@ -23089,10 +23263,10 @@
         <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>50</v>
@@ -23100,7 +23274,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="20" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
@@ -23120,10 +23294,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="20" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>28</v>
@@ -23150,7 +23324,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23293,7 +23467,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>34</v>
@@ -23305,7 +23479,7 @@
         <v>49</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>44</v>
@@ -23322,7 +23496,7 @@
     </row>
     <row r="4" spans="1:16" ht="27">
       <c r="B4" s="20" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
@@ -23349,14 +23523,14 @@
         <v>25</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="20" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="O4" s="7">
         <v>58108</v>
@@ -23526,7 +23700,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="24" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>53</v>
@@ -23543,53 +23717,53 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="25" t="s">
+        <v>962</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>966</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>967</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>968</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>969</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="26" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="26" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
   </sheetData>

--- a/wico/数据表结构.xlsx
+++ b/wico/数据表结构.xlsx
@@ -16,7 +16,7 @@
     <sheet name="客户正式投诉" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$144</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'零件清单（下载）'!$B$3:$K$152</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'座椅配置（下载）'!$B$3:$E$676</definedName>
   </definedNames>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3914" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1113">
   <si>
     <t>SLIDE ADJR OUT L,FR SEAT</t>
   </si>
@@ -2252,10 +2252,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>调节电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>上导轨螺丝脱落</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3590,214 +3586,282 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>电动支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动晃动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动震动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepairMethod</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降电机异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>变形</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动电机支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑动电机支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regular</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>([0-9]{2})([A-L])([0-3][0-9])([A-M]) ([0-9]{3})</t>
+  </si>
+  <si>
+    <t>涂油反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动震动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱、短绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱、长绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整/更换 短绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整/更换 长绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码脏污/破损，无法识别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撬支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降干涉异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动途中卡死，无法再前后作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动途中卡死，无法再前后作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法作动到最前/后端</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作动到最前端后无法返回</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲护架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上导轨螺丝滑牙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作动到最顶/底端时有死点音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降打啃&amp;异响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降打啃&amp;异响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降缓慢</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂油反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法作动到最前/后端</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节滑动电机支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱、短绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整/更换 短绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动震动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂油反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换调角器电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撬L形支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法作动到最前/后端</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动电机连接板破损</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动座椅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换H型滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>撬扇形齿</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>调节电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撬扇形齿，调节电机，反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>电动支架</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>升降打啃&amp;异响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣条异响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>电动滑轨</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>滑动晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PartType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepairMethod</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降电机异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>变形</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动电机支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换滑动电机支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Regular</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>([0-9]{2})([A-L])([0-3][0-9])([A-M]) ([0-9]{3})</t>
-  </si>
-  <si>
-    <t>涂油反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动震动</t>
+    <t>滑轨震动并且晃动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱、长绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整/更换 长绕性轴</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更换齿轮箱、短绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换齿轮箱、长绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整/更换 短绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整/更换 长绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>条码脏污/破损，无法识别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>撬支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降干涉异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动途中卡死，无法再前后作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动途中卡死，无法再前后作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法作动到最前/后端</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>作动到最前端后无法返回</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换滑块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>敲护架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>上导轨螺丝滑牙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>作动到最顶/底端时有死点音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降打啃&amp;异响</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降打啃&amp;异响</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降缓慢</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>涂油反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法作动到最前/后端</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调节滑动电机支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换齿轮箱、短绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整/更换 短绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换齿轮箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>涂油反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换调角器电机</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6624,7 +6688,7 @@
         <v>47</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>50</v>
@@ -6644,10 +6708,10 @@
         <v>341</v>
       </c>
       <c r="F4" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>717</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>718</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>64</v>
@@ -6675,10 +6739,10 @@
         <v>63</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>64</v>
@@ -6706,10 +6770,10 @@
         <v>67</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>64</v>
@@ -6737,10 +6801,10 @@
         <v>70</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>2</v>
@@ -6768,10 +6832,10 @@
         <v>309</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>64</v>
@@ -6799,7 +6863,7 @@
         <v>328</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>329</v>
@@ -6830,7 +6894,7 @@
         <v>328</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>329</v>
@@ -6861,7 +6925,7 @@
         <v>328</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>329</v>
@@ -6892,7 +6956,7 @@
         <v>328</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>329</v>
@@ -6923,10 +6987,10 @@
         <v>354</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>2</v>
@@ -6954,10 +7018,10 @@
         <v>102</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>64</v>
@@ -6985,10 +7049,10 @@
         <v>357</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>64</v>
@@ -7016,7 +7080,7 @@
         <v>416</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>417</v>
@@ -7047,10 +7111,10 @@
         <v>312</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>2</v>
@@ -7078,10 +7142,10 @@
         <v>315</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>2</v>
@@ -7109,7 +7173,7 @@
         <v>319</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>320</v>
@@ -7140,7 +7204,7 @@
         <v>319</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>320</v>
@@ -7171,7 +7235,7 @@
         <v>319</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>320</v>
@@ -7202,7 +7266,7 @@
         <v>319</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>320</v>
@@ -7233,7 +7297,7 @@
         <v>105</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>79</v>
@@ -7264,10 +7328,10 @@
         <v>108</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>64</v>
@@ -7295,10 +7359,10 @@
         <v>111</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>64</v>
@@ -7326,7 +7390,7 @@
         <v>172</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>115</v>
@@ -7338,7 +7402,7 @@
         <v>58109</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K26" s="7">
         <v>0</v>
@@ -7361,7 +7425,7 @@
         <v>172</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>115</v>
@@ -7373,7 +7437,7 @@
         <v>58109</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K27" s="7">
         <v>0</v>
@@ -7396,7 +7460,7 @@
         <v>114</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>115</v>
@@ -7406,7 +7470,7 @@
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K28" s="7">
         <v>0</v>
@@ -7429,7 +7493,7 @@
         <v>177</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>115</v>
@@ -7441,7 +7505,7 @@
         <v>58109</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K29" s="7">
         <v>0</v>
@@ -7464,7 +7528,7 @@
         <v>118</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>115</v>
@@ -7474,7 +7538,7 @@
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K30" s="7">
         <v>0</v>
@@ -7497,7 +7561,7 @@
         <v>261</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>262</v>
@@ -7528,7 +7592,7 @@
         <v>265</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>262</v>
@@ -7559,7 +7623,7 @@
         <v>268</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>269</v>
@@ -7590,7 +7654,7 @@
         <v>261</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>262</v>
@@ -7621,7 +7685,7 @@
         <v>268</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>269</v>
@@ -7652,7 +7716,7 @@
         <v>261</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>262</v>
@@ -7662,7 +7726,7 @@
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K36" s="7">
         <v>0</v>
@@ -7685,7 +7749,7 @@
         <v>265</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>262</v>
@@ -7695,7 +7759,7 @@
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="19" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K37" s="7">
         <v>0</v>
@@ -7712,13 +7776,13 @@
         <v>278</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>279</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>262</v>
@@ -7728,7 +7792,7 @@
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K38" s="7">
         <v>0</v>
@@ -7745,13 +7809,13 @@
         <v>280</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>281</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>262</v>
@@ -7761,7 +7825,7 @@
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="19" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K39" s="7">
         <v>0</v>
@@ -7784,7 +7848,7 @@
         <v>295</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>296</v>
@@ -7815,7 +7879,7 @@
         <v>299</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>296</v>
@@ -7846,7 +7910,7 @@
         <v>401</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>296</v>
@@ -7877,7 +7941,7 @@
         <v>401</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>296</v>
@@ -7908,7 +7972,7 @@
         <v>406</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>296</v>
@@ -7939,7 +8003,7 @@
         <v>406</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>296</v>
@@ -7970,7 +8034,7 @@
         <v>142</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>79</v>
@@ -7982,7 +8046,7 @@
         <v>58104</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K46" s="7">
         <v>0</v>
@@ -8005,7 +8069,7 @@
         <v>145</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>79</v>
@@ -8017,7 +8081,7 @@
         <v>58104</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K47" s="7">
         <v>0</v>
@@ -8040,7 +8104,7 @@
         <v>148</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>79</v>
@@ -8052,7 +8116,7 @@
         <v>58104</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K48" s="7">
         <v>0</v>
@@ -8075,7 +8139,7 @@
         <v>151</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>79</v>
@@ -8087,7 +8151,7 @@
         <v>58104</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K49" s="7">
         <v>0</v>
@@ -8110,7 +8174,7 @@
         <v>142</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>79</v>
@@ -8122,7 +8186,7 @@
         <v>58112</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K50" s="7">
         <v>0</v>
@@ -8145,7 +8209,7 @@
         <v>142</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>79</v>
@@ -8154,10 +8218,10 @@
         <v>2</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K51" s="7">
         <v>0</v>
@@ -8180,7 +8244,7 @@
         <v>145</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>79</v>
@@ -8192,7 +8256,7 @@
         <v>58112</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K52" s="7">
         <v>0</v>
@@ -8215,7 +8279,7 @@
         <v>145</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>79</v>
@@ -8224,10 +8288,10 @@
         <v>2</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K53" s="7">
         <v>0</v>
@@ -8250,7 +8314,7 @@
         <v>148</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>79</v>
@@ -8262,7 +8326,7 @@
         <v>58112</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K54" s="7">
         <v>0</v>
@@ -8285,7 +8349,7 @@
         <v>148</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>79</v>
@@ -8294,10 +8358,10 @@
         <v>2</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K55" s="7">
         <v>0</v>
@@ -8320,7 +8384,7 @@
         <v>151</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>79</v>
@@ -8332,7 +8396,7 @@
         <v>58112</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K56" s="7">
         <v>0</v>
@@ -8355,7 +8419,7 @@
         <v>151</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>79</v>
@@ -8364,10 +8428,10 @@
         <v>2</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K57" s="7">
         <v>0</v>
@@ -8387,10 +8451,10 @@
         <v>160</v>
       </c>
       <c r="E58" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F58" s="19" t="s">
         <v>777</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>778</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>79</v>
@@ -8402,7 +8466,7 @@
         <v>52111</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K58" s="7">
         <v>0</v>
@@ -8425,7 +8489,7 @@
         <v>163</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>79</v>
@@ -8437,7 +8501,7 @@
         <v>52111</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K59" s="7">
         <v>0</v>
@@ -8460,7 +8524,7 @@
         <v>78</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>79</v>
@@ -8470,7 +8534,7 @@
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K60" s="7">
         <v>0</v>
@@ -8493,7 +8557,7 @@
         <v>82</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>79</v>
@@ -8503,7 +8567,7 @@
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K61" s="7">
         <v>0</v>
@@ -8526,7 +8590,7 @@
         <v>85</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>79</v>
@@ -8536,7 +8600,7 @@
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K62" s="7">
         <v>0</v>
@@ -8559,7 +8623,7 @@
         <v>88</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>79</v>
@@ -8569,7 +8633,7 @@
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K63" s="7">
         <v>0</v>
@@ -8592,7 +8656,7 @@
         <v>166</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>79</v>
@@ -8604,7 +8668,7 @@
         <v>58111</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K64" s="7">
         <v>0</v>
@@ -8627,7 +8691,7 @@
         <v>169</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>79</v>
@@ -8639,7 +8703,7 @@
         <v>58111</v>
       </c>
       <c r="J65" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K65" s="7">
         <v>0</v>
@@ -8662,7 +8726,7 @@
         <v>91</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>79</v>
@@ -8672,7 +8736,7 @@
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K66" s="7">
         <v>0</v>
@@ -8695,7 +8759,7 @@
         <v>94</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>79</v>
@@ -8705,7 +8769,7 @@
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K67" s="7">
         <v>0</v>
@@ -8728,7 +8792,7 @@
         <v>97</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>79</v>
@@ -8738,7 +8802,7 @@
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K68" s="7">
         <v>0</v>
@@ -8755,13 +8819,13 @@
         <v>98</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>99</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>79</v>
@@ -8771,7 +8835,7 @@
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K69" s="7">
         <v>0</v>
@@ -8794,7 +8858,7 @@
         <v>420</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>417</v>
@@ -8825,7 +8889,7 @@
         <v>420</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>417</v>
@@ -8856,7 +8920,7 @@
         <v>376</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>377</v>
@@ -8887,7 +8951,7 @@
         <v>255</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>256</v>
@@ -8899,7 +8963,7 @@
         <v>58105</v>
       </c>
       <c r="J73" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K73" s="7">
         <v>0</v>
@@ -8922,10 +8986,10 @@
         <v>372</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>64</v>
@@ -8953,7 +9017,7 @@
         <v>284</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>262</v>
@@ -8984,7 +9048,7 @@
         <v>284</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>262</v>
@@ -9015,7 +9079,7 @@
         <v>425</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>417</v>
@@ -9046,7 +9110,7 @@
         <v>380</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>381</v>
@@ -9077,7 +9141,7 @@
         <v>380</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>381</v>
@@ -9108,7 +9172,7 @@
         <v>416</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>417</v>
@@ -9139,7 +9203,7 @@
         <v>333</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>256</v>
@@ -9170,7 +9234,7 @@
         <v>333</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>256</v>
@@ -9201,7 +9265,7 @@
         <v>135</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>136</v>
@@ -9211,7 +9275,7 @@
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K83" s="7">
         <v>0</v>
@@ -9234,7 +9298,7 @@
         <v>135</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>136</v>
@@ -9244,7 +9308,7 @@
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K84" s="7">
         <v>0</v>
@@ -9267,7 +9331,7 @@
         <v>290</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>291</v>
@@ -9298,7 +9362,7 @@
         <v>412</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>291</v>
@@ -9329,10 +9393,10 @@
         <v>125</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>2</v>
@@ -9360,7 +9424,7 @@
         <v>128</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>129</v>
@@ -9391,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>1</v>
@@ -9403,7 +9467,7 @@
         <v>58108</v>
       </c>
       <c r="J89" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="K89" s="7">
         <v>0</v>
@@ -9426,7 +9490,7 @@
         <v>7</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>1</v>
@@ -9438,7 +9502,7 @@
         <v>58108</v>
       </c>
       <c r="J90" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K90" s="7">
         <v>0</v>
@@ -9461,7 +9525,7 @@
         <v>10</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>1</v>
@@ -9473,7 +9537,7 @@
         <v>58108</v>
       </c>
       <c r="J91" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K91" s="7">
         <v>0</v>
@@ -9496,7 +9560,7 @@
         <v>13</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>1</v>
@@ -9508,7 +9572,7 @@
         <v>58108</v>
       </c>
       <c r="J92" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K92" s="7">
         <v>0</v>
@@ -9531,7 +9595,7 @@
         <v>3</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>1</v>
@@ -9543,7 +9607,7 @@
         <v>58108</v>
       </c>
       <c r="J93" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="K93" s="7">
         <v>0</v>
@@ -9566,7 +9630,7 @@
         <v>18</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>1</v>
@@ -9578,7 +9642,7 @@
         <v>58108</v>
       </c>
       <c r="J94" s="19" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K94" s="7">
         <v>0</v>
@@ -9601,7 +9665,7 @@
         <v>21</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>1</v>
@@ -9613,7 +9677,7 @@
         <v>58108</v>
       </c>
       <c r="J95" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K95" s="7">
         <v>0</v>
@@ -9636,7 +9700,7 @@
         <v>24</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>1</v>
@@ -9648,7 +9712,7 @@
         <v>58108</v>
       </c>
       <c r="J96" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K96" s="7">
         <v>0</v>
@@ -9671,7 +9735,7 @@
         <v>362</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>363</v>
@@ -9702,7 +9766,7 @@
         <v>333</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>256</v>
@@ -9733,7 +9797,7 @@
         <v>333</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>256</v>
@@ -9764,7 +9828,7 @@
         <v>128</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>129</v>
@@ -9795,7 +9859,7 @@
         <v>135</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>136</v>
@@ -9805,7 +9869,7 @@
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K101" s="7">
         <v>0</v>
@@ -9822,13 +9886,13 @@
         <v>137</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>138</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>136</v>
@@ -9838,7 +9902,7 @@
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="19" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K102" s="7">
         <v>0</v>
@@ -9861,7 +9925,7 @@
         <v>128</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>129</v>
@@ -9892,7 +9956,7 @@
         <v>73</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>74</v>
@@ -9923,7 +9987,7 @@
         <v>121</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>122</v>
@@ -9933,7 +9997,7 @@
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K105" s="7">
         <v>0</v>
@@ -9956,7 +10020,7 @@
         <v>121</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>122</v>
@@ -9966,7 +10030,7 @@
       </c>
       <c r="I106" s="7"/>
       <c r="J106" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K106" s="7">
         <v>0</v>
@@ -9989,7 +10053,7 @@
         <v>180</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>181</v>
@@ -10001,7 +10065,7 @@
         <v>58103</v>
       </c>
       <c r="J107" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K107" s="7">
         <v>0</v>
@@ -10024,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="19" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>181</v>
@@ -10036,7 +10100,7 @@
         <v>58103</v>
       </c>
       <c r="J108" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K108" s="7">
         <v>0</v>
@@ -10059,7 +10123,7 @@
         <v>186</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>181</v>
@@ -10071,7 +10135,7 @@
         <v>58103</v>
       </c>
       <c r="J109" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K109" s="7">
         <v>0</v>
@@ -10094,7 +10158,7 @@
         <v>3</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>181</v>
@@ -10106,7 +10170,7 @@
         <v>58103</v>
       </c>
       <c r="J110" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K110" s="7">
         <v>0</v>
@@ -10129,7 +10193,7 @@
         <v>180</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>181</v>
@@ -10138,10 +10202,10 @@
         <v>2</v>
       </c>
       <c r="I111" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="J111" s="19" t="s">
         <v>845</v>
-      </c>
-      <c r="J111" s="19" t="s">
-        <v>846</v>
       </c>
       <c r="K111" s="7">
         <v>0</v>
@@ -10164,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>181</v>
@@ -10173,10 +10237,10 @@
         <v>2</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J112" s="19" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K112" s="7">
         <v>0</v>
@@ -10199,7 +10263,7 @@
         <v>195</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>181</v>
@@ -10208,10 +10272,10 @@
         <v>2</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J113" s="19" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K113" s="7">
         <v>0</v>
@@ -10234,7 +10298,7 @@
         <v>3</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>181</v>
@@ -10243,10 +10307,10 @@
         <v>2</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J114" s="19" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K114" s="7">
         <v>0</v>
@@ -10269,7 +10333,7 @@
         <v>186</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>181</v>
@@ -10278,10 +10342,10 @@
         <v>2</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J115" s="19" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K115" s="7">
         <v>0</v>
@@ -10304,7 +10368,7 @@
         <v>202</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>181</v>
@@ -10313,10 +10377,10 @@
         <v>2</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J116" s="19" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K116" s="7">
         <v>0</v>
@@ -10339,7 +10403,7 @@
         <v>205</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>181</v>
@@ -10351,7 +10415,7 @@
         <v>58103</v>
       </c>
       <c r="J117" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K117" s="7">
         <v>0</v>
@@ -10374,7 +10438,7 @@
         <v>208</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>181</v>
@@ -10386,7 +10450,7 @@
         <v>58103</v>
       </c>
       <c r="J118" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K118" s="7">
         <v>0</v>
@@ -10409,7 +10473,7 @@
         <v>211</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>181</v>
@@ -10421,7 +10485,7 @@
         <v>58103</v>
       </c>
       <c r="J119" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K119" s="7">
         <v>0</v>
@@ -10444,7 +10508,7 @@
         <v>214</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>181</v>
@@ -10456,7 +10520,7 @@
         <v>58103</v>
       </c>
       <c r="J120" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K120" s="7">
         <v>0</v>
@@ -10479,7 +10543,7 @@
         <v>217</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>181</v>
@@ -10491,7 +10555,7 @@
         <v>58103</v>
       </c>
       <c r="J121" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K121" s="7">
         <v>0</v>
@@ -10514,7 +10578,7 @@
         <v>220</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>181</v>
@@ -10526,7 +10590,7 @@
         <v>58103</v>
       </c>
       <c r="J122" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K122" s="7">
         <v>0</v>
@@ -10543,13 +10607,13 @@
         <v>385</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>386</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>115</v>
@@ -10559,7 +10623,7 @@
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="19" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="K123" s="7">
         <v>0</v>
@@ -10576,13 +10640,13 @@
         <v>221</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>222</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G124" s="7" t="s">
         <v>115</v>
@@ -10594,7 +10658,7 @@
         <v>58109</v>
       </c>
       <c r="J124" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K124" s="7">
         <v>0</v>
@@ -10611,13 +10675,13 @@
         <v>387</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>386</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>115</v>
@@ -10627,7 +10691,7 @@
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="19" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="K125" s="7">
         <v>0</v>
@@ -10644,13 +10708,13 @@
         <v>223</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>222</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>115</v>
@@ -10662,7 +10726,7 @@
         <v>58109</v>
       </c>
       <c r="J126" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K126" s="7">
         <v>0</v>
@@ -10679,13 +10743,13 @@
         <v>388</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>389</v>
       </c>
       <c r="F127" s="19" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G127" s="7" t="s">
         <v>115</v>
@@ -10695,7 +10759,7 @@
       </c>
       <c r="I127" s="7"/>
       <c r="J127" s="19" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="K127" s="7">
         <v>0</v>
@@ -10712,13 +10776,13 @@
         <v>224</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E128" s="7" t="s">
         <v>225</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G128" s="7" t="s">
         <v>115</v>
@@ -10730,7 +10794,7 @@
         <v>58109</v>
       </c>
       <c r="J128" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K128" s="7">
         <v>0</v>
@@ -10747,13 +10811,13 @@
         <v>390</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>389</v>
       </c>
       <c r="F129" s="19" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>115</v>
@@ -10763,7 +10827,7 @@
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="19" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K129" s="7">
         <v>0</v>
@@ -10780,13 +10844,13 @@
         <v>226</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>225</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G130" s="7" t="s">
         <v>115</v>
@@ -10798,7 +10862,7 @@
         <v>58109</v>
       </c>
       <c r="J130" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K130" s="7">
         <v>0</v>
@@ -10821,7 +10885,7 @@
         <v>229</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G131" s="7" t="s">
         <v>181</v>
@@ -10833,7 +10897,7 @@
         <v>58116</v>
       </c>
       <c r="J131" s="19" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K131" s="7">
         <v>0</v>
@@ -10856,7 +10920,7 @@
         <v>232</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G132" s="7" t="s">
         <v>181</v>
@@ -10868,7 +10932,7 @@
         <v>58116</v>
       </c>
       <c r="J132" s="19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K132" s="7">
         <v>0</v>
@@ -10891,7 +10955,7 @@
         <v>235</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G133" s="7" t="s">
         <v>181</v>
@@ -10903,7 +10967,7 @@
         <v>58117</v>
       </c>
       <c r="J133" s="19" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K133" s="7">
         <v>0</v>
@@ -10926,7 +10990,7 @@
         <v>238</v>
       </c>
       <c r="F134" s="19" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G134" s="7" t="s">
         <v>181</v>
@@ -10938,7 +11002,7 @@
         <v>58117</v>
       </c>
       <c r="J134" s="19" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K134" s="7">
         <v>0</v>
@@ -10955,13 +11019,13 @@
         <v>239</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>205</v>
       </c>
       <c r="F135" s="19" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G135" s="7" t="s">
         <v>181</v>
@@ -10973,7 +11037,7 @@
         <v>58119</v>
       </c>
       <c r="J135" s="19" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="K135" s="7">
         <v>0</v>
@@ -10990,13 +11054,13 @@
         <v>240</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>208</v>
       </c>
       <c r="F136" s="19" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G136" s="7" t="s">
         <v>181</v>
@@ -11008,7 +11072,7 @@
         <v>58119</v>
       </c>
       <c r="J136" s="19" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="K136" s="7">
         <v>0</v>
@@ -11025,13 +11089,13 @@
         <v>241</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>208</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>181</v>
@@ -11043,7 +11107,7 @@
         <v>58119</v>
       </c>
       <c r="J137" s="19" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K137" s="7">
         <v>0</v>
@@ -11060,13 +11124,13 @@
         <v>242</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E138" s="7" t="s">
         <v>214</v>
       </c>
       <c r="F138" s="19" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>181</v>
@@ -11078,7 +11142,7 @@
         <v>58120</v>
       </c>
       <c r="J138" s="19" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="K138" s="7">
         <v>0</v>
@@ -11095,13 +11159,13 @@
         <v>243</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E139" s="7" t="s">
         <v>220</v>
       </c>
       <c r="F139" s="19" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G139" s="7" t="s">
         <v>181</v>
@@ -11113,7 +11177,7 @@
         <v>58120</v>
       </c>
       <c r="J139" s="19" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K139" s="7">
         <v>0</v>
@@ -11130,13 +11194,13 @@
         <v>244</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>220</v>
       </c>
       <c r="F140" s="19" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G140" s="7" t="s">
         <v>181</v>
@@ -11148,7 +11212,7 @@
         <v>58120</v>
       </c>
       <c r="J140" s="19" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="K140" s="7">
         <v>0</v>
@@ -11165,13 +11229,13 @@
         <v>245</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E141" s="7" t="s">
         <v>229</v>
       </c>
       <c r="F141" s="19" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G141" s="7" t="s">
         <v>181</v>
@@ -11183,7 +11247,7 @@
         <v>58116</v>
       </c>
       <c r="J141" s="19" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="K141" s="7">
         <v>0</v>
@@ -11200,13 +11264,13 @@
         <v>246</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E142" s="7" t="s">
         <v>232</v>
       </c>
       <c r="F142" s="19" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G142" s="7" t="s">
         <v>181</v>
@@ -11218,7 +11282,7 @@
         <v>58116</v>
       </c>
       <c r="J142" s="19" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="K142" s="7">
         <v>0</v>
@@ -11235,13 +11299,13 @@
         <v>247</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E143" s="7" t="s">
         <v>235</v>
       </c>
       <c r="F143" s="19" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>181</v>
@@ -11253,7 +11317,7 @@
         <v>58117</v>
       </c>
       <c r="J143" s="19" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="K143" s="7">
         <v>0</v>
@@ -11270,13 +11334,13 @@
         <v>248</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E144" s="7" t="s">
         <v>238</v>
       </c>
       <c r="F144" s="19" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>181</v>
@@ -11288,7 +11352,7 @@
         <v>58117</v>
       </c>
       <c r="J144" s="19" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="K144" s="7">
         <v>0</v>
@@ -11305,13 +11369,13 @@
         <v>391</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F145" s="19" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G145" s="7" t="s">
         <v>1</v>
@@ -11321,7 +11385,7 @@
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="19" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="K145" s="7">
         <v>0</v>
@@ -11338,13 +11402,13 @@
         <v>249</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E146" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F146" s="19" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>1</v>
@@ -11356,7 +11420,7 @@
         <v>58118</v>
       </c>
       <c r="J146" s="19" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="K146" s="7">
         <v>0</v>
@@ -11373,13 +11437,13 @@
         <v>250</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E147" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F147" s="19" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G147" s="7" t="s">
         <v>1</v>
@@ -11391,7 +11455,7 @@
         <v>58118</v>
       </c>
       <c r="J147" s="19" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="K147" s="7">
         <v>0</v>
@@ -11408,13 +11472,13 @@
         <v>392</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E148" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F148" s="19" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G148" s="7" t="s">
         <v>1</v>
@@ -11424,7 +11488,7 @@
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="19" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K148" s="7">
         <v>0</v>
@@ -11441,13 +11505,13 @@
         <v>393</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E149" s="7" t="s">
         <v>186</v>
       </c>
       <c r="F149" s="19" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G149" s="7" t="s">
         <v>1</v>
@@ -11457,7 +11521,7 @@
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="19" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K149" s="7">
         <v>0</v>
@@ -11474,13 +11538,13 @@
         <v>251</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E150" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F150" s="19" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G150" s="7" t="s">
         <v>1</v>
@@ -11492,7 +11556,7 @@
         <v>58118</v>
       </c>
       <c r="J150" s="19" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K150" s="7">
         <v>0</v>
@@ -11509,13 +11573,13 @@
         <v>252</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>186</v>
       </c>
       <c r="F151" s="19" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G151" s="7" t="s">
         <v>1</v>
@@ -11527,7 +11591,7 @@
         <v>58118</v>
       </c>
       <c r="J151" s="19" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="K151" s="7">
         <v>0</v>
@@ -11544,13 +11608,13 @@
         <v>394</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F152" s="19" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G152" s="7" t="s">
         <v>1</v>
@@ -11560,7 +11624,7 @@
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="K152" s="7">
         <v>0</v>
@@ -11574,22 +11638,22 @@
         <v>139</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F153" s="31" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="I153" s="7">
         <v>58112</v>
@@ -11604,22 +11668,22 @@
         <v>139</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F154" s="31" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="G154" s="7" t="s">
         <v>79</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="I154" s="7">
         <v>58112</v>
@@ -11700,7 +11764,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>50</v>
@@ -12380,7 +12444,7 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>454</v>
@@ -12394,7 +12458,7 @@
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>456</v>
@@ -12408,7 +12472,7 @@
     </row>
     <row r="54" spans="2:5">
       <c r="B54" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>456</v>
@@ -12422,7 +12486,7 @@
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>456</v>
@@ -12436,7 +12500,7 @@
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>456</v>
@@ -12450,7 +12514,7 @@
     </row>
     <row r="57" spans="2:5">
       <c r="B57" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C57" s="17" t="s">
         <v>456</v>
@@ -12464,7 +12528,7 @@
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>456</v>
@@ -12478,7 +12542,7 @@
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>456</v>
@@ -12492,7 +12556,7 @@
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C60" s="17" t="s">
         <v>457</v>
@@ -12506,7 +12570,7 @@
     </row>
     <row r="61" spans="2:5">
       <c r="B61" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>457</v>
@@ -12520,7 +12584,7 @@
     </row>
     <row r="62" spans="2:5">
       <c r="B62" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C62" s="17" t="s">
         <v>457</v>
@@ -12534,7 +12598,7 @@
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>457</v>
@@ -12548,7 +12612,7 @@
     </row>
     <row r="64" spans="2:5">
       <c r="B64" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>457</v>
@@ -12562,7 +12626,7 @@
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C65" s="17" t="s">
         <v>457</v>
@@ -12576,7 +12640,7 @@
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>457</v>
@@ -12590,7 +12654,7 @@
     </row>
     <row r="67" spans="2:5">
       <c r="B67" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C67" s="17" t="s">
         <v>457</v>
@@ -12604,7 +12668,7 @@
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C68" s="17" t="s">
         <v>610</v>
@@ -12618,7 +12682,7 @@
     </row>
     <row r="69" spans="2:5">
       <c r="B69" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>610</v>
@@ -12632,7 +12696,7 @@
     </row>
     <row r="70" spans="2:5">
       <c r="B70" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>610</v>
@@ -12646,7 +12710,7 @@
     </row>
     <row r="71" spans="2:5">
       <c r="B71" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>610</v>
@@ -12660,7 +12724,7 @@
     </row>
     <row r="72" spans="2:5">
       <c r="B72" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C72" s="17" t="s">
         <v>610</v>
@@ -12674,7 +12738,7 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C73" s="17" t="s">
         <v>610</v>
@@ -12688,7 +12752,7 @@
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>610</v>
@@ -12702,7 +12766,7 @@
     </row>
     <row r="75" spans="2:5">
       <c r="B75" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>610</v>
@@ -12716,7 +12780,7 @@
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C76" s="17" t="s">
         <v>610</v>
@@ -12730,7 +12794,7 @@
     </row>
     <row r="77" spans="2:5">
       <c r="B77" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C77" s="17" t="s">
         <v>610</v>
@@ -12744,7 +12808,7 @@
     </row>
     <row r="78" spans="2:5">
       <c r="B78" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C78" s="17" t="s">
         <v>611</v>
@@ -12758,7 +12822,7 @@
     </row>
     <row r="79" spans="2:5">
       <c r="B79" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C79" s="17" t="s">
         <v>611</v>
@@ -12772,7 +12836,7 @@
     </row>
     <row r="80" spans="2:5">
       <c r="B80" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>611</v>
@@ -12786,7 +12850,7 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C81" s="17" t="s">
         <v>611</v>
@@ -12800,7 +12864,7 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C82" s="17" t="s">
         <v>611</v>
@@ -12814,7 +12878,7 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C83" s="17" t="s">
         <v>611</v>
@@ -12828,7 +12892,7 @@
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C84" s="17" t="s">
         <v>611</v>
@@ -12842,7 +12906,7 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C85" s="17" t="s">
         <v>611</v>
@@ -12856,7 +12920,7 @@
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C86" s="17" t="s">
         <v>611</v>
@@ -12870,7 +12934,7 @@
     </row>
     <row r="87" spans="2:5">
       <c r="B87" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C87" s="17" t="s">
         <v>611</v>
@@ -12884,7 +12948,7 @@
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>612</v>
@@ -12898,7 +12962,7 @@
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C89" s="17" t="s">
         <v>612</v>
@@ -12912,7 +12976,7 @@
     </row>
     <row r="90" spans="2:5">
       <c r="B90" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C90" s="17" t="s">
         <v>612</v>
@@ -12926,7 +12990,7 @@
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C91" s="17" t="s">
         <v>612</v>
@@ -12940,7 +13004,7 @@
     </row>
     <row r="92" spans="2:5">
       <c r="B92" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C92" s="17" t="s">
         <v>612</v>
@@ -12954,7 +13018,7 @@
     </row>
     <row r="93" spans="2:5">
       <c r="B93" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C93" s="17" t="s">
         <v>612</v>
@@ -12968,7 +13032,7 @@
     </row>
     <row r="94" spans="2:5">
       <c r="B94" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C94" s="17" t="s">
         <v>458</v>
@@ -12982,7 +13046,7 @@
     </row>
     <row r="95" spans="2:5">
       <c r="B95" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C95" s="17" t="s">
         <v>458</v>
@@ -12996,7 +13060,7 @@
     </row>
     <row r="96" spans="2:5">
       <c r="B96" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C96" s="17" t="s">
         <v>458</v>
@@ -13010,7 +13074,7 @@
     </row>
     <row r="97" spans="2:5">
       <c r="B97" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C97" s="17" t="s">
         <v>458</v>
@@ -13024,7 +13088,7 @@
     </row>
     <row r="98" spans="2:5">
       <c r="B98" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C98" s="17" t="s">
         <v>458</v>
@@ -13038,7 +13102,7 @@
     </row>
     <row r="99" spans="2:5">
       <c r="B99" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C99" s="17" t="s">
         <v>458</v>
@@ -13570,7 +13634,7 @@
     </row>
     <row r="137" spans="2:5">
       <c r="B137" s="16" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C137" s="17" t="s">
         <v>612</v>
@@ -14410,7 +14474,7 @@
     </row>
     <row r="197" spans="2:5">
       <c r="B197" s="16" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C197" s="17" t="s">
         <v>612</v>
@@ -14424,7 +14488,7 @@
     </row>
     <row r="198" spans="2:5">
       <c r="B198" s="16" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C198" s="17" t="s">
         <v>612</v>
@@ -14438,7 +14502,7 @@
     </row>
     <row r="199" spans="2:5">
       <c r="B199" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C199" s="17" t="s">
         <v>612</v>
@@ -14452,7 +14516,7 @@
     </row>
     <row r="200" spans="2:5">
       <c r="B200" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C200" s="17" t="s">
         <v>612</v>
@@ -14466,7 +14530,7 @@
     </row>
     <row r="201" spans="2:5">
       <c r="B201" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C201" s="17" t="s">
         <v>612</v>
@@ -14480,7 +14544,7 @@
     </row>
     <row r="202" spans="2:5">
       <c r="B202" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C202" s="17" t="s">
         <v>612</v>
@@ -14494,7 +14558,7 @@
     </row>
     <row r="203" spans="2:5">
       <c r="B203" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C203" s="17" t="s">
         <v>612</v>
@@ -14508,7 +14572,7 @@
     </row>
     <row r="204" spans="2:5">
       <c r="B204" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C204" s="17" t="s">
         <v>612</v>
@@ -14522,7 +14586,7 @@
     </row>
     <row r="205" spans="2:5">
       <c r="B205" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C205" s="17" t="s">
         <v>612</v>
@@ -14536,7 +14600,7 @@
     </row>
     <row r="206" spans="2:5">
       <c r="B206" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C206" s="17" t="s">
         <v>612</v>
@@ -14550,7 +14614,7 @@
     </row>
     <row r="207" spans="2:5">
       <c r="B207" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C207" s="17" t="s">
         <v>612</v>
@@ -14564,7 +14628,7 @@
     </row>
     <row r="208" spans="2:5">
       <c r="B208" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C208" s="17" t="s">
         <v>613</v>
@@ -14578,7 +14642,7 @@
     </row>
     <row r="209" spans="2:5">
       <c r="B209" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C209" s="17" t="s">
         <v>613</v>
@@ -14592,7 +14656,7 @@
     </row>
     <row r="210" spans="2:5">
       <c r="B210" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C210" s="17" t="s">
         <v>613</v>
@@ -14606,7 +14670,7 @@
     </row>
     <row r="211" spans="2:5">
       <c r="B211" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C211" s="17" t="s">
         <v>613</v>
@@ -14620,7 +14684,7 @@
     </row>
     <row r="212" spans="2:5">
       <c r="B212" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C212" s="17" t="s">
         <v>613</v>
@@ -14634,7 +14698,7 @@
     </row>
     <row r="213" spans="2:5">
       <c r="B213" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C213" s="17" t="s">
         <v>458</v>
@@ -14648,7 +14712,7 @@
     </row>
     <row r="214" spans="2:5">
       <c r="B214" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C214" s="17" t="s">
         <v>458</v>
@@ -14662,7 +14726,7 @@
     </row>
     <row r="215" spans="2:5">
       <c r="B215" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C215" s="17" t="s">
         <v>458</v>
@@ -14676,7 +14740,7 @@
     </row>
     <row r="216" spans="2:5">
       <c r="B216" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C216" s="17" t="s">
         <v>458</v>
@@ -14690,7 +14754,7 @@
     </row>
     <row r="217" spans="2:5">
       <c r="B217" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C217" s="17" t="s">
         <v>458</v>
@@ -14704,7 +14768,7 @@
     </row>
     <row r="218" spans="2:5">
       <c r="B218" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C218" s="17" t="s">
         <v>458</v>
@@ -14718,7 +14782,7 @@
     </row>
     <row r="219" spans="2:5">
       <c r="B219" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C219" s="17" t="s">
         <v>458</v>
@@ -14732,7 +14796,7 @@
     </row>
     <row r="220" spans="2:5">
       <c r="B220" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C220" s="17" t="s">
         <v>458</v>
@@ -14746,7 +14810,7 @@
     </row>
     <row r="221" spans="2:5">
       <c r="B221" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C221" s="17" t="s">
         <v>458</v>
@@ -14760,7 +14824,7 @@
     </row>
     <row r="222" spans="2:5">
       <c r="B222" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C222" s="17" t="s">
         <v>458</v>
@@ -14774,7 +14838,7 @@
     </row>
     <row r="223" spans="2:5">
       <c r="B223" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C223" s="17" t="s">
         <v>458</v>
@@ -14788,7 +14852,7 @@
     </row>
     <row r="224" spans="2:5">
       <c r="B224" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C224" s="17" t="s">
         <v>458</v>
@@ -14802,7 +14866,7 @@
     </row>
     <row r="225" spans="2:5">
       <c r="B225" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C225" s="17" t="s">
         <v>458</v>
@@ -14816,7 +14880,7 @@
     </row>
     <row r="226" spans="2:5">
       <c r="B226" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C226" s="17" t="s">
         <v>458</v>
@@ -14830,7 +14894,7 @@
     </row>
     <row r="227" spans="2:5">
       <c r="B227" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C227" s="17" t="s">
         <v>458</v>
@@ -14844,7 +14908,7 @@
     </row>
     <row r="228" spans="2:5">
       <c r="B228" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C228" s="17" t="s">
         <v>458</v>
@@ -14858,7 +14922,7 @@
     </row>
     <row r="229" spans="2:5">
       <c r="B229" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C229" s="17" t="s">
         <v>459</v>
@@ -14872,7 +14936,7 @@
     </row>
     <row r="230" spans="2:5">
       <c r="B230" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C230" s="17" t="s">
         <v>459</v>
@@ -14886,7 +14950,7 @@
     </row>
     <row r="231" spans="2:5">
       <c r="B231" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C231" s="17" t="s">
         <v>459</v>
@@ -14900,7 +14964,7 @@
     </row>
     <row r="232" spans="2:5">
       <c r="B232" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C232" s="17" t="s">
         <v>459</v>
@@ -14914,7 +14978,7 @@
     </row>
     <row r="233" spans="2:5">
       <c r="B233" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C233" s="17" t="s">
         <v>459</v>
@@ -14928,7 +14992,7 @@
     </row>
     <row r="234" spans="2:5">
       <c r="B234" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C234" s="17" t="s">
         <v>459</v>
@@ -14942,7 +15006,7 @@
     </row>
     <row r="235" spans="2:5">
       <c r="B235" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C235" s="17" t="s">
         <v>459</v>
@@ -14956,7 +15020,7 @@
     </row>
     <row r="236" spans="2:5">
       <c r="B236" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C236" s="17" t="s">
         <v>459</v>
@@ -14970,7 +15034,7 @@
     </row>
     <row r="237" spans="2:5">
       <c r="B237" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C237" s="17" t="s">
         <v>459</v>
@@ -14984,7 +15048,7 @@
     </row>
     <row r="238" spans="2:5">
       <c r="B238" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C238" s="17" t="s">
         <v>459</v>
@@ -14998,7 +15062,7 @@
     </row>
     <row r="239" spans="2:5">
       <c r="B239" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C239" s="17" t="s">
         <v>459</v>
@@ -15012,7 +15076,7 @@
     </row>
     <row r="240" spans="2:5">
       <c r="B240" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C240" s="17" t="s">
         <v>459</v>
@@ -15026,7 +15090,7 @@
     </row>
     <row r="241" spans="2:5">
       <c r="B241" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C241" s="17" t="s">
         <v>459</v>
@@ -15040,7 +15104,7 @@
     </row>
     <row r="242" spans="2:5">
       <c r="B242" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C242" s="17" t="s">
         <v>459</v>
@@ -15054,7 +15118,7 @@
     </row>
     <row r="243" spans="2:5">
       <c r="B243" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C243" s="17" t="s">
         <v>460</v>
@@ -15068,7 +15132,7 @@
     </row>
     <row r="244" spans="2:5">
       <c r="B244" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C244" s="17" t="s">
         <v>460</v>
@@ -15082,7 +15146,7 @@
     </row>
     <row r="245" spans="2:5">
       <c r="B245" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C245" s="17" t="s">
         <v>460</v>
@@ -15096,7 +15160,7 @@
     </row>
     <row r="246" spans="2:5">
       <c r="B246" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C246" s="17" t="s">
         <v>460</v>
@@ -15110,7 +15174,7 @@
     </row>
     <row r="247" spans="2:5">
       <c r="B247" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C247" s="17" t="s">
         <v>460</v>
@@ -15124,7 +15188,7 @@
     </row>
     <row r="248" spans="2:5">
       <c r="B248" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C248" s="17" t="s">
         <v>460</v>
@@ -15138,7 +15202,7 @@
     </row>
     <row r="249" spans="2:5">
       <c r="B249" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C249" s="17" t="s">
         <v>460</v>
@@ -15152,7 +15216,7 @@
     </row>
     <row r="250" spans="2:5">
       <c r="B250" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C250" s="17" t="s">
         <v>460</v>
@@ -15166,7 +15230,7 @@
     </row>
     <row r="251" spans="2:5">
       <c r="B251" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C251" s="17" t="s">
         <v>460</v>
@@ -15180,7 +15244,7 @@
     </row>
     <row r="252" spans="2:5">
       <c r="B252" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C252" s="17" t="s">
         <v>460</v>
@@ -15194,7 +15258,7 @@
     </row>
     <row r="253" spans="2:5">
       <c r="B253" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C253" s="17" t="s">
         <v>460</v>
@@ -15208,7 +15272,7 @@
     </row>
     <row r="254" spans="2:5">
       <c r="B254" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C254" s="17" t="s">
         <v>460</v>
@@ -15222,7 +15286,7 @@
     </row>
     <row r="255" spans="2:5">
       <c r="B255" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C255" s="17" t="s">
         <v>460</v>
@@ -15236,7 +15300,7 @@
     </row>
     <row r="256" spans="2:5">
       <c r="B256" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C256" s="17" t="s">
         <v>460</v>
@@ -20638,7 +20702,7 @@
         <v>604</v>
       </c>
       <c r="C640" s="17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D640" s="18" t="s">
         <v>565</v>
@@ -20652,7 +20716,7 @@
         <v>604</v>
       </c>
       <c r="C641" s="17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D641" s="18" t="s">
         <v>568</v>
@@ -20666,7 +20730,7 @@
         <v>604</v>
       </c>
       <c r="C642" s="17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D642" s="18" t="s">
         <v>569</v>
@@ -20680,7 +20744,7 @@
         <v>604</v>
       </c>
       <c r="C643" s="17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D643" s="18" t="s">
         <v>570</v>
@@ -20694,7 +20758,7 @@
         <v>604</v>
       </c>
       <c r="C644" s="17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D644" s="18" t="s">
         <v>571</v>
@@ -20708,7 +20772,7 @@
         <v>604</v>
       </c>
       <c r="C645" s="17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D645" s="18" t="s">
         <v>572</v>
@@ -20722,7 +20786,7 @@
         <v>604</v>
       </c>
       <c r="C646" s="17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D646" s="18" t="s">
         <v>573</v>
@@ -20736,7 +20800,7 @@
         <v>604</v>
       </c>
       <c r="C647" s="17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D647" s="18" t="s">
         <v>575</v>
@@ -20750,7 +20814,7 @@
         <v>604</v>
       </c>
       <c r="C648" s="17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D648" s="18" t="s">
         <v>576</v>
@@ -20764,7 +20828,7 @@
         <v>604</v>
       </c>
       <c r="C649" s="17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D649" s="18" t="s">
         <v>609</v>
@@ -20778,7 +20842,7 @@
         <v>604</v>
       </c>
       <c r="C650" s="17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D650" s="18" t="s">
         <v>577</v>
@@ -20792,7 +20856,7 @@
         <v>604</v>
       </c>
       <c r="C651" s="17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D651" s="18" t="s">
         <v>579</v>
@@ -20806,7 +20870,7 @@
         <v>604</v>
       </c>
       <c r="C652" s="17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D652" s="18" t="s">
         <v>580</v>
@@ -20820,7 +20884,7 @@
         <v>604</v>
       </c>
       <c r="C653" s="17" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D653" s="18" t="s">
         <v>564</v>
@@ -20834,7 +20898,7 @@
         <v>604</v>
       </c>
       <c r="C654" s="17" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D654" s="18" t="s">
         <v>568</v>
@@ -20848,7 +20912,7 @@
         <v>604</v>
       </c>
       <c r="C655" s="17" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D655" s="18" t="s">
         <v>569</v>
@@ -20862,7 +20926,7 @@
         <v>604</v>
       </c>
       <c r="C656" s="17" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D656" s="18" t="s">
         <v>570</v>
@@ -20876,7 +20940,7 @@
         <v>604</v>
       </c>
       <c r="C657" s="17" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D657" s="18" t="s">
         <v>571</v>
@@ -20890,7 +20954,7 @@
         <v>604</v>
       </c>
       <c r="C658" s="17" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D658" s="18" t="s">
         <v>572</v>
@@ -20904,7 +20968,7 @@
         <v>604</v>
       </c>
       <c r="C659" s="17" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D659" s="18" t="s">
         <v>573</v>
@@ -20918,7 +20982,7 @@
         <v>604</v>
       </c>
       <c r="C660" s="17" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D660" s="18" t="s">
         <v>605</v>
@@ -20932,7 +20996,7 @@
         <v>604</v>
       </c>
       <c r="C661" s="17" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D661" s="18" t="s">
         <v>606</v>
@@ -20946,7 +21010,7 @@
         <v>604</v>
       </c>
       <c r="C662" s="17" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D662" s="18" t="s">
         <v>609</v>
@@ -20960,7 +21024,7 @@
         <v>604</v>
       </c>
       <c r="C663" s="17" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D663" s="18" t="s">
         <v>577</v>
@@ -20974,7 +21038,7 @@
         <v>604</v>
       </c>
       <c r="C664" s="17" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D664" s="18" t="s">
         <v>579</v>
@@ -20988,7 +21052,7 @@
         <v>604</v>
       </c>
       <c r="C665" s="17" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D665" s="18" t="s">
         <v>580</v>
@@ -21002,7 +21066,7 @@
         <v>604</v>
       </c>
       <c r="C666" s="17" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D666" s="18" t="s">
         <v>566</v>
@@ -21016,7 +21080,7 @@
         <v>604</v>
       </c>
       <c r="C667" s="17" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D667" s="18" t="s">
         <v>568</v>
@@ -21030,7 +21094,7 @@
         <v>604</v>
       </c>
       <c r="C668" s="17" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D668" s="18" t="s">
         <v>569</v>
@@ -21044,7 +21108,7 @@
         <v>604</v>
       </c>
       <c r="C669" s="17" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D669" s="18" t="s">
         <v>570</v>
@@ -21058,7 +21122,7 @@
         <v>604</v>
       </c>
       <c r="C670" s="17" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D670" s="18" t="s">
         <v>571</v>
@@ -21072,7 +21136,7 @@
         <v>604</v>
       </c>
       <c r="C671" s="17" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D671" s="18" t="s">
         <v>607</v>
@@ -21086,7 +21150,7 @@
         <v>604</v>
       </c>
       <c r="C672" s="17" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D672" s="18" t="s">
         <v>574</v>
@@ -21100,7 +21164,7 @@
         <v>604</v>
       </c>
       <c r="C673" s="17" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D673" s="18" t="s">
         <v>609</v>
@@ -21114,7 +21178,7 @@
         <v>604</v>
       </c>
       <c r="C674" s="17" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D674" s="18" t="s">
         <v>577</v>
@@ -21128,7 +21192,7 @@
         <v>604</v>
       </c>
       <c r="C675" s="17" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D675" s="18" t="s">
         <v>579</v>
@@ -21142,7 +21206,7 @@
         <v>604</v>
       </c>
       <c r="C676" s="17" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D676" s="18" t="s">
         <v>580</v>
@@ -21153,13 +21217,13 @@
     </row>
     <row r="677" spans="2:5">
       <c r="B677" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C677" s="32" t="s">
         <v>1016</v>
       </c>
-      <c r="C677" s="32" t="s">
-        <v>1017</v>
-      </c>
       <c r="D677" s="7" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E677" s="16">
         <v>0</v>
@@ -21167,13 +21231,13 @@
     </row>
     <row r="678" spans="2:5">
       <c r="B678" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C678" s="32" t="s">
         <v>1016</v>
       </c>
-      <c r="C678" s="32" t="s">
-        <v>1017</v>
-      </c>
       <c r="D678" s="7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E678" s="16">
         <v>0</v>
@@ -21181,13 +21245,13 @@
     </row>
     <row r="679" spans="2:5">
       <c r="B679" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C679" s="32" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D679" s="7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E679" s="16">
         <v>0</v>
@@ -21195,13 +21259,13 @@
     </row>
     <row r="680" spans="2:5">
       <c r="B680" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C680" s="32" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D680" s="7" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E680" s="16">
         <v>0</v>
@@ -21216,10 +21280,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21227,7 +21291,7 @@
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="42.75" customWidth="1"/>
-    <col min="4" max="4" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="27.875" customWidth="1"/>
     <col min="5" max="5" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21326,7 +21390,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>624</v>
@@ -21340,10 +21404,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -21354,10 +21418,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -21365,13 +21429,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="4" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -21379,13 +21443,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -21435,13 +21499,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>1046</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>1048</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>1063</v>
+        <v>1112</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
@@ -21449,13 +21513,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1064</v>
+        <v>1110</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -21463,13 +21527,13 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="4" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
@@ -21477,13 +21541,13 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>1046</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>1048</v>
-      </c>
       <c r="D18" s="7" t="s">
-        <v>1066</v>
+        <v>1111</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -21491,13 +21555,13 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="4" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -21505,13 +21569,13 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>1026</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>1027</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
@@ -21522,10 +21586,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>1034</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>1035</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -21533,13 +21597,13 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -21547,13 +21611,13 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -21561,13 +21625,13 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
@@ -21575,13 +21639,13 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E25" s="5">
         <v>0</v>
@@ -21589,13 +21653,13 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E26" s="5">
         <v>0</v>
@@ -21603,13 +21667,13 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="E27" s="5">
         <v>0</v>
@@ -21617,13 +21681,13 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E28" s="5">
         <v>0</v>
@@ -21631,13 +21695,13 @@
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
@@ -21645,13 +21709,13 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E30" s="5">
         <v>0</v>
@@ -21659,13 +21723,13 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>649</v>
+        <v>1107</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>1109</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
@@ -21676,10 +21740,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="E32" s="5">
         <v>0</v>
@@ -21690,10 +21754,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
@@ -21704,26 +21768,26 @@
         <v>1</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>946</v>
+        <v>645</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>945</v>
       </c>
-      <c r="D35" s="22" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E35" s="23">
+      <c r="E35" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21732,10 +21796,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>948</v>
+        <v>1058</v>
       </c>
       <c r="E36" s="23">
         <v>0</v>
@@ -21746,38 +21810,38 @@
         <v>1</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E37" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="5" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>944</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>949</v>
+      </c>
+      <c r="E38" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>955</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>956</v>
-      </c>
-      <c r="E38" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>947</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
@@ -21788,10 +21852,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>949</v>
+        <v>1069</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>946</v>
       </c>
       <c r="E40" s="5">
         <v>0</v>
@@ -21799,13 +21863,13 @@
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="4" t="s">
-        <v>983</v>
+        <v>1</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>984</v>
+        <v>1068</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>948</v>
       </c>
       <c r="E41" s="5">
         <v>0</v>
@@ -21813,13 +21877,13 @@
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>983</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>1072</v>
       </c>
       <c r="E42" s="5">
         <v>0</v>
@@ -21827,13 +21891,13 @@
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="E43" s="5">
         <v>0</v>
@@ -21841,13 +21905,13 @@
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>947</v>
+        <v>1073</v>
       </c>
       <c r="E44" s="5">
         <v>0</v>
@@ -21855,13 +21919,13 @@
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>949</v>
+        <v>1085</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>946</v>
       </c>
       <c r="E45" s="5">
         <v>0</v>
@@ -21869,13 +21933,13 @@
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>1089</v>
+        <v>1071</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>948</v>
       </c>
       <c r="E46" s="5">
         <v>0</v>
@@ -21883,13 +21947,13 @@
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>1072</v>
+        <v>1086</v>
       </c>
       <c r="E47" s="5">
         <v>0</v>
@@ -21897,13 +21961,13 @@
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="4" t="s">
-        <v>1</v>
+        <v>982</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>633</v>
+        <v>1071</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>1070</v>
       </c>
       <c r="E48" s="5">
         <v>0</v>
@@ -21911,13 +21975,13 @@
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="4" t="s">
-        <v>1</v>
+        <v>1095</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>627</v>
+        <v>1096</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>665</v>
+        <v>1094</v>
       </c>
       <c r="E49" s="5">
         <v>0</v>
@@ -21925,13 +21989,13 @@
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>659</v>
+        <v>1</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>633</v>
       </c>
       <c r="E50" s="5">
         <v>0</v>
@@ -21942,10 +22006,10 @@
         <v>1</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>682</v>
+        <v>627</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="E51" s="5">
         <v>0</v>
@@ -21953,13 +22017,13 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>684</v>
+        <v>29</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>658</v>
       </c>
       <c r="E52" s="5">
         <v>0</v>
@@ -21970,10 +22034,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>651</v>
+        <v>681</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>633</v>
+        <v>682</v>
       </c>
       <c r="E53" s="5">
         <v>0</v>
@@ -21984,38 +22048,38 @@
         <v>1</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>936</v>
+        <v>681</v>
       </c>
       <c r="D54" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E54" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="E55" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="B56" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="E56" s="5">
         <v>0</v>
@@ -22028,24 +22092,24 @@
       <c r="C57" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>633</v>
+      <c r="D57" s="9" t="s">
+        <v>643</v>
       </c>
       <c r="E57" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="29" t="s">
-        <v>986</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>985</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E58" s="29">
+      <c r="B58" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="5">
         <v>0</v>
       </c>
     </row>
@@ -22053,27 +22117,27 @@
       <c r="B59" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>643</v>
+      <c r="C59" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>633</v>
       </c>
       <c r="E59" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="E60" s="5">
+      <c r="B60" s="29" t="s">
+        <v>985</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>984</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E60" s="29">
         <v>0</v>
       </c>
     </row>
@@ -22082,10 +22146,10 @@
         <v>640</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>649</v>
+        <v>623</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>643</v>
       </c>
       <c r="E61" s="5">
         <v>0</v>
@@ -22096,10 +22160,10 @@
         <v>640</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>665</v>
+        <v>633</v>
       </c>
       <c r="E62" s="5">
         <v>0</v>
@@ -22110,10 +22174,10 @@
         <v>640</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>709</v>
+        <v>1008</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="E63" s="5">
         <v>0</v>
@@ -22124,10 +22188,10 @@
         <v>640</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>715</v>
+        <v>627</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>708</v>
+        <v>664</v>
       </c>
       <c r="E64" s="5">
         <v>0</v>
@@ -22138,10 +22202,10 @@
         <v>640</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>955</v>
+        <v>708</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>956</v>
+        <v>707</v>
       </c>
       <c r="E65" s="5">
         <v>0</v>
@@ -22151,11 +22215,11 @@
       <c r="B66" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>659</v>
+      <c r="C66" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>707</v>
       </c>
       <c r="E66" s="5">
         <v>0</v>
@@ -22166,10 +22230,10 @@
         <v>640</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>682</v>
+        <v>954</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>683</v>
+        <v>955</v>
       </c>
       <c r="E67" s="5">
         <v>0</v>
@@ -22179,11 +22243,11 @@
       <c r="B68" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>684</v>
+      <c r="C68" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>658</v>
       </c>
       <c r="E68" s="5">
         <v>0</v>
@@ -22194,10 +22258,10 @@
         <v>640</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>651</v>
+        <v>681</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>1078</v>
+        <v>682</v>
       </c>
       <c r="E69" s="5">
         <v>0</v>
@@ -22208,10 +22272,10 @@
         <v>640</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>1077</v>
+        <v>681</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>40</v>
+        <v>683</v>
       </c>
       <c r="E70" s="5">
         <v>0</v>
@@ -22219,13 +22283,13 @@
     </row>
     <row r="71" spans="2:5">
       <c r="B71" s="5" t="s">
-        <v>1030</v>
+        <v>640</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>1031</v>
+        <v>650</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>1076</v>
       </c>
       <c r="E71" s="5">
         <v>0</v>
@@ -22236,38 +22300,38 @@
         <v>640</v>
       </c>
       <c r="C72" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="D72" s="7" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E72" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5">
-      <c r="B73" s="7" t="s">
-        <v>629</v>
-      </c>
       <c r="C73" s="7" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>630</v>
+        <v>1028</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>1030</v>
       </c>
       <c r="E73" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:5">
-      <c r="B74" s="7" t="s">
-        <v>1045</v>
+      <c r="B74" s="5" t="s">
+        <v>640</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>1069</v>
+        <v>1028</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>1068</v>
+        <v>1031</v>
       </c>
       <c r="E74" s="5">
         <v>0</v>
@@ -22278,7 +22342,7 @@
         <v>629</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>953</v>
+        <v>1050</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>630</v>
@@ -22289,13 +22353,13 @@
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="7" t="s">
-        <v>1080</v>
+        <v>1043</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>1081</v>
+        <v>1066</v>
       </c>
       <c r="E76" s="5">
         <v>0</v>
@@ -22306,7 +22370,7 @@
         <v>629</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>630</v>
@@ -22317,13 +22381,13 @@
     </row>
     <row r="78" spans="2:5">
       <c r="B78" s="7" t="s">
-        <v>629</v>
+        <v>1078</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>647</v>
+        <v>1079</v>
       </c>
       <c r="E78" s="5">
         <v>0</v>
@@ -22331,13 +22395,13 @@
     </row>
     <row r="79" spans="2:5">
       <c r="B79" s="7" t="s">
-        <v>1042</v>
+        <v>629</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>650</v>
+        <v>953</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>630</v>
       </c>
       <c r="E79" s="5">
         <v>0</v>
@@ -22348,10 +22412,10 @@
         <v>629</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>679</v>
+        <v>1080</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>647</v>
       </c>
       <c r="E80" s="5">
         <v>0</v>
@@ -22359,13 +22423,13 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="7" t="s">
-        <v>972</v>
+        <v>1041</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>1085</v>
+        <v>1080</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>1102</v>
       </c>
       <c r="E81" s="5">
         <v>0</v>
@@ -22373,13 +22437,13 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="7" t="s">
-        <v>972</v>
+        <v>629</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>1044</v>
+        <v>1080</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>678</v>
       </c>
       <c r="E82" s="5">
         <v>0</v>
@@ -22387,25 +22451,27 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="7" t="s">
-        <v>629</v>
+        <v>971</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E83" s="5"/>
+        <v>1082</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="7" t="s">
-        <v>629</v>
+        <v>971</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>655</v>
+        <v>1080</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>647</v>
+        <v>1101</v>
       </c>
       <c r="E84" s="5">
         <v>0</v>
@@ -22416,10 +22482,10 @@
         <v>629</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>656</v>
+        <v>1081</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>657</v>
+        <v>1100</v>
       </c>
       <c r="E85" s="5">
         <v>0</v>
@@ -22427,43 +22493,43 @@
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E87" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="E86" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5">
-      <c r="B87" s="22" t="s">
-        <v>629</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D87" s="22" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E87" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5">
-      <c r="B88" s="22" t="s">
-        <v>972</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>951</v>
-      </c>
-      <c r="D88" s="22" t="s">
-        <v>952</v>
-      </c>
-      <c r="E88" s="23">
+      <c r="C88" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="E88" s="5">
         <v>0</v>
       </c>
     </row>
@@ -22472,10 +22538,10 @@
         <v>629</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="E89" s="5">
         <v>0</v>
@@ -22483,55 +22549,55 @@
     </row>
     <row r="90" spans="2:5">
       <c r="B90" s="7" t="s">
-        <v>1042</v>
+        <v>629</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>1041</v>
+        <v>655</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>1043</v>
+        <v>657</v>
       </c>
       <c r="E90" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:5">
-      <c r="B91" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>975</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="E91" s="5">
+      <c r="B91" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E91" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:5">
-      <c r="B92" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="E92" s="5">
+      <c r="B92" s="22" t="s">
+        <v>971</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>950</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>951</v>
+      </c>
+      <c r="E92" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:5">
       <c r="B93" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>631</v>
+        <v>664</v>
       </c>
       <c r="E93" s="5">
         <v>0</v>
@@ -22539,13 +22605,13 @@
     </row>
     <row r="94" spans="2:5">
       <c r="B94" s="7" t="s">
-        <v>632</v>
+        <v>1041</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>698</v>
+        <v>1040</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>631</v>
+        <v>1042</v>
       </c>
       <c r="E94" s="5">
         <v>0</v>
@@ -22555,8 +22621,8 @@
       <c r="B95" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>716</v>
+      <c r="C95" s="5" t="s">
+        <v>974</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>631</v>
@@ -22569,8 +22635,8 @@
       <c r="B96" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>700</v>
+      <c r="C96" s="5" t="s">
+        <v>702</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>631</v>
@@ -22581,13 +22647,13 @@
     </row>
     <row r="97" spans="2:5">
       <c r="B97" s="7" t="s">
-        <v>701</v>
+        <v>632</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>702</v>
+        <v>631</v>
       </c>
       <c r="E97" s="5">
         <v>0</v>
@@ -22595,13 +22661,13 @@
     </row>
     <row r="98" spans="2:5">
       <c r="B98" s="7" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>662</v>
+        <v>697</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>702</v>
+        <v>631</v>
       </c>
       <c r="E98" s="5">
         <v>0</v>
@@ -22609,13 +22675,13 @@
     </row>
     <row r="99" spans="2:5">
       <c r="B99" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>703</v>
+        <v>632</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>715</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>702</v>
+        <v>631</v>
       </c>
       <c r="E99" s="5">
         <v>0</v>
@@ -22623,13 +22689,13 @@
     </row>
     <row r="100" spans="2:5">
       <c r="B100" s="7" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>663</v>
+        <v>699</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>702</v>
+        <v>631</v>
       </c>
       <c r="E100" s="5">
         <v>0</v>
@@ -22637,13 +22703,13 @@
     </row>
     <row r="101" spans="2:5">
       <c r="B101" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="C101" s="7" t="s">
-        <v>664</v>
-      </c>
       <c r="D101" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E101" s="5">
         <v>0</v>
@@ -22651,13 +22717,13 @@
     </row>
     <row r="102" spans="2:5">
       <c r="B102" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>698</v>
+        <v>661</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E102" s="5">
         <v>0</v>
@@ -22665,13 +22731,13 @@
     </row>
     <row r="103" spans="2:5">
       <c r="B103" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>702</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E103" s="5">
         <v>0</v>
@@ -22679,13 +22745,13 @@
     </row>
     <row r="104" spans="2:5">
       <c r="B104" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>700</v>
+        <v>662</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E104" s="5">
         <v>0</v>
@@ -22693,13 +22759,13 @@
     </row>
     <row r="105" spans="2:5">
       <c r="B105" s="7" t="s">
-        <v>626</v>
+        <v>659</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>627</v>
+        <v>663</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>628</v>
+        <v>701</v>
       </c>
       <c r="E105" s="5">
         <v>0</v>
@@ -22707,13 +22773,13 @@
     </row>
     <row r="106" spans="2:5">
       <c r="B106" s="7" t="s">
-        <v>626</v>
+        <v>659</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>653</v>
+        <v>701</v>
       </c>
       <c r="E106" s="5">
         <v>0</v>
@@ -22721,13 +22787,13 @@
     </row>
     <row r="107" spans="2:5">
       <c r="B107" s="7" t="s">
-        <v>626</v>
+        <v>659</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>652</v>
+        <v>698</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>654</v>
+        <v>701</v>
       </c>
       <c r="E107" s="5">
         <v>0</v>
@@ -22735,13 +22801,13 @@
     </row>
     <row r="108" spans="2:5">
       <c r="B108" s="7" t="s">
-        <v>626</v>
+        <v>659</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>653</v>
+        <v>701</v>
       </c>
       <c r="E108" s="5">
         <v>0</v>
@@ -22752,10 +22818,10 @@
         <v>626</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>705</v>
+        <v>627</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>653</v>
+        <v>628</v>
       </c>
       <c r="E109" s="5">
         <v>0</v>
@@ -22763,13 +22829,13 @@
     </row>
     <row r="110" spans="2:5">
       <c r="B110" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>641</v>
+        <v>626</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>651</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="E110" s="5">
         <v>0</v>
@@ -22777,13 +22843,13 @@
     </row>
     <row r="111" spans="2:5">
       <c r="B111" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>641</v>
+        <v>626</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>651</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>1065</v>
+        <v>653</v>
       </c>
       <c r="E111" s="5">
         <v>0</v>
@@ -22791,13 +22857,13 @@
     </row>
     <row r="112" spans="2:5">
       <c r="B112" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>641</v>
+        <v>626</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>703</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>1066</v>
+        <v>652</v>
       </c>
       <c r="E112" s="5">
         <v>0</v>
@@ -22805,13 +22871,13 @@
     </row>
     <row r="113" spans="2:5">
       <c r="B113" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>637</v>
+        <v>626</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>704</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="E113" s="5">
         <v>0</v>
@@ -22822,10 +22888,10 @@
         <v>635</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E114" s="5">
         <v>0</v>
@@ -22836,10 +22902,10 @@
         <v>635</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>990</v>
+        <v>641</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>991</v>
+        <v>1063</v>
       </c>
       <c r="E115" s="5">
         <v>0</v>
@@ -22849,11 +22915,11 @@
       <c r="B116" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>646</v>
+      <c r="C116" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>1064</v>
       </c>
       <c r="E116" s="5">
         <v>0</v>
@@ -22861,13 +22927,13 @@
     </row>
     <row r="117" spans="2:5">
       <c r="B117" s="7" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>1007</v>
+        <v>635</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>637</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>1008</v>
+        <v>638</v>
       </c>
       <c r="E117" s="5">
         <v>0</v>
@@ -22875,13 +22941,13 @@
     </row>
     <row r="118" spans="2:5">
       <c r="B118" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>677</v>
+        <v>635</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>639</v>
       </c>
       <c r="E118" s="5">
         <v>0</v>
@@ -22889,13 +22955,13 @@
     </row>
     <row r="119" spans="2:5">
       <c r="B119" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>677</v>
+        <v>635</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>990</v>
       </c>
       <c r="E119" s="5">
         <v>0</v>
@@ -22903,13 +22969,13 @@
     </row>
     <row r="120" spans="2:5">
       <c r="B120" s="7" t="s">
-        <v>980</v>
+        <v>635</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>981</v>
+        <v>1004</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>982</v>
+        <v>646</v>
       </c>
       <c r="E120" s="5">
         <v>0</v>
@@ -22917,13 +22983,13 @@
     </row>
     <row r="121" spans="2:5">
       <c r="B121" s="7" t="s">
-        <v>690</v>
+        <v>1005</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>691</v>
+        <v>1006</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>1007</v>
       </c>
       <c r="E121" s="5">
         <v>0</v>
@@ -22931,13 +22997,13 @@
     </row>
     <row r="122" spans="2:5">
       <c r="B122" s="7" t="s">
-        <v>1054</v>
+        <v>1098</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>1055</v>
+        <v>1097</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>1099</v>
       </c>
       <c r="E122" s="5">
         <v>0</v>
@@ -22945,13 +23011,13 @@
     </row>
     <row r="123" spans="2:5">
       <c r="B123" s="7" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="E123" s="5">
         <v>0</v>
@@ -22959,13 +23025,13 @@
     </row>
     <row r="124" spans="2:5">
       <c r="B124" s="7" t="s">
-        <v>935</v>
+        <v>672</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="E124" s="5">
         <v>0</v>
@@ -22973,13 +23039,13 @@
     </row>
     <row r="125" spans="2:5">
       <c r="B125" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>686</v>
+        <v>979</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>980</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>678</v>
+        <v>981</v>
       </c>
       <c r="E125" s="5">
         <v>0</v>
@@ -22987,13 +23053,13 @@
     </row>
     <row r="126" spans="2:5">
       <c r="B126" s="7" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>1036</v>
+        <v>689</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>679</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>1038</v>
+        <v>690</v>
       </c>
       <c r="E126" s="5">
         <v>0</v>
@@ -23001,13 +23067,13 @@
     </row>
     <row r="127" spans="2:5">
       <c r="B127" s="7" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>686</v>
+        <v>1052</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>1051</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>689</v>
+        <v>1053</v>
       </c>
       <c r="E127" s="5">
         <v>0</v>
@@ -23015,13 +23081,13 @@
     </row>
     <row r="128" spans="2:5">
       <c r="B128" s="7" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>1036</v>
+        <v>680</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>681</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="E128" s="5">
         <v>0</v>
@@ -23029,13 +23095,13 @@
     </row>
     <row r="129" spans="2:5">
       <c r="B129" s="7" t="s">
-        <v>687</v>
+        <v>934</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="E129" s="5">
         <v>0</v>
@@ -23043,13 +23109,13 @@
     </row>
     <row r="130" spans="2:5">
       <c r="B130" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>694</v>
+        <v>687</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>685</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="E130" s="5">
         <v>0</v>
@@ -23057,13 +23123,13 @@
     </row>
     <row r="131" spans="2:5">
       <c r="B131" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>697</v>
+        <v>1036</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>1035</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>696</v>
+        <v>1037</v>
       </c>
       <c r="E131" s="5">
         <v>0</v>
@@ -23071,13 +23137,13 @@
     </row>
     <row r="132" spans="2:5">
       <c r="B132" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>706</v>
+        <v>1038</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>685</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>707</v>
+        <v>688</v>
       </c>
       <c r="E132" s="5">
         <v>0</v>
@@ -23085,13 +23151,13 @@
     </row>
     <row r="133" spans="2:5">
       <c r="B133" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>714</v>
+        <v>1038</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>1035</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>711</v>
+        <v>677</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
@@ -23099,13 +23165,13 @@
     </row>
     <row r="134" spans="2:5">
       <c r="B134" s="7" t="s">
-        <v>710</v>
+        <v>686</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
@@ -23113,13 +23179,13 @@
     </row>
     <row r="135" spans="2:5">
       <c r="B135" s="7" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
@@ -23127,13 +23193,13 @@
     </row>
     <row r="136" spans="2:5">
       <c r="B136" s="7" t="s">
-        <v>973</v>
+        <v>694</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>974</v>
+        <v>696</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>1096</v>
+        <v>695</v>
       </c>
       <c r="E136" s="5">
         <v>0</v>
@@ -23141,13 +23207,13 @@
     </row>
     <row r="137" spans="2:5">
       <c r="B137" s="7" t="s">
-        <v>973</v>
+        <v>694</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>976</v>
+        <v>705</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>977</v>
+        <v>706</v>
       </c>
       <c r="E137" s="5">
         <v>0</v>
@@ -23155,13 +23221,13 @@
     </row>
     <row r="138" spans="2:5">
       <c r="B138" s="7" t="s">
-        <v>973</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>978</v>
+        <v>709</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>713</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>977</v>
+        <v>710</v>
       </c>
       <c r="E138" s="5">
         <v>0</v>
@@ -23169,20 +23235,90 @@
     </row>
     <row r="139" spans="2:5">
       <c r="B139" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="E139" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="E140" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>973</v>
       </c>
-      <c r="C139" s="5" t="s">
-        <v>979</v>
-      </c>
-      <c r="D139" s="9" t="s">
+      <c r="D141" s="9" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E141" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>976</v>
+      </c>
+      <c r="E142" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="C143" s="5" t="s">
         <v>977</v>
       </c>
-      <c r="E139" s="5">
+      <c r="D143" s="9" t="s">
+        <v>976</v>
+      </c>
+      <c r="E143" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>976</v>
+      </c>
+      <c r="E144" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:E139"/>
+  <autoFilter ref="B3:E144"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23254,7 +23390,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>36</v>
@@ -23263,10 +23399,10 @@
         <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>939</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>940</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>50</v>
@@ -23274,7 +23410,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="20" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
@@ -23294,10 +23430,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="20" t="s">
+        <v>936</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>937</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>938</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>28</v>
@@ -23467,7 +23603,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>34</v>
@@ -23479,7 +23615,7 @@
         <v>49</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>44</v>
@@ -23496,7 +23632,7 @@
     </row>
     <row r="4" spans="1:16" ht="27">
       <c r="B4" s="20" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
@@ -23523,14 +23659,14 @@
         <v>25</v>
       </c>
       <c r="K4" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>943</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>944</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="20" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="O4" s="7">
         <v>58108</v>
@@ -23700,7 +23836,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="24" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>53</v>
@@ -23717,53 +23853,53 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="25" t="s">
+        <v>961</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>963</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>965</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="26" t="s">
+        <v>959</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>960</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>961</v>
-      </c>
       <c r="C3" s="27" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D3" s="27" t="s">
+        <v>966</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>967</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="26" t="s">
+        <v>968</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>957</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>958</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>969</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>958</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>959</v>
-      </c>
-      <c r="D4" s="27" t="s">
+      <c r="E4" s="28" t="s">
         <v>970</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>971</v>
       </c>
     </row>
   </sheetData>

--- a/wico/数据表结构.xlsx
+++ b/wico/数据表结构.xlsx
@@ -16,7 +16,7 @@
     <sheet name="客户正式投诉" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$147</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'零件清单（下载）'!$B$3:$K$152</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'座椅配置（下载）'!$B$3:$E$676</definedName>
   </definedNames>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3938" uniqueCount="1121">
   <si>
     <t>SLIDE ADJR OUT L,FR SEAT</t>
   </si>
@@ -3862,6 +3862,38 @@
   </si>
   <si>
     <t>更换齿轮箱、短绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降打啃&amp;异响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理齿部的焊渣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动打啃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动座椅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降电机异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧固电机螺丝</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4085,7 +4117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4123,6 +4155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4804,7 +4842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4899,6 +4937,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="300" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="389">
@@ -5322,7 +5366,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5383,7 +5427,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5444,7 +5488,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5500,7 +5544,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5558,7 +5602,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5616,7 +5660,7 @@
         <xdr:cNvPr id="13" name="TextBox 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5679,7 +5723,7 @@
         <xdr:cNvPr id="16" name="直接箭头连接符 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5732,7 +5776,7 @@
         <xdr:cNvPr id="21" name="图片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5793,7 +5837,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5854,7 +5898,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5907,7 +5951,7 @@
         <xdr:cNvPr id="27" name="直接箭头连接符 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5960,7 +6004,7 @@
         <xdr:cNvPr id="29" name="直接箭头连接符 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6013,7 +6057,7 @@
         <xdr:cNvPr id="31" name="直接箭头连接符 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6066,7 +6110,7 @@
         <xdr:cNvPr id="33" name="直接箭头连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6119,7 +6163,7 @@
         <xdr:cNvPr id="36" name="直接箭头连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6167,7 +6211,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21280,10 +21324,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22352,28 +22396,28 @@
       </c>
     </row>
     <row r="76" spans="2:5">
-      <c r="B76" s="7" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E76" s="5">
+      <c r="B76" s="22" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E76" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:5">
       <c r="B77" s="7" t="s">
-        <v>629</v>
+        <v>1043</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>952</v>
+        <v>1067</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>630</v>
+        <v>1066</v>
       </c>
       <c r="E77" s="5">
         <v>0</v>
@@ -22381,13 +22425,13 @@
     </row>
     <row r="78" spans="2:5">
       <c r="B78" s="7" t="s">
-        <v>1078</v>
+        <v>629</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>1077</v>
+        <v>952</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>1079</v>
+        <v>630</v>
       </c>
       <c r="E78" s="5">
         <v>0</v>
@@ -22395,13 +22439,13 @@
     </row>
     <row r="79" spans="2:5">
       <c r="B79" s="7" t="s">
-        <v>629</v>
+        <v>1078</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>953</v>
+        <v>1077</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>630</v>
+        <v>1079</v>
       </c>
       <c r="E79" s="5">
         <v>0</v>
@@ -22412,10 +22456,10 @@
         <v>629</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>1080</v>
+        <v>953</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>647</v>
+        <v>630</v>
       </c>
       <c r="E80" s="5">
         <v>0</v>
@@ -22423,13 +22467,13 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="7" t="s">
-        <v>1041</v>
+        <v>629</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>1080</v>
       </c>
-      <c r="D81" s="9" t="s">
-        <v>1102</v>
+      <c r="D81" s="7" t="s">
+        <v>647</v>
       </c>
       <c r="E81" s="5">
         <v>0</v>
@@ -22437,13 +22481,13 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="7" t="s">
-        <v>629</v>
+        <v>1041</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>1080</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>678</v>
+        <v>1102</v>
       </c>
       <c r="E82" s="5">
         <v>0</v>
@@ -22451,13 +22495,13 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="7" t="s">
-        <v>971</v>
+        <v>629</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>1080</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>1082</v>
+      <c r="D83" s="9" t="s">
+        <v>678</v>
       </c>
       <c r="E83" s="5">
         <v>0</v>
@@ -22471,7 +22515,7 @@
         <v>1080</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>1101</v>
+        <v>1082</v>
       </c>
       <c r="E84" s="5">
         <v>0</v>
@@ -22479,13 +22523,13 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="7" t="s">
-        <v>629</v>
+        <v>971</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="E85" s="5">
         <v>0</v>
@@ -22493,13 +22537,13 @@
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="7" t="s">
-        <v>1104</v>
+        <v>629</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>1105</v>
+        <v>1081</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="E86" s="5">
         <v>0</v>
@@ -22513,7 +22557,7 @@
         <v>1105</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="E87" s="5">
         <v>0</v>
@@ -22521,13 +22565,13 @@
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="7" t="s">
-        <v>629</v>
+        <v>1104</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>654</v>
+        <v>1105</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>647</v>
+        <v>1106</v>
       </c>
       <c r="E88" s="5">
         <v>0</v>
@@ -22535,13 +22579,13 @@
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="7" t="s">
-        <v>629</v>
+        <v>1113</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>655</v>
+        <v>1114</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>656</v>
+        <v>1115</v>
       </c>
       <c r="E89" s="5">
         <v>0</v>
@@ -22552,80 +22596,80 @@
         <v>629</v>
       </c>
       <c r="C90" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="E90" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D91" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="E90" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5">
-      <c r="B91" s="22" t="s">
+      <c r="E92" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="22" t="s">
         <v>629</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C93" s="22" t="s">
         <v>1083</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D93" s="22" t="s">
         <v>1084</v>
       </c>
-      <c r="E91" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5">
-      <c r="B92" s="22" t="s">
+      <c r="E93" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="22" t="s">
         <v>971</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C94" s="22" t="s">
         <v>950</v>
       </c>
-      <c r="D92" s="22" t="s">
+      <c r="D94" s="22" t="s">
         <v>951</v>
       </c>
-      <c r="E92" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5">
-      <c r="B93" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="E93" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5">
-      <c r="B94" s="7" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E94" s="5">
+      <c r="E94" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:5">
       <c r="B95" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>974</v>
+        <v>629</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>627</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>631</v>
+        <v>664</v>
       </c>
       <c r="E95" s="5">
         <v>0</v>
@@ -22633,13 +22677,13 @@
     </row>
     <row r="96" spans="2:5">
       <c r="B96" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>702</v>
+        <v>1041</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>1040</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>631</v>
+        <v>1042</v>
       </c>
       <c r="E96" s="5">
         <v>0</v>
@@ -22649,8 +22693,8 @@
       <c r="B97" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="C97" s="7" t="s">
-        <v>644</v>
+      <c r="C97" s="5" t="s">
+        <v>974</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>631</v>
@@ -22663,8 +22707,8 @@
       <c r="B98" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="C98" s="7" t="s">
-        <v>697</v>
+      <c r="C98" s="5" t="s">
+        <v>702</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>631</v>
@@ -22678,7 +22722,7 @@
         <v>632</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>715</v>
+        <v>644</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>631</v>
@@ -22692,7 +22736,7 @@
         <v>632</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>631</v>
@@ -22703,13 +22747,13 @@
     </row>
     <row r="101" spans="2:5">
       <c r="B101" s="7" t="s">
-        <v>700</v>
+        <v>632</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>660</v>
+        <v>715</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>701</v>
+        <v>631</v>
       </c>
       <c r="E101" s="5">
         <v>0</v>
@@ -22717,13 +22761,13 @@
     </row>
     <row r="102" spans="2:5">
       <c r="B102" s="7" t="s">
-        <v>659</v>
+        <v>632</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>701</v>
+        <v>631</v>
       </c>
       <c r="E102" s="5">
         <v>0</v>
@@ -22733,8 +22777,8 @@
       <c r="B103" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>702</v>
+      <c r="C103" s="7" t="s">
+        <v>660</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>701</v>
@@ -22748,7 +22792,7 @@
         <v>659</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>701</v>
@@ -22759,10 +22803,10 @@
     </row>
     <row r="105" spans="2:5">
       <c r="B105" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>663</v>
+        <v>700</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>702</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>701</v>
@@ -22776,7 +22820,7 @@
         <v>659</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>697</v>
+        <v>662</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>701</v>
@@ -22790,7 +22834,7 @@
         <v>659</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>698</v>
+        <v>663</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>701</v>
@@ -22804,7 +22848,7 @@
         <v>659</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>701</v>
@@ -22815,13 +22859,13 @@
     </row>
     <row r="109" spans="2:5">
       <c r="B109" s="7" t="s">
-        <v>626</v>
+        <v>659</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>627</v>
+        <v>698</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>628</v>
+        <v>701</v>
       </c>
       <c r="E109" s="5">
         <v>0</v>
@@ -22829,13 +22873,13 @@
     </row>
     <row r="110" spans="2:5">
       <c r="B110" s="7" t="s">
-        <v>626</v>
+        <v>659</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>651</v>
+        <v>699</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>652</v>
+        <v>701</v>
       </c>
       <c r="E110" s="5">
         <v>0</v>
@@ -22846,10 +22890,10 @@
         <v>626</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>653</v>
+        <v>628</v>
       </c>
       <c r="E111" s="5">
         <v>0</v>
@@ -22860,7 +22904,7 @@
         <v>626</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>703</v>
+        <v>651</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>652</v>
@@ -22874,10 +22918,10 @@
         <v>626</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>704</v>
+        <v>651</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E113" s="5">
         <v>0</v>
@@ -22885,13 +22929,13 @@
     </row>
     <row r="114" spans="2:5">
       <c r="B114" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>641</v>
+        <v>626</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>703</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="E114" s="5">
         <v>0</v>
@@ -22899,13 +22943,13 @@
     </row>
     <row r="115" spans="2:5">
       <c r="B115" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>641</v>
+        <v>626</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>704</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>1063</v>
+        <v>652</v>
       </c>
       <c r="E115" s="5">
         <v>0</v>
@@ -22919,7 +22963,7 @@
         <v>641</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>1064</v>
+        <v>636</v>
       </c>
       <c r="E116" s="5">
         <v>0</v>
@@ -22930,10 +22974,10 @@
         <v>635</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>638</v>
+        <v>1063</v>
       </c>
       <c r="E117" s="5">
         <v>0</v>
@@ -22944,10 +22988,10 @@
         <v>635</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>639</v>
+        <v>1064</v>
       </c>
       <c r="E118" s="5">
         <v>0</v>
@@ -22958,10 +23002,10 @@
         <v>635</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>989</v>
+        <v>637</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>990</v>
+        <v>638</v>
       </c>
       <c r="E119" s="5">
         <v>0</v>
@@ -22971,11 +23015,11 @@
       <c r="B120" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>646</v>
+      <c r="C120" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>639</v>
       </c>
       <c r="E120" s="5">
         <v>0</v>
@@ -22983,13 +23027,13 @@
     </row>
     <row r="121" spans="2:5">
       <c r="B121" s="7" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>1006</v>
+        <v>635</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>989</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>1007</v>
+        <v>990</v>
       </c>
       <c r="E121" s="5">
         <v>0</v>
@@ -22997,13 +23041,13 @@
     </row>
     <row r="122" spans="2:5">
       <c r="B122" s="7" t="s">
-        <v>1098</v>
+        <v>635</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>1099</v>
+        <v>1004</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>646</v>
       </c>
       <c r="E122" s="5">
         <v>0</v>
@@ -23011,13 +23055,13 @@
     </row>
     <row r="123" spans="2:5">
       <c r="B123" s="7" t="s">
-        <v>675</v>
+        <v>1005</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>676</v>
+        <v>1006</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>1007</v>
       </c>
       <c r="E123" s="5">
         <v>0</v>
@@ -23025,41 +23069,41 @@
     </row>
     <row r="124" spans="2:5">
       <c r="B124" s="7" t="s">
-        <v>672</v>
+        <v>1098</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>676</v>
+        <v>1097</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>1099</v>
       </c>
       <c r="E124" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="2:5">
-      <c r="B125" s="7" t="s">
-        <v>979</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>980</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>981</v>
-      </c>
-      <c r="E125" s="5">
+      <c r="B125" s="33" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C125" s="34" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D125" s="33" t="s">
+        <v>636</v>
+      </c>
+      <c r="E125" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="2:5">
       <c r="B126" s="7" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="E126" s="5">
         <v>0</v>
@@ -23067,13 +23111,13 @@
     </row>
     <row r="127" spans="2:5">
       <c r="B127" s="7" t="s">
-        <v>1052</v>
+        <v>672</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>1051</v>
+        <v>674</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>1053</v>
+        <v>676</v>
       </c>
       <c r="E127" s="5">
         <v>0</v>
@@ -23081,13 +23125,13 @@
     </row>
     <row r="128" spans="2:5">
       <c r="B128" s="7" t="s">
-        <v>680</v>
+        <v>979</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>681</v>
+        <v>980</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>684</v>
+        <v>981</v>
       </c>
       <c r="E128" s="5">
         <v>0</v>
@@ -23095,13 +23139,13 @@
     </row>
     <row r="129" spans="2:5">
       <c r="B129" s="7" t="s">
-        <v>934</v>
+        <v>689</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="E129" s="5">
         <v>0</v>
@@ -23109,13 +23153,13 @@
     </row>
     <row r="130" spans="2:5">
       <c r="B130" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>685</v>
+        <v>1052</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>1051</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>677</v>
+        <v>1053</v>
       </c>
       <c r="E130" s="5">
         <v>0</v>
@@ -23123,13 +23167,13 @@
     </row>
     <row r="131" spans="2:5">
       <c r="B131" s="7" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>1035</v>
+        <v>680</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>681</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>1037</v>
+        <v>684</v>
       </c>
       <c r="E131" s="5">
         <v>0</v>
@@ -23137,13 +23181,13 @@
     </row>
     <row r="132" spans="2:5">
       <c r="B132" s="7" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>685</v>
+        <v>934</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>681</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="E132" s="5">
         <v>0</v>
@@ -23151,10 +23195,10 @@
     </row>
     <row r="133" spans="2:5">
       <c r="B133" s="7" t="s">
-        <v>1038</v>
+        <v>687</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>1035</v>
+        <v>685</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>677</v>
@@ -23165,13 +23209,13 @@
     </row>
     <row r="134" spans="2:5">
       <c r="B134" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>691</v>
+        <v>1036</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>1035</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>692</v>
+        <v>1037</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
@@ -23179,13 +23223,13 @@
     </row>
     <row r="135" spans="2:5">
       <c r="B135" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>693</v>
+        <v>1038</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>685</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
@@ -23193,13 +23237,13 @@
     </row>
     <row r="136" spans="2:5">
       <c r="B136" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>696</v>
+        <v>1038</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>1035</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>695</v>
+        <v>677</v>
       </c>
       <c r="E136" s="5">
         <v>0</v>
@@ -23207,13 +23251,13 @@
     </row>
     <row r="137" spans="2:5">
       <c r="B137" s="7" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="E137" s="5">
         <v>0</v>
@@ -23221,13 +23265,13 @@
     </row>
     <row r="138" spans="2:5">
       <c r="B138" s="7" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="E138" s="5">
         <v>0</v>
@@ -23235,13 +23279,13 @@
     </row>
     <row r="139" spans="2:5">
       <c r="B139" s="7" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="E139" s="5">
         <v>0</v>
@@ -23249,13 +23293,13 @@
     </row>
     <row r="140" spans="2:5">
       <c r="B140" s="7" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E140" s="5">
         <v>0</v>
@@ -23263,13 +23307,13 @@
     </row>
     <row r="141" spans="2:5">
       <c r="B141" s="7" t="s">
-        <v>972</v>
+        <v>709</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>973</v>
+        <v>713</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>1093</v>
+        <v>710</v>
       </c>
       <c r="E141" s="5">
         <v>0</v>
@@ -23277,13 +23321,13 @@
     </row>
     <row r="142" spans="2:5">
       <c r="B142" s="7" t="s">
-        <v>972</v>
+        <v>709</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>975</v>
+        <v>711</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>976</v>
+        <v>710</v>
       </c>
       <c r="E142" s="5">
         <v>0</v>
@@ -23291,13 +23335,13 @@
     </row>
     <row r="143" spans="2:5">
       <c r="B143" s="7" t="s">
-        <v>972</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>977</v>
+        <v>709</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>712</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>976</v>
+        <v>710</v>
       </c>
       <c r="E143" s="5">
         <v>0</v>
@@ -23307,18 +23351,60 @@
       <c r="B144" s="7" t="s">
         <v>972</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C144" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E144" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>976</v>
+      </c>
+      <c r="E145" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>976</v>
+      </c>
+      <c r="E146" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="D147" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="E144" s="5">
+      <c r="E147" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:E144"/>
+  <autoFilter ref="B3:E147"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wico/数据表结构.xlsx
+++ b/wico/数据表结构.xlsx
@@ -16,7 +16,7 @@
     <sheet name="客户正式投诉" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$171</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'零件清单（下载）'!$B$3:$K$154</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'座椅配置（下载）'!$B$3:$E$676</definedName>
   </definedNames>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4007" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4013" uniqueCount="1137">
   <si>
     <t>SLIDE ADJR OUT L,FR SEAT</t>
   </si>
@@ -3947,6 +3947,22 @@
   </si>
   <si>
     <t>反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>震动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动座椅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后升降震动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换座椅骨架</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -21377,10 +21393,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E170"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23122,13 +23138,13 @@
     </row>
     <row r="124" spans="2:5">
       <c r="B124" s="7" t="s">
-        <v>696</v>
+        <v>630</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>657</v>
+        <v>1133</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>697</v>
+        <v>629</v>
       </c>
       <c r="E124" s="5">
         <v>0</v>
@@ -23136,10 +23152,10 @@
     </row>
     <row r="125" spans="2:5">
       <c r="B125" s="7" t="s">
-        <v>656</v>
+        <v>696</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>697</v>
@@ -23150,10 +23166,10 @@
     </row>
     <row r="126" spans="2:5">
       <c r="B126" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>698</v>
+        <v>656</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>658</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>697</v>
@@ -23164,10 +23180,10 @@
     </row>
     <row r="127" spans="2:5">
       <c r="B127" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>659</v>
+        <v>696</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>698</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>697</v>
@@ -23181,7 +23197,7 @@
         <v>656</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>697</v>
@@ -23195,7 +23211,7 @@
         <v>656</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>697</v>
@@ -23209,7 +23225,7 @@
         <v>656</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>697</v>
@@ -23223,7 +23239,7 @@
         <v>656</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>697</v>
@@ -23234,13 +23250,13 @@
     </row>
     <row r="132" spans="2:5">
       <c r="B132" s="7" t="s">
-        <v>625</v>
+        <v>656</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>626</v>
+        <v>695</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>627</v>
+        <v>697</v>
       </c>
       <c r="E132" s="5">
         <v>0</v>
@@ -23251,10 +23267,10 @@
         <v>625</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
@@ -23268,7 +23284,7 @@
         <v>648</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
@@ -23279,10 +23295,10 @@
         <v>625</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>699</v>
+        <v>648</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
@@ -23293,7 +23309,7 @@
         <v>625</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>649</v>
@@ -23304,13 +23320,13 @@
     </row>
     <row r="137" spans="2:5">
       <c r="B137" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>638</v>
+        <v>625</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>700</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="E137" s="5">
         <v>0</v>
@@ -23324,7 +23340,7 @@
         <v>638</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>1047</v>
+        <v>633</v>
       </c>
       <c r="E138" s="5">
         <v>0</v>
@@ -23338,7 +23354,7 @@
         <v>638</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E139" s="5">
         <v>0</v>
@@ -23349,10 +23365,10 @@
         <v>632</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>635</v>
+        <v>1048</v>
       </c>
       <c r="E140" s="5">
         <v>0</v>
@@ -23366,7 +23382,7 @@
         <v>634</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E141" s="5">
         <v>0</v>
@@ -23374,13 +23390,13 @@
     </row>
     <row r="142" spans="2:5">
       <c r="B142" s="7" t="s">
-        <v>1122</v>
+        <v>632</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>1124</v>
+        <v>634</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>636</v>
       </c>
       <c r="E142" s="5">
         <v>0</v>
@@ -23388,13 +23404,13 @@
     </row>
     <row r="143" spans="2:5">
       <c r="B143" s="7" t="s">
-        <v>632</v>
+        <v>1122</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>979</v>
+        <v>1123</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>1124</v>
       </c>
       <c r="E143" s="5">
         <v>0</v>
@@ -23402,13 +23418,13 @@
     </row>
     <row r="144" spans="2:5">
       <c r="B144" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>993</v>
+        <v>1134</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>1135</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>643</v>
+        <v>1136</v>
       </c>
       <c r="E144" s="5">
         <v>0</v>
@@ -23416,13 +23432,13 @@
     </row>
     <row r="145" spans="2:5">
       <c r="B145" s="7" t="s">
-        <v>994</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>995</v>
+        <v>632</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>978</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>996</v>
+        <v>979</v>
       </c>
       <c r="E145" s="5">
         <v>0</v>
@@ -23430,69 +23446,69 @@
     </row>
     <row r="146" spans="2:5">
       <c r="B146" s="7" t="s">
-        <v>1078</v>
+        <v>632</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>1079</v>
+        <v>993</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>643</v>
       </c>
       <c r="E146" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="2:5">
-      <c r="B147" s="33" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C147" s="34" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D147" s="33" t="s">
-        <v>633</v>
-      </c>
-      <c r="E147" s="34">
+      <c r="B147" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="E147" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="2:5">
       <c r="B148" s="7" t="s">
-        <v>672</v>
+        <v>1078</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="D148" s="9" t="s">
-        <v>673</v>
+        <v>1077</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>1079</v>
       </c>
       <c r="E148" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="2:5">
-      <c r="B149" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="E149" s="5">
+      <c r="B149" s="33" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C149" s="34" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D149" s="33" t="s">
+        <v>633</v>
+      </c>
+      <c r="E149" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="2:5">
       <c r="B150" s="7" t="s">
-        <v>968</v>
+        <v>672</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>969</v>
+        <v>670</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>970</v>
+        <v>673</v>
       </c>
       <c r="E150" s="5">
         <v>0</v>
@@ -23500,13 +23516,13 @@
     </row>
     <row r="151" spans="2:5">
       <c r="B151" s="7" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="E151" s="5">
         <v>0</v>
@@ -23514,13 +23530,13 @@
     </row>
     <row r="152" spans="2:5">
       <c r="B152" s="7" t="s">
-        <v>1038</v>
+        <v>968</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>1037</v>
+        <v>969</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>1039</v>
+        <v>970</v>
       </c>
       <c r="E152" s="5">
         <v>0</v>
@@ -23528,13 +23544,13 @@
     </row>
     <row r="153" spans="2:5">
       <c r="B153" s="7" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="E153" s="5">
         <v>0</v>
@@ -23542,13 +23558,13 @@
     </row>
     <row r="154" spans="2:5">
       <c r="B154" s="7" t="s">
-        <v>926</v>
+        <v>1038</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>677</v>
+        <v>1037</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>678</v>
+        <v>1039</v>
       </c>
       <c r="E154" s="5">
         <v>0</v>
@@ -23556,13 +23572,13 @@
     </row>
     <row r="155" spans="2:5">
       <c r="B155" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>681</v>
+        <v>676</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>677</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="E155" s="5">
         <v>0</v>
@@ -23570,13 +23586,13 @@
     </row>
     <row r="156" spans="2:5">
       <c r="B156" s="7" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>1024</v>
+        <v>926</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>677</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>1026</v>
+        <v>678</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
@@ -23584,13 +23600,13 @@
     </row>
     <row r="157" spans="2:5">
       <c r="B157" s="7" t="s">
-        <v>1027</v>
+        <v>683</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>681</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
@@ -23598,13 +23614,13 @@
     </row>
     <row r="158" spans="2:5">
       <c r="B158" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>1024</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>674</v>
+        <v>1026</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
@@ -23612,13 +23628,13 @@
     </row>
     <row r="159" spans="2:5">
       <c r="B159" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>687</v>
+        <v>1027</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>681</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
@@ -23626,13 +23642,13 @@
     </row>
     <row r="160" spans="2:5">
       <c r="B160" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>689</v>
+        <v>1027</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>1024</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="E160" s="5">
         <v>0</v>
@@ -23640,13 +23656,13 @@
     </row>
     <row r="161" spans="2:5">
       <c r="B161" s="7" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E161" s="5">
         <v>0</v>
@@ -23657,10 +23673,10 @@
         <v>690</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="E162" s="5">
         <v>0</v>
@@ -23668,13 +23684,13 @@
     </row>
     <row r="163" spans="2:5">
       <c r="B163" s="7" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="E163" s="5">
         <v>0</v>
@@ -23682,13 +23698,13 @@
     </row>
     <row r="164" spans="2:5">
       <c r="B164" s="7" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E164" s="5">
         <v>0</v>
@@ -23699,7 +23715,7 @@
         <v>705</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>706</v>
@@ -23710,13 +23726,13 @@
     </row>
     <row r="166" spans="2:5">
       <c r="B166" s="7" t="s">
-        <v>961</v>
+        <v>705</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>962</v>
+        <v>707</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>1073</v>
+        <v>706</v>
       </c>
       <c r="E166" s="5">
         <v>0</v>
@@ -23724,13 +23740,13 @@
     </row>
     <row r="167" spans="2:5">
       <c r="B167" s="7" t="s">
-        <v>961</v>
+        <v>705</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>964</v>
+        <v>708</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>965</v>
+        <v>706</v>
       </c>
       <c r="E167" s="5">
         <v>0</v>
@@ -23740,11 +23756,11 @@
       <c r="B168" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="C168" s="5" t="s">
-        <v>966</v>
+      <c r="C168" s="6" t="s">
+        <v>962</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>965</v>
+        <v>1073</v>
       </c>
       <c r="E168" s="5">
         <v>0</v>
@@ -23754,8 +23770,8 @@
       <c r="B169" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="C169" s="5" t="s">
-        <v>967</v>
+      <c r="C169" s="6" t="s">
+        <v>964</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>965</v>
@@ -23766,20 +23782,48 @@
     </row>
     <row r="170" spans="2:5">
       <c r="B170" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E170" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5">
+      <c r="B171" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E171" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5">
+      <c r="B172" s="7" t="s">
         <v>1125</v>
       </c>
-      <c r="C170" s="7" t="s">
+      <c r="C172" s="7" t="s">
         <v>1126</v>
       </c>
-      <c r="D170" s="7" t="s">
+      <c r="D172" s="7" t="s">
         <v>1127</v>
       </c>
-      <c r="E170" s="5">
+      <c r="E172" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:E169"/>
+  <autoFilter ref="B3:E171"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wico/数据表结构.xlsx
+++ b/wico/数据表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23250" windowHeight="13170" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="客户正式投诉" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$178</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'零件清单（下载）'!$B$3:$K$154</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'座椅配置（下载）'!$B$3:$E$676</definedName>
   </definedNames>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4013" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4034" uniqueCount="1155">
   <si>
     <t>SLIDE ADJR OUT L,FR SEAT</t>
   </si>
@@ -3305,27 +3305,692 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>解锁手柄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹簧松动/脱落</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换弹簧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节滑动电机支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英国电动-前排-右席座椅（8WAY带记忆）</t>
+  </si>
+  <si>
+    <t>英国电动-前排-右席座椅（8WAY无记忆）</t>
+  </si>
+  <si>
+    <t>英国电动-前排-左席座椅（4WAY无记忆）</t>
+  </si>
+  <si>
+    <t>后升降无法作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除焊渣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>81201-3A02-X810-M1-0000</t>
+  </si>
+  <si>
+    <t>81260-3B42-H010-M1-0000</t>
+  </si>
+  <si>
+    <t>81270-3B42-H010-M1-0000</t>
+  </si>
+  <si>
+    <t>81260-3E73-E810-M1-0000</t>
+  </si>
+  <si>
+    <t>81660-3B42-H710-M1-0000</t>
+  </si>
+  <si>
+    <t>81260-3B42-H710-M1-0000</t>
+  </si>
+  <si>
+    <t>81660-3E73-E810-M1-0000</t>
+  </si>
+  <si>
+    <t>81670-3B42-H710-M1-0000</t>
+  </si>
+  <si>
+    <t>81270-3B42-H710-M1-0000</t>
+  </si>
+  <si>
+    <t>81270-3E73-E810-M1-0000</t>
+  </si>
+  <si>
+    <t>81670-3E73-E810-M1-0000</t>
+  </si>
+  <si>
+    <t>81202-3E73-E810-M1-0000</t>
+  </si>
+  <si>
+    <t>81602-3A02-A710-M1-0001</t>
+  </si>
+  <si>
+    <t>滑轨无法作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动座椅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑轨无法作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换H型滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码脏污/破损，无法识别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2110-355-310</t>
+  </si>
+  <si>
+    <t>2110-355-320</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gitee.com/sunny_ho/image_bed/raw/master/wico/2110-355-310.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gitee.com/sunny_ho/image_bed/raw/master/wico/2110-355-320.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>58104/58112</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3B4A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动-后排-左席座椅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动-后排-右席座椅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2110-355-310</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2110-355-320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L001779025</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L001779035</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MINI RECLINER ASSY_RH，MANUAL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MINI RECLINER ASSY_LH，MANUAL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调角器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动晃动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撬L形支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动拉力过大</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂润滑油，反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动晃动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴弯曲了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绕性轴（短）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绕性轴（长）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑轨震动并且晃动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机破损</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动晃动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动震动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepairMethod</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降电机异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>变形</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动电机支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑动电机支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regular</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>([0-9]{2})([A-L])([0-3][0-9])([A-M]) ([0-9]{3})</t>
+  </si>
+  <si>
+    <t>涂油反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动震动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整/更换 短绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整/更换 长绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码脏污/破损，无法识别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撬支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降干涉异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动途中卡死，无法再前后作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动途中卡死，无法再前后作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法作动到最前/后端</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作动到最前端后无法返回</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲护架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上导轨螺丝滑牙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作动到最顶/底端时有死点音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降打啃&amp;异响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降缓慢</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂油反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法作动到最前/后端</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节滑动电机支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动震动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂油反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换调角器电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撬L形支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法作动到最前/后端</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动电机连接板破损</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动座椅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换H型滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撬扇形齿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降打啃&amp;异响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣条异响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑轨震动并且晃动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降打啃&amp;异响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理齿部的焊渣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动打啃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动座椅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降电机异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧固电机螺丝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>73M0([1-9A-E])1([1-9A-C])([1-9A-HJ-NP-X])([0-9A-F]{3})([0-9A-Z])([WT])</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>73M0([1-9A-E])B([1-9A-C])([1-9A-HJ-NP-X])([0-9A-F]{3})([0-9A-Z])([WT])</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>73M0([1-9A-E])0([1-9A-C])([1-9A-HJ-NP-X])([0-9A-F]{3})([0-9A-Z])([WT])</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>73M0([1-9A-E])A([1-9A-C])([1-9A-HJ-NP-X])([0-9A-F]{3})([0-9A-Z])([WT])</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑轨震动并且晃动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降打啃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节制动器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撬扇形齿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理齿部的焊渣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前升降电动支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后升降电动支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前升降电动支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前升降电动支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIDE BRKT INN COMP R,FR CUSH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIDE BRKT OUT L SUB COMP,FR CUSH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>齿轮箱破损</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整/更换 短绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整/更换 长绕性轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂润滑油，反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换丝杆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑轨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动座椅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后升降震动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调角器电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机破损</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱、丝杆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整丝杆螺母，反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整丝杆螺母</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反复作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>震动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动座椅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换座椅骨架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手柄下压后不回弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手柄上拉后不回弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁手柄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换解锁手柄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>无法作动</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>解锁手柄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹簧松动/脱落</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换弹簧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调节滑动电机支架</t>
+    <t>无法作动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑动电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换滑动电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动座椅</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3333,400 +3998,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>手动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>英国电动-前排-右席座椅（8WAY带记忆）</t>
-  </si>
-  <si>
-    <t>英国电动-前排-右席座椅（8WAY无记忆）</t>
-  </si>
-  <si>
-    <t>英国电动-前排-左席座椅（4WAY无记忆）</t>
-  </si>
-  <si>
-    <t>后升降无法作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除焊渣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>81201-3A02-X810-M1-0000</t>
-  </si>
-  <si>
-    <t>81260-3B42-H010-M1-0000</t>
-  </si>
-  <si>
-    <t>81270-3B42-H010-M1-0000</t>
-  </si>
-  <si>
-    <t>81260-3E73-E810-M1-0000</t>
-  </si>
-  <si>
-    <t>81660-3B42-H710-M1-0000</t>
-  </si>
-  <si>
-    <t>81260-3B42-H710-M1-0000</t>
-  </si>
-  <si>
-    <t>81660-3E73-E810-M1-0000</t>
-  </si>
-  <si>
-    <t>81670-3B42-H710-M1-0000</t>
-  </si>
-  <si>
-    <t>81270-3B42-H710-M1-0000</t>
-  </si>
-  <si>
-    <t>81270-3E73-E810-M1-0000</t>
-  </si>
-  <si>
-    <t>81670-3E73-E810-M1-0000</t>
-  </si>
-  <si>
-    <t>81202-3E73-E810-M1-0000</t>
-  </si>
-  <si>
-    <t>81602-3A02-A710-M1-0001</t>
-  </si>
-  <si>
-    <t>滑轨无法作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>电动座椅</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>滑轨无法作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换H型滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>条码脏污/破损，无法识别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2110-355-310</t>
-  </si>
-  <si>
-    <t>2110-355-320</t>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://gitee.com/sunny_ho/image_bed/raw/master/wico/2110-355-310.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://gitee.com/sunny_ho/image_bed/raw/master/wico/2110-355-320.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>58104/58112</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3B4A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动-后排-左席座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动-后排-右席座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2110-355-310</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2110-355-320</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>L001779025</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>L001779035</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MINI RECLINER ASSY_RH，MANUAL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MINI RECLINER ASSY_LH，MANUAL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调角器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>撬L形支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动拉力过大</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>涂润滑油，反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>轴弯曲了</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>绕性轴（短）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>绕性轴（长）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑轨震动并且晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机破损</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PartType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepairMethod</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降电机异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>变形</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动电机支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换滑动电机支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>滑动异音</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Regular</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>([0-9]{2})([A-L])([0-3][0-9])([A-M]) ([0-9]{3})</t>
-  </si>
-  <si>
-    <t>涂油反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整/更换 短绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整/更换 长绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>条码脏污/破损，无法识别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>撬支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降干涉异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动途中卡死，无法再前后作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动途中卡死，无法再前后作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法作动到最前/后端</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>作动到最前端后无法返回</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换滑块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>敲护架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>上导轨螺丝滑牙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>作动到最顶/底端时有死点音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降打啃&amp;异响</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降缓慢</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>涂油反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法作动到最前/后端</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调节滑动电机支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>更换齿轮箱</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>滑动震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>涂油反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换调角器电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>撬L形支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法作动到最前/后端</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动电机连接板破损</t>
+    <t>调节电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换前升降电机</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3734,235 +4022,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>更换H型滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>撬扇形齿</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调节电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降打啃&amp;异响</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>扣条异响</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑轨震动并且晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换齿轮箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降打啃&amp;异响</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>清理齿部的焊渣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动打啃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降电机异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧固电机螺丝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>73M0([1-9A-E])1([1-9A-C])([1-9A-HJ-NP-X])([0-9A-F]{3})([0-9A-Z])([WT])</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>73M0([1-9A-E])B([1-9A-C])([1-9A-HJ-NP-X])([0-9A-F]{3})([0-9A-Z])([WT])</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>73M0([1-9A-E])0([1-9A-C])([1-9A-HJ-NP-X])([0-9A-F]{3})([0-9A-Z])([WT])</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>73M0([1-9A-E])A([1-9A-C])([1-9A-HJ-NP-X])([0-9A-F]{3})([0-9A-Z])([WT])</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑轨震动并且晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降打啃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调节电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调节制动器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>撬扇形齿</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>清理齿部的焊渣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>前升降电动支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后升降电动支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>前升降电动支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>前升降电动支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIDE BRKT INN COMP R,FR CUSH</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIDE BRKT OUT L SUB COMP,FR CUSH</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>齿轮箱破损</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换齿轮箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整/更换 短绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整/更换 长绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>涂润滑油，反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换齿轮箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换丝杆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>后升降震动</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>调节电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调角器电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机破损</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换齿轮箱、丝杆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整丝杆螺母，反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整丝杆螺母</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后升降震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换座椅骨架</t>
+    <t>后升降异音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换后升降电机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前升降异音</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5435,7 +5507,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5496,7 +5568,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5557,7 +5629,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5613,7 +5685,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5671,7 +5743,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5729,7 +5801,7 @@
         <xdr:cNvPr id="13" name="TextBox 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5792,7 +5864,7 @@
         <xdr:cNvPr id="16" name="直接箭头连接符 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5845,7 +5917,7 @@
         <xdr:cNvPr id="21" name="图片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5906,7 +5978,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5967,7 +6039,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6020,7 +6092,7 @@
         <xdr:cNvPr id="27" name="直接箭头连接符 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6073,7 +6145,7 @@
         <xdr:cNvPr id="29" name="直接箭头连接符 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6126,7 +6198,7 @@
         <xdr:cNvPr id="31" name="直接箭头连接符 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6179,7 +6251,7 @@
         <xdr:cNvPr id="33" name="直接箭头连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6232,7 +6304,7 @@
         <xdr:cNvPr id="36" name="直接箭头连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6280,7 +6352,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6621,7 +6693,7 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="17" spans="20:20">
       <c r="T17" s="10"/>
@@ -6689,20 +6761,20 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="44.77734375" customWidth="1"/>
-    <col min="6" max="6" width="64.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" customWidth="1"/>
-    <col min="10" max="10" width="64.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" customWidth="1"/>
-    <col min="12" max="12" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="5" max="5" width="44.75" customWidth="1"/>
+    <col min="6" max="6" width="64.875" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="64.375" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -6775,7 +6847,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19.95" customHeight="1">
+    <row r="3" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
@@ -6801,7 +6873,7 @@
         <v>47</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>50</v>
@@ -7500,13 +7572,13 @@
         <v>170</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>735</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>2</v>
@@ -7515,7 +7587,7 @@
         <v>58109</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K26" s="7">
         <v>0</v>
@@ -7541,7 +7613,7 @@
         <v>736</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>2</v>
@@ -7550,7 +7622,7 @@
         <v>58109</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K27" s="7">
         <v>0</v>
@@ -7576,14 +7648,14 @@
         <v>737</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K28" s="7">
         <v>0</v>
@@ -7609,7 +7681,7 @@
         <v>738</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>2</v>
@@ -7618,7 +7690,7 @@
         <v>58109</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K29" s="7">
         <v>0</v>
@@ -7644,14 +7716,14 @@
         <v>739</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K30" s="7">
         <v>0</v>
@@ -7889,7 +7961,7 @@
         <v>277</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>278</v>
@@ -7922,7 +7994,7 @@
         <v>279</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>280</v>
@@ -8159,7 +8231,7 @@
         <v>58104</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K46" s="7">
         <v>0</v>
@@ -8194,7 +8266,7 @@
         <v>58104</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K47" s="7">
         <v>0</v>
@@ -8229,7 +8301,7 @@
         <v>58104</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K48" s="7">
         <v>0</v>
@@ -8264,7 +8336,7 @@
         <v>58104</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K49" s="7">
         <v>0</v>
@@ -8299,7 +8371,7 @@
         <v>58112</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K50" s="7">
         <v>0</v>
@@ -8334,7 +8406,7 @@
         <v>765</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K51" s="7">
         <v>0</v>
@@ -8369,7 +8441,7 @@
         <v>58112</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K52" s="7">
         <v>0</v>
@@ -8404,7 +8476,7 @@
         <v>765</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K53" s="7">
         <v>0</v>
@@ -8439,7 +8511,7 @@
         <v>58112</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K54" s="7">
         <v>0</v>
@@ -8471,10 +8543,10 @@
         <v>2</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K55" s="7">
         <v>0</v>
@@ -8509,7 +8581,7 @@
         <v>58112</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K56" s="7">
         <v>0</v>
@@ -8544,7 +8616,7 @@
         <v>765</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K57" s="7">
         <v>0</v>
@@ -8579,7 +8651,7 @@
         <v>52111</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K58" s="7">
         <v>0</v>
@@ -8614,7 +8686,7 @@
         <v>52111</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K59" s="7">
         <v>0</v>
@@ -8647,7 +8719,7 @@
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K60" s="7">
         <v>0</v>
@@ -8680,7 +8752,7 @@
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K61" s="7">
         <v>0</v>
@@ -8713,7 +8785,7 @@
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K62" s="7">
         <v>0</v>
@@ -8746,7 +8818,7 @@
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K63" s="7">
         <v>0</v>
@@ -8781,7 +8853,7 @@
         <v>58111</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K64" s="7">
         <v>0</v>
@@ -8816,7 +8888,7 @@
         <v>58111</v>
       </c>
       <c r="J65" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K65" s="7">
         <v>0</v>
@@ -8849,7 +8921,7 @@
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K66" s="7">
         <v>0</v>
@@ -8882,7 +8954,7 @@
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K67" s="7">
         <v>0</v>
@@ -8915,7 +8987,7 @@
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K68" s="7">
         <v>0</v>
@@ -8948,7 +9020,7 @@
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K69" s="7">
         <v>0</v>
@@ -9076,7 +9148,7 @@
         <v>58105</v>
       </c>
       <c r="J73" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K73" s="7">
         <v>0</v>
@@ -9999,7 +10071,7 @@
         <v>136</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>137</v>
@@ -10110,7 +10182,7 @@
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K105" s="7">
         <v>0</v>
@@ -10143,7 +10215,7 @@
       </c>
       <c r="I106" s="7"/>
       <c r="J106" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K106" s="7">
         <v>0</v>
@@ -10178,7 +10250,7 @@
         <v>58103</v>
       </c>
       <c r="J107" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K107" s="7">
         <v>0</v>
@@ -10213,7 +10285,7 @@
         <v>58103</v>
       </c>
       <c r="J108" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K108" s="7">
         <v>0</v>
@@ -10248,7 +10320,7 @@
         <v>58103</v>
       </c>
       <c r="J109" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K109" s="7">
         <v>0</v>
@@ -10283,7 +10355,7 @@
         <v>58103</v>
       </c>
       <c r="J110" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K110" s="7">
         <v>0</v>
@@ -10528,7 +10600,7 @@
         <v>58103</v>
       </c>
       <c r="J117" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K117" s="7">
         <v>0</v>
@@ -10563,7 +10635,7 @@
         <v>58103</v>
       </c>
       <c r="J118" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K118" s="7">
         <v>0</v>
@@ -10598,7 +10670,7 @@
         <v>58103</v>
       </c>
       <c r="J119" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K119" s="7">
         <v>0</v>
@@ -10633,7 +10705,7 @@
         <v>58103</v>
       </c>
       <c r="J120" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K120" s="7">
         <v>0</v>
@@ -10668,7 +10740,7 @@
         <v>58103</v>
       </c>
       <c r="J121" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K121" s="7">
         <v>0</v>
@@ -10703,7 +10775,7 @@
         <v>58103</v>
       </c>
       <c r="J122" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K122" s="7">
         <v>0</v>
@@ -10723,20 +10795,20 @@
         <v>858</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F123" s="19" t="s">
         <v>859</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H123" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="19" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="K123" s="7">
         <v>0</v>
@@ -10762,7 +10834,7 @@
         <v>861</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>2</v>
@@ -10771,7 +10843,7 @@
         <v>58109</v>
       </c>
       <c r="J124" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K124" s="7">
         <v>0</v>
@@ -10797,14 +10869,14 @@
         <v>863</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H125" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="19" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="K125" s="7">
         <v>0</v>
@@ -10830,7 +10902,7 @@
         <v>865</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H126" s="7" t="s">
         <v>2</v>
@@ -10839,7 +10911,7 @@
         <v>58109</v>
       </c>
       <c r="J126" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K126" s="7">
         <v>0</v>
@@ -10865,14 +10937,14 @@
         <v>867</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H127" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I127" s="7"/>
       <c r="J127" s="19" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="K127" s="7">
         <v>0</v>
@@ -10898,7 +10970,7 @@
         <v>869</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H128" s="7" t="s">
         <v>2</v>
@@ -10907,7 +10979,7 @@
         <v>58109</v>
       </c>
       <c r="J128" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K128" s="7">
         <v>0</v>
@@ -10933,14 +11005,14 @@
         <v>871</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="19" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="K129" s="7">
         <v>0</v>
@@ -10966,7 +11038,7 @@
         <v>873</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>2</v>
@@ -10975,7 +11047,7 @@
         <v>58109</v>
       </c>
       <c r="J130" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K130" s="7">
         <v>0</v>
@@ -11202,7 +11274,7 @@
         <v>240</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>207</v>
@@ -11307,7 +11379,7 @@
         <v>243</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>219</v>
@@ -11482,7 +11554,7 @@
         <v>390</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>179</v>
@@ -11515,7 +11587,7 @@
         <v>248</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E146" s="7" t="s">
         <v>0</v>
@@ -11550,7 +11622,7 @@
         <v>249</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E147" s="7" t="s">
         <v>179</v>
@@ -11585,7 +11657,7 @@
         <v>391</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E148" s="7" t="s">
         <v>0</v>
@@ -11618,7 +11690,7 @@
         <v>392</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E149" s="7" t="s">
         <v>185</v>
@@ -11651,7 +11723,7 @@
         <v>250</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E150" s="7" t="s">
         <v>3</v>
@@ -11686,7 +11758,7 @@
         <v>251</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>185</v>
@@ -11721,7 +11793,7 @@
         <v>393</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>3</v>
@@ -11751,22 +11823,22 @@
         <v>138</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F153" s="31" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I153" s="7">
         <v>58112</v>
@@ -11781,22 +11853,22 @@
         <v>138</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F154" s="31" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G154" s="7" t="s">
         <v>79</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I154" s="7">
         <v>58112</v>
@@ -11826,13 +11898,13 @@
       <selection activeCell="C379" sqref="C379"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="36.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="36.75" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -20815,7 +20887,7 @@
         <v>603</v>
       </c>
       <c r="C640" s="17" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D640" s="18" t="s">
         <v>564</v>
@@ -20829,7 +20901,7 @@
         <v>603</v>
       </c>
       <c r="C641" s="17" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D641" s="18" t="s">
         <v>567</v>
@@ -20843,7 +20915,7 @@
         <v>603</v>
       </c>
       <c r="C642" s="17" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D642" s="18" t="s">
         <v>568</v>
@@ -20857,7 +20929,7 @@
         <v>603</v>
       </c>
       <c r="C643" s="17" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D643" s="18" t="s">
         <v>569</v>
@@ -20871,7 +20943,7 @@
         <v>603</v>
       </c>
       <c r="C644" s="17" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D644" s="18" t="s">
         <v>570</v>
@@ -20885,7 +20957,7 @@
         <v>603</v>
       </c>
       <c r="C645" s="17" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D645" s="18" t="s">
         <v>571</v>
@@ -20899,7 +20971,7 @@
         <v>603</v>
       </c>
       <c r="C646" s="17" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D646" s="18" t="s">
         <v>572</v>
@@ -20913,7 +20985,7 @@
         <v>603</v>
       </c>
       <c r="C647" s="17" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D647" s="18" t="s">
         <v>574</v>
@@ -20927,7 +20999,7 @@
         <v>603</v>
       </c>
       <c r="C648" s="17" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D648" s="18" t="s">
         <v>575</v>
@@ -20941,7 +21013,7 @@
         <v>603</v>
       </c>
       <c r="C649" s="17" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D649" s="18" t="s">
         <v>608</v>
@@ -20955,7 +21027,7 @@
         <v>603</v>
       </c>
       <c r="C650" s="17" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D650" s="18" t="s">
         <v>576</v>
@@ -20969,7 +21041,7 @@
         <v>603</v>
       </c>
       <c r="C651" s="17" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D651" s="18" t="s">
         <v>578</v>
@@ -20983,7 +21055,7 @@
         <v>603</v>
       </c>
       <c r="C652" s="17" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D652" s="18" t="s">
         <v>579</v>
@@ -20997,7 +21069,7 @@
         <v>603</v>
       </c>
       <c r="C653" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D653" s="18" t="s">
         <v>563</v>
@@ -21011,7 +21083,7 @@
         <v>603</v>
       </c>
       <c r="C654" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D654" s="18" t="s">
         <v>567</v>
@@ -21025,7 +21097,7 @@
         <v>603</v>
       </c>
       <c r="C655" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D655" s="18" t="s">
         <v>568</v>
@@ -21039,7 +21111,7 @@
         <v>603</v>
       </c>
       <c r="C656" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D656" s="18" t="s">
         <v>569</v>
@@ -21053,7 +21125,7 @@
         <v>603</v>
       </c>
       <c r="C657" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D657" s="18" t="s">
         <v>570</v>
@@ -21067,7 +21139,7 @@
         <v>603</v>
       </c>
       <c r="C658" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D658" s="18" t="s">
         <v>571</v>
@@ -21081,7 +21153,7 @@
         <v>603</v>
       </c>
       <c r="C659" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D659" s="18" t="s">
         <v>572</v>
@@ -21095,7 +21167,7 @@
         <v>603</v>
       </c>
       <c r="C660" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D660" s="18" t="s">
         <v>604</v>
@@ -21109,7 +21181,7 @@
         <v>603</v>
       </c>
       <c r="C661" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D661" s="18" t="s">
         <v>605</v>
@@ -21123,7 +21195,7 @@
         <v>603</v>
       </c>
       <c r="C662" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D662" s="18" t="s">
         <v>608</v>
@@ -21137,7 +21209,7 @@
         <v>603</v>
       </c>
       <c r="C663" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D663" s="18" t="s">
         <v>576</v>
@@ -21151,7 +21223,7 @@
         <v>603</v>
       </c>
       <c r="C664" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D664" s="18" t="s">
         <v>578</v>
@@ -21165,7 +21237,7 @@
         <v>603</v>
       </c>
       <c r="C665" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D665" s="18" t="s">
         <v>579</v>
@@ -21179,7 +21251,7 @@
         <v>603</v>
       </c>
       <c r="C666" s="17" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D666" s="18" t="s">
         <v>565</v>
@@ -21193,7 +21265,7 @@
         <v>603</v>
       </c>
       <c r="C667" s="17" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D667" s="18" t="s">
         <v>567</v>
@@ -21207,7 +21279,7 @@
         <v>603</v>
       </c>
       <c r="C668" s="17" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D668" s="18" t="s">
         <v>568</v>
@@ -21221,7 +21293,7 @@
         <v>603</v>
       </c>
       <c r="C669" s="17" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D669" s="18" t="s">
         <v>569</v>
@@ -21235,7 +21307,7 @@
         <v>603</v>
       </c>
       <c r="C670" s="17" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D670" s="18" t="s">
         <v>570</v>
@@ -21249,7 +21321,7 @@
         <v>603</v>
       </c>
       <c r="C671" s="17" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D671" s="18" t="s">
         <v>606</v>
@@ -21263,7 +21335,7 @@
         <v>603</v>
       </c>
       <c r="C672" s="17" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D672" s="18" t="s">
         <v>573</v>
@@ -21277,7 +21349,7 @@
         <v>603</v>
       </c>
       <c r="C673" s="17" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D673" s="18" t="s">
         <v>608</v>
@@ -21291,7 +21363,7 @@
         <v>603</v>
       </c>
       <c r="C674" s="17" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D674" s="18" t="s">
         <v>576</v>
@@ -21305,7 +21377,7 @@
         <v>603</v>
       </c>
       <c r="C675" s="17" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D675" s="18" t="s">
         <v>578</v>
@@ -21319,7 +21391,7 @@
         <v>603</v>
       </c>
       <c r="C676" s="17" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D676" s="18" t="s">
         <v>579</v>
@@ -21330,13 +21402,13 @@
     </row>
     <row r="677" spans="2:5">
       <c r="B677" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C677" s="32" t="s">
         <v>1004</v>
       </c>
-      <c r="C677" s="32" t="s">
-        <v>1005</v>
-      </c>
       <c r="D677" s="7" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E677" s="16">
         <v>0</v>
@@ -21344,13 +21416,13 @@
     </row>
     <row r="678" spans="2:5">
       <c r="B678" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C678" s="32" t="s">
         <v>1004</v>
       </c>
-      <c r="C678" s="32" t="s">
-        <v>1005</v>
-      </c>
       <c r="D678" s="7" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E678" s="16">
         <v>0</v>
@@ -21358,13 +21430,13 @@
     </row>
     <row r="679" spans="2:5">
       <c r="B679" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C679" s="32" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D679" s="7" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E679" s="16">
         <v>0</v>
@@ -21372,13 +21444,13 @@
     </row>
     <row r="680" spans="2:5">
       <c r="B680" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C680" s="32" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D680" s="7" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E680" s="16">
         <v>0</v>
@@ -21393,19 +21465,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E172"/>
+  <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="G148" sqref="G148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="42.77734375" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="42.75" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -21503,7 +21575,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>623</v>
@@ -21514,13 +21586,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>1041</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -21528,13 +21600,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -21548,7 +21620,7 @@
         <v>622</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -21562,7 +21634,7 @@
         <v>622</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -21576,7 +21648,7 @@
         <v>622</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -21584,13 +21656,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -21598,13 +21670,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
@@ -21612,13 +21684,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>1070</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>1071</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
@@ -21626,13 +21698,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>1014</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>1015</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -21643,10 +21715,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>1022</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>1023</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
@@ -21654,13 +21726,13 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -21668,13 +21740,13 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -21682,13 +21754,13 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
@@ -21696,13 +21768,13 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -21710,13 +21782,13 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -21724,13 +21796,13 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>1084</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>1085</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>1086</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -21738,13 +21810,13 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>1098</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>1099</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
@@ -21755,7 +21827,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>646</v>
@@ -21769,7 +21841,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>624</v>
@@ -21783,7 +21855,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>642</v>
@@ -21797,7 +21869,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>937</v>
@@ -21814,7 +21886,7 @@
         <v>936</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E29" s="23">
         <v>0</v>
@@ -21828,7 +21900,7 @@
         <v>936</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="E30" s="23">
         <v>0</v>
@@ -21850,7 +21922,7 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>944</v>
@@ -21867,10 +21939,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
@@ -21881,10 +21953,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
@@ -21892,13 +21964,13 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>971</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>972</v>
       </c>
       <c r="E35" s="5">
         <v>0</v>
@@ -21906,13 +21978,13 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>1053</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>1054</v>
       </c>
       <c r="E36" s="5">
         <v>0</v>
@@ -21923,10 +21995,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E37" s="5">
         <v>0</v>
@@ -21934,13 +22006,13 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E38" s="5">
         <v>0</v>
@@ -21948,13 +22020,13 @@
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
@@ -21962,10 +22034,10 @@
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>938</v>
@@ -21976,13 +22048,13 @@
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E41" s="5">
         <v>0</v>
@@ -21990,13 +22062,13 @@
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E42" s="5">
         <v>0</v>
@@ -22004,13 +22076,13 @@
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>1075</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>1076</v>
-      </c>
       <c r="D43" s="7" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E43" s="5">
         <v>0</v>
@@ -22018,13 +22090,13 @@
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E44" s="5">
         <v>0</v>
@@ -22130,13 +22202,13 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>1113</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>1114</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>1115</v>
       </c>
       <c r="E52" s="5">
         <v>0</v>
@@ -22186,13 +22258,13 @@
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="29" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E56" s="29">
         <v>0</v>
@@ -22206,7 +22278,7 @@
         <v>622</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E57" s="5">
         <v>0</v>
@@ -22231,7 +22303,7 @@
         <v>637</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>646</v>
@@ -22346,7 +22418,7 @@
         <v>647</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E67" s="5">
         <v>0</v>
@@ -22357,7 +22429,7 @@
         <v>637</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>40</v>
@@ -22368,13 +22440,13 @@
     </row>
     <row r="69" spans="2:5">
       <c r="B69" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>1018</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>1019</v>
       </c>
       <c r="E69" s="5">
         <v>0</v>
@@ -22385,10 +22457,10 @@
         <v>637</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E70" s="5">
         <v>0</v>
@@ -22396,10 +22468,10 @@
     </row>
     <row r="71" spans="2:5">
       <c r="B71" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>628</v>
@@ -22410,13 +22482,13 @@
     </row>
     <row r="72" spans="2:5">
       <c r="B72" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C72" s="22" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D72" s="22" t="s">
         <v>1091</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>1092</v>
       </c>
       <c r="E72" s="23">
         <v>0</v>
@@ -22424,13 +22496,13 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E73" s="5">
         <v>0</v>
@@ -22438,7 +22510,7 @@
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>942</v>
@@ -22452,13 +22524,13 @@
     </row>
     <row r="75" spans="2:5">
       <c r="B75" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>1061</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>1062</v>
       </c>
       <c r="E75" s="5">
         <v>0</v>
@@ -22466,7 +22538,7 @@
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>943</v>
@@ -22480,10 +22552,10 @@
     </row>
     <row r="77" spans="2:5">
       <c r="B77" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>644</v>
@@ -22494,13 +22566,13 @@
     </row>
     <row r="78" spans="2:5">
       <c r="B78" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E78" s="5">
         <v>0</v>
@@ -22508,13 +22580,13 @@
     </row>
     <row r="79" spans="2:5">
       <c r="B79" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C79" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>1063</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>1064</v>
       </c>
       <c r="E79" s="5">
         <v>0</v>
@@ -22522,13 +22594,13 @@
     </row>
     <row r="80" spans="2:5">
       <c r="B80" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E80" s="5">
         <v>0</v>
@@ -22536,13 +22608,13 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C81" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>1082</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>1083</v>
       </c>
       <c r="E81" s="5">
         <v>0</v>
@@ -22550,13 +22622,13 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C82" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>1087</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>1088</v>
       </c>
       <c r="E82" s="5">
         <v>0</v>
@@ -22564,13 +22636,13 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C83" s="7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>1100</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>1101</v>
       </c>
       <c r="E83" s="5">
         <v>0</v>
@@ -22578,13 +22650,13 @@
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E84" s="5">
         <v>0</v>
@@ -22592,13 +22664,13 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E85" s="5">
         <v>0</v>
@@ -22606,13 +22678,13 @@
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E86" s="5">
         <v>0</v>
@@ -22620,13 +22692,13 @@
     </row>
     <row r="87" spans="2:5">
       <c r="B87" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E87" s="5">
         <v>0</v>
@@ -22634,13 +22706,13 @@
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E88" s="5">
         <v>0</v>
@@ -22648,7 +22720,7 @@
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>651</v>
@@ -22662,7 +22734,7 @@
     </row>
     <row r="90" spans="2:5">
       <c r="B90" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>652</v>
@@ -22676,7 +22748,7 @@
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>652</v>
@@ -22690,13 +22762,13 @@
     </row>
     <row r="92" spans="2:5">
       <c r="B92" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C92" s="22" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D92" s="22" t="s">
         <v>1065</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>1066</v>
       </c>
       <c r="E92" s="23">
         <v>0</v>
@@ -22704,7 +22776,7 @@
     </row>
     <row r="93" spans="2:5">
       <c r="B93" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C93" s="22" t="s">
         <v>940</v>
@@ -22718,7 +22790,7 @@
     </row>
     <row r="94" spans="2:5">
       <c r="B94" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>626</v>
@@ -22732,13 +22804,13 @@
     </row>
     <row r="95" spans="2:5">
       <c r="B95" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C95" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>1029</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>1030</v>
       </c>
       <c r="E95" s="5">
         <v>0</v>
@@ -22746,10 +22818,10 @@
     </row>
     <row r="96" spans="2:5">
       <c r="B96" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>628</v>
@@ -22760,13 +22832,13 @@
     </row>
     <row r="97" spans="2:5">
       <c r="B97" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C97" s="22" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D97" s="22" t="s">
         <v>1091</v>
-      </c>
-      <c r="D97" s="22" t="s">
-        <v>1092</v>
       </c>
       <c r="E97" s="23">
         <v>0</v>
@@ -22774,7 +22846,7 @@
     </row>
     <row r="98" spans="2:5">
       <c r="B98" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>942</v>
@@ -22788,13 +22860,13 @@
     </row>
     <row r="99" spans="2:5">
       <c r="B99" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C99" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D99" s="7" t="s">
         <v>1061</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>1062</v>
       </c>
       <c r="E99" s="5">
         <v>0</v>
@@ -22802,7 +22874,7 @@
     </row>
     <row r="100" spans="2:5">
       <c r="B100" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>943</v>
@@ -22816,10 +22888,10 @@
     </row>
     <row r="101" spans="2:5">
       <c r="B101" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>644</v>
@@ -22830,13 +22902,13 @@
     </row>
     <row r="102" spans="2:5">
       <c r="B102" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E102" s="5">
         <v>0</v>
@@ -22844,10 +22916,10 @@
     </row>
     <row r="103" spans="2:5">
       <c r="B103" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>635</v>
@@ -22858,13 +22930,13 @@
     </row>
     <row r="104" spans="2:5">
       <c r="B104" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C104" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>1063</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>1064</v>
       </c>
       <c r="E104" s="5">
         <v>0</v>
@@ -22872,13 +22944,13 @@
     </row>
     <row r="105" spans="2:5">
       <c r="B105" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C105" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>1087</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>1088</v>
       </c>
       <c r="E105" s="5">
         <v>0</v>
@@ -22886,13 +22958,13 @@
     </row>
     <row r="106" spans="2:5">
       <c r="B106" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C106" s="7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>1100</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>1101</v>
       </c>
       <c r="E106" s="5">
         <v>0</v>
@@ -22900,13 +22972,13 @@
     </row>
     <row r="107" spans="2:5">
       <c r="B107" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E107" s="5">
         <v>0</v>
@@ -22914,13 +22986,13 @@
     </row>
     <row r="108" spans="2:5">
       <c r="B108" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E108" s="5">
         <v>0</v>
@@ -22928,13 +23000,13 @@
     </row>
     <row r="109" spans="2:5">
       <c r="B109" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E109" s="5">
         <v>0</v>
@@ -22942,13 +23014,13 @@
     </row>
     <row r="110" spans="2:5">
       <c r="B110" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E110" s="5">
         <v>0</v>
@@ -22956,7 +23028,7 @@
     </row>
     <row r="111" spans="2:5">
       <c r="B111" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>651</v>
@@ -22970,7 +23042,7 @@
     </row>
     <row r="112" spans="2:5">
       <c r="B112" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>652</v>
@@ -22984,7 +23056,7 @@
     </row>
     <row r="113" spans="2:5">
       <c r="B113" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>652</v>
@@ -22998,13 +23070,13 @@
     </row>
     <row r="114" spans="2:5">
       <c r="B114" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C114" s="22" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D114" s="22" t="s">
         <v>1065</v>
-      </c>
-      <c r="D114" s="22" t="s">
-        <v>1066</v>
       </c>
       <c r="E114" s="23">
         <v>0</v>
@@ -23012,7 +23084,7 @@
     </row>
     <row r="115" spans="2:5">
       <c r="B115" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C115" s="22" t="s">
         <v>940</v>
@@ -23026,7 +23098,7 @@
     </row>
     <row r="116" spans="2:5">
       <c r="B116" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>626</v>
@@ -23040,13 +23112,13 @@
     </row>
     <row r="117" spans="2:5">
       <c r="B117" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C117" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D117" s="7" t="s">
         <v>1029</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>1030</v>
       </c>
       <c r="E117" s="5">
         <v>0</v>
@@ -23141,7 +23213,7 @@
         <v>630</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>629</v>
@@ -23152,13 +23224,13 @@
     </row>
     <row r="125" spans="2:5">
       <c r="B125" s="7" t="s">
-        <v>696</v>
+        <v>1140</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>657</v>
+        <v>1139</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>697</v>
+        <v>1141</v>
       </c>
       <c r="E125" s="5">
         <v>0</v>
@@ -23166,10 +23238,10 @@
     </row>
     <row r="126" spans="2:5">
       <c r="B126" s="7" t="s">
-        <v>656</v>
+        <v>696</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>697</v>
@@ -23180,10 +23252,10 @@
     </row>
     <row r="127" spans="2:5">
       <c r="B127" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>698</v>
+        <v>656</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>658</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>697</v>
@@ -23194,10 +23266,10 @@
     </row>
     <row r="128" spans="2:5">
       <c r="B128" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>659</v>
+        <v>696</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>698</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>697</v>
@@ -23211,7 +23283,7 @@
         <v>656</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>697</v>
@@ -23225,7 +23297,7 @@
         <v>656</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>697</v>
@@ -23239,7 +23311,7 @@
         <v>656</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>697</v>
@@ -23253,7 +23325,7 @@
         <v>656</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>697</v>
@@ -23264,13 +23336,13 @@
     </row>
     <row r="133" spans="2:5">
       <c r="B133" s="7" t="s">
-        <v>625</v>
+        <v>656</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>626</v>
+        <v>695</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>627</v>
+        <v>697</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
@@ -23281,10 +23353,10 @@
         <v>625</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
@@ -23298,7 +23370,7 @@
         <v>648</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
@@ -23309,10 +23381,10 @@
         <v>625</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>699</v>
+        <v>648</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E136" s="5">
         <v>0</v>
@@ -23323,7 +23395,7 @@
         <v>625</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>649</v>
@@ -23334,13 +23406,13 @@
     </row>
     <row r="138" spans="2:5">
       <c r="B138" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>638</v>
+        <v>625</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>700</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="E138" s="5">
         <v>0</v>
@@ -23348,13 +23420,13 @@
     </row>
     <row r="139" spans="2:5">
       <c r="B139" s="7" t="s">
-        <v>632</v>
+        <v>1145</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>638</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>1047</v>
+        <v>633</v>
       </c>
       <c r="E139" s="5">
         <v>0</v>
@@ -23368,7 +23440,7 @@
         <v>638</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E140" s="5">
         <v>0</v>
@@ -23379,10 +23451,10 @@
         <v>632</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>635</v>
+        <v>1047</v>
       </c>
       <c r="E141" s="5">
         <v>0</v>
@@ -23390,13 +23462,13 @@
     </row>
     <row r="142" spans="2:5">
       <c r="B142" s="7" t="s">
-        <v>632</v>
+        <v>1143</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>634</v>
+        <v>1144</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>636</v>
+        <v>1142</v>
       </c>
       <c r="E142" s="5">
         <v>0</v>
@@ -23404,13 +23476,13 @@
     </row>
     <row r="143" spans="2:5">
       <c r="B143" s="7" t="s">
-        <v>1122</v>
+        <v>1143</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>1124</v>
+        <v>1146</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>1147</v>
       </c>
       <c r="E143" s="5">
         <v>0</v>
@@ -23418,13 +23490,13 @@
     </row>
     <row r="144" spans="2:5">
       <c r="B144" s="7" t="s">
-        <v>1134</v>
+        <v>632</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D144" s="9" t="s">
-        <v>1136</v>
+        <v>634</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>635</v>
       </c>
       <c r="E144" s="5">
         <v>0</v>
@@ -23435,10 +23507,10 @@
         <v>632</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>978</v>
+        <v>634</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>979</v>
+        <v>636</v>
       </c>
       <c r="E145" s="5">
         <v>0</v>
@@ -23446,13 +23518,13 @@
     </row>
     <row r="146" spans="2:5">
       <c r="B146" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>993</v>
+        <v>1121</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>1122</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>643</v>
+        <v>1148</v>
       </c>
       <c r="E146" s="5">
         <v>0</v>
@@ -23460,13 +23532,13 @@
     </row>
     <row r="147" spans="2:5">
       <c r="B147" s="7" t="s">
-        <v>994</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>995</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>996</v>
+        <v>1132</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>1133</v>
       </c>
       <c r="E147" s="5">
         <v>0</v>
@@ -23474,41 +23546,41 @@
     </row>
     <row r="148" spans="2:5">
       <c r="B148" s="7" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>1079</v>
+        <v>1150</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>1153</v>
       </c>
       <c r="E148" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="2:5">
-      <c r="B149" s="33" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C149" s="34" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D149" s="33" t="s">
-        <v>633</v>
-      </c>
-      <c r="E149" s="34">
+      <c r="B149" s="7" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E149" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="2:5">
       <c r="B150" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="D150" s="9" t="s">
-        <v>673</v>
+        <v>632</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>978</v>
       </c>
       <c r="E150" s="5">
         <v>0</v>
@@ -23516,13 +23588,13 @@
     </row>
     <row r="151" spans="2:5">
       <c r="B151" s="7" t="s">
-        <v>669</v>
+        <v>632</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>671</v>
+        <v>992</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>673</v>
+        <v>643</v>
       </c>
       <c r="E151" s="5">
         <v>0</v>
@@ -23530,13 +23602,13 @@
     </row>
     <row r="152" spans="2:5">
       <c r="B152" s="7" t="s">
-        <v>968</v>
+        <v>993</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>969</v>
-      </c>
-      <c r="D152" s="9" t="s">
-        <v>970</v>
+        <v>994</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>995</v>
       </c>
       <c r="E152" s="5">
         <v>0</v>
@@ -23544,41 +23616,41 @@
     </row>
     <row r="153" spans="2:5">
       <c r="B153" s="7" t="s">
-        <v>685</v>
+        <v>1077</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="D153" s="9" t="s">
-        <v>686</v>
+        <v>1076</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>1078</v>
       </c>
       <c r="E153" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="2:5">
-      <c r="B154" s="7" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D154" s="9" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E154" s="5">
+      <c r="B154" s="33" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C154" s="34" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D154" s="33" t="s">
+        <v>633</v>
+      </c>
+      <c r="E154" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="2:5">
       <c r="B155" s="7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="E155" s="5">
         <v>0</v>
@@ -23586,13 +23658,13 @@
     </row>
     <row r="156" spans="2:5">
       <c r="B156" s="7" t="s">
-        <v>926</v>
+        <v>669</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
@@ -23600,13 +23672,13 @@
     </row>
     <row r="157" spans="2:5">
       <c r="B157" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>681</v>
+        <v>967</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>968</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>674</v>
+        <v>969</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
@@ -23614,13 +23686,13 @@
     </row>
     <row r="158" spans="2:5">
       <c r="B158" s="7" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>1024</v>
+        <v>1136</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>1134</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>1026</v>
+        <v>673</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
@@ -23628,13 +23700,13 @@
     </row>
     <row r="159" spans="2:5">
       <c r="B159" s="7" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>681</v>
+        <v>669</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>1135</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>684</v>
+        <v>1137</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
@@ -23642,13 +23714,13 @@
     </row>
     <row r="160" spans="2:5">
       <c r="B160" s="7" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>1024</v>
+        <v>685</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>675</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="E160" s="5">
         <v>0</v>
@@ -23656,13 +23728,13 @@
     </row>
     <row r="161" spans="2:5">
       <c r="B161" s="7" t="s">
-        <v>682</v>
+        <v>1037</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>687</v>
+        <v>1036</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>688</v>
+        <v>1038</v>
       </c>
       <c r="E161" s="5">
         <v>0</v>
@@ -23670,13 +23742,13 @@
     </row>
     <row r="162" spans="2:5">
       <c r="B162" s="7" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="E162" s="5">
         <v>0</v>
@@ -23684,13 +23756,13 @@
     </row>
     <row r="163" spans="2:5">
       <c r="B163" s="7" t="s">
-        <v>690</v>
+        <v>926</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="E163" s="5">
         <v>0</v>
@@ -23698,13 +23770,13 @@
     </row>
     <row r="164" spans="2:5">
       <c r="B164" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>701</v>
+        <v>683</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>681</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>702</v>
+        <v>674</v>
       </c>
       <c r="E164" s="5">
         <v>0</v>
@@ -23712,13 +23784,13 @@
     </row>
     <row r="165" spans="2:5">
       <c r="B165" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>709</v>
+        <v>1024</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>1023</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>706</v>
+        <v>1025</v>
       </c>
       <c r="E165" s="5">
         <v>0</v>
@@ -23726,13 +23798,13 @@
     </row>
     <row r="166" spans="2:5">
       <c r="B166" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>707</v>
+        <v>1026</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>681</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="E166" s="5">
         <v>0</v>
@@ -23740,13 +23812,13 @@
     </row>
     <row r="167" spans="2:5">
       <c r="B167" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>708</v>
+        <v>1026</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>1023</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>706</v>
+        <v>674</v>
       </c>
       <c r="E167" s="5">
         <v>0</v>
@@ -23754,13 +23826,13 @@
     </row>
     <row r="168" spans="2:5">
       <c r="B168" s="7" t="s">
-        <v>961</v>
+        <v>682</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>962</v>
+        <v>687</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>1073</v>
+        <v>688</v>
       </c>
       <c r="E168" s="5">
         <v>0</v>
@@ -23768,13 +23840,13 @@
     </row>
     <row r="169" spans="2:5">
       <c r="B169" s="7" t="s">
-        <v>961</v>
+        <v>690</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>964</v>
+        <v>689</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>965</v>
+        <v>691</v>
       </c>
       <c r="E169" s="5">
         <v>0</v>
@@ -23782,13 +23854,13 @@
     </row>
     <row r="170" spans="2:5">
       <c r="B170" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>966</v>
+        <v>690</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>692</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>965</v>
+        <v>691</v>
       </c>
       <c r="E170" s="5">
         <v>0</v>
@@ -23796,13 +23868,13 @@
     </row>
     <row r="171" spans="2:5">
       <c r="B171" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>967</v>
+        <v>690</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>701</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>965</v>
+        <v>702</v>
       </c>
       <c r="E171" s="5">
         <v>0</v>
@@ -23810,20 +23882,118 @@
     </row>
     <row r="172" spans="2:5">
       <c r="B172" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="E172" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5">
+      <c r="B173" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="E173" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5">
+      <c r="B174" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="E174" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5">
+      <c r="B175" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E175" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5">
+      <c r="B176" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E176" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5">
+      <c r="B177" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E177" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5">
+      <c r="B178" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E178" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5">
+      <c r="B179" s="7" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D179" s="7" t="s">
         <v>1125</v>
       </c>
-      <c r="C172" s="7" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E172" s="5">
+      <c r="E179" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:E171"/>
+  <autoFilter ref="B3:E178"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23837,13 +24007,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="1" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23968,24 +24138,24 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" customWidth="1"/>
-    <col min="16" max="16" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
+    <col min="11" max="11" width="9.125" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="6.625" customWidth="1"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -24108,7 +24278,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>34</v>
@@ -24120,7 +24290,7 @@
         <v>49</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>44</v>
@@ -24135,7 +24305,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="28.8">
+    <row r="4" spans="1:16" ht="27">
       <c r="B4" s="20" t="s">
         <v>932</v>
       </c>
@@ -24330,13 +24500,13 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="37.88671875" customWidth="1"/>
-    <col min="5" max="5" width="28.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="37.875" customWidth="1"/>
+    <col min="5" max="5" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/wico/数据表结构.xlsx
+++ b/wico/数据表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23250" windowHeight="13170" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23250" windowHeight="13170" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="6" r:id="rId1"/>
@@ -16,16 +16,16 @@
     <sheet name="客户正式投诉" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$180</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'零件清单（下载）'!$B$3:$K$154</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'座椅配置（下载）'!$B$3:$E$676</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'座椅配置（下载）'!$B$3:$E$677</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4034" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4067" uniqueCount="1165">
   <si>
     <t>SLIDE ADJR OUT L,FR SEAT</t>
   </si>
@@ -103,143 +103,143 @@
   </si>
   <si>
     <t>WICO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4739132-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2VH</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手动-前排-左席座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>WicoPartNumber</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TsPartNumber</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PartName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PartType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Importance</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Supplier</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CarModel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SeatModel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RepairMethod</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>涂装刮花</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>涂油反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换端盖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SLIDE ADJR OUT L,FR SEAT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Lot</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>INTEGER</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TEXT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Production Line</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>INTEGER</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NgInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Sync</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>sqlite数据类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Mysql数据类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DATETIME</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ManufactureDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NgTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TINYINT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SMALLINT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FC</t>
@@ -1419,7 +1419,7 @@
   </si>
   <si>
     <t>2QY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1471,7 +1471,7 @@
   </si>
   <si>
     <t>2QY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手动-前排-左席座椅</t>
@@ -1496,591 +1496,591 @@
   </si>
   <si>
     <t>手动-前排-右席座椅（NOR）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手动-前排-左席座椅（HEI）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手动-前排-左席座椅（NOR）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-414-210</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手动-后排-右席座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-414-120</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手动-后排-左席座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-413-110</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-110</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-120</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手动-前排-左席座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-210</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-220</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-419-310</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-419-520</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-418-410</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">2311-418-720 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4739141-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4739162-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4739231-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4739242-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3745521-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3745421-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3745511-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3745411-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3745212-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3745112-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3725542-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3725612-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3725522-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3742412-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3742411-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3742431-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3742421-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3742441-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4729910-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4729920-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4831510-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4055340-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4597110-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4420420-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4638170-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4639710-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>184-040010-5-0010</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3466360-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4734620-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4735622-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3488270K-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4785410-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3390210W-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3390250-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-110-2FW</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-120-2FW</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-220-2FW</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-210-2FW</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3488270-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4734650-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手动-前排-左席座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-558-210</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-557-210</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-558-120</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4816230-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3390210W-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-566-610</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-566-520</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-565-510</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-565-420</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-110-2FW</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-120-2FW</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-220-2FW</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-210-2FW</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3488270-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-120-2FW</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手动-前排-左席座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-220-2FW</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-210-2FW</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3488270-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4734650-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-589-610</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-588-610</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-589-520</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-588-520</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4586310-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-565-420</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手动-前排-左席座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-566-520</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-565-710</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-566-810</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-598-320</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-598-410</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-599-420</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-599-510</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-389-110</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-389-120</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-418-120</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-550-120</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-550-420</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-549-120</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-549-420</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4855440-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4855430-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3742452-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3742462-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3742451-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3742461-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-3928350-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4922310-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4922410-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4638180-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-598-310</t>
-    <phoneticPr fontId="27"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>2311-599-410</t>
-    <phoneticPr fontId="27"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>2311-599-520</t>
-    <phoneticPr fontId="27"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>2311-550-410</t>
-    <phoneticPr fontId="27"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>2311-549-410</t>
-    <phoneticPr fontId="27"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>21-3466360-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3390250-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23-4420420-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3441510-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2VH</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2VH</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2LQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2LQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2HY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2HY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2YT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2YT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2WB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2WB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2UB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2UB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2VP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2VP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2FW</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2FW</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2YN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2YN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3BS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3BS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2GN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2GN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2YC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2YC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-550-110</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-549-110</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-598-420</t>
-    <phoneticPr fontId="27"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>23-4767052-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21-3675720-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手动-中排-右席座椅</t>
@@ -2107,396 +2107,396 @@
   </si>
   <si>
     <t>23-4767052-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手动-前排-右席座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电动-前排-左席座椅（8WAY带记忆）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电动-前排-左席座椅（8WAY无记忆）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电动-前排-右席座椅（4WAY无记忆）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2311-557-120</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手动-中排-左席座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手动-中排-右席座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PartPicUrl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换齿轮箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换滑块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>调角器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>不在初始位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>调整到初始位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换滑动电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电动座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换H型滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>后升降震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>调节制动器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换制动器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动异音</t>
   </si>
   <si>
     <t>滑动异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>涂润滑油，反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>螺丝孔滑牙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>调节丝杆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>涂油反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>齿轮箱支架装配孔滑牙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换条码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>上导轨螺丝脱落</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>锁紧挡圈松动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换调角器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>敲紧挡圈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>前/后端连接臂铆接过紧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>前/后端连接臂铆接过松</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换侧支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>铜棒敲击修理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>刮花部位涂油漆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>升降电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>前升降异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>前升降反转音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>前升降电机不作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>前升降打啃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>调节到初始位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>WicoPartNumber</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CM_Date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3QY</t>
   </si>
   <si>
     <t>3QY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2LQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3LQ</t>
   </si>
   <si>
     <t>3LQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>解锁手柄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手柄变形</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>有凹坑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>解锁手柄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换解锁手柄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>破损</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>涡卷弹簧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>生锈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>除锈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换涡卷弹簧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>植毛破损</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>扇形齿</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>绕性轴（短）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动电机支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换滑动电机支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>有压痕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换扇形齿</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>有裂纹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>冲压侧支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换冲压侧支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>漏冲孔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>插头破损</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>插头内粘附焊渣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>脉冲功能失效（按下按钮只能动一点）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>升降电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换升降电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电机声音过大</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>锁紧挡圈欠品</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>装了2枚锁紧挡圈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>翻边轮廓不良</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>用工具掰正</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换滑轨前端解锁小支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>变位拉杆不回弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制动器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换制动器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>作动时有异响</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>作动很多次座椅才能升到顶端</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手柄回位不顺畅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>变位拉杆松动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>插头内粘附焊渣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>http://gitee.com/sunny_ho/image_bed/raw/master/wico/153-080025-5.jpg</t>
@@ -3142,195 +3142,195 @@
   </si>
   <si>
     <t>涡卷弹簧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>上导轨螺丝滑牙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2022-05-14</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2YT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Day</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Night</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2022-05-14 15:35:51</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2022-05-13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换齿轮箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动缓慢</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>调节滑动电机支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换齿轮箱、丝杆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>调节滑动电机支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>升降缓慢</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>调整滑动电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>升降反转音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>升降电机不作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>端盖破损</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换端盖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2HY</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>23-4739242-2</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>2022-02-16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2LQ</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ComplainDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CarModel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>WicoPartNumber</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PartName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NgInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SLIDE ADJR INN L,FR SEAT（8WAY）</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>内侧滑轨铆钉漏铆接</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>2022-06-20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">SLIDE ADJR INN L,FR SEAT（8WAY） </t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>电动座椅在最前端滑不动</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>调角器电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>二维码破损/脏污</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>作动异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换调角器电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电机声音过大</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>解锁手柄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>弹簧松动/脱落</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换弹簧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>调节滑动电机支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>英国电动-前排-右席座椅（8WAY带记忆）</t>
@@ -3343,11 +3343,11 @@
   </si>
   <si>
     <t>后升降无法作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>清除焊渣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>81201-3A02-X810-M1-0000</t>
@@ -3390,23 +3390,23 @@
   </si>
   <si>
     <t>滑轨无法作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电动座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑轨无法作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换H型滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>条码脏污/破损，无法识别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-310</t>
@@ -3416,645 +3416,739 @@
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>http://gitee.com/sunny_ho/image_bed/raw/master/wico/2110-355-310.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>http://gitee.com/sunny_ho/image_bed/raw/master/wico/2110-355-320.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>58104/58112</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3B4A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手动-后排-左席座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手动-后排-右席座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-310</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2110-355-320</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>L001779025</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>L001779035</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MINI RECLINER ASSY_RH，MANUAL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MINI RECLINER ASSY_LH，MANUAL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>调角器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>撬L形支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动拉力过大</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>涂润滑油，反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>轴弯曲了</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>绕性轴（短）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>绕性轴（长）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑轨震动并且晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电机破损</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PartType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RepairMethod</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>升降电机异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>变形</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动电机支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换滑动电机支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Regular</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>([0-9]{2})([A-L])([0-3][0-9])([A-M]) ([0-9]{3})</t>
   </si>
   <si>
     <t>涂油反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>调整/更换 短绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>调整/更换 长绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>条码脏污/破损，无法识别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>撬支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>升降干涉异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动途中卡死，无法再前后作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动途中卡死，无法再前后作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>无法作动到最前/后端</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>作动到最前端后无法返回</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换滑块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>敲护架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>上导轨螺丝滑牙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>作动到最顶/底端时有死点音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>升降打啃&amp;异响</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>升降缓慢</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>涂油反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>无法作动到最前/后端</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>调节滑动电机支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换齿轮箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>涂油反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换调角器电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>撬L形支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>无法作动到最前/后端</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动电机连接板破损</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电动座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换H型滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>撬扇形齿</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>调节电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>升降打啃&amp;异响</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>扣条异响</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑轨震动并且晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换齿轮箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>升降打啃&amp;异响</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>清理齿部的焊渣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动打啃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电动座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>升降电机异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>紧固电机螺丝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>73M0([1-9A-E])1([1-9A-C])([1-9A-HJ-NP-X])([0-9A-F]{3})([0-9A-Z])([WT])</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>73M0([1-9A-E])B([1-9A-C])([1-9A-HJ-NP-X])([0-9A-F]{3})([0-9A-Z])([WT])</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>73M0([1-9A-E])0([1-9A-C])([1-9A-HJ-NP-X])([0-9A-F]{3})([0-9A-Z])([WT])</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>73M0([1-9A-E])A([1-9A-C])([1-9A-HJ-NP-X])([0-9A-F]{3})([0-9A-Z])([WT])</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑轨震动并且晃动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>升降打啃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>调节电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>调节制动器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>撬扇形齿</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>清理齿部的焊渣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>前升降电动支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>后升降电动支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>前升降电动支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>前升降电动支架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SIDE BRKT INN COMP R,FR CUSH</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SIDE BRKT OUT L SUB COMP,FR CUSH</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电动滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>齿轮箱破损</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换齿轮箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>调整/更换 短绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>调整/更换 长绕性轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>涂润滑油，反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换齿轮箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换丝杆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换滑轨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电动座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>后升降震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>调角器电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电机破损</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换齿轮箱、丝杆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>调整丝杆螺母，反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>调整丝杆螺母</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>反复作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电动座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换座椅骨架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手柄下压后不回弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手柄上拉后不回弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>解锁手柄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换解锁手柄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>无法作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>无法作动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换滑动电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换滑动电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电动座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电动座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滑动异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换齿轮箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>调节电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换前升降电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电动座椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>后升降震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>后升降异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更换后升降电机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>前升降异音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不在初始位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>调角器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换调角器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁手柄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与骨盆之间的间隙小</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换解锁手柄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2311-525-310</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>右席座椅</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4257,6 +4351,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -4374,32 +4486,68 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="389">
+  <cellStyleXfs count="401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -4438,496 +4586,485 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4937,22 +5074,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4966,7 +5111,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4983,16 +5127,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5016,25 +5160,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="300" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="300" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="310" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="310" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="300" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="300" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="310" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="310" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5043,7 +5187,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5055,16 +5199,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5073,10 +5217,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="377" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="377" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="300" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="300" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5085,8 +5229,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="300" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="389">
+  <cellStyles count="401">
     <cellStyle name="_x0004_" xfId="2"/>
     <cellStyle name="_x0004_ 2" xfId="3"/>
     <cellStyle name="_1月" xfId="4"/>
@@ -5361,10 +5508,12 @@
     <cellStyle name="常规 10 2" xfId="383"/>
     <cellStyle name="常规 11" xfId="270"/>
     <cellStyle name="常规 11 2" xfId="382"/>
+    <cellStyle name="常规 11 3" xfId="395"/>
     <cellStyle name="常规 12" xfId="271"/>
     <cellStyle name="常规 13" xfId="272"/>
     <cellStyle name="常规 14" xfId="1"/>
     <cellStyle name="常规 15" xfId="375"/>
+    <cellStyle name="常规 16" xfId="389"/>
     <cellStyle name="常规 2" xfId="273"/>
     <cellStyle name="常规 2 2" xfId="274"/>
     <cellStyle name="常规 2 2 2" xfId="275"/>
@@ -5386,22 +5535,30 @@
     <cellStyle name="常规 3 3" xfId="287"/>
     <cellStyle name="常规 3 3 2" xfId="288"/>
     <cellStyle name="常规 3 3 2 2" xfId="387"/>
+    <cellStyle name="常规 3 3 2 3" xfId="399"/>
     <cellStyle name="常规 3 3 3" xfId="366"/>
     <cellStyle name="常规 3 3 4" xfId="380"/>
+    <cellStyle name="常规 3 3 5" xfId="393"/>
     <cellStyle name="常规 3 4" xfId="289"/>
     <cellStyle name="常规 3 4 2" xfId="384"/>
+    <cellStyle name="常规 3 4 3" xfId="396"/>
     <cellStyle name="常规 3 5" xfId="374"/>
     <cellStyle name="常规 3 6" xfId="376"/>
+    <cellStyle name="常规 3 7" xfId="390"/>
     <cellStyle name="常规 4" xfId="290"/>
     <cellStyle name="常规 4 2" xfId="291"/>
     <cellStyle name="常规 4 2 2" xfId="292"/>
     <cellStyle name="常规 4 2 2 2" xfId="388"/>
+    <cellStyle name="常规 4 2 2 3" xfId="400"/>
     <cellStyle name="常规 4 2 3" xfId="365"/>
     <cellStyle name="常规 4 2 4" xfId="381"/>
+    <cellStyle name="常规 4 2 5" xfId="394"/>
     <cellStyle name="常规 4 3" xfId="293"/>
     <cellStyle name="常规 4 3 2" xfId="385"/>
+    <cellStyle name="常规 4 3 3" xfId="397"/>
     <cellStyle name="常规 4 4" xfId="370"/>
     <cellStyle name="常规 4 5" xfId="378"/>
+    <cellStyle name="常规 4 6" xfId="391"/>
     <cellStyle name="常规 5" xfId="294"/>
     <cellStyle name="常规 5 2" xfId="295"/>
     <cellStyle name="常规 5 2 2" xfId="296"/>
@@ -5409,8 +5566,10 @@
     <cellStyle name="常规 6" xfId="298"/>
     <cellStyle name="常规 6 2" xfId="299"/>
     <cellStyle name="常规 6 2 2" xfId="386"/>
+    <cellStyle name="常规 6 2 3" xfId="398"/>
     <cellStyle name="常规 6 3" xfId="367"/>
     <cellStyle name="常规 6 4" xfId="379"/>
+    <cellStyle name="常规 6 5" xfId="392"/>
     <cellStyle name="常规 7" xfId="300"/>
     <cellStyle name="常规 7 2" xfId="301"/>
     <cellStyle name="常规 7 2 2" xfId="302"/>
@@ -6744,7 +6903,7 @@
       <c r="T32" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11880,7 +12039,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B3:K154"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F153" r:id="rId1"/>
     <hyperlink ref="F154" r:id="rId2"/>
@@ -11892,10 +12051,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E680"/>
+  <dimension ref="A1:E689"/>
   <sheetViews>
-    <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="C379" sqref="C379"/>
+    <sheetView tabSelected="1" topLeftCell="A665" workbookViewId="0">
+      <selection activeCell="D687" sqref="D687"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17970,11 +18129,11 @@
       <c r="B432" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="C432" s="17" t="s">
+      <c r="C432" s="32" t="s">
         <v>462</v>
       </c>
       <c r="D432" s="18" t="s">
-        <v>330</v>
+        <v>1161</v>
       </c>
       <c r="E432" s="16">
         <v>0</v>
@@ -17989,7 +18148,7 @@
         <v>462</v>
       </c>
       <c r="D433" s="18" t="s">
-        <v>461</v>
+        <v>330</v>
       </c>
       <c r="E433" s="16">
         <v>0</v>
@@ -18004,7 +18163,7 @@
         <v>462</v>
       </c>
       <c r="D434" s="18" t="s">
-        <v>151</v>
+        <v>461</v>
       </c>
       <c r="E434" s="16">
         <v>0</v>
@@ -18019,7 +18178,7 @@
         <v>462</v>
       </c>
       <c r="D435" s="18" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E435" s="16">
         <v>0</v>
@@ -18034,21 +18193,22 @@
         <v>462</v>
       </c>
       <c r="D436" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E436" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="1"/>
+      <c r="B437" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="C437" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="D437" s="18" t="s">
         <v>325</v>
-      </c>
-      <c r="E436" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5">
-      <c r="B437" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="C437" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="D437" s="18" t="s">
-        <v>471</v>
       </c>
       <c r="E437" s="16">
         <v>0</v>
@@ -18062,7 +18222,7 @@
         <v>472</v>
       </c>
       <c r="D438" s="18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E438" s="16">
         <v>0</v>
@@ -18070,13 +18230,13 @@
     </row>
     <row r="439" spans="1:5">
       <c r="B439" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C439" s="17" t="s">
         <v>472</v>
       </c>
       <c r="D439" s="18" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E439" s="16">
         <v>0</v>
@@ -18090,7 +18250,7 @@
         <v>472</v>
       </c>
       <c r="D440" s="18" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E440" s="16">
         <v>0</v>
@@ -18104,7 +18264,7 @@
         <v>472</v>
       </c>
       <c r="D441" s="18" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="E441" s="16">
         <v>0</v>
@@ -18118,7 +18278,7 @@
         <v>472</v>
       </c>
       <c r="D442" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E442" s="16">
         <v>0</v>
@@ -18132,7 +18292,7 @@
         <v>472</v>
       </c>
       <c r="D443" s="18" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="E443" s="16">
         <v>0</v>
@@ -18146,7 +18306,7 @@
         <v>472</v>
       </c>
       <c r="D444" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E444" s="16">
         <v>0</v>
@@ -18160,7 +18320,7 @@
         <v>472</v>
       </c>
       <c r="D445" s="18" t="s">
-        <v>613</v>
+        <v>508</v>
       </c>
       <c r="E445" s="16">
         <v>0</v>
@@ -18174,7 +18334,7 @@
         <v>472</v>
       </c>
       <c r="D446" s="18" t="s">
-        <v>509</v>
+        <v>613</v>
       </c>
       <c r="E446" s="16">
         <v>0</v>
@@ -18188,7 +18348,7 @@
         <v>472</v>
       </c>
       <c r="D447" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E447" s="16">
         <v>0</v>
@@ -18202,7 +18362,7 @@
         <v>472</v>
       </c>
       <c r="D448" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E448" s="16">
         <v>0</v>
@@ -18216,7 +18376,7 @@
         <v>472</v>
       </c>
       <c r="D449" s="18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E449" s="16">
         <v>0</v>
@@ -18227,10 +18387,10 @@
         <v>593</v>
       </c>
       <c r="C450" s="17" t="s">
-        <v>614</v>
+        <v>472</v>
       </c>
       <c r="D450" s="18" t="s">
-        <v>470</v>
+        <v>512</v>
       </c>
       <c r="E450" s="16">
         <v>0</v>
@@ -18244,7 +18404,7 @@
         <v>614</v>
       </c>
       <c r="D451" s="18" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E451" s="16">
         <v>0</v>
@@ -18258,7 +18418,7 @@
         <v>614</v>
       </c>
       <c r="D452" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E452" s="16">
         <v>0</v>
@@ -18272,7 +18432,7 @@
         <v>614</v>
       </c>
       <c r="D453" s="18" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E453" s="16">
         <v>0</v>
@@ -18286,7 +18446,7 @@
         <v>614</v>
       </c>
       <c r="D454" s="18" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="E454" s="16">
         <v>0</v>
@@ -18300,7 +18460,7 @@
         <v>614</v>
       </c>
       <c r="D455" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E455" s="16">
         <v>0</v>
@@ -18314,7 +18474,7 @@
         <v>614</v>
       </c>
       <c r="D456" s="18" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="E456" s="16">
         <v>0</v>
@@ -18328,7 +18488,7 @@
         <v>614</v>
       </c>
       <c r="D457" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E457" s="16">
         <v>0</v>
@@ -18342,7 +18502,7 @@
         <v>614</v>
       </c>
       <c r="D458" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E458" s="16">
         <v>0</v>
@@ -18356,7 +18516,7 @@
         <v>614</v>
       </c>
       <c r="D459" s="18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E459" s="16">
         <v>0</v>
@@ -18367,10 +18527,10 @@
         <v>593</v>
       </c>
       <c r="C460" s="17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D460" s="18" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="E460" s="16">
         <v>0</v>
@@ -18384,7 +18544,7 @@
         <v>615</v>
       </c>
       <c r="D461" s="18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E461" s="16">
         <v>0</v>
@@ -18398,7 +18558,7 @@
         <v>615</v>
       </c>
       <c r="D462" s="18" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="E462" s="16">
         <v>0</v>
@@ -18412,7 +18572,7 @@
         <v>615</v>
       </c>
       <c r="D463" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E463" s="16">
         <v>0</v>
@@ -18426,7 +18586,7 @@
         <v>615</v>
       </c>
       <c r="D464" s="18" t="s">
-        <v>103</v>
+        <v>490</v>
       </c>
       <c r="E464" s="16">
         <v>0</v>
@@ -18440,7 +18600,7 @@
         <v>615</v>
       </c>
       <c r="D465" s="18" t="s">
-        <v>494</v>
+        <v>103</v>
       </c>
       <c r="E465" s="16">
         <v>0</v>
@@ -18454,7 +18614,7 @@
         <v>615</v>
       </c>
       <c r="D466" s="18" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E466" s="16">
         <v>0</v>
@@ -18468,7 +18628,7 @@
         <v>615</v>
       </c>
       <c r="D467" s="18" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E467" s="16">
         <v>0</v>
@@ -18482,7 +18642,7 @@
         <v>615</v>
       </c>
       <c r="D468" s="18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E468" s="16">
         <v>0</v>
@@ -18496,7 +18656,7 @@
         <v>615</v>
       </c>
       <c r="D469" s="18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E469" s="16">
         <v>0</v>
@@ -18510,7 +18670,7 @@
         <v>615</v>
       </c>
       <c r="D470" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E470" s="16">
         <v>0</v>
@@ -18524,7 +18684,7 @@
         <v>615</v>
       </c>
       <c r="D471" s="18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E471" s="16">
         <v>0</v>
@@ -18538,7 +18698,7 @@
         <v>615</v>
       </c>
       <c r="D472" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E472" s="16">
         <v>0</v>
@@ -18552,7 +18712,7 @@
         <v>615</v>
       </c>
       <c r="D473" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E473" s="16">
         <v>0</v>
@@ -18566,7 +18726,7 @@
         <v>615</v>
       </c>
       <c r="D474" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E474" s="16">
         <v>0</v>
@@ -18580,7 +18740,7 @@
         <v>615</v>
       </c>
       <c r="D475" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E475" s="16">
         <v>0</v>
@@ -18591,10 +18751,10 @@
         <v>593</v>
       </c>
       <c r="C476" s="17" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D476" s="18" t="s">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="E476" s="16">
         <v>0</v>
@@ -18608,7 +18768,7 @@
         <v>616</v>
       </c>
       <c r="D477" s="18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E477" s="16">
         <v>0</v>
@@ -18622,7 +18782,7 @@
         <v>616</v>
       </c>
       <c r="D478" s="18" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E478" s="16">
         <v>0</v>
@@ -18636,7 +18796,7 @@
         <v>616</v>
       </c>
       <c r="D479" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E479" s="16">
         <v>0</v>
@@ -18650,7 +18810,7 @@
         <v>616</v>
       </c>
       <c r="D480" s="18" t="s">
-        <v>103</v>
+        <v>491</v>
       </c>
       <c r="E480" s="16">
         <v>0</v>
@@ -18664,7 +18824,7 @@
         <v>616</v>
       </c>
       <c r="D481" s="18" t="s">
-        <v>493</v>
+        <v>103</v>
       </c>
       <c r="E481" s="16">
         <v>0</v>
@@ -18678,7 +18838,7 @@
         <v>616</v>
       </c>
       <c r="D482" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E482" s="16">
         <v>0</v>
@@ -18692,7 +18852,7 @@
         <v>616</v>
       </c>
       <c r="D483" s="18" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E483" s="16">
         <v>0</v>
@@ -18706,7 +18866,7 @@
         <v>616</v>
       </c>
       <c r="D484" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E484" s="16">
         <v>0</v>
@@ -18720,7 +18880,7 @@
         <v>616</v>
       </c>
       <c r="D485" s="18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E485" s="16">
         <v>0</v>
@@ -18734,7 +18894,7 @@
         <v>616</v>
       </c>
       <c r="D486" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E486" s="16">
         <v>0</v>
@@ -18748,7 +18908,7 @@
         <v>616</v>
       </c>
       <c r="D487" s="18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E487" s="16">
         <v>0</v>
@@ -18762,7 +18922,7 @@
         <v>616</v>
       </c>
       <c r="D488" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E488" s="16">
         <v>0</v>
@@ -18776,7 +18936,7 @@
         <v>616</v>
       </c>
       <c r="D489" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E489" s="16">
         <v>0</v>
@@ -18790,7 +18950,7 @@
         <v>616</v>
       </c>
       <c r="D490" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E490" s="16">
         <v>0</v>
@@ -18804,7 +18964,7 @@
         <v>616</v>
       </c>
       <c r="D491" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E491" s="16">
         <v>0</v>
@@ -18815,10 +18975,10 @@
         <v>593</v>
       </c>
       <c r="C492" s="17" t="s">
-        <v>459</v>
+        <v>616</v>
       </c>
       <c r="D492" s="18" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="E492" s="16">
         <v>0</v>
@@ -18832,7 +18992,7 @@
         <v>459</v>
       </c>
       <c r="D493" s="18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E493" s="16">
         <v>0</v>
@@ -18846,7 +19006,7 @@
         <v>459</v>
       </c>
       <c r="D494" s="18" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E494" s="16">
         <v>0</v>
@@ -18857,10 +19017,10 @@
         <v>593</v>
       </c>
       <c r="C495" s="17" t="s">
-        <v>617</v>
+        <v>459</v>
       </c>
       <c r="D495" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E495" s="16">
         <v>0</v>
@@ -18874,7 +19034,7 @@
         <v>617</v>
       </c>
       <c r="D496" s="18" t="s">
-        <v>103</v>
+        <v>486</v>
       </c>
       <c r="E496" s="16">
         <v>0</v>
@@ -18888,7 +19048,7 @@
         <v>617</v>
       </c>
       <c r="D497" s="18" t="s">
-        <v>492</v>
+        <v>103</v>
       </c>
       <c r="E497" s="16">
         <v>0</v>
@@ -18902,7 +19062,7 @@
         <v>617</v>
       </c>
       <c r="D498" s="18" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E498" s="16">
         <v>0</v>
@@ -18916,7 +19076,7 @@
         <v>617</v>
       </c>
       <c r="D499" s="18" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E499" s="16">
         <v>0</v>
@@ -18930,7 +19090,7 @@
         <v>617</v>
       </c>
       <c r="D500" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E500" s="16">
         <v>0</v>
@@ -18944,7 +19104,7 @@
         <v>617</v>
       </c>
       <c r="D501" s="18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E501" s="16">
         <v>0</v>
@@ -18958,7 +19118,7 @@
         <v>617</v>
       </c>
       <c r="D502" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E502" s="16">
         <v>0</v>
@@ -18972,7 +19132,7 @@
         <v>617</v>
       </c>
       <c r="D503" s="18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E503" s="16">
         <v>0</v>
@@ -18986,7 +19146,7 @@
         <v>617</v>
       </c>
       <c r="D504" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E504" s="16">
         <v>0</v>
@@ -19000,7 +19160,7 @@
         <v>617</v>
       </c>
       <c r="D505" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E505" s="16">
         <v>0</v>
@@ -19014,7 +19174,7 @@
         <v>617</v>
       </c>
       <c r="D506" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E506" s="16">
         <v>0</v>
@@ -19028,7 +19188,7 @@
         <v>617</v>
       </c>
       <c r="D507" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E507" s="16">
         <v>0</v>
@@ -19039,10 +19199,10 @@
         <v>593</v>
       </c>
       <c r="C508" s="17" t="s">
-        <v>468</v>
+        <v>617</v>
       </c>
       <c r="D508" s="18" t="s">
-        <v>467</v>
+        <v>506</v>
       </c>
       <c r="E508" s="16">
         <v>0</v>
@@ -19053,10 +19213,10 @@
         <v>593</v>
       </c>
       <c r="C509" s="17" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D509" s="18" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E509" s="16">
         <v>0</v>
@@ -19070,7 +19230,7 @@
         <v>466</v>
       </c>
       <c r="D510" s="18" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E510" s="16">
         <v>0</v>
@@ -19078,13 +19238,13 @@
     </row>
     <row r="511" spans="2:5">
       <c r="B511" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C511" s="17" t="s">
-        <v>28</v>
+        <v>466</v>
       </c>
       <c r="D511" s="18" t="s">
-        <v>514</v>
+        <v>469</v>
       </c>
       <c r="E511" s="16">
         <v>0</v>
@@ -19098,7 +19258,7 @@
         <v>28</v>
       </c>
       <c r="D512" s="18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E512" s="16">
         <v>0</v>
@@ -19106,13 +19266,13 @@
     </row>
     <row r="513" spans="2:5">
       <c r="B513" s="16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C513" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D513" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E513" s="16">
         <v>0</v>
@@ -19123,10 +19283,10 @@
         <v>595</v>
       </c>
       <c r="C514" s="17" t="s">
-        <v>519</v>
+        <v>28</v>
       </c>
       <c r="D514" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E514" s="16">
         <v>0</v>
@@ -19140,7 +19300,7 @@
         <v>519</v>
       </c>
       <c r="D515" s="18" t="s">
-        <v>613</v>
+        <v>518</v>
       </c>
       <c r="E515" s="16">
         <v>0</v>
@@ -19154,7 +19314,7 @@
         <v>519</v>
       </c>
       <c r="D516" s="18" t="s">
-        <v>522</v>
+        <v>613</v>
       </c>
       <c r="E516" s="16">
         <v>0</v>
@@ -19168,7 +19328,7 @@
         <v>519</v>
       </c>
       <c r="D517" s="18" t="s">
-        <v>618</v>
+        <v>522</v>
       </c>
       <c r="E517" s="16">
         <v>0</v>
@@ -19182,7 +19342,7 @@
         <v>519</v>
       </c>
       <c r="D518" s="18" t="s">
-        <v>523</v>
+        <v>618</v>
       </c>
       <c r="E518" s="16">
         <v>0</v>
@@ -19196,7 +19356,7 @@
         <v>519</v>
       </c>
       <c r="D519" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E519" s="16">
         <v>0</v>
@@ -19207,10 +19367,10 @@
         <v>595</v>
       </c>
       <c r="C520" s="17" t="s">
-        <v>614</v>
+        <v>519</v>
       </c>
       <c r="D520" s="18" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="E520" s="16">
         <v>0</v>
@@ -19224,7 +19384,7 @@
         <v>614</v>
       </c>
       <c r="D521" s="18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E521" s="16">
         <v>0</v>
@@ -19238,7 +19398,7 @@
         <v>614</v>
       </c>
       <c r="D522" s="18" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E522" s="16">
         <v>0</v>
@@ -19252,7 +19412,7 @@
         <v>614</v>
       </c>
       <c r="D523" s="18" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E523" s="16">
         <v>0</v>
@@ -19266,7 +19426,7 @@
         <v>614</v>
       </c>
       <c r="D524" s="18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E524" s="16">
         <v>0</v>
@@ -19280,7 +19440,7 @@
         <v>614</v>
       </c>
       <c r="D525" s="18" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E525" s="16">
         <v>0</v>
@@ -19294,7 +19454,7 @@
         <v>614</v>
       </c>
       <c r="D526" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E526" s="16">
         <v>0</v>
@@ -19302,13 +19462,13 @@
     </row>
     <row r="527" spans="2:5">
       <c r="B527" s="16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C527" s="17" t="s">
-        <v>519</v>
+        <v>614</v>
       </c>
       <c r="D527" s="18" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E527" s="16">
         <v>0</v>
@@ -19322,7 +19482,7 @@
         <v>519</v>
       </c>
       <c r="D528" s="18" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E528" s="16">
         <v>0</v>
@@ -19330,13 +19490,13 @@
     </row>
     <row r="529" spans="2:5">
       <c r="B529" s="16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C529" s="17" t="s">
         <v>519</v>
       </c>
       <c r="D529" s="18" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E529" s="16">
         <v>0</v>
@@ -19350,7 +19510,7 @@
         <v>519</v>
       </c>
       <c r="D530" s="18" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E530" s="16">
         <v>0</v>
@@ -19364,7 +19524,7 @@
         <v>519</v>
       </c>
       <c r="D531" s="18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E531" s="16">
         <v>0</v>
@@ -19378,7 +19538,7 @@
         <v>519</v>
       </c>
       <c r="D532" s="18" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="E532" s="16">
         <v>0</v>
@@ -19392,7 +19552,7 @@
         <v>519</v>
       </c>
       <c r="D533" s="18" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E533" s="16">
         <v>0</v>
@@ -19406,7 +19566,7 @@
         <v>519</v>
       </c>
       <c r="D534" s="18" t="s">
-        <v>613</v>
+        <v>523</v>
       </c>
       <c r="E534" s="16">
         <v>0</v>
@@ -19420,7 +19580,7 @@
         <v>519</v>
       </c>
       <c r="D535" s="18" t="s">
-        <v>518</v>
+        <v>613</v>
       </c>
       <c r="E535" s="16">
         <v>0</v>
@@ -19431,10 +19591,10 @@
         <v>597</v>
       </c>
       <c r="C536" s="17" t="s">
-        <v>614</v>
+        <v>519</v>
       </c>
       <c r="D536" s="18" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="E536" s="16">
         <v>0</v>
@@ -19448,7 +19608,7 @@
         <v>614</v>
       </c>
       <c r="D537" s="18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E537" s="16">
         <v>0</v>
@@ -19462,7 +19622,7 @@
         <v>614</v>
       </c>
       <c r="D538" s="18" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E538" s="16">
         <v>0</v>
@@ -19476,7 +19636,7 @@
         <v>614</v>
       </c>
       <c r="D539" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E539" s="16">
         <v>0</v>
@@ -19490,7 +19650,7 @@
         <v>614</v>
       </c>
       <c r="D540" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E540" s="16">
         <v>0</v>
@@ -19504,7 +19664,7 @@
         <v>614</v>
       </c>
       <c r="D541" s="18" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="E541" s="16">
         <v>0</v>
@@ -19518,7 +19678,7 @@
         <v>614</v>
       </c>
       <c r="D542" s="18" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E542" s="16">
         <v>0</v>
@@ -19526,13 +19686,13 @@
     </row>
     <row r="543" spans="2:5">
       <c r="B543" s="16" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C543" s="17" t="s">
-        <v>535</v>
+        <v>614</v>
       </c>
       <c r="D543" s="18" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="E543" s="16">
         <v>0</v>
@@ -19546,7 +19706,7 @@
         <v>535</v>
       </c>
       <c r="D544" s="18" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E544" s="16">
         <v>0</v>
@@ -19554,13 +19714,13 @@
     </row>
     <row r="545" spans="2:5">
       <c r="B545" s="16" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C545" s="17" t="s">
         <v>535</v>
       </c>
       <c r="D545" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E545" s="16">
         <v>0</v>
@@ -19574,7 +19734,7 @@
         <v>535</v>
       </c>
       <c r="D546" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E546" s="16">
         <v>0</v>
@@ -19588,7 +19748,7 @@
         <v>535</v>
       </c>
       <c r="D547" s="18" t="s">
-        <v>613</v>
+        <v>539</v>
       </c>
       <c r="E547" s="16">
         <v>0</v>
@@ -19599,10 +19759,10 @@
         <v>599</v>
       </c>
       <c r="C548" s="17" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="D548" s="18" t="s">
-        <v>542</v>
+        <v>613</v>
       </c>
       <c r="E548" s="16">
         <v>0</v>
@@ -19616,7 +19776,7 @@
         <v>519</v>
       </c>
       <c r="D549" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E549" s="16">
         <v>0</v>
@@ -19630,7 +19790,7 @@
         <v>519</v>
       </c>
       <c r="D550" s="18" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="E550" s="16">
         <v>0</v>
@@ -19644,7 +19804,7 @@
         <v>519</v>
       </c>
       <c r="D551" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E551" s="16">
         <v>0</v>
@@ -19658,7 +19818,7 @@
         <v>519</v>
       </c>
       <c r="D552" s="18" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="E552" s="16">
         <v>0</v>
@@ -19669,10 +19829,10 @@
         <v>599</v>
       </c>
       <c r="C553" s="17" t="s">
-        <v>614</v>
+        <v>519</v>
       </c>
       <c r="D553" s="18" t="s">
-        <v>513</v>
+        <v>544</v>
       </c>
       <c r="E553" s="16">
         <v>0</v>
@@ -19686,7 +19846,7 @@
         <v>614</v>
       </c>
       <c r="D554" s="18" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="E554" s="16">
         <v>0</v>
@@ -19700,7 +19860,7 @@
         <v>614</v>
       </c>
       <c r="D555" s="18" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E555" s="16">
         <v>0</v>
@@ -19714,7 +19874,7 @@
         <v>614</v>
       </c>
       <c r="D556" s="18" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E556" s="16">
         <v>0</v>
@@ -19728,7 +19888,7 @@
         <v>614</v>
       </c>
       <c r="D557" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E557" s="16">
         <v>0</v>
@@ -19742,7 +19902,7 @@
         <v>614</v>
       </c>
       <c r="D558" s="18" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="E558" s="16">
         <v>0</v>
@@ -19756,7 +19916,7 @@
         <v>614</v>
       </c>
       <c r="D559" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E559" s="16">
         <v>0</v>
@@ -19770,7 +19930,7 @@
         <v>614</v>
       </c>
       <c r="D560" s="18" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="E560" s="16">
         <v>0</v>
@@ -19778,13 +19938,13 @@
     </row>
     <row r="561" spans="2:5">
       <c r="B561" s="16" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C561" s="17" t="s">
-        <v>535</v>
+        <v>614</v>
       </c>
       <c r="D561" s="18" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="E561" s="16">
         <v>0</v>
@@ -19798,7 +19958,7 @@
         <v>535</v>
       </c>
       <c r="D562" s="18" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E562" s="16">
         <v>0</v>
@@ -19806,13 +19966,13 @@
     </row>
     <row r="563" spans="2:5">
       <c r="B563" s="16" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C563" s="17" t="s">
         <v>535</v>
       </c>
       <c r="D563" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E563" s="16">
         <v>0</v>
@@ -19826,7 +19986,7 @@
         <v>535</v>
       </c>
       <c r="D564" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E564" s="16">
         <v>0</v>
@@ -19840,7 +20000,7 @@
         <v>535</v>
       </c>
       <c r="D565" s="18" t="s">
-        <v>613</v>
+        <v>539</v>
       </c>
       <c r="E565" s="16">
         <v>0</v>
@@ -19851,10 +20011,10 @@
         <v>601</v>
       </c>
       <c r="C566" s="17" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="D566" s="18" t="s">
-        <v>542</v>
+        <v>613</v>
       </c>
       <c r="E566" s="16">
         <v>0</v>
@@ -19868,7 +20028,7 @@
         <v>519</v>
       </c>
       <c r="D567" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E567" s="16">
         <v>0</v>
@@ -19882,7 +20042,7 @@
         <v>519</v>
       </c>
       <c r="D568" s="18" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="E568" s="16">
         <v>0</v>
@@ -19896,7 +20056,7 @@
         <v>519</v>
       </c>
       <c r="D569" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E569" s="16">
         <v>0</v>
@@ -19910,7 +20070,7 @@
         <v>519</v>
       </c>
       <c r="D570" s="18" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="E570" s="16">
         <v>0</v>
@@ -19921,10 +20081,10 @@
         <v>601</v>
       </c>
       <c r="C571" s="17" t="s">
-        <v>614</v>
+        <v>519</v>
       </c>
       <c r="D571" s="18" t="s">
-        <v>513</v>
+        <v>544</v>
       </c>
       <c r="E571" s="16">
         <v>0</v>
@@ -19938,7 +20098,7 @@
         <v>614</v>
       </c>
       <c r="D572" s="18" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="E572" s="16">
         <v>0</v>
@@ -19952,7 +20112,7 @@
         <v>614</v>
       </c>
       <c r="D573" s="18" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E573" s="16">
         <v>0</v>
@@ -19966,7 +20126,7 @@
         <v>614</v>
       </c>
       <c r="D574" s="18" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E574" s="16">
         <v>0</v>
@@ -19980,7 +20140,7 @@
         <v>614</v>
       </c>
       <c r="D575" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E575" s="16">
         <v>0</v>
@@ -19994,7 +20154,7 @@
         <v>614</v>
       </c>
       <c r="D576" s="18" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="E576" s="16">
         <v>0</v>
@@ -20008,7 +20168,7 @@
         <v>614</v>
       </c>
       <c r="D577" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E577" s="16">
         <v>0</v>
@@ -20022,7 +20182,7 @@
         <v>614</v>
       </c>
       <c r="D578" s="18" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="E578" s="16">
         <v>0</v>
@@ -20030,13 +20190,13 @@
     </row>
     <row r="579" spans="2:5">
       <c r="B579" s="16" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C579" s="17" t="s">
-        <v>546</v>
+        <v>614</v>
       </c>
       <c r="D579" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E579" s="16">
         <v>0</v>
@@ -20050,7 +20210,7 @@
         <v>546</v>
       </c>
       <c r="D580" s="18" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E580" s="16">
         <v>0</v>
@@ -20058,13 +20218,13 @@
     </row>
     <row r="581" spans="2:5">
       <c r="B581" s="16" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C581" s="17" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
       <c r="D581" s="18" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="E581" s="16">
         <v>0</v>
@@ -20078,7 +20238,7 @@
         <v>519</v>
       </c>
       <c r="D582" s="18" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E582" s="16">
         <v>0</v>
@@ -20092,7 +20252,7 @@
         <v>519</v>
       </c>
       <c r="D583" s="18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E583" s="16">
         <v>0</v>
@@ -20106,7 +20266,7 @@
         <v>519</v>
       </c>
       <c r="D584" s="18" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="E584" s="16">
         <v>0</v>
@@ -20120,7 +20280,7 @@
         <v>519</v>
       </c>
       <c r="D585" s="18" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="E585" s="16">
         <v>0</v>
@@ -20134,7 +20294,7 @@
         <v>519</v>
       </c>
       <c r="D586" s="18" t="s">
-        <v>607</v>
+        <v>518</v>
       </c>
       <c r="E586" s="16">
         <v>0</v>
@@ -20148,7 +20308,7 @@
         <v>519</v>
       </c>
       <c r="D587" s="18" t="s">
-        <v>524</v>
+        <v>607</v>
       </c>
       <c r="E587" s="16">
         <v>0</v>
@@ -20162,7 +20322,7 @@
         <v>519</v>
       </c>
       <c r="D588" s="18" t="s">
-        <v>577</v>
+        <v>524</v>
       </c>
       <c r="E588" s="16">
         <v>0</v>
@@ -20173,10 +20333,10 @@
         <v>603</v>
       </c>
       <c r="C589" s="17" t="s">
-        <v>614</v>
+        <v>519</v>
       </c>
       <c r="D589" s="18" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
       <c r="E589" s="16">
         <v>0</v>
@@ -20190,7 +20350,7 @@
         <v>614</v>
       </c>
       <c r="D590" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E590" s="16">
         <v>0</v>
@@ -20204,7 +20364,7 @@
         <v>614</v>
       </c>
       <c r="D591" s="18" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="E591" s="16">
         <v>0</v>
@@ -20218,7 +20378,7 @@
         <v>614</v>
       </c>
       <c r="D592" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E592" s="16">
         <v>0</v>
@@ -20232,7 +20392,7 @@
         <v>614</v>
       </c>
       <c r="D593" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E593" s="16">
         <v>0</v>
@@ -20246,7 +20406,7 @@
         <v>614</v>
       </c>
       <c r="D594" s="18" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="E594" s="16">
         <v>0</v>
@@ -20260,7 +20420,7 @@
         <v>614</v>
       </c>
       <c r="D595" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E595" s="16">
         <v>0</v>
@@ -20274,7 +20434,7 @@
         <v>614</v>
       </c>
       <c r="D596" s="18" t="s">
-        <v>577</v>
+        <v>524</v>
       </c>
       <c r="E596" s="16">
         <v>0</v>
@@ -20285,10 +20445,10 @@
         <v>603</v>
       </c>
       <c r="C597" s="17" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D597" s="18" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
       <c r="E597" s="16">
         <v>0</v>
@@ -20302,7 +20462,7 @@
         <v>619</v>
       </c>
       <c r="D598" s="18" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E598" s="16">
         <v>0</v>
@@ -20313,10 +20473,10 @@
         <v>603</v>
       </c>
       <c r="C599" s="17" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D599" s="18" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E599" s="16">
         <v>0</v>
@@ -20327,10 +20487,10 @@
         <v>603</v>
       </c>
       <c r="C600" s="17" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="D600" s="18" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E600" s="16">
         <v>0</v>
@@ -20344,7 +20504,7 @@
         <v>615</v>
       </c>
       <c r="D601" s="18" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E601" s="16">
         <v>0</v>
@@ -20358,7 +20518,7 @@
         <v>615</v>
       </c>
       <c r="D602" s="18" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="E602" s="16">
         <v>0</v>
@@ -20372,7 +20532,7 @@
         <v>615</v>
       </c>
       <c r="D603" s="18" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E603" s="16">
         <v>0</v>
@@ -20386,7 +20546,7 @@
         <v>615</v>
       </c>
       <c r="D604" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E604" s="16">
         <v>0</v>
@@ -20400,7 +20560,7 @@
         <v>615</v>
       </c>
       <c r="D605" s="18" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E605" s="16">
         <v>0</v>
@@ -20414,7 +20574,7 @@
         <v>615</v>
       </c>
       <c r="D606" s="18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E606" s="16">
         <v>0</v>
@@ -20428,7 +20588,7 @@
         <v>615</v>
       </c>
       <c r="D607" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E607" s="16">
         <v>0</v>
@@ -20442,7 +20602,7 @@
         <v>615</v>
       </c>
       <c r="D608" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E608" s="16">
         <v>0</v>
@@ -20456,7 +20616,7 @@
         <v>615</v>
       </c>
       <c r="D609" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E609" s="16">
         <v>0</v>
@@ -20470,7 +20630,7 @@
         <v>615</v>
       </c>
       <c r="D610" s="18" t="s">
-        <v>608</v>
+        <v>570</v>
       </c>
       <c r="E610" s="16">
         <v>0</v>
@@ -20484,7 +20644,7 @@
         <v>615</v>
       </c>
       <c r="D611" s="18" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="E611" s="16">
         <v>0</v>
@@ -20498,7 +20658,7 @@
         <v>615</v>
       </c>
       <c r="D612" s="18" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E612" s="16">
         <v>0</v>
@@ -20512,7 +20672,7 @@
         <v>615</v>
       </c>
       <c r="D613" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E613" s="16">
         <v>0</v>
@@ -20523,10 +20683,10 @@
         <v>603</v>
       </c>
       <c r="C614" s="17" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D614" s="18" t="s">
-        <v>550</v>
+        <v>579</v>
       </c>
       <c r="E614" s="16">
         <v>0</v>
@@ -20540,7 +20700,7 @@
         <v>616</v>
       </c>
       <c r="D615" s="18" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E615" s="16">
         <v>0</v>
@@ -20554,7 +20714,7 @@
         <v>616</v>
       </c>
       <c r="D616" s="18" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E616" s="16">
         <v>0</v>
@@ -20568,7 +20728,7 @@
         <v>616</v>
       </c>
       <c r="D617" s="18" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E617" s="16">
         <v>0</v>
@@ -20582,7 +20742,7 @@
         <v>616</v>
       </c>
       <c r="D618" s="18" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E618" s="16">
         <v>0</v>
@@ -20596,7 +20756,7 @@
         <v>616</v>
       </c>
       <c r="D619" s="18" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E619" s="16">
         <v>0</v>
@@ -20610,7 +20770,7 @@
         <v>616</v>
       </c>
       <c r="D620" s="18" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E620" s="16">
         <v>0</v>
@@ -20624,7 +20784,7 @@
         <v>616</v>
       </c>
       <c r="D621" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E621" s="16">
         <v>0</v>
@@ -20638,7 +20798,7 @@
         <v>616</v>
       </c>
       <c r="D622" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E622" s="16">
         <v>0</v>
@@ -20652,7 +20812,7 @@
         <v>616</v>
       </c>
       <c r="D623" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E623" s="16">
         <v>0</v>
@@ -20666,7 +20826,7 @@
         <v>616</v>
       </c>
       <c r="D624" s="18" t="s">
-        <v>608</v>
+        <v>570</v>
       </c>
       <c r="E624" s="16">
         <v>0</v>
@@ -20680,7 +20840,7 @@
         <v>616</v>
       </c>
       <c r="D625" s="18" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="E625" s="16">
         <v>0</v>
@@ -20694,7 +20854,7 @@
         <v>616</v>
       </c>
       <c r="D626" s="18" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E626" s="16">
         <v>0</v>
@@ -20708,7 +20868,7 @@
         <v>616</v>
       </c>
       <c r="D627" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E627" s="16">
         <v>0</v>
@@ -20719,10 +20879,10 @@
         <v>603</v>
       </c>
       <c r="C628" s="17" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D628" s="18" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="E628" s="16">
         <v>0</v>
@@ -20733,10 +20893,10 @@
         <v>603</v>
       </c>
       <c r="C629" s="17" t="s">
-        <v>459</v>
+        <v>617</v>
       </c>
       <c r="D629" s="18" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E629" s="16">
         <v>0</v>
@@ -20750,7 +20910,7 @@
         <v>459</v>
       </c>
       <c r="D630" s="18" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="E630" s="16">
         <v>0</v>
@@ -20764,7 +20924,7 @@
         <v>459</v>
       </c>
       <c r="D631" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E631" s="16">
         <v>0</v>
@@ -20778,7 +20938,7 @@
         <v>459</v>
       </c>
       <c r="D632" s="18" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E632" s="16">
         <v>0</v>
@@ -20792,7 +20952,7 @@
         <v>459</v>
       </c>
       <c r="D633" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E633" s="16">
         <v>0</v>
@@ -20806,7 +20966,7 @@
         <v>459</v>
       </c>
       <c r="D634" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E634" s="16">
         <v>0</v>
@@ -20820,7 +20980,7 @@
         <v>459</v>
       </c>
       <c r="D635" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E635" s="16">
         <v>0</v>
@@ -20834,7 +20994,7 @@
         <v>459</v>
       </c>
       <c r="D636" s="18" t="s">
-        <v>608</v>
+        <v>570</v>
       </c>
       <c r="E636" s="16">
         <v>0</v>
@@ -20848,7 +21008,7 @@
         <v>459</v>
       </c>
       <c r="D637" s="18" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="E637" s="16">
         <v>0</v>
@@ -20862,7 +21022,7 @@
         <v>459</v>
       </c>
       <c r="D638" s="18" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E638" s="16">
         <v>0</v>
@@ -20876,7 +21036,7 @@
         <v>459</v>
       </c>
       <c r="D639" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E639" s="16">
         <v>0</v>
@@ -20887,10 +21047,10 @@
         <v>603</v>
       </c>
       <c r="C640" s="17" t="s">
-        <v>974</v>
+        <v>459</v>
       </c>
       <c r="D640" s="18" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="E640" s="16">
         <v>0</v>
@@ -20904,7 +21064,7 @@
         <v>974</v>
       </c>
       <c r="D641" s="18" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E641" s="16">
         <v>0</v>
@@ -20918,7 +21078,7 @@
         <v>974</v>
       </c>
       <c r="D642" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E642" s="16">
         <v>0</v>
@@ -20932,7 +21092,7 @@
         <v>974</v>
       </c>
       <c r="D643" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E643" s="16">
         <v>0</v>
@@ -20946,7 +21106,7 @@
         <v>974</v>
       </c>
       <c r="D644" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E644" s="16">
         <v>0</v>
@@ -20960,7 +21120,7 @@
         <v>974</v>
       </c>
       <c r="D645" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E645" s="16">
         <v>0</v>
@@ -20974,7 +21134,7 @@
         <v>974</v>
       </c>
       <c r="D646" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E646" s="16">
         <v>0</v>
@@ -20988,7 +21148,7 @@
         <v>974</v>
       </c>
       <c r="D647" s="18" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E647" s="16">
         <v>0</v>
@@ -21002,7 +21162,7 @@
         <v>974</v>
       </c>
       <c r="D648" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E648" s="16">
         <v>0</v>
@@ -21016,7 +21176,7 @@
         <v>974</v>
       </c>
       <c r="D649" s="18" t="s">
-        <v>608</v>
+        <v>575</v>
       </c>
       <c r="E649" s="16">
         <v>0</v>
@@ -21030,7 +21190,7 @@
         <v>974</v>
       </c>
       <c r="D650" s="18" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="E650" s="16">
         <v>0</v>
@@ -21044,7 +21204,7 @@
         <v>974</v>
       </c>
       <c r="D651" s="18" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E651" s="16">
         <v>0</v>
@@ -21058,7 +21218,7 @@
         <v>974</v>
       </c>
       <c r="D652" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E652" s="16">
         <v>0</v>
@@ -21069,10 +21229,10 @@
         <v>603</v>
       </c>
       <c r="C653" s="17" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D653" s="18" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E653" s="16">
         <v>0</v>
@@ -21086,7 +21246,7 @@
         <v>975</v>
       </c>
       <c r="D654" s="18" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E654" s="16">
         <v>0</v>
@@ -21100,7 +21260,7 @@
         <v>975</v>
       </c>
       <c r="D655" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E655" s="16">
         <v>0</v>
@@ -21114,7 +21274,7 @@
         <v>975</v>
       </c>
       <c r="D656" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E656" s="16">
         <v>0</v>
@@ -21128,7 +21288,7 @@
         <v>975</v>
       </c>
       <c r="D657" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E657" s="16">
         <v>0</v>
@@ -21142,7 +21302,7 @@
         <v>975</v>
       </c>
       <c r="D658" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E658" s="16">
         <v>0</v>
@@ -21156,7 +21316,7 @@
         <v>975</v>
       </c>
       <c r="D659" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E659" s="16">
         <v>0</v>
@@ -21170,7 +21330,7 @@
         <v>975</v>
       </c>
       <c r="D660" s="18" t="s">
-        <v>604</v>
+        <v>572</v>
       </c>
       <c r="E660" s="16">
         <v>0</v>
@@ -21184,7 +21344,7 @@
         <v>975</v>
       </c>
       <c r="D661" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E661" s="16">
         <v>0</v>
@@ -21198,7 +21358,7 @@
         <v>975</v>
       </c>
       <c r="D662" s="18" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E662" s="16">
         <v>0</v>
@@ -21212,7 +21372,7 @@
         <v>975</v>
       </c>
       <c r="D663" s="18" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="E663" s="16">
         <v>0</v>
@@ -21226,7 +21386,7 @@
         <v>975</v>
       </c>
       <c r="D664" s="18" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E664" s="16">
         <v>0</v>
@@ -21240,7 +21400,7 @@
         <v>975</v>
       </c>
       <c r="D665" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E665" s="16">
         <v>0</v>
@@ -21251,10 +21411,10 @@
         <v>603</v>
       </c>
       <c r="C666" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D666" s="18" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="E666" s="16">
         <v>0</v>
@@ -21268,7 +21428,7 @@
         <v>976</v>
       </c>
       <c r="D667" s="18" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E667" s="16">
         <v>0</v>
@@ -21282,7 +21442,7 @@
         <v>976</v>
       </c>
       <c r="D668" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E668" s="16">
         <v>0</v>
@@ -21296,7 +21456,7 @@
         <v>976</v>
       </c>
       <c r="D669" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E669" s="16">
         <v>0</v>
@@ -21310,7 +21470,7 @@
         <v>976</v>
       </c>
       <c r="D670" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E670" s="16">
         <v>0</v>
@@ -21324,7 +21484,7 @@
         <v>976</v>
       </c>
       <c r="D671" s="18" t="s">
-        <v>606</v>
+        <v>570</v>
       </c>
       <c r="E671" s="16">
         <v>0</v>
@@ -21338,7 +21498,7 @@
         <v>976</v>
       </c>
       <c r="D672" s="18" t="s">
-        <v>573</v>
+        <v>606</v>
       </c>
       <c r="E672" s="16">
         <v>0</v>
@@ -21352,7 +21512,7 @@
         <v>976</v>
       </c>
       <c r="D673" s="18" t="s">
-        <v>608</v>
+        <v>573</v>
       </c>
       <c r="E673" s="16">
         <v>0</v>
@@ -21366,7 +21526,7 @@
         <v>976</v>
       </c>
       <c r="D674" s="18" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="E674" s="16">
         <v>0</v>
@@ -21380,7 +21540,7 @@
         <v>976</v>
       </c>
       <c r="D675" s="18" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E675" s="16">
         <v>0</v>
@@ -21394,21 +21554,21 @@
         <v>976</v>
       </c>
       <c r="D676" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="E676" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="2:5">
+      <c r="B677" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="C677" s="17" t="s">
+        <v>976</v>
+      </c>
+      <c r="D677" s="18" t="s">
         <v>579</v>
-      </c>
-      <c r="E676" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="677" spans="2:5">
-      <c r="B677" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C677" s="32" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D677" s="7" t="s">
-        <v>1006</v>
       </c>
       <c r="E677" s="16">
         <v>0</v>
@@ -21422,7 +21582,7 @@
         <v>1004</v>
       </c>
       <c r="D678" s="7" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E678" s="16">
         <v>0</v>
@@ -21433,10 +21593,10 @@
         <v>1003</v>
       </c>
       <c r="C679" s="32" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D679" s="7" t="s">
-        <v>997</v>
+        <v>1007</v>
       </c>
       <c r="E679" s="16">
         <v>0</v>
@@ -21450,25 +21610,152 @@
         <v>1005</v>
       </c>
       <c r="D680" s="7" t="s">
+        <v>997</v>
+      </c>
+      <c r="E680" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="2:5">
+      <c r="B681" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C681" s="32" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D681" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="E680" s="16">
+      <c r="E681" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="2:5">
+      <c r="B682" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C682" s="35" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D682" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E682" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="2:5">
+      <c r="B683" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C683" s="35" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D683" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E683" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="2:5">
+      <c r="B684" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C684" s="35" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D684" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E684" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="2:5">
+      <c r="B685" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C685" s="35" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D685" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E685" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="2:5">
+      <c r="B686" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C686" s="35" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D686" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E686" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="2:5">
+      <c r="B687" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C687" s="35" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D687" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E687" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="2:5">
+      <c r="B688" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C688" s="35" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D688" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E688" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="2:5">
+      <c r="B689" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C689" s="35" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D689" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E689" s="16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:E676"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <autoFilter ref="B3:E677"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="G148" sqref="G148"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23364,10 +23651,10 @@
     </row>
     <row r="135" spans="2:5">
       <c r="B135" s="7" t="s">
-        <v>625</v>
+        <v>1156</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>648</v>
+        <v>1155</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>649</v>
@@ -23384,7 +23671,7 @@
         <v>648</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>650</v>
+        <v>1157</v>
       </c>
       <c r="E136" s="5">
         <v>0</v>
@@ -23395,10 +23682,10 @@
         <v>625</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>699</v>
+        <v>648</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E137" s="5">
         <v>0</v>
@@ -23409,7 +23696,7 @@
         <v>625</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>649</v>
@@ -23420,13 +23707,13 @@
     </row>
     <row r="139" spans="2:5">
       <c r="B139" s="7" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>638</v>
+        <v>625</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>700</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="E139" s="5">
         <v>0</v>
@@ -23434,13 +23721,13 @@
     </row>
     <row r="140" spans="2:5">
       <c r="B140" s="7" t="s">
-        <v>632</v>
+        <v>1145</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>638</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>1046</v>
+        <v>633</v>
       </c>
       <c r="E140" s="5">
         <v>0</v>
@@ -23454,7 +23741,7 @@
         <v>638</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E141" s="5">
         <v>0</v>
@@ -23462,13 +23749,13 @@
     </row>
     <row r="142" spans="2:5">
       <c r="B142" s="7" t="s">
-        <v>1143</v>
+        <v>632</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>1144</v>
+        <v>638</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>1142</v>
+        <v>1047</v>
       </c>
       <c r="E142" s="5">
         <v>0</v>
@@ -23479,10 +23766,10 @@
         <v>1143</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>1147</v>
+        <v>1144</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>1142</v>
       </c>
       <c r="E143" s="5">
         <v>0</v>
@@ -23490,13 +23777,13 @@
     </row>
     <row r="144" spans="2:5">
       <c r="B144" s="7" t="s">
-        <v>632</v>
+        <v>1143</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>635</v>
+        <v>1146</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>1147</v>
       </c>
       <c r="E144" s="5">
         <v>0</v>
@@ -23510,7 +23797,7 @@
         <v>634</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E145" s="5">
         <v>0</v>
@@ -23518,13 +23805,13 @@
     </row>
     <row r="146" spans="2:5">
       <c r="B146" s="7" t="s">
-        <v>1121</v>
+        <v>632</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D146" s="9" t="s">
-        <v>1148</v>
+        <v>634</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>636</v>
       </c>
       <c r="E146" s="5">
         <v>0</v>
@@ -23532,13 +23819,13 @@
     </row>
     <row r="147" spans="2:5">
       <c r="B147" s="7" t="s">
-        <v>1132</v>
+        <v>1121</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>1151</v>
+        <v>1122</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>1133</v>
+        <v>1148</v>
       </c>
       <c r="E147" s="5">
         <v>0</v>
@@ -23546,13 +23833,13 @@
     </row>
     <row r="148" spans="2:5">
       <c r="B148" s="7" t="s">
-        <v>1150</v>
+        <v>1132</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>1153</v>
+        <v>1133</v>
       </c>
       <c r="E148" s="5">
         <v>0</v>
@@ -23560,13 +23847,13 @@
     </row>
     <row r="149" spans="2:5">
       <c r="B149" s="7" t="s">
-        <v>1132</v>
+        <v>1150</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="E149" s="5">
         <v>0</v>
@@ -23574,13 +23861,13 @@
     </row>
     <row r="150" spans="2:5">
       <c r="B150" s="7" t="s">
-        <v>632</v>
+        <v>1132</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>977</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>978</v>
+        <v>1154</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>1149</v>
       </c>
       <c r="E150" s="5">
         <v>0</v>
@@ -23590,11 +23877,11 @@
       <c r="B151" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="C151" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="D151" s="9" t="s">
-        <v>643</v>
+      <c r="C151" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>978</v>
       </c>
       <c r="E151" s="5">
         <v>0</v>
@@ -23602,13 +23889,13 @@
     </row>
     <row r="152" spans="2:5">
       <c r="B152" s="7" t="s">
-        <v>993</v>
+        <v>632</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>994</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>995</v>
+        <v>992</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>643</v>
       </c>
       <c r="E152" s="5">
         <v>0</v>
@@ -23616,52 +23903,52 @@
     </row>
     <row r="153" spans="2:5">
       <c r="B153" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="E153" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" s="7" t="s">
         <v>1077</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C154" s="6" t="s">
         <v>1076</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="D154" s="7" t="s">
         <v>1078</v>
       </c>
-      <c r="E153" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5">
-      <c r="B154" s="33" t="s">
+      <c r="E154" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155" s="33" t="s">
         <v>1089</v>
       </c>
-      <c r="C154" s="34" t="s">
+      <c r="C155" s="34" t="s">
         <v>1088</v>
       </c>
-      <c r="D154" s="33" t="s">
+      <c r="D155" s="33" t="s">
         <v>633</v>
       </c>
-      <c r="E154" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5">
-      <c r="B155" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="D155" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="E155" s="5">
+      <c r="E155" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="2:5">
       <c r="B156" s="7" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D156" s="9" t="s">
         <v>673</v>
@@ -23672,13 +23959,13 @@
     </row>
     <row r="157" spans="2:5">
       <c r="B157" s="7" t="s">
-        <v>967</v>
+        <v>669</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>968</v>
+        <v>671</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>969</v>
+        <v>673</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
@@ -23686,13 +23973,13 @@
     </row>
     <row r="158" spans="2:5">
       <c r="B158" s="7" t="s">
-        <v>1136</v>
+        <v>967</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>1134</v>
+        <v>968</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>673</v>
+        <v>969</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
@@ -23700,13 +23987,13 @@
     </row>
     <row r="159" spans="2:5">
       <c r="B159" s="7" t="s">
-        <v>669</v>
+        <v>1136</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>1137</v>
+        <v>673</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
@@ -23714,13 +24001,13 @@
     </row>
     <row r="160" spans="2:5">
       <c r="B160" s="7" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>675</v>
+        <v>1135</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>686</v>
+        <v>1137</v>
       </c>
       <c r="E160" s="5">
         <v>0</v>
@@ -23728,13 +24015,13 @@
     </row>
     <row r="161" spans="2:5">
       <c r="B161" s="7" t="s">
-        <v>1037</v>
+        <v>1158</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>1036</v>
+        <v>1159</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>1038</v>
+        <v>1160</v>
       </c>
       <c r="E161" s="5">
         <v>0</v>
@@ -23742,13 +24029,13 @@
     </row>
     <row r="162" spans="2:5">
       <c r="B162" s="7" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="E162" s="5">
         <v>0</v>
@@ -23756,13 +24043,13 @@
     </row>
     <row r="163" spans="2:5">
       <c r="B163" s="7" t="s">
-        <v>926</v>
+        <v>1037</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>677</v>
+        <v>1036</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>678</v>
+        <v>1038</v>
       </c>
       <c r="E163" s="5">
         <v>0</v>
@@ -23770,13 +24057,13 @@
     </row>
     <row r="164" spans="2:5">
       <c r="B164" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>681</v>
+        <v>676</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>677</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="E164" s="5">
         <v>0</v>
@@ -23784,13 +24071,13 @@
     </row>
     <row r="165" spans="2:5">
       <c r="B165" s="7" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>1023</v>
+        <v>926</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>677</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>1025</v>
+        <v>678</v>
       </c>
       <c r="E165" s="5">
         <v>0</v>
@@ -23798,13 +24085,13 @@
     </row>
     <row r="166" spans="2:5">
       <c r="B166" s="7" t="s">
-        <v>1026</v>
+        <v>683</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>681</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="E166" s="5">
         <v>0</v>
@@ -23812,13 +24099,13 @@
     </row>
     <row r="167" spans="2:5">
       <c r="B167" s="7" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>1023</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>674</v>
+        <v>1025</v>
       </c>
       <c r="E167" s="5">
         <v>0</v>
@@ -23826,13 +24113,13 @@
     </row>
     <row r="168" spans="2:5">
       <c r="B168" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>687</v>
+        <v>1026</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>681</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E168" s="5">
         <v>0</v>
@@ -23840,13 +24127,13 @@
     </row>
     <row r="169" spans="2:5">
       <c r="B169" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>689</v>
+        <v>1026</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>1023</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="E169" s="5">
         <v>0</v>
@@ -23854,13 +24141,13 @@
     </row>
     <row r="170" spans="2:5">
       <c r="B170" s="7" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E170" s="5">
         <v>0</v>
@@ -23871,10 +24158,10 @@
         <v>690</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="E171" s="5">
         <v>0</v>
@@ -23882,13 +24169,13 @@
     </row>
     <row r="172" spans="2:5">
       <c r="B172" s="7" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="E172" s="5">
         <v>0</v>
@@ -23896,13 +24183,13 @@
     </row>
     <row r="173" spans="2:5">
       <c r="B173" s="7" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E173" s="5">
         <v>0</v>
@@ -23913,7 +24200,7 @@
         <v>705</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D174" s="9" t="s">
         <v>706</v>
@@ -23924,13 +24211,13 @@
     </row>
     <row r="175" spans="2:5">
       <c r="B175" s="7" t="s">
-        <v>961</v>
+        <v>705</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>962</v>
+        <v>707</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>1072</v>
+        <v>706</v>
       </c>
       <c r="E175" s="5">
         <v>0</v>
@@ -23938,13 +24225,13 @@
     </row>
     <row r="176" spans="2:5">
       <c r="B176" s="7" t="s">
-        <v>961</v>
+        <v>705</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>964</v>
+        <v>708</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>965</v>
+        <v>706</v>
       </c>
       <c r="E176" s="5">
         <v>0</v>
@@ -23954,11 +24241,11 @@
       <c r="B177" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="C177" s="5" t="s">
-        <v>966</v>
+      <c r="C177" s="6" t="s">
+        <v>962</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>965</v>
+        <v>1072</v>
       </c>
       <c r="E177" s="5">
         <v>0</v>
@@ -23968,8 +24255,8 @@
       <c r="B178" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="C178" s="5" t="s">
-        <v>1138</v>
+      <c r="C178" s="6" t="s">
+        <v>964</v>
       </c>
       <c r="D178" s="9" t="s">
         <v>965</v>
@@ -23980,21 +24267,49 @@
     </row>
     <row r="179" spans="2:5">
       <c r="B179" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E179" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5">
+      <c r="B180" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E180" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5">
+      <c r="B181" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="C179" s="7" t="s">
+      <c r="C181" s="7" t="s">
         <v>1124</v>
       </c>
-      <c r="D179" s="7" t="s">
+      <c r="D181" s="7" t="s">
         <v>1125</v>
       </c>
-      <c r="E179" s="5">
+      <c r="E181" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:E178"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <autoFilter ref="B3:E180"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24124,7 +24439,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -24487,7 +24802,7 @@
       <c r="P12" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24578,7 +24893,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/wico/数据表结构.xlsx
+++ b/wico/数据表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23250" windowHeight="13170" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23250" windowHeight="13170" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="客户正式投诉" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'不良类型（上传，下载）'!$B$3:$E$211</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'零件清单（下载）'!$B$3:$K$154</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'座椅配置（下载）'!$B$3:$E$677</definedName>
   </definedNames>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4067" uniqueCount="1165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4160" uniqueCount="1201">
   <si>
     <t>SLIDE ADJR OUT L,FR SEAT</t>
   </si>
@@ -3189,10 +3189,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>更换齿轮箱、丝杆</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>调节滑动电机支架</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3201,15 +3197,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>调整滑动电机</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>升降反转音</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降电机不作动</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3285,10 +3273,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>二维码破损/脏污</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>滑动异音</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3710,10 +3694,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>撬L形支架</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>电动滑轨</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3922,10 +3902,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>更换齿轮箱、丝杆</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>调整丝杆螺母，反复作动</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3951,10 +3927,6 @@
   </si>
   <si>
     <t>更换座椅骨架</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>手柄下压后不回弹</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -4122,20 +4094,190 @@
     <t>DE5</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>有划痕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降打啃&amp;异响</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降异响</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降异响</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动座椅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动打啃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>撬L形支架</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整升降电机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接管内有焊渣、焊瘤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除焊渣</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换侧支架</t>
+  </si>
+  <si>
+    <t>连接管内有焊渣、焊瘤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换侧支架</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧固电机螺丝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁紧挡圈脱落</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>插头破损</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS-GSK漏装短轴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助更换齿轮箱,调整/更换 短绕性轴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>撬解锁手柄进行修理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与骨盆之间的间隙小</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节连接板</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手柄下压后不回弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>取出焊渣</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动途中卡死，无法再前后作动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换齿轮箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换丝杆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法作动到最前/后端</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>撬L形支架</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换丝杆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降异响</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降异响</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降异响</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>反复作动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码破损/脏污</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法作动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理焊渣</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法作动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理焊渣</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新装配</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前/后端连接臂铆接过紧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>座椅不同步</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新装配</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4355,6 +4497,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -4363,14 +4506,8 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4414,6 +4551,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5127,7 +5276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5231,6 +5380,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="300" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="401">
@@ -7032,7 +7196,7 @@
         <v>47</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>50</v>
@@ -7731,13 +7895,13 @@
         <v>170</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>735</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>2</v>
@@ -7746,7 +7910,7 @@
         <v>58109</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K26" s="7">
         <v>0</v>
@@ -7772,7 +7936,7 @@
         <v>736</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>2</v>
@@ -7781,7 +7945,7 @@
         <v>58109</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K27" s="7">
         <v>0</v>
@@ -7807,14 +7971,14 @@
         <v>737</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K28" s="7">
         <v>0</v>
@@ -7840,7 +8004,7 @@
         <v>738</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>2</v>
@@ -7849,7 +8013,7 @@
         <v>58109</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K29" s="7">
         <v>0</v>
@@ -7875,14 +8039,14 @@
         <v>739</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K30" s="7">
         <v>0</v>
@@ -8120,7 +8284,7 @@
         <v>277</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>278</v>
@@ -8153,7 +8317,7 @@
         <v>279</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>280</v>
@@ -8390,7 +8554,7 @@
         <v>58104</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K46" s="7">
         <v>0</v>
@@ -8425,7 +8589,7 @@
         <v>58104</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K47" s="7">
         <v>0</v>
@@ -8460,7 +8624,7 @@
         <v>58104</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K48" s="7">
         <v>0</v>
@@ -8495,7 +8659,7 @@
         <v>58104</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K49" s="7">
         <v>0</v>
@@ -8530,7 +8694,7 @@
         <v>58112</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K50" s="7">
         <v>0</v>
@@ -8565,7 +8729,7 @@
         <v>765</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K51" s="7">
         <v>0</v>
@@ -8600,7 +8764,7 @@
         <v>58112</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K52" s="7">
         <v>0</v>
@@ -8635,7 +8799,7 @@
         <v>765</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K53" s="7">
         <v>0</v>
@@ -8670,7 +8834,7 @@
         <v>58112</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K54" s="7">
         <v>0</v>
@@ -8702,10 +8866,10 @@
         <v>2</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K55" s="7">
         <v>0</v>
@@ -8740,7 +8904,7 @@
         <v>58112</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K56" s="7">
         <v>0</v>
@@ -8775,7 +8939,7 @@
         <v>765</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K57" s="7">
         <v>0</v>
@@ -8810,7 +8974,7 @@
         <v>52111</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K58" s="7">
         <v>0</v>
@@ -8845,7 +9009,7 @@
         <v>52111</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K59" s="7">
         <v>0</v>
@@ -8878,7 +9042,7 @@
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K60" s="7">
         <v>0</v>
@@ -8911,7 +9075,7 @@
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K61" s="7">
         <v>0</v>
@@ -8944,7 +9108,7 @@
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K62" s="7">
         <v>0</v>
@@ -8977,7 +9141,7 @@
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K63" s="7">
         <v>0</v>
@@ -9012,7 +9176,7 @@
         <v>58111</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K64" s="7">
         <v>0</v>
@@ -9047,7 +9211,7 @@
         <v>58111</v>
       </c>
       <c r="J65" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K65" s="7">
         <v>0</v>
@@ -9080,7 +9244,7 @@
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K66" s="7">
         <v>0</v>
@@ -9113,7 +9277,7 @@
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K67" s="7">
         <v>0</v>
@@ -9146,7 +9310,7 @@
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K68" s="7">
         <v>0</v>
@@ -9179,7 +9343,7 @@
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K69" s="7">
         <v>0</v>
@@ -9307,7 +9471,7 @@
         <v>58105</v>
       </c>
       <c r="J73" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K73" s="7">
         <v>0</v>
@@ -10230,7 +10394,7 @@
         <v>136</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>137</v>
@@ -10341,7 +10505,7 @@
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K105" s="7">
         <v>0</v>
@@ -10374,7 +10538,7 @@
       </c>
       <c r="I106" s="7"/>
       <c r="J106" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K106" s="7">
         <v>0</v>
@@ -10409,7 +10573,7 @@
         <v>58103</v>
       </c>
       <c r="J107" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K107" s="7">
         <v>0</v>
@@ -10444,7 +10608,7 @@
         <v>58103</v>
       </c>
       <c r="J108" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K108" s="7">
         <v>0</v>
@@ -10479,7 +10643,7 @@
         <v>58103</v>
       </c>
       <c r="J109" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K109" s="7">
         <v>0</v>
@@ -10514,7 +10678,7 @@
         <v>58103</v>
       </c>
       <c r="J110" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K110" s="7">
         <v>0</v>
@@ -10759,7 +10923,7 @@
         <v>58103</v>
       </c>
       <c r="J117" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K117" s="7">
         <v>0</v>
@@ -10794,7 +10958,7 @@
         <v>58103</v>
       </c>
       <c r="J118" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K118" s="7">
         <v>0</v>
@@ -10829,7 +10993,7 @@
         <v>58103</v>
       </c>
       <c r="J119" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K119" s="7">
         <v>0</v>
@@ -10864,7 +11028,7 @@
         <v>58103</v>
       </c>
       <c r="J120" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K120" s="7">
         <v>0</v>
@@ -10899,7 +11063,7 @@
         <v>58103</v>
       </c>
       <c r="J121" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K121" s="7">
         <v>0</v>
@@ -10934,7 +11098,7 @@
         <v>58103</v>
       </c>
       <c r="J122" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K122" s="7">
         <v>0</v>
@@ -10954,20 +11118,20 @@
         <v>858</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="F123" s="19" t="s">
         <v>859</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="H123" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="19" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="K123" s="7">
         <v>0</v>
@@ -10993,7 +11157,7 @@
         <v>861</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>2</v>
@@ -11002,7 +11166,7 @@
         <v>58109</v>
       </c>
       <c r="J124" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K124" s="7">
         <v>0</v>
@@ -11028,14 +11192,14 @@
         <v>863</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="H125" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="19" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="K125" s="7">
         <v>0</v>
@@ -11061,7 +11225,7 @@
         <v>865</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="H126" s="7" t="s">
         <v>2</v>
@@ -11070,7 +11234,7 @@
         <v>58109</v>
       </c>
       <c r="J126" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K126" s="7">
         <v>0</v>
@@ -11096,14 +11260,14 @@
         <v>867</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="H127" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I127" s="7"/>
       <c r="J127" s="19" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="K127" s="7">
         <v>0</v>
@@ -11129,7 +11293,7 @@
         <v>869</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="H128" s="7" t="s">
         <v>2</v>
@@ -11138,7 +11302,7 @@
         <v>58109</v>
       </c>
       <c r="J128" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K128" s="7">
         <v>0</v>
@@ -11164,14 +11328,14 @@
         <v>871</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="19" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="K129" s="7">
         <v>0</v>
@@ -11197,7 +11361,7 @@
         <v>873</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>2</v>
@@ -11206,7 +11370,7 @@
         <v>58109</v>
       </c>
       <c r="J130" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K130" s="7">
         <v>0</v>
@@ -11433,7 +11597,7 @@
         <v>240</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>207</v>
@@ -11538,7 +11702,7 @@
         <v>243</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>219</v>
@@ -11713,7 +11877,7 @@
         <v>390</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>179</v>
@@ -11746,7 +11910,7 @@
         <v>248</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="E146" s="7" t="s">
         <v>0</v>
@@ -11781,7 +11945,7 @@
         <v>249</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="E147" s="7" t="s">
         <v>179</v>
@@ -11816,7 +11980,7 @@
         <v>391</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="E148" s="7" t="s">
         <v>0</v>
@@ -11849,7 +12013,7 @@
         <v>392</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="E149" s="7" t="s">
         <v>185</v>
@@ -11882,7 +12046,7 @@
         <v>250</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="E150" s="7" t="s">
         <v>3</v>
@@ -11917,7 +12081,7 @@
         <v>251</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>185</v>
@@ -11952,7 +12116,7 @@
         <v>393</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>3</v>
@@ -11982,22 +12146,22 @@
         <v>138</v>
       </c>
       <c r="C153" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E153" s="7" t="s">
         <v>1006</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="F153" s="31" t="s">
+        <v>996</v>
+      </c>
+      <c r="G153" s="7" t="s">
         <v>1008</v>
       </c>
-      <c r="E153" s="7" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F153" s="31" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>1012</v>
-      </c>
       <c r="H153" s="9" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="I153" s="7">
         <v>58112</v>
@@ -12012,22 +12176,22 @@
         <v>138</v>
       </c>
       <c r="C154" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E154" s="7" t="s">
         <v>1007</v>
       </c>
-      <c r="D154" s="7" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>1011</v>
-      </c>
       <c r="F154" s="31" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="G154" s="7" t="s">
         <v>79</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="I154" s="7">
         <v>58112</v>
@@ -12053,7 +12217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A665" workbookViewId="0">
+    <sheetView topLeftCell="A644" workbookViewId="0">
       <selection activeCell="D687" sqref="D687"/>
     </sheetView>
   </sheetViews>
@@ -18133,7 +18297,7 @@
         <v>462</v>
       </c>
       <c r="D432" s="18" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="E432" s="16">
         <v>0</v>
@@ -21061,7 +21225,7 @@
         <v>603</v>
       </c>
       <c r="C641" s="17" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D641" s="18" t="s">
         <v>564</v>
@@ -21075,7 +21239,7 @@
         <v>603</v>
       </c>
       <c r="C642" s="17" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D642" s="18" t="s">
         <v>567</v>
@@ -21089,7 +21253,7 @@
         <v>603</v>
       </c>
       <c r="C643" s="17" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D643" s="18" t="s">
         <v>568</v>
@@ -21103,7 +21267,7 @@
         <v>603</v>
       </c>
       <c r="C644" s="17" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D644" s="18" t="s">
         <v>569</v>
@@ -21117,7 +21281,7 @@
         <v>603</v>
       </c>
       <c r="C645" s="17" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D645" s="18" t="s">
         <v>570</v>
@@ -21131,7 +21295,7 @@
         <v>603</v>
       </c>
       <c r="C646" s="17" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D646" s="18" t="s">
         <v>571</v>
@@ -21145,7 +21309,7 @@
         <v>603</v>
       </c>
       <c r="C647" s="17" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D647" s="18" t="s">
         <v>572</v>
@@ -21159,7 +21323,7 @@
         <v>603</v>
       </c>
       <c r="C648" s="17" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D648" s="18" t="s">
         <v>574</v>
@@ -21173,7 +21337,7 @@
         <v>603</v>
       </c>
       <c r="C649" s="17" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D649" s="18" t="s">
         <v>575</v>
@@ -21187,7 +21351,7 @@
         <v>603</v>
       </c>
       <c r="C650" s="17" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D650" s="18" t="s">
         <v>608</v>
@@ -21201,7 +21365,7 @@
         <v>603</v>
       </c>
       <c r="C651" s="17" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D651" s="18" t="s">
         <v>576</v>
@@ -21215,7 +21379,7 @@
         <v>603</v>
       </c>
       <c r="C652" s="17" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D652" s="18" t="s">
         <v>578</v>
@@ -21229,7 +21393,7 @@
         <v>603</v>
       </c>
       <c r="C653" s="17" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D653" s="18" t="s">
         <v>579</v>
@@ -21243,7 +21407,7 @@
         <v>603</v>
       </c>
       <c r="C654" s="17" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D654" s="18" t="s">
         <v>563</v>
@@ -21257,7 +21421,7 @@
         <v>603</v>
       </c>
       <c r="C655" s="17" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D655" s="18" t="s">
         <v>567</v>
@@ -21271,7 +21435,7 @@
         <v>603</v>
       </c>
       <c r="C656" s="17" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D656" s="18" t="s">
         <v>568</v>
@@ -21285,7 +21449,7 @@
         <v>603</v>
       </c>
       <c r="C657" s="17" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D657" s="18" t="s">
         <v>569</v>
@@ -21299,7 +21463,7 @@
         <v>603</v>
       </c>
       <c r="C658" s="17" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D658" s="18" t="s">
         <v>570</v>
@@ -21313,7 +21477,7 @@
         <v>603</v>
       </c>
       <c r="C659" s="17" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D659" s="18" t="s">
         <v>571</v>
@@ -21327,7 +21491,7 @@
         <v>603</v>
       </c>
       <c r="C660" s="17" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D660" s="18" t="s">
         <v>572</v>
@@ -21341,7 +21505,7 @@
         <v>603</v>
       </c>
       <c r="C661" s="17" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D661" s="18" t="s">
         <v>604</v>
@@ -21355,7 +21519,7 @@
         <v>603</v>
       </c>
       <c r="C662" s="17" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D662" s="18" t="s">
         <v>605</v>
@@ -21369,7 +21533,7 @@
         <v>603</v>
       </c>
       <c r="C663" s="17" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D663" s="18" t="s">
         <v>608</v>
@@ -21383,7 +21547,7 @@
         <v>603</v>
       </c>
       <c r="C664" s="17" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D664" s="18" t="s">
         <v>576</v>
@@ -21397,7 +21561,7 @@
         <v>603</v>
       </c>
       <c r="C665" s="17" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D665" s="18" t="s">
         <v>578</v>
@@ -21411,7 +21575,7 @@
         <v>603</v>
       </c>
       <c r="C666" s="17" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D666" s="18" t="s">
         <v>579</v>
@@ -21425,7 +21589,7 @@
         <v>603</v>
       </c>
       <c r="C667" s="17" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="D667" s="18" t="s">
         <v>565</v>
@@ -21439,7 +21603,7 @@
         <v>603</v>
       </c>
       <c r="C668" s="17" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="D668" s="18" t="s">
         <v>567</v>
@@ -21453,7 +21617,7 @@
         <v>603</v>
       </c>
       <c r="C669" s="17" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="D669" s="18" t="s">
         <v>568</v>
@@ -21467,7 +21631,7 @@
         <v>603</v>
       </c>
       <c r="C670" s="17" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="D670" s="18" t="s">
         <v>569</v>
@@ -21481,7 +21645,7 @@
         <v>603</v>
       </c>
       <c r="C671" s="17" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="D671" s="18" t="s">
         <v>570</v>
@@ -21495,7 +21659,7 @@
         <v>603</v>
       </c>
       <c r="C672" s="17" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="D672" s="18" t="s">
         <v>606</v>
@@ -21509,7 +21673,7 @@
         <v>603</v>
       </c>
       <c r="C673" s="17" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="D673" s="18" t="s">
         <v>573</v>
@@ -21523,7 +21687,7 @@
         <v>603</v>
       </c>
       <c r="C674" s="17" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="D674" s="18" t="s">
         <v>608</v>
@@ -21537,7 +21701,7 @@
         <v>603</v>
       </c>
       <c r="C675" s="17" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="D675" s="18" t="s">
         <v>576</v>
@@ -21551,7 +21715,7 @@
         <v>603</v>
       </c>
       <c r="C676" s="17" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="D676" s="18" t="s">
         <v>578</v>
@@ -21565,7 +21729,7 @@
         <v>603</v>
       </c>
       <c r="C677" s="17" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="D677" s="18" t="s">
         <v>579</v>
@@ -21576,13 +21740,13 @@
     </row>
     <row r="678" spans="2:5">
       <c r="B678" s="3" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C678" s="32" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="D678" s="7" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="E678" s="16">
         <v>0</v>
@@ -21590,13 +21754,13 @@
     </row>
     <row r="679" spans="2:5">
       <c r="B679" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="C679" s="32" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D679" s="7" t="s">
         <v>1003</v>
-      </c>
-      <c r="C679" s="32" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D679" s="7" t="s">
-        <v>1007</v>
       </c>
       <c r="E679" s="16">
         <v>0</v>
@@ -21604,13 +21768,13 @@
     </row>
     <row r="680" spans="2:5">
       <c r="B680" s="3" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C680" s="32" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="D680" s="7" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="E680" s="16">
         <v>0</v>
@@ -21618,13 +21782,13 @@
     </row>
     <row r="681" spans="2:5">
       <c r="B681" s="3" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C681" s="32" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="D681" s="7" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="E681" s="16">
         <v>0</v>
@@ -21632,10 +21796,10 @@
     </row>
     <row r="682" spans="2:5">
       <c r="B682" s="3" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="C682" s="35" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="D682" s="7" t="s">
         <v>341</v>
@@ -21646,10 +21810,10 @@
     </row>
     <row r="683" spans="2:5">
       <c r="B683" s="3" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="C683" s="35" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="D683" s="7" t="s">
         <v>344</v>
@@ -21660,10 +21824,10 @@
     </row>
     <row r="684" spans="2:5">
       <c r="B684" s="3" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="C684" s="35" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="D684" s="7" t="s">
         <v>316</v>
@@ -21674,10 +21838,10 @@
     </row>
     <row r="685" spans="2:5">
       <c r="B685" s="3" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="C685" s="35" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="D685" s="7" t="s">
         <v>325</v>
@@ -21688,10 +21852,10 @@
     </row>
     <row r="686" spans="2:5">
       <c r="B686" s="3" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="C686" s="35" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="D686" s="7" t="s">
         <v>247</v>
@@ -21702,10 +21866,10 @@
     </row>
     <row r="687" spans="2:5">
       <c r="B687" s="3" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="C687" s="35" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="D687" s="7" t="s">
         <v>245</v>
@@ -21716,10 +21880,10 @@
     </row>
     <row r="688" spans="2:5">
       <c r="B688" s="3" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="C688" s="35" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="D688" s="7" t="s">
         <v>335</v>
@@ -21730,10 +21894,10 @@
     </row>
     <row r="689" spans="2:5">
       <c r="B689" s="3" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="C689" s="35" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="D689" s="7" t="s">
         <v>369</v>
@@ -21752,10 +21916,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="D161" sqref="D161"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21862,7 +22026,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>623</v>
@@ -21873,13 +22037,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="4" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -21887,13 +22051,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="4" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -21901,13 +22065,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>622</v>
+        <v>1026</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1036</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1118</v>
+        <v>1010</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -21921,7 +22085,7 @@
         <v>622</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -21935,7 +22099,7 @@
         <v>622</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -21943,12 +22107,12 @@
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="4" t="s">
-        <v>1039</v>
+        <v>1</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D13" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>1115</v>
       </c>
       <c r="E13" s="5">
@@ -21957,13 +22121,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="4" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1032</v>
+        <v>1041</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
@@ -21971,13 +22135,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="4" t="s">
-        <v>1044</v>
+        <v>1026</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>1070</v>
+        <v>1028</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
@@ -21985,13 +22149,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="4" t="s">
-        <v>1015</v>
+        <v>1040</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1013</v>
+        <v>1065</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1014</v>
+        <v>1066</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -21999,13 +22163,13 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="4" t="s">
-        <v>1</v>
+        <v>1011</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1022</v>
+        <v>1165</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
@@ -22013,13 +22177,13 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="4" t="s">
-        <v>1015</v>
+        <v>1</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1031</v>
+        <v>1017</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>1068</v>
+        <v>1018</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -22027,13 +22191,13 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="4" t="s">
-        <v>1030</v>
+        <v>1011</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>1046</v>
+        <v>1027</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>1064</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -22041,13 +22205,13 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="4" t="s">
-        <v>1015</v>
+        <v>1026</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
@@ -22055,13 +22219,13 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="4" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -22069,13 +22233,13 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="4" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -22083,13 +22247,13 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="4" t="s">
-        <v>1083</v>
+        <v>1016</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>1085</v>
+        <v>1023</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>1043</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -22097,13 +22261,13 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="4" t="s">
-        <v>1097</v>
+        <v>1078</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1096</v>
+        <v>1079</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1098</v>
+        <v>1080</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
@@ -22111,13 +22275,13 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>646</v>
+        <v>1092</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>1093</v>
       </c>
       <c r="E25" s="5">
         <v>0</v>
@@ -22125,13 +22289,13 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>624</v>
+        <v>1092</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>1010</v>
       </c>
       <c r="E26" s="5">
         <v>0</v>
@@ -22142,10 +22306,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="E27" s="5">
         <v>0</v>
@@ -22156,40 +22320,40 @@
         <v>1</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>937</v>
       </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>936</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E29" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>936</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E30" s="23">
+      <c r="E30" s="5">
         <v>0</v>
       </c>
     </row>
@@ -22201,49 +22365,49 @@
         <v>936</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>939</v>
+        <v>1039</v>
       </c>
       <c r="E31" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="5" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>945</v>
-      </c>
-      <c r="E32" s="5">
+      <c r="B32" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E32" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E33" s="5">
+      <c r="C33" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>938</v>
+      </c>
+      <c r="E33" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="4" t="s">
-        <v>1</v>
+      <c r="B34" s="5" t="s">
+        <v>1016</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>1126</v>
+        <v>941</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>942</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
@@ -22251,55 +22415,55 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="4" t="s">
-        <v>970</v>
+        <v>1</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>971</v>
+        <v>1122</v>
       </c>
       <c r="E35" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="4" t="s">
-        <v>970</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E36" s="5">
+      <c r="B36" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E36" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E37" s="5">
+      <c r="C37" s="39" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E37" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="4" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>1056</v>
+        <v>967</v>
       </c>
       <c r="E38" s="5">
         <v>0</v>
@@ -22307,13 +22471,13 @@
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="4" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>1066</v>
+        <v>1048</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1128</v>
+        <v>1049</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
@@ -22321,13 +22485,13 @@
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="4" t="s">
-        <v>970</v>
+        <v>1</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>938</v>
+        <v>1048</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>1123</v>
       </c>
       <c r="E40" s="5">
         <v>0</v>
@@ -22335,41 +22499,41 @@
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="4" t="s">
-        <v>970</v>
+        <v>1</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E41" s="5">
+        <v>1182</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E41" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="4" t="s">
-        <v>970</v>
+        <v>1</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E42" s="5">
+        <v>1182</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E42" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="4" t="s">
-        <v>1074</v>
+        <v>966</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>1075</v>
+        <v>1050</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>1073</v>
+        <v>1052</v>
       </c>
       <c r="E43" s="5">
         <v>0</v>
@@ -22377,55 +22541,55 @@
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="4" t="s">
-        <v>1015</v>
+        <v>966</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="E44" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="E45" s="5">
+      <c r="B45" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E45" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="E46" s="5">
+      <c r="B46" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D46" s="40" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E46" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>655</v>
+        <v>966</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>1063</v>
       </c>
       <c r="E47" s="5">
         <v>0</v>
@@ -22433,13 +22597,13 @@
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="4" t="s">
-        <v>1</v>
+        <v>966</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>677</v>
+        <v>1050</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>678</v>
+        <v>1049</v>
       </c>
       <c r="E48" s="5">
         <v>0</v>
@@ -22447,13 +22611,13 @@
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="4" t="s">
-        <v>1</v>
+        <v>1069</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>677</v>
+        <v>1070</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>679</v>
+        <v>1186</v>
       </c>
       <c r="E49" s="5">
         <v>0</v>
@@ -22461,122 +22625,122 @@
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="4" t="s">
-        <v>1</v>
+        <v>1011</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>647</v>
+        <v>1070</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>631</v>
+        <v>1124</v>
       </c>
       <c r="E50" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>927</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="5">
+      <c r="B51" s="38" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E51" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="4" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>1113</v>
+        <v>1</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>645</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>1114</v>
+        <v>631</v>
       </c>
       <c r="E52" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>640</v>
+      <c r="B53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>661</v>
       </c>
       <c r="E53" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>42</v>
+      <c r="B54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>1200</v>
       </c>
       <c r="E54" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>631</v>
+      <c r="B55" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>655</v>
       </c>
       <c r="E55" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="29" t="s">
-        <v>973</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>972</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E56" s="29">
+      <c r="B56" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="E56" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="5" t="s">
-        <v>637</v>
+      <c r="B57" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>1117</v>
+        <v>677</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>679</v>
       </c>
       <c r="E57" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="5" t="s">
-        <v>637</v>
+      <c r="B58" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>631</v>
@@ -22586,42 +22750,42 @@
       </c>
     </row>
     <row r="59" spans="2:5">
-      <c r="B59" s="5" t="s">
-        <v>637</v>
+      <c r="B59" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>996</v>
+        <v>927</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>646</v>
+        <v>40</v>
       </c>
       <c r="E59" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>661</v>
+      <c r="B60" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>1109</v>
       </c>
       <c r="E60" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>703</v>
+      <c r="B61" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>1176</v>
       </c>
       <c r="E61" s="5">
         <v>0</v>
@@ -22631,11 +22795,11 @@
       <c r="B62" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>703</v>
+      <c r="C62" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>640</v>
       </c>
       <c r="E62" s="5">
         <v>0</v>
@@ -22645,11 +22809,11 @@
       <c r="B63" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>945</v>
+      <c r="C63" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="E63" s="5">
         <v>0</v>
@@ -22659,27 +22823,27 @@
       <c r="B64" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>655</v>
+      <c r="C64" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>631</v>
       </c>
       <c r="E64" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:5">
-      <c r="B65" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="E65" s="5">
+      <c r="B65" s="29" t="s">
+        <v>969</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>968</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E65" s="29">
         <v>0</v>
       </c>
     </row>
@@ -22688,10 +22852,10 @@
         <v>637</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>679</v>
+        <v>622</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>1112</v>
       </c>
       <c r="E66" s="5">
         <v>0</v>
@@ -22702,10 +22866,10 @@
         <v>637</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>1059</v>
+        <v>631</v>
       </c>
       <c r="E67" s="5">
         <v>0</v>
@@ -22716,10 +22880,10 @@
         <v>637</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>1058</v>
+        <v>992</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>40</v>
+        <v>646</v>
       </c>
       <c r="E68" s="5">
         <v>0</v>
@@ -22727,13 +22891,13 @@
     </row>
     <row r="69" spans="2:5">
       <c r="B69" s="5" t="s">
-        <v>1017</v>
+        <v>637</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>1018</v>
+        <v>626</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>661</v>
       </c>
       <c r="E69" s="5">
         <v>0</v>
@@ -22744,136 +22908,136 @@
         <v>637</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>1016</v>
+        <v>704</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>1019</v>
+        <v>703</v>
       </c>
       <c r="E70" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="7" t="s">
-        <v>1106</v>
+      <c r="B71" s="5" t="s">
+        <v>637</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>1035</v>
+        <v>710</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>628</v>
+        <v>703</v>
       </c>
       <c r="E71" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:5">
-      <c r="B72" s="7" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E72" s="23">
+      <c r="B72" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="E72" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:5">
-      <c r="B73" s="7" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>1049</v>
+      <c r="B73" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>655</v>
       </c>
       <c r="E73" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:5">
-      <c r="B74" s="7" t="s">
-        <v>1106</v>
+      <c r="B74" s="5" t="s">
+        <v>637</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>942</v>
+        <v>677</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>628</v>
+        <v>678</v>
       </c>
       <c r="E74" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:5">
-      <c r="B75" s="7" t="s">
-        <v>1106</v>
+      <c r="B75" s="5" t="s">
+        <v>637</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>1060</v>
+        <v>677</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>1061</v>
+        <v>679</v>
       </c>
       <c r="E75" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:5">
-      <c r="B76" s="7" t="s">
-        <v>1106</v>
+      <c r="B76" s="5" t="s">
+        <v>637</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>943</v>
+        <v>647</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>628</v>
+        <v>1055</v>
       </c>
       <c r="E76" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:5">
-      <c r="B77" s="7" t="s">
-        <v>1106</v>
+      <c r="B77" s="5" t="s">
+        <v>637</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>644</v>
+        <v>40</v>
       </c>
       <c r="E77" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="2:5">
-      <c r="B78" s="7" t="s">
-        <v>1106</v>
+      <c r="B78" s="5" t="s">
+        <v>1013</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>1062</v>
+        <v>1012</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>1080</v>
+        <v>1014</v>
       </c>
       <c r="E78" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:5">
-      <c r="B79" s="7" t="s">
-        <v>1106</v>
+      <c r="B79" s="5" t="s">
+        <v>637</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>1062</v>
+        <v>1012</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>1063</v>
+        <v>1015</v>
       </c>
       <c r="E79" s="5">
         <v>0</v>
@@ -22881,13 +23045,13 @@
     </row>
     <row r="80" spans="2:5">
       <c r="B80" s="7" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>1062</v>
+        <v>1031</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>1079</v>
+        <v>628</v>
       </c>
       <c r="E80" s="5">
         <v>0</v>
@@ -22895,27 +23059,27 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="7" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E81" s="5">
+        <v>1101</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E81" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="7" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>1087</v>
+        <v>1045</v>
       </c>
       <c r="E82" s="5">
         <v>0</v>
@@ -22923,13 +23087,13 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="7" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>1099</v>
+        <v>940</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>1100</v>
+        <v>628</v>
       </c>
       <c r="E83" s="5">
         <v>0</v>
@@ -22937,13 +23101,13 @@
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="7" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>1101</v>
+        <v>1056</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>1057</v>
       </c>
       <c r="E84" s="5">
         <v>0</v>
@@ -22951,13 +23115,13 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="7" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>1102</v>
+        <v>1195</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>628</v>
       </c>
       <c r="E85" s="5">
         <v>0</v>
@@ -22965,13 +23129,13 @@
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="7" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>1099</v>
+        <v>1195</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>1103</v>
+        <v>1196</v>
       </c>
       <c r="E86" s="5">
         <v>0</v>
@@ -22979,13 +23143,13 @@
     </row>
     <row r="87" spans="2:5">
       <c r="B87" s="7" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>1099</v>
+        <v>1058</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>1104</v>
+        <v>644</v>
       </c>
       <c r="E87" s="5">
         <v>0</v>
@@ -22993,13 +23157,13 @@
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="7" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>1105</v>
+        <v>1058</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>1075</v>
       </c>
       <c r="E88" s="5">
         <v>0</v>
@@ -23007,13 +23171,13 @@
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="7" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>651</v>
+        <v>1058</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>644</v>
+        <v>1059</v>
       </c>
       <c r="E89" s="5">
         <v>0</v>
@@ -23021,13 +23185,13 @@
     </row>
     <row r="90" spans="2:5">
       <c r="B90" s="7" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>652</v>
+        <v>1159</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>653</v>
+        <v>1074</v>
       </c>
       <c r="E90" s="5">
         <v>0</v>
@@ -23035,13 +23199,13 @@
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="7" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>652</v>
+        <v>1076</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>654</v>
+        <v>1077</v>
       </c>
       <c r="E91" s="5">
         <v>0</v>
@@ -23049,41 +23213,41 @@
     </row>
     <row r="92" spans="2:5">
       <c r="B92" s="7" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E92" s="23">
+        <v>1101</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E92" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:5">
       <c r="B93" s="7" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>940</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>941</v>
-      </c>
-      <c r="E93" s="23">
+        <v>1101</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E93" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:5">
       <c r="B94" s="7" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>661</v>
+        <v>1094</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>1096</v>
       </c>
       <c r="E94" s="5">
         <v>0</v>
@@ -23091,13 +23255,13 @@
     </row>
     <row r="95" spans="2:5">
       <c r="B95" s="7" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>1029</v>
+        <v>1094</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>1097</v>
       </c>
       <c r="E95" s="5">
         <v>0</v>
@@ -23105,13 +23269,13 @@
     </row>
     <row r="96" spans="2:5">
       <c r="B96" s="7" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>1035</v>
+        <v>1094</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>628</v>
+        <v>1098</v>
       </c>
       <c r="E96" s="5">
         <v>0</v>
@@ -23119,27 +23283,27 @@
     </row>
     <row r="97" spans="2:5">
       <c r="B97" s="7" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D97" s="22" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E97" s="23">
+        <v>1101</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E97" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:5">
       <c r="B98" s="7" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>942</v>
+        <v>1094</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>628</v>
+        <v>1100</v>
       </c>
       <c r="E98" s="5">
         <v>0</v>
@@ -23147,13 +23311,13 @@
     </row>
     <row r="99" spans="2:5">
       <c r="B99" s="7" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>1060</v>
+        <v>1161</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>1061</v>
+        <v>1095</v>
       </c>
       <c r="E99" s="5">
         <v>0</v>
@@ -23161,13 +23325,13 @@
     </row>
     <row r="100" spans="2:5">
       <c r="B100" s="7" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>628</v>
+        <v>1160</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>1096</v>
       </c>
       <c r="E100" s="5">
         <v>0</v>
@@ -23175,13 +23339,13 @@
     </row>
     <row r="101" spans="2:5">
       <c r="B101" s="7" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>644</v>
+        <v>1160</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>1097</v>
       </c>
       <c r="E101" s="5">
         <v>0</v>
@@ -23189,13 +23353,13 @@
     </row>
     <row r="102" spans="2:5">
       <c r="B102" s="7" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>1080</v>
+        <v>1160</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>1098</v>
       </c>
       <c r="E102" s="5">
         <v>0</v>
@@ -23203,13 +23367,13 @@
     </row>
     <row r="103" spans="2:5">
       <c r="B103" s="7" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>635</v>
+        <v>1160</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>1099</v>
       </c>
       <c r="E103" s="5">
         <v>0</v>
@@ -23217,13 +23381,13 @@
     </row>
     <row r="104" spans="2:5">
       <c r="B104" s="7" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>1062</v>
+        <v>1160</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>1063</v>
+        <v>1100</v>
       </c>
       <c r="E104" s="5">
         <v>0</v>
@@ -23231,13 +23395,13 @@
     </row>
     <row r="105" spans="2:5">
       <c r="B105" s="7" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>1086</v>
+        <v>1198</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>1087</v>
+        <v>644</v>
       </c>
       <c r="E105" s="5">
         <v>0</v>
@@ -23245,13 +23409,13 @@
     </row>
     <row r="106" spans="2:5">
       <c r="B106" s="7" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>1099</v>
+        <v>652</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>1100</v>
+        <v>653</v>
       </c>
       <c r="E106" s="5">
         <v>0</v>
@@ -23259,13 +23423,13 @@
     </row>
     <row r="107" spans="2:5">
       <c r="B107" s="7" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>1101</v>
+        <v>652</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>654</v>
       </c>
       <c r="E107" s="5">
         <v>0</v>
@@ -23273,41 +23437,41 @@
     </row>
     <row r="108" spans="2:5">
       <c r="B108" s="7" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E108" s="5">
+        <v>1101</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E108" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="2:5">
       <c r="B109" s="7" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E109" s="5">
+        <v>1101</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>939</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E109" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="2:5">
       <c r="B110" s="7" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>1099</v>
+        <v>626</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>1105</v>
+        <v>661</v>
       </c>
       <c r="E110" s="5">
         <v>0</v>
@@ -23315,13 +23479,13 @@
     </row>
     <row r="111" spans="2:5">
       <c r="B111" s="7" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>651</v>
+        <v>1024</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>644</v>
+        <v>1025</v>
       </c>
       <c r="E111" s="5">
         <v>0</v>
@@ -23329,55 +23493,55 @@
     </row>
     <row r="112" spans="2:5">
       <c r="B112" s="7" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="E112" s="5">
+        <v>1101</v>
+      </c>
+      <c r="C112" s="36" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D112" s="36" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E112" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="2:5">
       <c r="B113" s="7" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="E113" s="5">
+        <v>1101</v>
+      </c>
+      <c r="C113" s="36" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D113" s="36" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E113" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="2:5">
       <c r="B114" s="7" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D114" s="22" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E114" s="23">
+        <v>1102</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="E114" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="2:5">
       <c r="B115" s="7" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>940</v>
+        <v>1085</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>941</v>
+        <v>1172</v>
       </c>
       <c r="E115" s="23">
         <v>0</v>
@@ -23385,13 +23549,13 @@
     </row>
     <row r="116" spans="2:5">
       <c r="B116" s="7" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>626</v>
+        <v>940</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>661</v>
+        <v>628</v>
       </c>
       <c r="E116" s="5">
         <v>0</v>
@@ -23399,13 +23563,13 @@
     </row>
     <row r="117" spans="2:5">
       <c r="B117" s="7" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>1028</v>
+        <v>1056</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>1029</v>
+        <v>1057</v>
       </c>
       <c r="E117" s="5">
         <v>0</v>
@@ -23413,13 +23577,13 @@
     </row>
     <row r="118" spans="2:5">
       <c r="B118" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>963</v>
+        <v>1102</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>1193</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E118" s="5">
         <v>0</v>
@@ -23427,13 +23591,13 @@
     </row>
     <row r="119" spans="2:5">
       <c r="B119" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>698</v>
+        <v>1102</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>1193</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>629</v>
+        <v>1194</v>
       </c>
       <c r="E119" s="5">
         <v>0</v>
@@ -23441,13 +23605,13 @@
     </row>
     <row r="120" spans="2:5">
       <c r="B120" s="7" t="s">
-        <v>630</v>
+        <v>1102</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>641</v>
+        <v>1058</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="E120" s="5">
         <v>0</v>
@@ -23455,13 +23619,13 @@
     </row>
     <row r="121" spans="2:5">
       <c r="B121" s="7" t="s">
-        <v>630</v>
+        <v>1102</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>629</v>
+        <v>1058</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>1075</v>
       </c>
       <c r="E121" s="5">
         <v>0</v>
@@ -23469,13 +23633,13 @@
     </row>
     <row r="122" spans="2:5">
       <c r="B122" s="7" t="s">
-        <v>630</v>
+        <v>1102</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>629</v>
+        <v>1058</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>635</v>
       </c>
       <c r="E122" s="5">
         <v>0</v>
@@ -23483,13 +23647,13 @@
     </row>
     <row r="123" spans="2:5">
       <c r="B123" s="7" t="s">
-        <v>630</v>
+        <v>1102</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>695</v>
+        <v>1058</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>629</v>
+        <v>1059</v>
       </c>
       <c r="E123" s="5">
         <v>0</v>
@@ -23497,97 +23661,97 @@
     </row>
     <row r="124" spans="2:5">
       <c r="B124" s="7" t="s">
-        <v>630</v>
+        <v>1102</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>1131</v>
+        <v>1081</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>629</v>
+        <v>1082</v>
       </c>
       <c r="E124" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="2:5">
-      <c r="B125" s="7" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E125" s="5">
+      <c r="B125" s="39" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C125" s="39" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D125" s="39" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E125" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="2:5">
-      <c r="B126" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="E126" s="5">
+      <c r="B126" s="39" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C126" s="39" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D126" s="39" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E126" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="2:5">
-      <c r="B127" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="E127" s="5">
+      <c r="B127" s="39" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C127" s="39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D127" s="39" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E127" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="2:5">
-      <c r="B128" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="E128" s="5">
+      <c r="B128" s="39" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C128" s="39" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D128" s="39" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E128" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="2:5">
-      <c r="B129" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="E129" s="5">
+      <c r="B129" s="39" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C129" s="39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D129" s="39" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E129" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="2:5">
       <c r="B130" s="7" t="s">
-        <v>656</v>
+        <v>1102</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>660</v>
+        <v>1094</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>697</v>
+        <v>1095</v>
       </c>
       <c r="E130" s="5">
         <v>0</v>
@@ -23595,13 +23759,13 @@
     </row>
     <row r="131" spans="2:5">
       <c r="B131" s="7" t="s">
-        <v>656</v>
+        <v>1102</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>697</v>
+        <v>1094</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>1096</v>
       </c>
       <c r="E131" s="5">
         <v>0</v>
@@ -23609,13 +23773,13 @@
     </row>
     <row r="132" spans="2:5">
       <c r="B132" s="7" t="s">
-        <v>656</v>
+        <v>1102</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>697</v>
+        <v>1094</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>1097</v>
       </c>
       <c r="E132" s="5">
         <v>0</v>
@@ -23623,13 +23787,13 @@
     </row>
     <row r="133" spans="2:5">
       <c r="B133" s="7" t="s">
-        <v>656</v>
+        <v>1102</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>695</v>
+        <v>1094</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>697</v>
+        <v>1098</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
@@ -23637,13 +23801,13 @@
     </row>
     <row r="134" spans="2:5">
       <c r="B134" s="7" t="s">
-        <v>625</v>
+        <v>1102</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>626</v>
+        <v>1094</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>627</v>
+        <v>1100</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
@@ -23651,13 +23815,13 @@
     </row>
     <row r="135" spans="2:5">
       <c r="B135" s="7" t="s">
-        <v>1156</v>
+        <v>1102</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>1155</v>
+        <v>651</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
@@ -23665,13 +23829,13 @@
     </row>
     <row r="136" spans="2:5">
       <c r="B136" s="7" t="s">
-        <v>625</v>
+        <v>1102</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>1157</v>
+        <v>653</v>
       </c>
       <c r="E136" s="5">
         <v>0</v>
@@ -23679,13 +23843,13 @@
     </row>
     <row r="137" spans="2:5">
       <c r="B137" s="7" t="s">
-        <v>625</v>
+        <v>1102</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="E137" s="5">
         <v>0</v>
@@ -23693,41 +23857,41 @@
     </row>
     <row r="138" spans="2:5">
       <c r="B138" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>699</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="E138" s="5">
+        <v>1102</v>
+      </c>
+      <c r="C138" s="22" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D138" s="22" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E138" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="2:5">
       <c r="B139" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="E139" s="5">
+        <v>1102</v>
+      </c>
+      <c r="C139" s="22" t="s">
+        <v>939</v>
+      </c>
+      <c r="D139" s="22" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E139" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="2:5">
       <c r="B140" s="7" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>638</v>
+        <v>1102</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>626</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="E140" s="5">
         <v>0</v>
@@ -23735,55 +23899,55 @@
     </row>
     <row r="141" spans="2:5">
       <c r="B141" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>638</v>
+        <v>1102</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>1024</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>1046</v>
+        <v>1025</v>
       </c>
       <c r="E141" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="2:5">
-      <c r="B142" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E142" s="5">
+      <c r="B142" s="36" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C142" s="36" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D142" s="36" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E142" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="2:5">
-      <c r="B143" s="7" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E143" s="5">
+      <c r="B143" s="36" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C143" s="36" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D143" s="36" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E143" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="2:5">
       <c r="B144" s="7" t="s">
-        <v>1143</v>
+        <v>630</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>1147</v>
+        <v>959</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>629</v>
       </c>
       <c r="E144" s="5">
         <v>0</v>
@@ -23791,13 +23955,13 @@
     </row>
     <row r="145" spans="2:5">
       <c r="B145" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="E145" s="5">
         <v>0</v>
@@ -23805,13 +23969,13 @@
     </row>
     <row r="146" spans="2:5">
       <c r="B146" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>634</v>
+        <v>630</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>641</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="E146" s="5">
         <v>0</v>
@@ -23819,13 +23983,13 @@
     </row>
     <row r="147" spans="2:5">
       <c r="B147" s="7" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D147" s="9" t="s">
-        <v>1148</v>
+        <v>630</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>629</v>
       </c>
       <c r="E147" s="5">
         <v>0</v>
@@ -23833,13 +23997,13 @@
     </row>
     <row r="148" spans="2:5">
       <c r="B148" s="7" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D148" s="9" t="s">
-        <v>1133</v>
+        <v>630</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>629</v>
       </c>
       <c r="E148" s="5">
         <v>0</v>
@@ -23847,13 +24011,13 @@
     </row>
     <row r="149" spans="2:5">
       <c r="B149" s="7" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>1153</v>
+        <v>630</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>629</v>
       </c>
       <c r="E149" s="5">
         <v>0</v>
@@ -23861,13 +24025,13 @@
     </row>
     <row r="150" spans="2:5">
       <c r="B150" s="7" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D150" s="9" t="s">
-        <v>1149</v>
+        <v>630</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>629</v>
       </c>
       <c r="E150" s="5">
         <v>0</v>
@@ -23875,13 +24039,13 @@
     </row>
     <row r="151" spans="2:5">
       <c r="B151" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>977</v>
+        <v>1133</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>1132</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>978</v>
+        <v>1134</v>
       </c>
       <c r="E151" s="5">
         <v>0</v>
@@ -23889,13 +24053,13 @@
     </row>
     <row r="152" spans="2:5">
       <c r="B152" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="D152" s="9" t="s">
-        <v>643</v>
+        <v>696</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>697</v>
       </c>
       <c r="E152" s="5">
         <v>0</v>
@@ -23903,13 +24067,13 @@
     </row>
     <row r="153" spans="2:5">
       <c r="B153" s="7" t="s">
-        <v>993</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>994</v>
+        <v>656</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>658</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>995</v>
+        <v>697</v>
       </c>
       <c r="E153" s="5">
         <v>0</v>
@@ -23917,41 +24081,41 @@
     </row>
     <row r="154" spans="2:5">
       <c r="B154" s="7" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>1076</v>
+        <v>696</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>698</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>1078</v>
+        <v>697</v>
       </c>
       <c r="E154" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="2:5">
-      <c r="B155" s="33" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C155" s="34" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D155" s="33" t="s">
-        <v>633</v>
-      </c>
-      <c r="E155" s="34">
+      <c r="B155" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="E155" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="2:5">
       <c r="B156" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="D156" s="9" t="s">
-        <v>673</v>
+        <v>656</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>697</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
@@ -23959,13 +24123,13 @@
     </row>
     <row r="157" spans="2:5">
       <c r="B157" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="D157" s="9" t="s">
-        <v>673</v>
+        <v>656</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>697</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
@@ -23973,13 +24137,13 @@
     </row>
     <row r="158" spans="2:5">
       <c r="B158" s="7" t="s">
-        <v>967</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>968</v>
-      </c>
-      <c r="D158" s="9" t="s">
-        <v>969</v>
+        <v>656</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>697</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
@@ -23987,13 +24151,13 @@
     </row>
     <row r="159" spans="2:5">
       <c r="B159" s="7" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D159" s="9" t="s">
-        <v>673</v>
+        <v>656</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>697</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
@@ -24001,13 +24165,13 @@
     </row>
     <row r="160" spans="2:5">
       <c r="B160" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D160" s="9" t="s">
-        <v>1137</v>
+        <v>625</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>627</v>
       </c>
       <c r="E160" s="5">
         <v>0</v>
@@ -24015,13 +24179,13 @@
     </row>
     <row r="161" spans="2:5">
       <c r="B161" s="7" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D161" s="9" t="s">
-        <v>1160</v>
+        <v>1149</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>649</v>
       </c>
       <c r="E161" s="5">
         <v>0</v>
@@ -24029,13 +24193,13 @@
     </row>
     <row r="162" spans="2:5">
       <c r="B162" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="D162" s="9" t="s">
-        <v>686</v>
+        <v>625</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>1150</v>
       </c>
       <c r="E162" s="5">
         <v>0</v>
@@ -24043,13 +24207,13 @@
     </row>
     <row r="163" spans="2:5">
       <c r="B163" s="7" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D163" s="9" t="s">
-        <v>1038</v>
+        <v>625</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>650</v>
       </c>
       <c r="E163" s="5">
         <v>0</v>
@@ -24057,13 +24221,13 @@
     </row>
     <row r="164" spans="2:5">
       <c r="B164" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="D164" s="9" t="s">
-        <v>680</v>
+        <v>625</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>649</v>
       </c>
       <c r="E164" s="5">
         <v>0</v>
@@ -24071,13 +24235,13 @@
     </row>
     <row r="165" spans="2:5">
       <c r="B165" s="7" t="s">
-        <v>926</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="D165" s="9" t="s">
-        <v>678</v>
+        <v>625</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>649</v>
       </c>
       <c r="E165" s="5">
         <v>0</v>
@@ -24085,13 +24249,13 @@
     </row>
     <row r="166" spans="2:5">
       <c r="B166" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="D166" s="9" t="s">
-        <v>674</v>
+        <v>625</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>649</v>
       </c>
       <c r="E166" s="5">
         <v>0</v>
@@ -24099,13 +24263,13 @@
     </row>
     <row r="167" spans="2:5">
       <c r="B167" s="7" t="s">
-        <v>1024</v>
+        <v>1138</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D167" s="9" t="s">
-        <v>1025</v>
+        <v>638</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>633</v>
       </c>
       <c r="E167" s="5">
         <v>0</v>
@@ -24113,13 +24277,13 @@
     </row>
     <row r="168" spans="2:5">
       <c r="B168" s="7" t="s">
-        <v>1026</v>
+        <v>632</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="D168" s="9" t="s">
-        <v>684</v>
+        <v>638</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>1042</v>
       </c>
       <c r="E168" s="5">
         <v>0</v>
@@ -24127,13 +24291,13 @@
     </row>
     <row r="169" spans="2:5">
       <c r="B169" s="7" t="s">
-        <v>1026</v>
+        <v>632</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D169" s="9" t="s">
-        <v>674</v>
+        <v>638</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>1043</v>
       </c>
       <c r="E169" s="5">
         <v>0</v>
@@ -24141,13 +24305,13 @@
     </row>
     <row r="170" spans="2:5">
       <c r="B170" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="D170" s="9" t="s">
-        <v>688</v>
+        <v>1136</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>1135</v>
       </c>
       <c r="E170" s="5">
         <v>0</v>
@@ -24155,13 +24319,13 @@
     </row>
     <row r="171" spans="2:5">
       <c r="B171" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="D171" s="9" t="s">
-        <v>691</v>
+        <v>1136</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>1140</v>
       </c>
       <c r="E171" s="5">
         <v>0</v>
@@ -24169,13 +24333,13 @@
     </row>
     <row r="172" spans="2:5">
       <c r="B172" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="D172" s="9" t="s">
-        <v>691</v>
+        <v>632</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>635</v>
       </c>
       <c r="E172" s="5">
         <v>0</v>
@@ -24183,13 +24347,13 @@
     </row>
     <row r="173" spans="2:5">
       <c r="B173" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="D173" s="9" t="s">
-        <v>702</v>
+        <v>632</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>636</v>
       </c>
       <c r="E173" s="5">
         <v>0</v>
@@ -24197,13 +24361,13 @@
     </row>
     <row r="174" spans="2:5">
       <c r="B174" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>709</v>
+        <v>1116</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>1117</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>706</v>
+        <v>1141</v>
       </c>
       <c r="E174" s="5">
         <v>0</v>
@@ -24211,13 +24375,13 @@
     </row>
     <row r="175" spans="2:5">
       <c r="B175" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>707</v>
+        <v>1126</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>1144</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>706</v>
+        <v>1127</v>
       </c>
       <c r="E175" s="5">
         <v>0</v>
@@ -24225,13 +24389,13 @@
     </row>
     <row r="176" spans="2:5">
       <c r="B176" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>708</v>
+        <v>1143</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>1145</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>706</v>
+        <v>1146</v>
       </c>
       <c r="E176" s="5">
         <v>0</v>
@@ -24239,13 +24403,13 @@
     </row>
     <row r="177" spans="2:5">
       <c r="B177" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>962</v>
+        <v>1126</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>1147</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>1072</v>
+        <v>1142</v>
       </c>
       <c r="E177" s="5">
         <v>0</v>
@@ -24253,13 +24417,13 @@
     </row>
     <row r="178" spans="2:5">
       <c r="B178" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="D178" s="9" t="s">
-        <v>965</v>
+        <v>632</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>974</v>
       </c>
       <c r="E178" s="5">
         <v>0</v>
@@ -24267,13 +24431,13 @@
     </row>
     <row r="179" spans="2:5">
       <c r="B179" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>966</v>
+        <v>632</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>988</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>965</v>
+        <v>643</v>
       </c>
       <c r="E179" s="5">
         <v>0</v>
@@ -24281,13 +24445,13 @@
     </row>
     <row r="180" spans="2:5">
       <c r="B180" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D180" s="9" t="s">
-        <v>965</v>
+        <v>989</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>991</v>
       </c>
       <c r="E180" s="5">
         <v>0</v>
@@ -24295,20 +24459,454 @@
     </row>
     <row r="181" spans="2:5">
       <c r="B181" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>1124</v>
+        <v>989</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>990</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>1125</v>
+        <v>1179</v>
       </c>
       <c r="E181" s="5">
         <v>0</v>
       </c>
     </row>
+    <row r="182" spans="2:5">
+      <c r="B182" s="7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E182" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5">
+      <c r="B183" s="33" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C183" s="34" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D183" s="33" t="s">
+        <v>633</v>
+      </c>
+      <c r="E183" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5">
+      <c r="B184" s="33" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C184" s="34" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D184" s="34" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E184" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5">
+      <c r="B185" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="E185" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5">
+      <c r="B186" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="E186" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5">
+      <c r="B187" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="E187" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5">
+      <c r="B188" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E188" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5">
+      <c r="B189" s="7" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="E189" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5">
+      <c r="B190" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E190" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5">
+      <c r="B191" s="7" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E191" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5">
+      <c r="B192" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E192" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5">
+      <c r="B193" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="E193" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5">
+      <c r="B194" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E194" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5">
+      <c r="B195" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="E195" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5">
+      <c r="B196" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="E196" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5">
+      <c r="B197" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="E197" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5">
+      <c r="B198" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E198" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5">
+      <c r="B199" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="E199" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5">
+      <c r="B200" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="E200" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5">
+      <c r="B201" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="E201" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5">
+      <c r="B202" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="E202" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5">
+      <c r="B203" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="D203" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="E203" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5">
+      <c r="B204" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="E204" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5">
+      <c r="B205" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="E205" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5">
+      <c r="B206" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="E206" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5">
+      <c r="B207" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="E207" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5">
+      <c r="B208" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E208" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5">
+      <c r="B209" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="E209" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5">
+      <c r="B210" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="E210" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5">
+      <c r="B211" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="E211" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5">
+      <c r="B212" s="7" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E212" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B3:E180"/>
+  <autoFilter ref="B3:E211"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24593,7 +25191,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>34</v>
@@ -24605,7 +25203,7 @@
         <v>49</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>44</v>
@@ -24826,7 +25424,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="24" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>53</v>
@@ -24843,53 +25441,53 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>952</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="26" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="26" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
   </sheetData>
